--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B12819-C08E-46FC-9A0E-56D55B3A14F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CED44B-D94F-41B0-AB07-443545A93E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="986">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="988">
   <si>
     <t>Articulo</t>
   </si>
@@ -2987,6 +2987,12 @@
   </si>
   <si>
     <t xml:space="preserve">toallon fantasia liso </t>
+  </si>
+  <si>
+    <t>talle 2</t>
+  </si>
+  <si>
+    <t>talle 1</t>
   </si>
 </sst>
 </file>
@@ -4834,6 +4840,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -6886,6 +6901,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -9739,6 +9763,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -10278,7 +10311,7 @@
                   <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>780</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>390</c:v>
@@ -10302,28 +10335,28 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>340</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>360</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>498</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>498</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>540</c:v>
@@ -10341,10 +10374,10 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>890</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>290</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>585</c:v>
@@ -10359,13 +10392,13 @@
                   <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>890</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>790</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>195</c:v>
@@ -12606,6 +12639,15 @@
                   </c:pt>
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
                   </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
@@ -14873,6 +14915,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -16925,6 +16976,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -19778,6 +19838,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -20317,7 +20386,7 @@
                   <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>780</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>390</c:v>
@@ -20341,28 +20410,28 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>340</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>360</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>498</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>498</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>540</c:v>
@@ -20380,10 +20449,10 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>890</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>290</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>585</c:v>
@@ -20398,13 +20467,13 @@
                   <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>890</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>790</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>195</c:v>
@@ -22645,6 +22714,15 @@
                   </c:pt>
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
                   </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
@@ -24912,6 +24990,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -26964,6 +27051,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -29817,6 +29913,15 @@
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
                   </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
+                  </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
                   </c:pt>
@@ -30356,7 +30461,7 @@
                   <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>780</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>390</c:v>
@@ -30380,28 +30485,28 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>340</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>360</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>430</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>498</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>498</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>540</c:v>
@@ -30419,10 +30524,10 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>890</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>290</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>585</c:v>
@@ -30437,13 +30542,13 @@
                   <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>890</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>790</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>195</c:v>
@@ -32684,6 +32789,15 @@
                   </c:pt>
                   <c:pt idx="55">
                     <c:v>3 MESES A 1 AÑO</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>talle 1</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>talle 2</c:v>
                   </c:pt>
                   <c:pt idx="59">
                     <c:v>TALLE 2</c:v>
@@ -33518,6 +33632,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -35000,6 +35123,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -36785,6 +36917,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -37508,6 +37649,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -39263,6 +39413,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -39816,7 +39975,7 @@
                   <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>780</c:v>
+                  <c:v>790</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>390</c:v>
@@ -39840,28 +39999,28 @@
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>340</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>360</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>430</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>430</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>498</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>498</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>540</c:v>
@@ -39879,10 +40038,10 @@
                   <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>890</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>290</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>585</c:v>
@@ -39897,13 +40056,13 @@
                   <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>890</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>710</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>790</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>195</c:v>
@@ -40638,7 +40797,7 @@
                   <c:v>1490</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>2380</c:v>
+                  <c:v>3090</c:v>
                 </c:pt>
                 <c:pt idx="387">
                   <c:v>1930</c:v>
@@ -40943,6 +41102,15 @@
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
+                </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
                 </c:pt>
@@ -41674,6 +41842,15 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3 MESES A 1 AÑO</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>talle 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>talle 2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>TALLE 2</c:v>
@@ -42861,8 +43038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A520" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F525" sqref="F525"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A420" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F430" sqref="F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43846,7 +44023,7 @@
         <v>40</v>
       </c>
       <c r="F65" s="1">
-        <v>780</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -43976,7 +44153,7 @@
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1">
-        <v>340</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -43992,11 +44169,13 @@
         <v>37</v>
       </c>
       <c r="F74" s="1">
-        <v>360</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1" t="s">
+        <v>987</v>
+      </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
       </c>
@@ -44008,11 +44187,13 @@
         <v>2</v>
       </c>
       <c r="F75" s="1">
-        <v>430</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1" t="s">
+        <v>987</v>
+      </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
       </c>
@@ -44028,7 +44209,9 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>986</v>
+      </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
       </c>
@@ -44040,7 +44223,7 @@
         <v>500</v>
       </c>
       <c r="F77" s="1">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -44058,7 +44241,7 @@
         <v>520</v>
       </c>
       <c r="F78" s="1">
-        <v>430</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -44076,7 +44259,7 @@
         <v>6</v>
       </c>
       <c r="F79" s="1">
-        <v>498</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -44094,7 +44277,7 @@
         <v>23</v>
       </c>
       <c r="F80" s="1">
-        <v>498</v>
+        <v>590</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -44186,7 +44369,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="1">
-        <v>890</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -44200,7 +44383,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="1">
-        <v>290</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -44268,7 +44451,7 @@
         <v>37</v>
       </c>
       <c r="F92" s="1">
-        <v>890</v>
+        <v>860</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -44296,7 +44479,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>790</v>
+        <v>980</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -49126,7 +49309,7 @@
         <v>33</v>
       </c>
       <c r="F430" s="1">
-        <v>2380</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -49896,7 +50079,7 @@
         <v>2</v>
       </c>
       <c r="F482" s="1">
-        <v>1960</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -49913,9 +50096,7 @@
       <c r="E483" s="1">
         <v>4</v>
       </c>
-      <c r="F483" s="1">
-        <v>1960</v>
-      </c>
+      <c r="F483" s="1"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
@@ -49931,9 +50112,7 @@
       <c r="E484" s="1">
         <v>2</v>
       </c>
-      <c r="F484" s="1">
-        <v>1960</v>
-      </c>
+      <c r="F484" s="1"/>
     </row>
     <row r="485" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
@@ -49949,9 +50128,7 @@
       <c r="E485" s="1">
         <v>1</v>
       </c>
-      <c r="F485" s="1">
-        <v>1960</v>
-      </c>
+      <c r="F485" s="1"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
@@ -49975,9 +50152,7 @@
       <c r="E487" s="1">
         <v>2</v>
       </c>
-      <c r="F487" s="1">
-        <v>1960</v>
-      </c>
+      <c r="F487" s="1"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
@@ -51018,7 +51193,7 @@
         <v>3</v>
       </c>
       <c r="F571" s="1">
-        <v>1090</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B6DE1E-B75E-4FEF-974C-5C4EBE9943A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7479DB-05C9-4809-BA6D-0EC19BC37739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="999">
   <si>
     <t>Articulo</t>
   </si>
@@ -3014,6 +3014,18 @@
   </si>
   <si>
     <t>edredon 2 1/2 love and home</t>
+  </si>
+  <si>
+    <t>cortina tropical ambiente emmanuel</t>
+  </si>
+  <si>
+    <t>cortina tropical ambiente picasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edredon flanel corderito </t>
+  </si>
+  <si>
+    <t>edredon con corderito city blanco 1 plaza 1/2</t>
   </si>
 </sst>
 </file>
@@ -3378,8 +3390,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -5478,8 +5502,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -7463,8 +7499,20 @@
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -8406,8 +8454,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -10391,8 +10451,20 @@
                 <c:pt idx="11">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1200</c:v>
@@ -11349,8 +11421,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -13663,8 +13747,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -15763,8 +15859,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -17748,8 +17856,20 @@
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -18691,8 +18811,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -20676,8 +20808,20 @@
                 <c:pt idx="11">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1200</c:v>
@@ -21634,8 +21778,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -23948,8 +24104,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -26048,8 +26216,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -28033,8 +28213,20 @@
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -28976,8 +29168,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -30961,8 +31165,20 @@
                 <c:pt idx="11">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="13">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1200</c:v>
@@ -31919,8 +32135,20 @@
                   <c:pt idx="11">
                     <c:v>cheer up jogging </c:v>
                   </c:pt>
+                  <c:pt idx="12">
+                    <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                  </c:pt>
                   <c:pt idx="13">
                     <c:v>pañueos</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>edredon flanel corderito </c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>cortina tropical ambiente picasso</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>cortina tropical ambiente emmanuel</c:v>
                   </c:pt>
                   <c:pt idx="17">
                     <c:v>boxer kolper niño</c:v>
@@ -35647,8 +35875,20 @@
                 <c:pt idx="29">
                   <c:v>cheer up jogging </c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>pañueos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>edredon flanel corderito </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cortina tropical ambiente picasso</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>cortina tropical ambiente emmanuel</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>boxer kolper niño</c:v>
@@ -37480,8 +37720,20 @@
                 <c:pt idx="29">
                   <c:v>cheer up jogging </c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>edredon con corderito city blanco 1 plaza 1/2</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>pañueos</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>edredon flanel corderito </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>cortina tropical ambiente picasso</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>cortina tropical ambiente emmanuel</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>boxer kolper niño</c:v>
@@ -38221,8 +38473,20 @@
                 <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
@@ -40021,8 +40285,20 @@
                 <c:pt idx="29">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1200</c:v>
@@ -41619,7 +41895,7 @@
                   <c:v>3190</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>15480</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>1460</c:v>
@@ -41746,8 +42022,20 @@
                 <c:pt idx="29">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1200</c:v>
@@ -42496,8 +42784,20 @@
                 <c:pt idx="29">
                   <c:v>3690</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>24200</c:v>
+                </c:pt>
                 <c:pt idx="31">
                   <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22360</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1200</c:v>
@@ -43836,8 +44136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1004" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1013" sqref="C1013:D1013"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A462" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F471" sqref="F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44299,10 +44599,16 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>998</v>
+      </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>24200</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
@@ -44317,22 +44623,40 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>997</v>
+      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>22360</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="6"/>
+      <c r="C34" s="6" t="s">
+        <v>996</v>
+      </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5300</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>995</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5300</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C36" s="6" t="s">
@@ -50775,7 +51099,7 @@
         <v>1</v>
       </c>
       <c r="F471" s="1">
-        <v>15480</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -52729,7 +53053,7 @@
         <v>4</v>
       </c>
       <c r="F628" s="1">
-        <v>9080</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -56576,7 +56900,7 @@
         <v>3</v>
       </c>
       <c r="F1015" s="1">
-        <v>10750</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
@@ -56589,7 +56913,7 @@
         <v>1</v>
       </c>
       <c r="F1016" s="1">
-        <v>11380</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
@@ -56602,7 +56926,7 @@
         <v>1</v>
       </c>
       <c r="F1017" s="1">
-        <v>8980</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
@@ -56615,7 +56939,7 @@
         <v>2</v>
       </c>
       <c r="F1018" s="1">
-        <v>10180</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
@@ -56628,7 +56952,7 @@
         <v>2</v>
       </c>
       <c r="F1019" s="1">
-        <v>11150</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
@@ -56641,7 +56965,7 @@
         <v>4</v>
       </c>
       <c r="F1020" s="1">
-        <v>8990</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
@@ -56654,7 +56978,7 @@
         <v>6</v>
       </c>
       <c r="F1021" s="1">
-        <v>9330</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -56667,7 +56991,7 @@
         <v>2</v>
       </c>
       <c r="F1022" s="1">
-        <v>9950</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
@@ -58753,7 +59077,7 @@
         <v>1</v>
       </c>
       <c r="F1198" s="1">
-        <v>15380</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="1199" spans="2:6" x14ac:dyDescent="0.25">
@@ -58766,7 +59090,7 @@
         <v>2</v>
       </c>
       <c r="F1199" s="1">
-        <v>12580</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1200" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E2621D-80D7-4602-8F05-FE6DA004930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA83AB7-0BDD-418B-9264-3FC7015E3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44160,8 +44160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A540" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F557" sqref="F557"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A685" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F699" sqref="F699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53884,7 +53884,7 @@
         <v>2</v>
       </c>
       <c r="F694" s="1">
-        <v>7550</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
@@ -53898,7 +53898,7 @@
         <v>23</v>
       </c>
       <c r="F695" s="1">
-        <v>7300</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
@@ -53912,7 +53912,7 @@
         <v>4</v>
       </c>
       <c r="F696" s="1">
-        <v>7100</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -53926,7 +53926,7 @@
         <v>17</v>
       </c>
       <c r="F697" s="1">
-        <v>6900</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
@@ -53940,7 +53940,7 @@
         <v>4</v>
       </c>
       <c r="F698" s="1">
-        <v>6900</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
@@ -53954,7 +53954,7 @@
         <v>1</v>
       </c>
       <c r="F699" s="1">
-        <v>8450</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA83AB7-0BDD-418B-9264-3FC7015E3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7445B2-64B0-4056-9747-D9478BCE8DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AABCFD5-4C7E-4950-A3F5-326FADC640A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC9694B-2D60-4976-9CF7-2A8203ABA582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44241,8 +44241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A118" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A618" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F628" sqref="F628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53234,7 +53234,7 @@
         <v>4</v>
       </c>
       <c r="F628" s="1">
-        <v>19000</v>
+        <v>14900</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8801103-9C59-43E1-8F0D-BF98643A5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CE0F97-6B99-427D-B942-83E0A3473D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8456,7 +8456,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -11429,7 +11429,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -18831,7 +18831,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -21804,7 +21804,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -29206,7 +29206,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -32179,7 +32179,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -40397,7 +40397,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -42137,7 +42137,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -42902,7 +42902,7 @@
                   <c:v>17800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2980</c:v>
+                  <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9915</c:v>
@@ -44328,8 +44328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A609" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F615" sqref="F615"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A512" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F523" sqref="F523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44431,7 +44431,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="1">
-        <v>2980</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -51879,7 +51879,7 @@
         <v>28</v>
       </c>
       <c r="F513" s="1">
-        <v>2800</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -51999,7 +51999,7 @@
         <v>45</v>
       </c>
       <c r="F521" s="1">
-        <v>1650</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
@@ -52015,7 +52015,7 @@
         <v>18</v>
       </c>
       <c r="F522" s="1">
-        <v>2690</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
@@ -52031,7 +52031,7 @@
         <v>93</v>
       </c>
       <c r="F523" s="1">
-        <v>2250</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C7D167-48B4-4CF5-916D-D223AE51A6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355EA59-BA7A-42FC-A390-564F7A7C3AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11403,7 +11403,7 @@
                   <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>7980</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21778,7 +21778,7 @@
                   <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>7980</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32153,7 +32153,7 @@
                   <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>7980</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41910,7 +41910,7 @@
                   <c:v>8750</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>7980</c:v>
+                  <c:v>8990</c:v>
                 </c:pt>
                 <c:pt idx="293">
                   <c:v>8750</c:v>
@@ -44337,8 +44337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A722" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F726" sqref="F726"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1006" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1015" sqref="C1015:D1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49585,7 +49585,7 @@
         <v>25</v>
       </c>
       <c r="F336" s="1">
-        <v>7980</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -54726,7 +54726,7 @@
         <v>5</v>
       </c>
       <c r="F762" s="1">
-        <v>7980</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="763" spans="2:6" x14ac:dyDescent="0.25">
@@ -58305,7 +58305,7 @@
         <v>12</v>
       </c>
       <c r="F1091" s="1">
-        <v>7600</v>
+        <v>8990</v>
       </c>
     </row>
     <row r="1092" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3355EA59-BA7A-42FC-A390-564F7A7C3AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C74AD-AE27-4ED7-82A5-918BE5925ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44337,8 +44337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1006" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C1015" sqref="C1015:D1015"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A712" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F727" sqref="F727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54398,7 +54398,7 @@
         <v>58</v>
       </c>
       <c r="F722" s="1">
-        <v>8180</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
@@ -54465,7 +54465,7 @@
         <v>7</v>
       </c>
       <c r="F727" s="1">
-        <v>8980</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="728" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372C74AD-AE27-4ED7-82A5-918BE5925ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72DA37-5160-40A2-9ED0-62EA36A0B275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Gráfico4" sheetId="4" r:id="rId4"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1045">
   <si>
     <t>Articulo</t>
   </si>
@@ -3155,6 +3155,15 @@
   </si>
   <si>
     <t>blazer engomado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">especial buzo canguro nike </t>
+  </si>
+  <si>
+    <t>especial buzo cuello redondo R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jogging especial frizado nike </t>
   </si>
 </sst>
 </file>
@@ -44337,8 +44346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A712" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F727" sqref="F727"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1037" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F1042" sqref="F1042"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57587,21 +57596,42 @@
     </row>
     <row r="1040" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1040" s="1"/>
-      <c r="C1040" s="6"/>
+      <c r="C1040" s="6" t="s">
+        <v>1042</v>
+      </c>
       <c r="D1040" s="6"/>
-      <c r="F1040" s="1"/>
+      <c r="E1040">
+        <v>1</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>11600</v>
+      </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
-      <c r="C1041" s="6"/>
+      <c r="C1041" s="6" t="s">
+        <v>1043</v>
+      </c>
       <c r="D1041" s="6"/>
-      <c r="F1041" s="1"/>
+      <c r="E1041">
+        <v>1</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>11000</v>
+      </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1042" s="1"/>
-      <c r="C1042" s="6"/>
+      <c r="C1042" s="6" t="s">
+        <v>1044</v>
+      </c>
       <c r="D1042" s="6"/>
-      <c r="F1042" s="1"/>
+      <c r="E1042">
+        <v>1</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>9600</v>
+      </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1043" s="1" t="s">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75DA78-B3A4-487F-BBE7-85ABD90CEF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0C222-1679-4845-BE91-82736B224D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44346,8 +44346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A859" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F869" sqref="F869"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A502" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F513" sqref="F513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51897,7 +51897,7 @@
         <v>28</v>
       </c>
       <c r="F513" s="1">
-        <v>4750</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -52321,7 +52321,7 @@
         <v>1</v>
       </c>
       <c r="F543" s="1">
-        <v>2980</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
@@ -57089,7 +57089,7 @@
         <v>5</v>
       </c>
       <c r="F1004" s="1">
-        <v>59800</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E07FD3-A88B-4E55-9063-024FF1C3C6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910AE47A-A078-425B-B444-89800FBC9AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8483,10 +8483,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -10581,7 +10581,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5090</c:v>
@@ -11456,10 +11456,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -18858,10 +18858,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -20956,7 +20956,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5090</c:v>
@@ -21831,10 +21831,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -29233,10 +29233,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -31331,7 +31331,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5090</c:v>
@@ -32206,10 +32206,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -40424,10 +40424,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -40466,7 +40466,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5090</c:v>
@@ -42164,10 +42164,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -42206,7 +42206,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5090</c:v>
@@ -42929,10 +42929,10 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5480</c:v>
+                  <c:v>6050</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5480</c:v>
+                  <c:v>6290</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4580</c:v>
@@ -42971,7 +42971,7 @@
                   <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9950</c:v>
+                  <c:v>9850</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>5090</c:v>
@@ -44347,7 +44347,7 @@
   <dimension ref="A1:J2436"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:D24"/>
+      <selection activeCell="C27" sqref="C27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44496,7 +44496,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>5480</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -44514,7 +44514,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>5480</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -44721,7 +44721,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1">
-        <v>9950</v>
+        <v>9850</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -57152,7 +57152,7 @@
         <v>8</v>
       </c>
       <c r="F1008" s="1">
-        <v>8560</v>
+        <v>7820</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
@@ -57786,7 +57786,7 @@
         <v>4</v>
       </c>
       <c r="F1053" s="1">
-        <v>7990</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
@@ -57804,7 +57804,7 @@
         <v>1</v>
       </c>
       <c r="F1054" s="1">
-        <v>7480</v>
+        <v>7690</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
@@ -57822,7 +57822,7 @@
         <v>1</v>
       </c>
       <c r="F1055" s="1">
-        <v>5980</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
@@ -57840,7 +57840,7 @@
         <v>1</v>
       </c>
       <c r="F1056" s="1">
-        <v>4980</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
@@ -57858,7 +57858,7 @@
         <v>11</v>
       </c>
       <c r="F1057" s="1">
-        <v>5980</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
@@ -57876,7 +57876,7 @@
         <v>4</v>
       </c>
       <c r="F1058" s="1">
-        <v>5300</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
@@ -57894,7 +57894,7 @@
         <v>7</v>
       </c>
       <c r="F1059" s="1">
-        <v>5800</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
@@ -57912,7 +57912,7 @@
         <v>20</v>
       </c>
       <c r="F1060" s="1">
-        <v>5280</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
@@ -57930,7 +57930,7 @@
         <v>7</v>
       </c>
       <c r="F1061" s="1">
-        <v>5480</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
@@ -57966,7 +57966,7 @@
         <v>12</v>
       </c>
       <c r="F1063" s="1">
-        <v>5480</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
@@ -57984,7 +57984,7 @@
         <v>11</v>
       </c>
       <c r="F1064" s="1">
-        <v>6180</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
@@ -58002,7 +58002,7 @@
         <v>1</v>
       </c>
       <c r="F1065" s="1">
-        <v>5480</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
@@ -58020,7 +58020,7 @@
         <v>3</v>
       </c>
       <c r="F1066" s="1">
-        <v>5480</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
@@ -58038,7 +58038,7 @@
         <v>22</v>
       </c>
       <c r="F1067" s="1">
-        <v>5480</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
@@ -58056,7 +58056,7 @@
         <v>20</v>
       </c>
       <c r="F1068" s="1">
-        <v>6180</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
@@ -58074,7 +58074,7 @@
         <v>19</v>
       </c>
       <c r="F1069" s="1">
-        <v>5980</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
@@ -58092,7 +58092,7 @@
         <v>2</v>
       </c>
       <c r="F1070" s="1">
-        <v>6180</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
@@ -61131,7 +61131,7 @@
         <v>3</v>
       </c>
       <c r="F1328" s="1">
-        <v>6580</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.25">
@@ -61162,7 +61162,7 @@
         <v>5</v>
       </c>
       <c r="F1330" s="1">
-        <v>6380</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="1331" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910AE47A-A078-425B-B444-89800FBC9AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2964E-95FD-4433-A633-8EB8010AB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1044">
   <si>
     <t>Articulo</t>
   </si>
@@ -2141,9 +2141,6 @@
   </si>
   <si>
     <t>21 al 26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 34 </t>
   </si>
   <si>
     <t xml:space="preserve">voile vual </t>
@@ -10653,10 +10650,10 @@
                   <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2650</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2100</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2450</c:v>
@@ -21028,10 +21025,10 @@
                   <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2650</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2100</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2450</c:v>
@@ -31403,10 +31400,10 @@
                   <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2650</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2100</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2450</c:v>
@@ -41160,10 +41157,10 @@
                   <c:v>1750</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2650</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2100</c:v>
+                  <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2450</c:v>
@@ -44346,8 +44343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D27"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44810,7 +44807,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44834,7 +44831,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44846,7 +44843,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -44858,7 +44855,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -44937,7 +44934,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -45077,7 +45074,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="1">
-        <v>2650</v>
+        <v>2960</v>
       </c>
       <c r="G48" s="1"/>
     </row>
@@ -45096,7 +45093,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="1">
-        <v>2100</v>
+        <v>2280</v>
       </c>
       <c r="G49" s="1"/>
     </row>
@@ -45512,7 +45509,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>86</v>
@@ -45530,7 +45527,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>86</v>
@@ -45548,7 +45545,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>105</v>
@@ -46062,7 +46059,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1"/>
@@ -46100,7 +46097,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -48214,7 +48211,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -48228,7 +48225,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48959,7 +48956,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -48989,7 +48986,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -49079,7 +49076,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -49213,7 +49210,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -51608,7 +51605,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51824,7 +51821,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -51864,7 +51861,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -52070,7 +52067,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -52098,7 +52095,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -52168,7 +52165,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -52336,7 +52333,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52364,7 +52361,7 @@
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D547" s="6"/>
       <c r="E547" s="1">
@@ -52378,7 +52375,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52392,7 +52389,7 @@
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D549" s="6"/>
       <c r="E549" s="1">
@@ -52406,7 +52403,7 @@
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D550" s="6"/>
       <c r="E550" s="1">
@@ -52420,7 +52417,7 @@
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D551" s="6"/>
       <c r="E551" s="1">
@@ -52434,7 +52431,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52448,7 +52445,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52462,7 +52459,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52476,7 +52473,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D555" s="6"/>
       <c r="E555" s="1">
@@ -52490,7 +52487,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52504,7 +52501,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52518,7 +52515,7 @@
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D558" s="6"/>
       <c r="E558" s="1">
@@ -52996,7 +52993,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -53162,7 +53159,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -53176,7 +53173,7 @@
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D616" s="6"/>
       <c r="E616" s="1">
@@ -53282,7 +53279,7 @@
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D623" s="6"/>
       <c r="E623" s="1">
@@ -53328,7 +53325,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -53341,7 +53338,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>502</v>
@@ -53374,7 +53371,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -53388,7 +53385,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -53402,7 +53399,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D631" s="6"/>
       <c r="E631" s="1">
@@ -54426,7 +54423,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -54439,7 +54436,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54452,7 +54449,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -55607,7 +55604,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -56856,7 +56853,7 @@
     <row r="977" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B977" s="1"/>
       <c r="C977" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D977" s="6"/>
       <c r="E977">
@@ -57159,7 +57156,9 @@
       <c r="A1009" t="s">
         <v>14</v>
       </c>
-      <c r="B1009" s="1"/>
+      <c r="B1009" s="1">
+        <v>603</v>
+      </c>
       <c r="C1009" s="6" t="s">
         <v>15</v>
       </c>
@@ -57167,7 +57166,9 @@
       <c r="E1009">
         <v>18</v>
       </c>
-      <c r="F1009" s="1"/>
+      <c r="F1009" s="1">
+        <v>6050</v>
+      </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
@@ -57601,7 +57602,7 @@
     <row r="1040" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1040" s="1"/>
       <c r="C1040" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D1040" s="6"/>
       <c r="E1040">
@@ -57614,7 +57615,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -57627,7 +57628,7 @@
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1042" s="1"/>
       <c r="C1042" s="6" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D1042" s="6"/>
       <c r="E1042">
@@ -58064,7 +58065,7 @@
         <v>9125</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="C1069" s="6" t="s">
         <v>15</v>
@@ -58082,7 +58083,7 @@
         <v>9135</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="C1070" s="6" t="s">
         <v>15</v>
@@ -58098,7 +58099,7 @@
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1071" s="1"/>
       <c r="C1071" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1071" s="6"/>
       <c r="E1071">
@@ -58111,7 +58112,7 @@
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1072" s="1"/>
       <c r="C1072" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1072" s="6"/>
       <c r="E1072">
@@ -58124,7 +58125,7 @@
     <row r="1073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1073" s="1"/>
       <c r="C1073" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1073" s="6"/>
       <c r="E1073">
@@ -58143,7 +58144,7 @@
     <row r="1075" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1075" s="1"/>
       <c r="C1075" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1075" s="6"/>
       <c r="E1075">
@@ -58156,7 +58157,7 @@
     <row r="1076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1076" s="1"/>
       <c r="C1076" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1076" s="6"/>
       <c r="E1076">
@@ -58169,7 +58170,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -58182,7 +58183,7 @@
     <row r="1078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1078" s="1"/>
       <c r="C1078" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1078" s="6"/>
       <c r="E1078">
@@ -58201,7 +58202,7 @@
     <row r="1080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1080" s="1"/>
       <c r="C1080" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1080" s="6"/>
       <c r="E1080">
@@ -58214,7 +58215,7 @@
     <row r="1081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1081" s="1"/>
       <c r="C1081" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1081" s="6"/>
       <c r="E1081">
@@ -58227,7 +58228,7 @@
     <row r="1082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1082" s="1"/>
       <c r="C1082" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D1082" s="6"/>
       <c r="E1082">
@@ -58240,7 +58241,7 @@
     <row r="1083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1083" s="1"/>
       <c r="C1083" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D1083" s="6"/>
       <c r="E1083">
@@ -58253,7 +58254,7 @@
     <row r="1084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1084" s="1"/>
       <c r="C1084" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1084" s="6"/>
       <c r="E1084">
@@ -58266,7 +58267,7 @@
     <row r="1085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1085" s="1"/>
       <c r="C1085" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1085" s="6"/>
       <c r="E1085">
@@ -58279,7 +58280,7 @@
     <row r="1086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1086" s="1"/>
       <c r="C1086" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1086" s="6"/>
       <c r="E1086">
@@ -58292,7 +58293,7 @@
     <row r="1087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1087" s="1"/>
       <c r="C1087" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1087" s="6"/>
       <c r="E1087">
@@ -58305,7 +58306,7 @@
     <row r="1088" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1088" s="1"/>
       <c r="C1088" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1088" s="6"/>
       <c r="E1088">
@@ -58329,10 +58330,10 @@
     </row>
     <row r="1091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C1091" s="6" t="s">
         <v>721</v>
-      </c>
-      <c r="C1091" s="6" t="s">
-        <v>722</v>
       </c>
       <c r="D1091" s="6"/>
       <c r="E1091">
@@ -58347,7 +58348,7 @@
         <v>330</v>
       </c>
       <c r="C1092" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1092" s="6"/>
       <c r="E1092">
@@ -58362,7 +58363,7 @@
         <v>371</v>
       </c>
       <c r="C1093" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1093" s="6"/>
       <c r="E1093">
@@ -58377,7 +58378,7 @@
         <v>481</v>
       </c>
       <c r="C1094" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1094" s="6"/>
       <c r="E1094">
@@ -58392,7 +58393,7 @@
         <v>309</v>
       </c>
       <c r="C1095" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1095" s="6"/>
       <c r="E1095">
@@ -58407,7 +58408,7 @@
         <v>349</v>
       </c>
       <c r="C1096" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1096" s="6"/>
       <c r="E1096">
@@ -58422,7 +58423,7 @@
         <v>469</v>
       </c>
       <c r="C1097" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1097" s="6"/>
       <c r="E1097">
@@ -58437,7 +58438,7 @@
         <v>377</v>
       </c>
       <c r="C1098" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1098" s="6"/>
       <c r="E1098">
@@ -58449,10 +58450,10 @@
     </row>
     <row r="1099" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1099" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C1099" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1099" s="6"/>
       <c r="E1099">
@@ -58467,7 +58468,7 @@
         <v>228</v>
       </c>
       <c r="C1100" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1100" s="6"/>
       <c r="E1100">
@@ -58482,7 +58483,7 @@
         <v>964</v>
       </c>
       <c r="C1101" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1101" s="6"/>
       <c r="E1101">
@@ -58500,10 +58501,10 @@
     </row>
     <row r="1103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1103" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1103" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="C1103" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="D1103" s="6"/>
       <c r="E1103">
@@ -58516,7 +58517,7 @@
     <row r="1104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1104" s="1"/>
       <c r="C1104" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1104" s="6"/>
       <c r="E1104">
@@ -58528,10 +58529,10 @@
     </row>
     <row r="1105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1105" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C1105" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D1105" s="6"/>
       <c r="E1105">
@@ -58552,7 +58553,7 @@
         <v>467</v>
       </c>
       <c r="C1107" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1107" s="6"/>
       <c r="E1107">
@@ -58564,10 +58565,10 @@
     </row>
     <row r="1108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C1108" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1108" s="6"/>
       <c r="E1108">
@@ -58580,7 +58581,7 @@
     <row r="1109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1109" s="1"/>
       <c r="C1109" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1109" s="6"/>
       <c r="E1109">
@@ -58593,7 +58594,7 @@
     <row r="1110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1110" s="1"/>
       <c r="C1110" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1110" s="6"/>
       <c r="E1110">
@@ -58606,7 +58607,7 @@
     <row r="1111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1111" s="1"/>
       <c r="C1111" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D1111" s="6"/>
       <c r="E1111">
@@ -58619,7 +58620,7 @@
     <row r="1112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1112" s="1"/>
       <c r="C1112" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1112" s="6"/>
       <c r="E1112">
@@ -58632,7 +58633,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -58651,7 +58652,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -58664,7 +58665,7 @@
     <row r="1116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1116" s="1"/>
       <c r="C1116" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D1116" s="6"/>
       <c r="E1116">
@@ -58677,7 +58678,7 @@
     <row r="1117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1117" s="1"/>
       <c r="C1117" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D1117" s="6"/>
       <c r="E1117">
@@ -58690,7 +58691,7 @@
     <row r="1118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1118" s="1"/>
       <c r="C1118" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1118" s="6"/>
       <c r="E1118">
@@ -58709,7 +58710,7 @@
     <row r="1120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1120" s="1"/>
       <c r="C1120" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1120" s="6"/>
       <c r="E1120">
@@ -58728,7 +58729,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -58747,7 +58748,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -58760,7 +58761,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -58808,11 +58809,11 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B1132" s="1"/>
       <c r="C1132" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1132" s="6"/>
       <c r="E1132">
@@ -58824,11 +58825,11 @@
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1133" s="1"/>
       <c r="C1133" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D1133" s="6"/>
       <c r="E1133">
@@ -58844,7 +58845,7 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1134" s="6"/>
       <c r="E1134">
@@ -58860,7 +58861,7 @@
       </c>
       <c r="B1135" s="1"/>
       <c r="C1135" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D1135" s="6"/>
       <c r="E1135">
@@ -58873,7 +58874,7 @@
     <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1136" s="1"/>
       <c r="C1136" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D1136" s="6"/>
       <c r="E1136">
@@ -58886,7 +58887,7 @@
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1137" s="1"/>
       <c r="C1137" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D1137" s="6"/>
       <c r="E1137">
@@ -58898,11 +58899,11 @@
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B1138" s="1"/>
       <c r="C1138" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D1138" s="6"/>
       <c r="E1138">
@@ -58918,7 +58919,7 @@
       </c>
       <c r="B1139" s="1"/>
       <c r="C1139" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D1139" s="6"/>
       <c r="E1139">
@@ -58943,7 +58944,7 @@
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1142" s="1"/>
       <c r="C1142" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D1142" s="6"/>
       <c r="E1142">
@@ -58956,7 +58957,7 @@
     <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1143" s="1"/>
       <c r="C1143" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D1143" s="6"/>
       <c r="E1143">
@@ -58969,7 +58970,7 @@
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1144" s="1"/>
       <c r="C1144" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D1144" s="6"/>
       <c r="E1144">
@@ -58988,7 +58989,7 @@
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1146" s="1"/>
       <c r="C1146" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D1146" s="6"/>
       <c r="E1146">
@@ -59001,7 +59002,7 @@
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1147" s="1"/>
       <c r="C1147" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D1147" s="6"/>
       <c r="E1147">
@@ -59014,7 +59015,7 @@
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1148" s="1"/>
       <c r="C1148" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D1148" s="6"/>
       <c r="E1148">
@@ -59026,10 +59027,10 @@
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1149" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1149" s="6" t="s">
         <v>763</v>
-      </c>
-      <c r="C1149" s="6" t="s">
-        <v>764</v>
       </c>
       <c r="D1149" s="6"/>
       <c r="E1149">
@@ -59060,7 +59061,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D1153" s="6"/>
       <c r="E1153">
@@ -59073,7 +59074,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -59086,7 +59087,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -59099,7 +59100,7 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D1156" s="6"/>
       <c r="E1156">
@@ -59112,7 +59113,7 @@
     <row r="1157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1157" s="1"/>
       <c r="C1157" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D1157" s="6"/>
       <c r="E1157">
@@ -59123,7 +59124,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D1158" s="6"/>
       <c r="E1158">
@@ -59136,7 +59137,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D1159" s="6"/>
       <c r="E1159">
@@ -59149,7 +59150,7 @@
     <row r="1160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1160" s="1"/>
       <c r="C1160" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D1160" s="6"/>
       <c r="E1160">
@@ -59160,7 +59161,7 @@
     <row r="1161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1161" s="1"/>
       <c r="C1161" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D1161" s="6"/>
       <c r="E1161">
@@ -59173,7 +59174,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D1162" s="6"/>
       <c r="E1162">
@@ -59186,7 +59187,7 @@
     <row r="1163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1163" s="1"/>
       <c r="C1163" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D1163" s="6"/>
       <c r="E1163">
@@ -59199,7 +59200,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1164" s="6"/>
       <c r="E1164">
@@ -59212,7 +59213,7 @@
     <row r="1165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1165" s="1"/>
       <c r="C1165" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D1165" s="6"/>
       <c r="E1165">
@@ -59225,7 +59226,7 @@
     <row r="1166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1166" s="1"/>
       <c r="C1166" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D1166" s="6"/>
       <c r="E1166">
@@ -59238,7 +59239,7 @@
     <row r="1167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1167" s="1"/>
       <c r="C1167" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D1167" s="6"/>
       <c r="E1167">
@@ -59251,7 +59252,7 @@
     <row r="1168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1168" s="1"/>
       <c r="C1168" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D1168" s="6"/>
       <c r="E1168">
@@ -59264,7 +59265,7 @@
     <row r="1169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1169" s="1"/>
       <c r="C1169" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D1169" s="6"/>
       <c r="E1169">
@@ -59277,7 +59278,7 @@
     <row r="1170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1170" s="1"/>
       <c r="C1170" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D1170" s="6"/>
       <c r="E1170">
@@ -59290,7 +59291,7 @@
     <row r="1171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1171" s="1"/>
       <c r="C1171" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D1171" s="6"/>
       <c r="E1171">
@@ -59303,7 +59304,7 @@
     <row r="1172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1172" s="1"/>
       <c r="C1172" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D1172" s="6"/>
       <c r="E1172">
@@ -59316,7 +59317,7 @@
     <row r="1173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1173" s="1"/>
       <c r="C1173" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D1173" s="6"/>
       <c r="E1173">
@@ -59329,7 +59330,7 @@
     <row r="1174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1174" s="1"/>
       <c r="C1174" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D1174" s="6"/>
       <c r="E1174">
@@ -59342,7 +59343,7 @@
     <row r="1175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1175" s="1"/>
       <c r="C1175" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D1175" s="6"/>
       <c r="E1175">
@@ -59355,7 +59356,7 @@
     <row r="1176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1176" s="1"/>
       <c r="C1176" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D1176" s="6"/>
       <c r="E1176">
@@ -59368,7 +59369,7 @@
     <row r="1177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1177" s="1"/>
       <c r="C1177" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D1177" s="6"/>
       <c r="E1177">
@@ -59381,7 +59382,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -59394,7 +59395,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -59407,7 +59408,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -59420,7 +59421,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -59433,7 +59434,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -59448,7 +59449,7 @@
         <v>53</v>
       </c>
       <c r="C1183" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D1183" s="6"/>
       <c r="E1183">
@@ -59461,7 +59462,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D1184" s="6"/>
       <c r="E1184">
@@ -59474,7 +59475,7 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D1185" s="6"/>
       <c r="E1185">
@@ -59487,7 +59488,7 @@
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D1186" s="6"/>
       <c r="E1186">
@@ -59500,7 +59501,7 @@
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D1187" s="6"/>
       <c r="E1187">
@@ -59519,7 +59520,7 @@
     <row r="1189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1189" s="1"/>
       <c r="C1189" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D1189" s="6"/>
       <c r="E1189">
@@ -59532,7 +59533,7 @@
     <row r="1190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1190" s="1"/>
       <c r="C1190" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D1190" s="6"/>
       <c r="E1190">
@@ -59557,7 +59558,7 @@
     <row r="1193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1193" s="1"/>
       <c r="C1193" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D1193" s="6"/>
       <c r="E1193">
@@ -59570,7 +59571,7 @@
     <row r="1194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1194" s="1"/>
       <c r="C1194" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D1194" s="6"/>
       <c r="E1194">
@@ -59595,7 +59596,7 @@
     <row r="1197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1197" s="1"/>
       <c r="C1197" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D1197" s="6"/>
       <c r="E1197">
@@ -59608,7 +59609,7 @@
     <row r="1198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1198" s="1"/>
       <c r="C1198" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D1198" s="6"/>
       <c r="E1198">
@@ -59621,7 +59622,7 @@
     <row r="1199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1199" s="1"/>
       <c r="C1199" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D1199" s="6"/>
       <c r="E1199">
@@ -59636,7 +59637,7 @@
         <v>334</v>
       </c>
       <c r="C1200" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1200" s="6"/>
       <c r="E1200">
@@ -59651,7 +59652,7 @@
         <v>446</v>
       </c>
       <c r="C1201" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1201" s="6"/>
       <c r="E1201">
@@ -59670,7 +59671,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D1203" s="6"/>
       <c r="E1203">
@@ -59680,7 +59681,7 @@
         <v>880</v>
       </c>
       <c r="G1203" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -59692,7 +59693,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1205" s="6"/>
       <c r="E1205">
@@ -59705,7 +59706,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D1206" s="6"/>
       <c r="E1206">
@@ -59718,7 +59719,7 @@
     <row r="1207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1207" s="1"/>
       <c r="C1207" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D1207" s="6"/>
       <c r="E1207">
@@ -59731,7 +59732,7 @@
     <row r="1208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1208" s="1"/>
       <c r="C1208" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D1208" s="6"/>
       <c r="F1208" s="1"/>
@@ -59739,7 +59740,7 @@
     <row r="1209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1209" s="1"/>
       <c r="C1209" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D1209" s="6"/>
       <c r="F1209" s="1">
@@ -59749,7 +59750,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D1210" s="6"/>
       <c r="F1210" s="1">
@@ -59759,7 +59760,7 @@
     <row r="1211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1211" s="1"/>
       <c r="C1211" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D1211" s="6"/>
       <c r="F1211" s="1">
@@ -59769,7 +59770,7 @@
     <row r="1212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1212" s="1"/>
       <c r="C1212" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D1212" s="6"/>
       <c r="E1212">
@@ -59800,7 +59801,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216">
@@ -59813,7 +59814,7 @@
     <row r="1217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217">
@@ -59826,7 +59827,7 @@
     <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1218" s="1"/>
       <c r="C1218" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D1218" s="6"/>
       <c r="E1218">
@@ -59845,7 +59846,7 @@
     <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1220" s="1"/>
       <c r="C1220" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D1220" s="6"/>
       <c r="E1220">
@@ -59858,7 +59859,7 @@
     <row r="1221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1221" s="1"/>
       <c r="C1221" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D1221" s="6"/>
       <c r="E1221">
@@ -59869,7 +59870,7 @@
     <row r="1222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222">
@@ -59888,7 +59889,7 @@
     <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1224" s="1"/>
       <c r="C1224" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D1224" s="6"/>
       <c r="E1224">
@@ -59913,7 +59914,7 @@
     <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1227" s="1"/>
       <c r="C1227" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D1227" s="6"/>
       <c r="E1227">
@@ -59926,7 +59927,7 @@
     <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1228" s="1"/>
       <c r="C1228" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D1228" s="6"/>
       <c r="E1228">
@@ -59937,7 +59938,7 @@
     <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1229" s="1"/>
       <c r="C1229" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D1229" s="6"/>
       <c r="E1229">
@@ -59948,7 +59949,7 @@
     <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230">
@@ -59961,7 +59962,7 @@
     <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1231" s="1"/>
       <c r="C1231" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D1231" s="6"/>
       <c r="E1231">
@@ -59973,13 +59974,13 @@
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1232" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B1232" s="1" t="s">
+      <c r="C1232" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="C1232" s="6" t="s">
-        <v>810</v>
       </c>
       <c r="D1232" s="6"/>
       <c r="E1232">
@@ -59991,13 +59992,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B1233" s="1">
         <v>58</v>
       </c>
       <c r="C1233" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233">
@@ -60022,7 +60023,7 @@
     <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1236" s="1"/>
       <c r="C1236" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D1236" s="6"/>
       <c r="E1236">
@@ -60035,7 +60036,7 @@
     <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1237" s="1"/>
       <c r="C1237" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1237" s="6"/>
       <c r="E1237">
@@ -60048,7 +60049,7 @@
     <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1238" s="1"/>
       <c r="C1238" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D1238" s="6"/>
       <c r="E1238">
@@ -60079,7 +60080,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242">
@@ -60098,7 +60099,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244">
@@ -60116,7 +60117,7 @@
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C1246" s="6"/>
       <c r="D1246" s="6"/>
@@ -60131,7 +60132,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248">
@@ -60143,10 +60144,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1249" s="6" t="s">
         <v>819</v>
-      </c>
-      <c r="C1249" s="6" t="s">
-        <v>820</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249">
@@ -60158,10 +60159,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1250" s="6" t="s">
         <v>821</v>
-      </c>
-      <c r="C1250" s="6" t="s">
-        <v>822</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250">
@@ -60174,7 +60175,7 @@
     <row r="1251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1251" s="1"/>
       <c r="C1251" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D1251" s="6"/>
       <c r="E1251">
@@ -60187,7 +60188,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252">
@@ -60200,7 +60201,7 @@
     <row r="1253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1253" s="1"/>
       <c r="C1253" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D1253" s="6"/>
       <c r="E1253">
@@ -60231,7 +60232,7 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257">
@@ -60244,7 +60245,7 @@
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258">
@@ -60257,7 +60258,7 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259">
@@ -60270,7 +60271,7 @@
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
       <c r="C1260" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D1260" s="6"/>
       <c r="E1260">
@@ -60283,7 +60284,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261">
@@ -60302,7 +60303,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263">
@@ -60315,7 +60316,7 @@
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="E1264">
@@ -60328,7 +60329,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
@@ -60352,10 +60353,10 @@
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1268" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C1268" s="6" t="s">
         <v>834</v>
-      </c>
-      <c r="C1268" s="6" t="s">
-        <v>835</v>
       </c>
       <c r="D1268" s="6"/>
       <c r="E1268">
@@ -60368,7 +60369,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
@@ -60387,7 +60388,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -60398,7 +60399,7 @@
     <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1272" s="1"/>
       <c r="C1272" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D1272" s="6"/>
       <c r="E1272">
@@ -60411,7 +60412,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
@@ -60424,7 +60425,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
@@ -60437,7 +60438,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
@@ -60450,7 +60451,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
@@ -60463,7 +60464,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
@@ -60478,10 +60479,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1278" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="C1278" s="6" t="s">
-        <v>845</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
@@ -60496,10 +60497,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C1279" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="C1279" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
@@ -60517,10 +60518,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C1281" s="6" t="s">
         <v>848</v>
-      </c>
-      <c r="C1281" s="6" t="s">
-        <v>849</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
@@ -60535,7 +60536,7 @@
         <v>477</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
@@ -60547,10 +60548,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -60560,10 +60561,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
@@ -60576,7 +60577,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
@@ -60588,10 +60589,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1286" s="6" t="s">
         <v>853</v>
-      </c>
-      <c r="C1286" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
@@ -60604,7 +60605,7 @@
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
       <c r="C1287" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D1287" s="6"/>
       <c r="E1287">
@@ -60622,10 +60623,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
@@ -60638,7 +60639,7 @@
     <row r="1290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1290" s="1"/>
       <c r="C1290" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D1290" s="6"/>
       <c r="E1290">
@@ -60663,7 +60664,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
@@ -60676,7 +60677,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
@@ -60687,7 +60688,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
@@ -60700,7 +60701,7 @@
     <row r="1296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1296" s="1"/>
       <c r="C1296" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D1296" s="6"/>
       <c r="E1296">
@@ -60713,7 +60714,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
@@ -60726,7 +60727,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
@@ -60739,7 +60740,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
@@ -60752,7 +60753,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
@@ -60765,7 +60766,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
@@ -60784,7 +60785,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
@@ -60797,7 +60798,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
@@ -60810,7 +60811,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
@@ -60823,7 +60824,7 @@
     <row r="1306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1306" s="1"/>
       <c r="C1306" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1306" s="6"/>
       <c r="E1306">
@@ -60836,7 +60837,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
@@ -60849,7 +60850,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
@@ -60862,7 +60863,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
@@ -60875,7 +60876,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
@@ -60900,7 +60901,7 @@
     <row r="1313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1313" s="1"/>
       <c r="C1313" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D1313" s="6"/>
       <c r="E1313">
@@ -60911,7 +60912,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
@@ -60926,7 +60927,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
@@ -60949,7 +60950,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
@@ -60964,7 +60965,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
@@ -60979,7 +60980,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
@@ -60994,10 +60995,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1320" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="C1320" s="6" t="s">
-        <v>882</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
@@ -61013,7 +61014,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
@@ -61029,7 +61030,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
@@ -61045,7 +61046,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
@@ -61061,7 +61062,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
@@ -61077,7 +61078,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
@@ -61093,7 +61094,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
@@ -61106,7 +61107,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
@@ -61200,7 +61201,7 @@
         <v>478</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
@@ -61225,7 +61226,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
@@ -61238,7 +61239,7 @@
     <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1340" s="1"/>
       <c r="C1340" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1340" s="6"/>
       <c r="E1340">
@@ -61275,7 +61276,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
@@ -61288,7 +61289,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
@@ -61301,7 +61302,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
@@ -61314,7 +61315,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
@@ -61327,7 +61328,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
@@ -61340,7 +61341,7 @@
     <row r="1350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1350" s="1"/>
       <c r="C1350" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D1350" s="6"/>
       <c r="E1350">
@@ -61353,7 +61354,7 @@
     <row r="1351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1351" s="1"/>
       <c r="C1351" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D1351" s="6"/>
       <c r="E1351">
@@ -61366,7 +61367,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
@@ -61379,7 +61380,7 @@
     <row r="1353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1353" s="1"/>
       <c r="C1353" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D1353" s="6"/>
       <c r="E1353">
@@ -61391,10 +61392,10 @@
     </row>
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C1354" s="6" t="s">
         <v>898</v>
-      </c>
-      <c r="C1354" s="6" t="s">
-        <v>899</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -61407,7 +61408,7 @@
         <v>469</v>
       </c>
       <c r="C1355" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D1355" s="6"/>
       <c r="E1355" s="1">
@@ -61419,10 +61420,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C1356" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="C1356" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
@@ -61435,7 +61436,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
@@ -61448,7 +61449,7 @@
     <row r="1358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1358" s="1"/>
       <c r="C1358" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D1358" s="6"/>
       <c r="E1358" s="1">
@@ -61461,7 +61462,7 @@
     <row r="1359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1359" s="1"/>
       <c r="C1359" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1359" s="6"/>
       <c r="E1359" s="1">
@@ -61481,7 +61482,7 @@
     <row r="1361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1361" s="1"/>
       <c r="C1361" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D1361" s="6"/>
       <c r="E1361" s="1">
@@ -61494,7 +61495,7 @@
     <row r="1362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1362" s="1"/>
       <c r="C1362" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D1362" s="6"/>
       <c r="E1362" s="1">
@@ -61507,7 +61508,7 @@
     <row r="1363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1363" s="1"/>
       <c r="C1363" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D1363" s="6"/>
       <c r="E1363" s="1">
@@ -61520,7 +61521,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
@@ -61533,7 +61534,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
@@ -61560,7 +61561,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
@@ -61573,7 +61574,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
@@ -61586,7 +61587,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
@@ -61599,7 +61600,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
@@ -61612,7 +61613,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
@@ -61625,7 +61626,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
@@ -61638,7 +61639,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -61649,7 +61650,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
@@ -61662,7 +61663,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
@@ -61674,10 +61675,10 @@
     </row>
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C1377" s="6" t="s">
         <v>920</v>
-      </c>
-      <c r="C1377" s="6" t="s">
-        <v>921</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -61697,7 +61698,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
@@ -61710,7 +61711,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
@@ -61723,7 +61724,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
@@ -61736,7 +61737,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D1382" s="6"/>
       <c r="E1382" s="1">
@@ -61749,7 +61750,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1383" s="6"/>
       <c r="E1383" s="1">
@@ -61762,7 +61763,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D1384" s="6"/>
       <c r="E1384" s="1">
@@ -61775,7 +61776,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D1385" s="6"/>
       <c r="E1385" s="1">
@@ -61788,7 +61789,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D1386" s="6"/>
       <c r="E1386" s="1">
@@ -61808,7 +61809,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D1388" s="6"/>
       <c r="E1388" s="1">
@@ -61828,7 +61829,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
@@ -61841,7 +61842,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
@@ -61854,7 +61855,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
@@ -61874,7 +61875,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61887,7 +61888,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
@@ -61900,7 +61901,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
@@ -61913,7 +61914,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
@@ -61954,7 +61955,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
@@ -61967,7 +61968,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
@@ -61979,10 +61980,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C1404" s="6" t="s">
         <v>939</v>
-      </c>
-      <c r="C1404" s="6" t="s">
-        <v>940</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
@@ -61997,7 +61998,7 @@
         <v>334</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
@@ -62009,10 +62010,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C1406" s="6" t="s">
         <v>942</v>
-      </c>
-      <c r="C1406" s="6" t="s">
-        <v>943</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
@@ -62025,7 +62026,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
@@ -62037,10 +62038,10 @@
     </row>
     <row r="1408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1408" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C1408" s="6" t="s">
         <v>945</v>
-      </c>
-      <c r="C1408" s="6" t="s">
-        <v>946</v>
       </c>
       <c r="D1408" s="6"/>
       <c r="E1408" s="1">
@@ -62053,7 +62054,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
@@ -62066,7 +62067,7 @@
     <row r="1410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1410" s="1"/>
       <c r="C1410" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1410" s="6"/>
       <c r="E1410" s="1">
@@ -62079,7 +62080,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
@@ -62094,7 +62095,7 @@
         <v>334</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
@@ -62107,7 +62108,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
@@ -62120,7 +62121,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
@@ -62133,7 +62134,7 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D1415" s="6"/>
       <c r="E1415" s="1">
@@ -62146,7 +62147,7 @@
     <row r="1416" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1416" s="1"/>
       <c r="C1416" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1416" s="6"/>
       <c r="E1416" s="1">
@@ -62159,7 +62160,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
@@ -62172,7 +62173,7 @@
     <row r="1418" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1418" s="1"/>
       <c r="C1418" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1418" s="6"/>
       <c r="E1418" s="1">
@@ -62183,7 +62184,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
@@ -62196,7 +62197,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
@@ -62209,7 +62210,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
@@ -62222,7 +62223,7 @@
     <row r="1422" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1422" s="1"/>
       <c r="C1422" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D1422" s="6"/>
       <c r="E1422" s="1">
@@ -62235,7 +62236,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
@@ -62248,7 +62249,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -62268,7 +62269,7 @@
     <row r="1426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
       <c r="C1426" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D1426" s="6"/>
       <c r="F1426" s="1">
@@ -62278,7 +62279,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
@@ -62291,7 +62292,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
@@ -62310,7 +62311,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="E1430">
@@ -62323,7 +62324,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="E1431">
@@ -62336,7 +62337,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
@@ -62349,7 +62350,7 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D1433" s="6"/>
       <c r="E1433">
@@ -62362,7 +62363,7 @@
     <row r="1434" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1434" s="1"/>
       <c r="C1434" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D1434" s="6"/>
       <c r="E1434">
@@ -62375,7 +62376,7 @@
     <row r="1435" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1435" s="1"/>
       <c r="C1435" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D1435" s="6"/>
       <c r="E1435">
@@ -62388,7 +62389,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B2964E-95FD-4433-A633-8EB8010AB780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08844D6-011F-4F8D-983E-FDD05F968AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10656,22 +10656,22 @@
                   <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2450</c:v>
+                  <c:v>2690</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2200</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1920</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2340</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1980</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1380</c:v>
@@ -21031,22 +21031,22 @@
                   <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2450</c:v>
+                  <c:v>2690</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2200</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1920</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2340</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1980</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1380</c:v>
@@ -31406,22 +31406,22 @@
                   <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2450</c:v>
+                  <c:v>2690</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2200</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1920</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2340</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1980</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1380</c:v>
@@ -41163,22 +41163,22 @@
                   <c:v>2280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2450</c:v>
+                  <c:v>2690</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2200</c:v>
+                  <c:v>2360</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1920</c:v>
+                  <c:v>2140</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2340</c:v>
+                  <c:v>2590</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1980</c:v>
+                  <c:v>2250</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1380</c:v>
@@ -44343,8 +44343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A41" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45112,7 +45112,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="1">
-        <v>2450</v>
+        <v>2690</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -45131,7 +45131,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="1">
-        <v>2200</v>
+        <v>2360</v>
       </c>
       <c r="G51" s="1"/>
     </row>
@@ -45167,7 +45167,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="1">
-        <v>1920</v>
+        <v>2140</v>
       </c>
       <c r="G53" s="1"/>
     </row>
@@ -45186,7 +45186,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="1">
-        <v>2340</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -45204,7 +45204,7 @@
         <v>7</v>
       </c>
       <c r="F55" s="1">
-        <v>1980</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47F7604-1C4E-43D1-A08B-53F2ECB30045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A159F-E8F8-4F14-8D29-10FFB01B6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8468,7 +8468,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -11085,7 +11085,7 @@
                   <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4200</c:v>
+                  <c:v>4605</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>6785</c:v>
@@ -11199,7 +11199,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>11700</c:v>
+                  <c:v>11960</c:v>
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>14080</c:v>
@@ -11226,7 +11226,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>12600</c:v>
+                  <c:v>14080</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>4890</c:v>
@@ -11441,7 +11441,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -18843,7 +18843,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -21460,7 +21460,7 @@
                   <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4200</c:v>
+                  <c:v>4605</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>6785</c:v>
@@ -21574,7 +21574,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>11700</c:v>
+                  <c:v>11960</c:v>
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>14080</c:v>
@@ -21601,7 +21601,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>12600</c:v>
+                  <c:v>14080</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>4890</c:v>
@@ -21816,7 +21816,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -29218,7 +29218,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -31835,7 +31835,7 @@
                   <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4200</c:v>
+                  <c:v>4605</c:v>
                 </c:pt>
                 <c:pt idx="189">
                   <c:v>6785</c:v>
@@ -31949,7 +31949,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>11700</c:v>
+                  <c:v>11960</c:v>
                 </c:pt>
                 <c:pt idx="233">
                   <c:v>14080</c:v>
@@ -31976,7 +31976,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>12600</c:v>
+                  <c:v>14080</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>4890</c:v>
@@ -32191,7 +32191,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -40409,7 +40409,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -41592,7 +41592,7 @@
                   <c:v>3480</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4200</c:v>
+                  <c:v>4605</c:v>
                 </c:pt>
                 <c:pt idx="164">
                   <c:v>6785</c:v>
@@ -41706,7 +41706,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>11700</c:v>
+                  <c:v>11960</c:v>
                 </c:pt>
                 <c:pt idx="208">
                   <c:v>14080</c:v>
@@ -41733,7 +41733,7 @@
                   <c:v>9980</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>12600</c:v>
+                  <c:v>14080</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>4890</c:v>
@@ -42149,7 +42149,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -42914,7 +42914,7 @@
                   <c:v>1850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12400</c:v>
+                  <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17800</c:v>
@@ -44346,8 +44346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1061" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F1070" sqref="F1070"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A150" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44420,7 +44420,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1">
-        <v>12400</v>
+        <v>13830</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -47653,7 +47653,7 @@
         <v>6</v>
       </c>
       <c r="F207" s="1">
-        <v>4200</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -48386,7 +48386,7 @@
         <v>2</v>
       </c>
       <c r="F251" s="1">
-        <v>11700</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -48554,7 +48554,7 @@
         <v>3</v>
       </c>
       <c r="F261" s="1">
-        <v>12600</v>
+        <v>14080</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A159F-E8F8-4F14-8D29-10FFB01B6AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D6101-3CFC-41AA-B552-5ABFF02741B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8471,13 +8471,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -11444,13 +11444,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -18846,13 +18846,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -21819,13 +21819,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -29221,13 +29221,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -32194,13 +32194,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -40412,13 +40412,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -42152,13 +42152,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -42917,13 +42917,13 @@
                   <c:v>13830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17800</c:v>
+                  <c:v>19900</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4750</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9915</c:v>
+                  <c:v>11030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1690</c:v>
@@ -44346,8 +44346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A150" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44434,7 +44434,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>17800</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -44463,7 +44463,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
-        <v>9915</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -55586,7 +55586,7 @@
         <v>13</v>
       </c>
       <c r="F833" s="1">
-        <v>8900</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E48E28E-F4CF-4BC6-A625-59A8FB7E695E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9338C-8DAA-428C-ABC8-C1FA5E6E2807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10965,13 +10965,13 @@
                   <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6720</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4890</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4000</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>8980</c:v>
@@ -21358,13 +21358,13 @@
                   <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6720</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4890</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4000</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>8980</c:v>
@@ -31751,13 +31751,13 @@
                   <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6720</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4890</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4000</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="198">
                   <c:v>8980</c:v>
@@ -41448,13 +41448,13 @@
                   <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>6720</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>4890</c:v>
+                  <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>4000</c:v>
+                  <c:v>8980</c:v>
                 </c:pt>
                 <c:pt idx="173">
                   <c:v>8980</c:v>
@@ -44079,8 +44079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A998" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1012" sqref="F1012"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A202" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47510,7 +47510,7 @@
         <v>5</v>
       </c>
       <c r="F214" s="1">
-        <v>6720</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -47528,7 +47528,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="1">
-        <v>4890</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -47546,7 +47546,7 @@
         <v>3</v>
       </c>
       <c r="F216" s="1">
-        <v>4000</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D9338C-8DAA-428C-ABC8-C1FA5E6E2807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AED6011-0B4E-4445-BFA5-24F7B9A6D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="983">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="981">
   <si>
     <t>Articulo</t>
   </si>
@@ -1633,9 +1633,6 @@
     <t>32-33</t>
   </si>
   <si>
-    <t xml:space="preserve">pantufla </t>
-  </si>
-  <si>
     <t>zapatillas nb-nike -adidas</t>
   </si>
   <si>
@@ -1648,9 +1645,6 @@
     <t>zapatilla nb nike sb y adidas nene oferta</t>
   </si>
   <si>
-    <t>mallas enteras nena juvenil nuevas</t>
-  </si>
-  <si>
     <t>freedom short jean</t>
   </si>
   <si>
@@ -2818,9 +2812,6 @@
     <t xml:space="preserve">medias rhyton hombre tejido termico </t>
   </si>
   <si>
-    <t>medias rhyton niño</t>
-  </si>
-  <si>
     <t>boxer avanti hombre</t>
   </si>
   <si>
@@ -2978,6 +2969,9 @@
   </si>
   <si>
     <t xml:space="preserve">prata toallon </t>
+  </si>
+  <si>
+    <t>art.222</t>
   </si>
 </sst>
 </file>
@@ -44079,8 +44073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A202" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F216" sqref="F216"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1133" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1149" sqref="F1149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44513,7 +44507,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44525,7 +44519,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44549,7 +44543,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44561,7 +44555,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -44573,7 +44567,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -44652,7 +44646,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -44692,7 +44686,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45189,7 +45183,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45207,7 +45201,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45225,7 +45219,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -45589,7 +45583,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -45735,7 +45729,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1">
@@ -45771,7 +45765,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -45797,7 +45791,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -45807,7 +45801,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -45889,7 +45883,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46273,7 +46267,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="1">
@@ -46413,7 +46407,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46445,7 +46439,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46459,7 +46453,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46473,7 +46467,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46553,7 +46547,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46585,7 +46579,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -46653,7 +46647,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="1">
@@ -47045,7 +47039,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
@@ -47461,13 +47455,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -47751,7 +47745,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -47961,7 +47955,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -47975,7 +47969,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48682,7 +48676,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -48712,7 +48706,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -48796,7 +48790,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -48924,7 +48918,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -48970,7 +48964,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -49084,7 +49078,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -49098,7 +49092,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49112,7 +49106,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49181,10 +49175,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49308,7 +49302,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49485,7 +49479,7 @@
         <v>311</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49517,7 +49511,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49534,7 +49528,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49598,7 +49592,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -49802,10 +49796,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -49818,10 +49812,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -49923,7 +49917,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -49932,10 +49926,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -51307,7 +51301,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51329,7 +51323,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51377,7 +51371,7 @@
         <v>386</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -51389,7 +51383,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -51511,7 +51505,7 @@
         <v>311</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -51525,7 +51519,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -51565,7 +51559,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -51767,7 +51761,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -51795,7 +51789,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -51837,7 +51831,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -51865,7 +51859,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -51999,7 +51993,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52035,7 +52029,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52073,7 +52067,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52087,7 +52081,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52101,7 +52095,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52115,7 +52109,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D555" s="6"/>
       <c r="E555" s="1">
@@ -52129,7 +52123,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52143,7 +52137,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52389,7 +52383,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -52599,7 +52593,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -52741,7 +52735,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -52889,7 +52883,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -52902,7 +52896,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>449</v>
@@ -52933,7 +52927,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -52947,7 +52941,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -52961,7 +52955,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D631" s="6"/>
       <c r="E631" s="1">
@@ -53241,7 +53235,7 @@
         <v>422</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
@@ -53257,7 +53251,7 @@
         <v>386</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
@@ -53273,7 +53267,7 @@
         <v>422</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
@@ -53289,7 +53283,7 @@
         <v>422</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
@@ -53305,7 +53299,7 @@
         <v>422</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
@@ -53319,7 +53313,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -53477,7 +53471,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -53491,7 +53485,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -53505,7 +53499,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -53601,7 +53595,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -54008,7 +54002,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -54021,7 +54015,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54034,7 +54028,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54160,13 +54154,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54178,13 +54172,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54196,13 +54190,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54214,13 +54208,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C740" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54232,13 +54226,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54250,13 +54244,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54268,13 +54262,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C743" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54286,10 +54280,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -54301,10 +54295,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -54317,7 +54311,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -54389,7 +54383,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -54403,7 +54397,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -54417,7 +54411,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -54433,7 +54427,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -54448,7 +54442,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -54477,7 +54471,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -54508,7 +54502,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -54550,7 +54544,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -54621,7 +54615,7 @@
         <v>4</v>
       </c>
       <c r="F770" s="1">
-        <v>13200</v>
+        <v>15890</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -54629,7 +54623,7 @@
         <v>509</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C771" s="6" t="s">
         <v>511</v>
@@ -54639,7 +54633,7 @@
         <v>3</v>
       </c>
       <c r="F771" s="1">
-        <v>15600</v>
+        <v>18690</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
@@ -54657,23 +54651,23 @@
         <v>7</v>
       </c>
       <c r="F772" s="1">
-        <v>14400</v>
+        <v>17290</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A773">
-        <v>222</v>
+      <c r="A773" t="s">
+        <v>980</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
         <v>1</v>
       </c>
       <c r="F773" s="1">
-        <v>14900</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -54691,7 +54685,7 @@
         <v>1</v>
       </c>
       <c r="F774" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -54706,7 +54700,7 @@
         <v>10</v>
       </c>
       <c r="F775" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
@@ -54724,7 +54718,7 @@
         <v>3</v>
       </c>
       <c r="F776" s="1">
-        <v>13200</v>
+        <v>15740</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
@@ -54742,7 +54736,7 @@
         <v>1</v>
       </c>
       <c r="F777" s="1">
-        <v>15600</v>
+        <v>18680</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
@@ -54767,7 +54761,7 @@
         <v>3</v>
       </c>
       <c r="F779" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -54785,7 +54779,7 @@
         <v>3</v>
       </c>
       <c r="F780" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
@@ -54803,7 +54797,7 @@
         <v>1</v>
       </c>
       <c r="F781" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -54821,7 +54815,7 @@
         <v>6</v>
       </c>
       <c r="F782" s="1">
-        <v>13200</v>
+        <v>15840</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -54883,51 +54877,43 @@
       <c r="B787" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C787" s="6" t="s">
+      <c r="C787" s="6"/>
+      <c r="D787" s="6"/>
+      <c r="E787" s="1"/>
+      <c r="F787" s="1"/>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B788" s="1"/>
+      <c r="C788" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="D787" s="6"/>
-      <c r="E787" s="1">
-        <v>1</v>
-      </c>
-      <c r="F787" s="1">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B788" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C788" s="6" t="s">
-        <v>535</v>
       </c>
       <c r="D788" s="6"/>
       <c r="E788" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F788" s="1"/>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B789" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C789" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="C789" s="6" t="s">
-        <v>537</v>
       </c>
       <c r="D789" s="6"/>
       <c r="E789" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F789" s="1"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D790" s="6"/>
       <c r="E790" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F790" s="1"/>
     </row>
@@ -55161,13 +55147,9 @@
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B820" s="1"/>
-      <c r="C820" s="6" t="s">
-        <v>539</v>
-      </c>
+      <c r="C820" s="6"/>
       <c r="D820" s="6"/>
-      <c r="E820" s="1">
-        <v>2</v>
-      </c>
+      <c r="E820" s="1"/>
       <c r="F820" s="1"/>
     </row>
     <row r="821" spans="1:6" x14ac:dyDescent="0.25">
@@ -55402,7 +55384,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -55478,59 +55460,59 @@
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D846" s="6"/>
       <c r="E846" s="1">
         <v>6</v>
       </c>
       <c r="F846" s="1">
-        <v>5680</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B847" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
         <v>1</v>
       </c>
       <c r="F847" s="1">
-        <v>14600</v>
+        <v>17480</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B848" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
         <v>1</v>
       </c>
       <c r="F848" s="1">
-        <v>11400</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C849" s="6" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
         <v>1</v>
       </c>
       <c r="F849" s="1">
-        <v>9000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.25">
@@ -55538,27 +55520,27 @@
         <v>492</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
         <v>1</v>
       </c>
       <c r="F850" s="1">
-        <v>15800</v>
+        <v>18960</v>
       </c>
     </row>
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
         <v>1</v>
       </c>
       <c r="F851" s="1">
-        <v>6980</v>
+        <v>8350</v>
       </c>
     </row>
     <row r="852" spans="2:6" x14ac:dyDescent="0.25">
@@ -55578,14 +55560,14 @@
     <row r="854" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D854" s="6"/>
       <c r="E854" s="1">
         <v>5</v>
       </c>
       <c r="F854" s="1">
-        <v>1930</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="855" spans="2:6" x14ac:dyDescent="0.25">
@@ -55640,7 +55622,7 @@
     <row r="862" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D862" s="6"/>
       <c r="E862" s="1">
@@ -55686,27 +55668,27 @@
     <row r="868" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D868" s="6"/>
       <c r="E868" s="1">
         <v>3</v>
       </c>
       <c r="F868" s="1">
-        <v>7500</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D869" s="6"/>
       <c r="E869" s="1">
         <v>14</v>
       </c>
       <c r="F869" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="870" spans="2:6" x14ac:dyDescent="0.25">
@@ -55915,14 +55897,14 @@
     <row r="899" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
       <c r="C899" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D899" s="6"/>
       <c r="E899" s="1">
         <v>4</v>
       </c>
       <c r="F899" s="1">
-        <v>1100</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="900" spans="2:6" x14ac:dyDescent="0.25">
@@ -55970,79 +55952,79 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
         <v>1</v>
       </c>
       <c r="F906" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
         <v>1</v>
       </c>
       <c r="F907" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
         <v>1</v>
       </c>
       <c r="F908" s="1">
-        <v>11600</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
         <v>1</v>
       </c>
       <c r="F909" s="1">
-        <v>9800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
         <v>1</v>
       </c>
       <c r="F910" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
         <v>1</v>
       </c>
       <c r="F911" s="1">
-        <v>11800</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="912" spans="2:6" x14ac:dyDescent="0.25">
@@ -56050,14 +56032,14 @@
         <v>106</v>
       </c>
       <c r="C912" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D912" s="6"/>
       <c r="E912" s="1">
         <v>3</v>
       </c>
       <c r="F912" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="913" spans="2:6" x14ac:dyDescent="0.25">
@@ -56065,53 +56047,53 @@
         <v>592</v>
       </c>
       <c r="C913" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D913" s="6"/>
       <c r="E913" s="1">
         <v>12</v>
       </c>
       <c r="F913" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D914" s="6"/>
       <c r="E914" s="1">
         <v>4</v>
       </c>
       <c r="F914" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D915" s="6"/>
       <c r="E915" s="1">
         <v>3</v>
       </c>
       <c r="F915" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="916" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
       <c r="C916" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D916" s="6"/>
       <c r="E916" s="1">
         <v>4</v>
       </c>
       <c r="F916" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="917" spans="2:6" x14ac:dyDescent="0.25">
@@ -56119,14 +56101,14 @@
         <v>104</v>
       </c>
       <c r="C917" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D917" s="6"/>
       <c r="E917" s="1">
         <v>28</v>
       </c>
       <c r="F917" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="918" spans="2:6" x14ac:dyDescent="0.25">
@@ -56139,14 +56121,14 @@
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D919" s="6"/>
       <c r="E919" s="1">
         <v>5</v>
       </c>
       <c r="F919" s="1">
-        <v>2490</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="920" spans="2:6" x14ac:dyDescent="0.25">
@@ -56168,14 +56150,14 @@
         <v>16</v>
       </c>
       <c r="C922" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D922" s="6"/>
       <c r="E922" s="1">
         <v>5</v>
       </c>
       <c r="F922" s="1">
-        <v>2200</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="923" spans="2:6" x14ac:dyDescent="0.25">
@@ -56183,14 +56165,14 @@
         <v>27</v>
       </c>
       <c r="C923" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D923" s="6"/>
       <c r="E923" s="1">
         <v>8</v>
       </c>
       <c r="F923" s="1">
-        <v>2850</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="924" spans="2:6" x14ac:dyDescent="0.25">
@@ -56217,14 +56199,14 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
         <v>1</v>
       </c>
       <c r="F927" s="1">
-        <v>550</v>
+        <v>650</v>
       </c>
     </row>
     <row r="928" spans="2:6" x14ac:dyDescent="0.25">
@@ -56244,7 +56226,7 @@
     <row r="930" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D930" s="6"/>
       <c r="E930" s="1">
@@ -56257,7 +56239,7 @@
     <row r="931" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D931" s="6"/>
       <c r="E931" s="1">
@@ -56277,14 +56259,14 @@
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D933" s="6"/>
       <c r="E933" s="1">
         <v>1</v>
       </c>
       <c r="F933" s="1">
-        <v>490</v>
+        <v>540</v>
       </c>
     </row>
     <row r="934" spans="2:6" x14ac:dyDescent="0.25">
@@ -56293,40 +56275,40 @@
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D935" s="6"/>
       <c r="E935" s="1">
         <v>24</v>
       </c>
       <c r="F935" s="1">
-        <v>1390</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D936" s="6"/>
       <c r="E936" s="1">
         <v>6</v>
       </c>
       <c r="F936" s="1">
-        <v>4900</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D937" s="6"/>
       <c r="E937" s="1">
         <v>3</v>
       </c>
       <c r="F937" s="1">
-        <v>4600</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="938" spans="2:6" x14ac:dyDescent="0.25">
@@ -56339,14 +56321,14 @@
     <row r="939" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
       <c r="C939" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D939" s="6"/>
       <c r="E939" s="1">
         <v>3</v>
       </c>
       <c r="F939" s="1">
-        <v>3500</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="940" spans="2:6" x14ac:dyDescent="0.25">
@@ -56429,7 +56411,7 @@
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D951" s="6"/>
       <c r="E951" s="1">
@@ -56461,40 +56443,40 @@
     <row r="955" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D955" s="6"/>
       <c r="E955" s="1">
         <v>1</v>
       </c>
       <c r="F955" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="956" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D956" s="6"/>
       <c r="E956" s="1">
         <v>3</v>
       </c>
       <c r="F956" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="957" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D957" s="6"/>
       <c r="E957" s="1">
         <v>2</v>
       </c>
       <c r="F957" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="958" spans="2:6" x14ac:dyDescent="0.25">
@@ -56507,14 +56489,14 @@
     <row r="959" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D959" s="6"/>
       <c r="E959" s="1">
         <v>5</v>
       </c>
       <c r="F959" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="960" spans="2:6" x14ac:dyDescent="0.25">
@@ -56534,27 +56516,27 @@
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D962" s="6"/>
       <c r="E962" s="1">
         <v>1</v>
       </c>
       <c r="F962" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D963" s="6"/>
       <c r="E963" s="1">
         <v>1</v>
       </c>
       <c r="F963" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
@@ -56576,53 +56558,53 @@
         <v>190</v>
       </c>
       <c r="C966" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D966" s="6"/>
       <c r="E966" s="1">
         <v>20</v>
       </c>
       <c r="F966" s="1">
-        <v>4290</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B967" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C967" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D967" s="6"/>
       <c r="E967" s="1">
         <v>104</v>
       </c>
       <c r="F967" s="1">
-        <v>3990</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C968" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D968" s="6"/>
       <c r="E968" s="1">
         <v>4</v>
       </c>
       <c r="F968" s="1">
-        <v>14900</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D969" s="6"/>
       <c r="E969">
@@ -56635,7 +56617,7 @@
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D970" s="6"/>
       <c r="E970">
@@ -56648,7 +56630,7 @@
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D971" s="6"/>
       <c r="E971">
@@ -56661,7 +56643,7 @@
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D972" s="6"/>
       <c r="E972">
@@ -56674,7 +56656,7 @@
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D973" s="6"/>
       <c r="F973" s="1"/>
@@ -56682,7 +56664,7 @@
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D974" s="6"/>
       <c r="E974">
@@ -56701,7 +56683,7 @@
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D976" s="6"/>
       <c r="E976">
@@ -56822,7 +56804,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -56835,7 +56817,7 @@
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D996" s="6"/>
       <c r="E996">
@@ -56848,7 +56830,7 @@
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D997" s="6"/>
       <c r="E997">
@@ -56861,7 +56843,7 @@
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D998" s="6"/>
       <c r="E998">
@@ -56874,7 +56856,7 @@
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
       <c r="C999" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D999" s="6"/>
       <c r="E999">
@@ -56887,7 +56869,7 @@
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
       <c r="C1000" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D1000" s="6"/>
       <c r="E1000">
@@ -56900,7 +56882,7 @@
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1001" s="1"/>
       <c r="C1001" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D1001" s="6"/>
       <c r="E1001">
@@ -56913,7 +56895,7 @@
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1002" s="1"/>
       <c r="C1002" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D1002" s="6"/>
       <c r="E1002">
@@ -56926,7 +56908,7 @@
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1003" s="1"/>
       <c r="C1003" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D1003" s="6"/>
       <c r="E1003">
@@ -56951,20 +56933,20 @@
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1006" s="1"/>
       <c r="C1006" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D1006" s="6"/>
       <c r="E1006">
         <v>1</v>
       </c>
       <c r="F1006" s="1">
-        <v>4980</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1007" s="1"/>
       <c r="C1007" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D1007" s="6"/>
       <c r="E1007">
@@ -57012,13 +56994,13 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
+        <v>589</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C1010" s="6" t="s">
         <v>591</v>
-      </c>
-      <c r="B1010" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C1010" s="6" t="s">
-        <v>593</v>
       </c>
       <c r="D1010" s="6"/>
       <c r="E1010">
@@ -57030,13 +57012,13 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C1011" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D1011" s="6"/>
       <c r="E1011">
@@ -57048,13 +57030,13 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C1012" s="6" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D1012" s="6"/>
       <c r="E1012">
@@ -57067,35 +57049,35 @@
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1013" s="1"/>
       <c r="C1013" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D1013" s="6"/>
       <c r="E1013">
         <v>22</v>
       </c>
       <c r="F1013" s="1">
-        <v>7580</v>
+        <v>9080</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1014" s="1"/>
       <c r="C1014" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D1014" s="6"/>
       <c r="E1014">
         <v>46</v>
       </c>
       <c r="F1014" s="1">
-        <v>890</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1015" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C1015" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D1015" s="6"/>
       <c r="E1015">
@@ -57108,7 +57090,7 @@
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1016" s="1"/>
       <c r="C1016" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D1016" s="6"/>
       <c r="E1016">
@@ -57121,7 +57103,7 @@
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1017" s="1"/>
       <c r="C1017" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D1017" s="6"/>
       <c r="E1017">
@@ -57134,7 +57116,7 @@
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1018" s="1"/>
       <c r="C1018" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D1018" s="6"/>
       <c r="E1018">
@@ -57147,7 +57129,7 @@
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1019" s="1"/>
       <c r="C1019" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D1019" s="6"/>
       <c r="E1019">
@@ -57160,7 +57142,7 @@
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1020" s="1"/>
       <c r="C1020" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D1020" s="6"/>
       <c r="E1020">
@@ -57173,7 +57155,7 @@
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1021" s="1"/>
       <c r="C1021" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D1021" s="6"/>
       <c r="E1021">
@@ -57192,40 +57174,40 @@
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1023" s="1"/>
       <c r="C1023" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D1023" s="6"/>
       <c r="E1023">
         <v>1</v>
       </c>
       <c r="F1023" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1024" s="1"/>
       <c r="C1024" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D1024" s="6"/>
       <c r="E1024">
         <v>1</v>
       </c>
       <c r="F1024" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="1025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1025" s="1"/>
       <c r="C1025" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D1025" s="6"/>
       <c r="E1025">
         <v>1</v>
       </c>
       <c r="F1025" s="1">
-        <v>10000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="1026" spans="2:6" x14ac:dyDescent="0.25">
@@ -57233,14 +57215,14 @@
         <v>593</v>
       </c>
       <c r="C1026" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D1026" s="6"/>
       <c r="E1026">
         <v>7</v>
       </c>
       <c r="F1026" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1027" spans="2:6" x14ac:dyDescent="0.25">
@@ -57248,27 +57230,27 @@
         <v>591</v>
       </c>
       <c r="C1027" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D1027" s="6"/>
       <c r="E1027">
         <v>17</v>
       </c>
       <c r="F1027" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
         <v>1</v>
       </c>
       <c r="F1028" s="1">
-        <v>11000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="1029" spans="2:6" x14ac:dyDescent="0.25">
@@ -57276,53 +57258,53 @@
         <v>103</v>
       </c>
       <c r="C1029" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D1029" s="6"/>
       <c r="E1029">
         <v>10</v>
       </c>
       <c r="F1029" s="1">
-        <v>10000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
         <v>1</v>
       </c>
       <c r="F1030" s="1">
-        <v>11000</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="1031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1031" s="1"/>
       <c r="C1031" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D1031" s="6"/>
       <c r="E1031">
         <v>15</v>
       </c>
       <c r="F1031" s="1">
-        <v>8990</v>
+        <v>10780</v>
       </c>
     </row>
     <row r="1032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1032" s="1"/>
       <c r="C1032" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D1032" s="6"/>
       <c r="E1032">
         <v>15</v>
       </c>
       <c r="F1032" s="1">
-        <v>10980</v>
+        <v>13150</v>
       </c>
     </row>
     <row r="1033" spans="2:6" x14ac:dyDescent="0.25">
@@ -57330,14 +57312,14 @@
         <v>594</v>
       </c>
       <c r="C1033" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D1033" s="6"/>
       <c r="E1033">
         <v>14</v>
       </c>
       <c r="F1033" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1034" spans="2:6" x14ac:dyDescent="0.25">
@@ -57345,14 +57327,14 @@
         <v>595</v>
       </c>
       <c r="C1034" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D1034" s="6"/>
       <c r="E1034">
         <v>6</v>
       </c>
       <c r="F1034" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1035" spans="2:6" x14ac:dyDescent="0.25">
@@ -57394,7 +57376,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -57625,7 +57607,7 @@
         <v>9004</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C1059" s="6" t="s">
         <v>15</v>
@@ -57751,7 +57733,7 @@
         <v>9110</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C1066" s="6" t="s">
         <v>15</v>
@@ -57805,7 +57787,7 @@
         <v>9125</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C1069" s="6" t="s">
         <v>15</v>
@@ -57823,7 +57805,7 @@
         <v>9135</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C1070" s="6" t="s">
         <v>15</v>
@@ -57839,7 +57821,7 @@
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1071" s="1"/>
       <c r="C1071" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D1071" s="6"/>
       <c r="E1071">
@@ -57852,7 +57834,7 @@
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1072" s="1"/>
       <c r="C1072" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D1072" s="6"/>
       <c r="E1072">
@@ -57865,7 +57847,7 @@
     <row r="1073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1073" s="1"/>
       <c r="C1073" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D1073" s="6"/>
       <c r="E1073">
@@ -57878,14 +57860,14 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
         <v>1</v>
       </c>
       <c r="F1074" s="1">
-        <v>2000</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1075" spans="2:6" x14ac:dyDescent="0.25">
@@ -57897,20 +57879,20 @@
     <row r="1076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1076" s="1"/>
       <c r="C1076" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D1076" s="6"/>
       <c r="E1076">
         <v>6</v>
       </c>
       <c r="F1076" s="1">
-        <v>3800</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -57923,7 +57905,7 @@
     <row r="1078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1078" s="1"/>
       <c r="C1078" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D1078" s="6"/>
       <c r="E1078">
@@ -57935,21 +57917,14 @@
     </row>
     <row r="1079" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1079" s="1"/>
-      <c r="C1079" s="6" t="s">
-        <v>929</v>
-      </c>
+      <c r="C1079" s="6"/>
       <c r="D1079" s="6"/>
-      <c r="E1079">
-        <v>1</v>
-      </c>
-      <c r="F1079" s="1">
-        <v>500</v>
-      </c>
+      <c r="F1079" s="1"/>
     </row>
     <row r="1080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1080" s="1"/>
       <c r="C1080" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D1080" s="6"/>
       <c r="E1080">
@@ -57962,7 +57937,7 @@
     <row r="1081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1081" s="1"/>
       <c r="C1081" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D1081" s="6"/>
       <c r="E1081">
@@ -57975,7 +57950,7 @@
     <row r="1082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1082" s="1"/>
       <c r="C1082" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D1082" s="6"/>
       <c r="E1082">
@@ -57988,7 +57963,7 @@
     <row r="1083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1083" s="1"/>
       <c r="C1083" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D1083" s="6"/>
       <c r="E1083">
@@ -58001,7 +57976,7 @@
     <row r="1084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1084" s="1"/>
       <c r="C1084" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D1084" s="6"/>
       <c r="E1084">
@@ -58014,7 +57989,7 @@
     <row r="1085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1085" s="1"/>
       <c r="C1085" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D1085" s="6"/>
       <c r="E1085">
@@ -58027,7 +58002,7 @@
     <row r="1086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1086" s="1"/>
       <c r="C1086" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D1086" s="6"/>
       <c r="E1086">
@@ -58040,7 +58015,7 @@
     <row r="1087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1087" s="1"/>
       <c r="C1087" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D1087" s="6"/>
       <c r="E1087">
@@ -58059,14 +58034,14 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
         <v>1</v>
       </c>
       <c r="F1089" s="1">
-        <v>590</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1090" spans="2:6" x14ac:dyDescent="0.25">
@@ -58077,17 +58052,17 @@
     </row>
     <row r="1091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C1091" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D1091" s="6"/>
       <c r="E1091">
         <v>1</v>
       </c>
       <c r="F1091" s="1">
-        <v>12600</v>
+        <v>15100</v>
       </c>
     </row>
     <row r="1092" spans="2:6" x14ac:dyDescent="0.25">
@@ -58158,17 +58133,17 @@
     </row>
     <row r="1103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1103" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C1103" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D1103" s="6"/>
       <c r="E1103">
         <v>3</v>
       </c>
       <c r="F1103" s="1">
-        <v>3800</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1104" spans="2:6" x14ac:dyDescent="0.25">
@@ -58197,10 +58172,10 @@
     </row>
     <row r="1108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1108" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="C1108" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="D1108" s="6"/>
       <c r="E1108">
@@ -58225,7 +58200,7 @@
     <row r="1111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1111" s="1"/>
       <c r="C1111" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D1111" s="6"/>
       <c r="E1111">
@@ -58238,7 +58213,7 @@
     <row r="1112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1112" s="1"/>
       <c r="C1112" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D1112" s="6"/>
       <c r="E1112">
@@ -58251,7 +58226,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -58270,7 +58245,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -58283,7 +58258,7 @@
     <row r="1116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1116" s="1"/>
       <c r="C1116" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D1116" s="6"/>
       <c r="E1116">
@@ -58296,7 +58271,7 @@
     <row r="1117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1117" s="1"/>
       <c r="C1117" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D1117" s="6"/>
       <c r="E1117">
@@ -58309,7 +58284,7 @@
     <row r="1118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1118" s="1"/>
       <c r="C1118" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D1118" s="6"/>
       <c r="E1118">
@@ -58322,7 +58297,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -58335,20 +58310,20 @@
     <row r="1120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1120" s="1"/>
       <c r="C1120" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D1120" s="6"/>
       <c r="E1120">
         <v>1</v>
       </c>
       <c r="F1120" s="1">
-        <v>18970</v>
+        <v>22980</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
@@ -58361,7 +58336,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -58374,7 +58349,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
@@ -58387,7 +58362,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -58400,7 +58375,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -58413,7 +58388,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
@@ -58426,7 +58401,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
@@ -58439,7 +58414,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
@@ -58452,7 +58427,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
@@ -58465,7 +58440,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
@@ -58478,7 +58453,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
@@ -58490,11 +58465,11 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B1132" s="1"/>
       <c r="C1132" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D1132" s="6"/>
       <c r="E1132">
@@ -58506,11 +58481,11 @@
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B1133" s="1"/>
       <c r="C1133" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D1133" s="6"/>
       <c r="E1133">
@@ -58526,7 +58501,7 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1134" s="6"/>
       <c r="E1134">
@@ -58542,7 +58517,7 @@
       </c>
       <c r="B1135" s="1"/>
       <c r="C1135" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D1135" s="6"/>
       <c r="E1135">
@@ -58561,7 +58536,7 @@
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1137" s="1"/>
       <c r="C1137" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D1137" s="6"/>
       <c r="E1137">
@@ -58573,11 +58548,11 @@
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B1138" s="1"/>
       <c r="C1138" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D1138" s="6"/>
       <c r="E1138">
@@ -58593,7 +58568,7 @@
       </c>
       <c r="B1139" s="1"/>
       <c r="C1139" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D1139" s="6"/>
       <c r="E1139">
@@ -58618,14 +58593,14 @@
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1142" s="1"/>
       <c r="C1142" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1142" s="6"/>
       <c r="E1142">
         <v>8</v>
       </c>
       <c r="F1142" s="1">
-        <v>960</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
@@ -58637,14 +58612,14 @@
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1144" s="1"/>
       <c r="C1144" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D1144" s="6"/>
       <c r="E1144">
         <v>1</v>
       </c>
       <c r="F1144" s="1">
-        <v>5980</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
@@ -58656,53 +58631,53 @@
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1146" s="1"/>
       <c r="C1146" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D1146" s="6"/>
       <c r="E1146">
         <v>2</v>
       </c>
       <c r="F1146" s="1">
-        <v>5980</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1147" s="1"/>
       <c r="C1147" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D1147" s="6"/>
       <c r="E1147">
         <v>2</v>
       </c>
       <c r="F1147" s="1">
-        <v>5980</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1148" s="1"/>
       <c r="C1148" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D1148" s="6"/>
       <c r="E1148">
         <v>3</v>
       </c>
       <c r="F1148" s="1">
-        <v>5980</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1149" s="1"/>
       <c r="C1149" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D1149" s="6"/>
       <c r="E1149">
         <v>2</v>
       </c>
       <c r="F1149" s="1">
-        <v>2200</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
@@ -58726,7 +58701,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D1153" s="6"/>
       <c r="E1153">
@@ -58739,7 +58714,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -58752,7 +58727,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -58765,7 +58740,7 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D1156" s="6"/>
       <c r="E1156">
@@ -58784,7 +58759,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D1158" s="6"/>
       <c r="E1158">
@@ -58797,7 +58772,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D1159" s="6"/>
       <c r="E1159">
@@ -58822,7 +58797,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D1162" s="6"/>
       <c r="E1162">
@@ -58835,7 +58810,7 @@
     <row r="1163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1163" s="1"/>
       <c r="C1163" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D1163" s="6"/>
       <c r="E1163">
@@ -58848,7 +58823,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D1164" s="6"/>
       <c r="E1164">
@@ -58939,7 +58914,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -58952,7 +58927,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -58965,7 +58940,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -58978,7 +58953,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -58991,7 +58966,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -59016,7 +58991,7 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D1185" s="6"/>
       <c r="E1185">
@@ -59029,7 +59004,7 @@
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D1186" s="6"/>
       <c r="E1186">
@@ -59042,7 +59017,7 @@
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D1187" s="6"/>
       <c r="E1187">
@@ -59129,7 +59104,7 @@
         <v>311</v>
       </c>
       <c r="C1200" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D1200" s="6"/>
       <c r="E1200">
@@ -59144,7 +59119,7 @@
         <v>409</v>
       </c>
       <c r="C1201" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D1201" s="6"/>
       <c r="E1201">
@@ -59163,7 +59138,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D1203" s="6"/>
       <c r="E1203">
@@ -59173,7 +59148,7 @@
         <v>880</v>
       </c>
       <c r="G1203" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -59185,7 +59160,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D1205" s="6"/>
       <c r="E1205">
@@ -59198,7 +59173,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D1206" s="6"/>
       <c r="E1206">
@@ -59211,7 +59186,7 @@
     <row r="1207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1207" s="1"/>
       <c r="C1207" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D1207" s="6"/>
       <c r="E1207">
@@ -59224,7 +59199,7 @@
     <row r="1208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1208" s="1"/>
       <c r="C1208" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D1208" s="6"/>
       <c r="F1208" s="1"/>
@@ -59232,7 +59207,7 @@
     <row r="1209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1209" s="1"/>
       <c r="C1209" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D1209" s="6"/>
       <c r="F1209" s="1">
@@ -59242,7 +59217,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D1210" s="6"/>
       <c r="F1210" s="1">
@@ -59252,7 +59227,7 @@
     <row r="1211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1211" s="1"/>
       <c r="C1211" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D1211" s="6"/>
       <c r="F1211" s="1">
@@ -59262,7 +59237,7 @@
     <row r="1212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1212" s="1"/>
       <c r="C1212" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D1212" s="6"/>
       <c r="E1212">
@@ -59293,7 +59268,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216">
@@ -59306,7 +59281,7 @@
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217">
@@ -59343,7 +59318,7 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222">
@@ -59398,7 +59373,7 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230">
@@ -59422,13 +59397,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C1233" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233">
@@ -59489,7 +59464,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242">
@@ -59508,7 +59483,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244">
@@ -59526,7 +59501,7 @@
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C1246" s="6"/>
       <c r="D1246" s="6"/>
@@ -59541,7 +59516,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248">
@@ -59553,10 +59528,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C1249" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249">
@@ -59568,10 +59543,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C1250" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250">
@@ -59590,7 +59565,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252">
@@ -59627,7 +59602,7 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257">
@@ -59640,7 +59615,7 @@
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258">
@@ -59653,7 +59628,7 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259">
@@ -59666,7 +59641,7 @@
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
       <c r="C1260" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D1260" s="6"/>
       <c r="E1260">
@@ -59679,7 +59654,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261">
@@ -59698,7 +59673,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263">
@@ -59711,7 +59686,7 @@
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="E1264">
@@ -59724,7 +59699,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
@@ -59755,7 +59730,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
@@ -59774,7 +59749,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -59791,7 +59766,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
@@ -59804,7 +59779,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
@@ -59817,7 +59792,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
@@ -59830,7 +59805,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
@@ -59843,7 +59818,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
@@ -59858,10 +59833,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C1278" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
@@ -59876,10 +59851,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C1279" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
@@ -59897,10 +59872,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C1281" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
@@ -59915,7 +59890,7 @@
         <v>429</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
@@ -59927,10 +59902,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -59940,10 +59915,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
@@ -59956,7 +59931,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
@@ -59968,10 +59943,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C1286" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
@@ -59984,7 +59959,7 @@
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
       <c r="C1287" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D1287" s="6"/>
       <c r="E1287">
@@ -60002,10 +59977,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
@@ -60036,7 +60011,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
@@ -60049,7 +60024,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
@@ -60060,7 +60035,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
@@ -60079,7 +60054,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
@@ -60092,7 +60067,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
@@ -60105,7 +60080,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
@@ -60118,7 +60093,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
@@ -60131,7 +60106,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
@@ -60150,7 +60125,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
@@ -60163,7 +60138,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
@@ -60176,7 +60151,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
@@ -60195,7 +60170,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
@@ -60208,7 +60183,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
@@ -60221,7 +60196,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
@@ -60234,7 +60209,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
@@ -60265,7 +60240,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
@@ -60280,7 +60255,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
@@ -60303,7 +60278,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
@@ -60318,7 +60293,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
@@ -60333,7 +60308,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
@@ -60348,10 +60323,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C1320" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
@@ -60367,7 +60342,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
@@ -60383,7 +60358,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
@@ -60399,7 +60374,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
@@ -60415,7 +60390,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
@@ -60431,7 +60406,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
@@ -60447,7 +60422,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
@@ -60460,7 +60435,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
@@ -60556,7 +60531,7 @@
         <v>430</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
@@ -60569,7 +60544,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
@@ -60582,7 +60557,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
@@ -60595,7 +60570,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
@@ -60608,7 +60583,7 @@
     <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1340" s="1"/>
       <c r="C1340" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D1340" s="6"/>
       <c r="E1340">
@@ -60621,7 +60596,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
@@ -60634,7 +60609,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
@@ -60647,7 +60622,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
@@ -60666,7 +60641,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
@@ -60679,7 +60654,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
@@ -60692,7 +60667,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
@@ -60705,7 +60680,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
@@ -60718,7 +60693,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
@@ -60743,7 +60718,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
@@ -60756,7 +60731,7 @@
     <row r="1353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1353" s="1"/>
       <c r="C1353" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D1353" s="6"/>
       <c r="E1353">
@@ -60769,7 +60744,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -60784,7 +60759,7 @@
         <v>422</v>
       </c>
       <c r="C1355" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D1355" s="6"/>
       <c r="E1355" s="1">
@@ -60796,10 +60771,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C1356" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
@@ -60812,7 +60787,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
@@ -60867,7 +60842,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
@@ -60880,7 +60855,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
@@ -60893,7 +60868,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
@@ -60906,7 +60881,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
@@ -60919,7 +60894,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
@@ -60932,7 +60907,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
@@ -60945,7 +60920,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
@@ -60958,7 +60933,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
@@ -60971,7 +60946,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
@@ -60984,7 +60959,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
@@ -60997,7 +60972,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -61008,7 +60983,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
@@ -61021,7 +60996,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
@@ -61034,7 +61009,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -61047,7 +61022,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -61060,7 +61035,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
@@ -61073,7 +61048,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
@@ -61086,7 +61061,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
@@ -61138,7 +61113,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -61151,7 +61126,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D1388" s="6"/>
       <c r="E1388" s="1">
@@ -61164,7 +61139,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
@@ -61177,7 +61152,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
@@ -61190,7 +61165,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
@@ -61203,7 +61178,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
@@ -61216,7 +61191,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61229,7 +61204,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61242,7 +61217,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
@@ -61255,7 +61230,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
@@ -61268,7 +61243,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
@@ -61281,7 +61256,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -61294,7 +61269,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
@@ -61307,7 +61282,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -61320,7 +61295,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -61333,7 +61308,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
@@ -61346,7 +61321,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
@@ -61358,10 +61333,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C1404" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
@@ -61376,7 +61351,7 @@
         <v>311</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
@@ -61388,10 +61363,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C1406" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
@@ -61404,7 +61379,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
@@ -61424,7 +61399,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
@@ -61444,7 +61419,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
@@ -61459,7 +61434,7 @@
         <v>311</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
@@ -61472,7 +61447,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
@@ -61485,7 +61460,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
@@ -61512,7 +61487,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
@@ -61532,7 +61507,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
@@ -61545,7 +61520,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
@@ -61558,7 +61533,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
@@ -61578,7 +61553,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
@@ -61591,7 +61566,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -61604,7 +61579,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">
@@ -61617,7 +61592,7 @@
     <row r="1426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
       <c r="C1426" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D1426" s="6"/>
       <c r="E1426" s="1">
@@ -61630,7 +61605,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
@@ -61643,7 +61618,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
@@ -61662,7 +61637,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="F1430" s="1"/>
@@ -61670,7 +61645,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="F1431" s="1"/>
@@ -61678,7 +61653,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
@@ -61709,7 +61684,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AED6011-0B4E-4445-BFA5-24F7B9A6D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D59A4-5FD9-40BA-AB19-E176532916FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="974">
   <si>
     <t>Articulo</t>
   </si>
@@ -2041,21 +2041,9 @@
     <t>conjunto nike nene remera y pantalon</t>
   </si>
   <si>
-    <t>bolso 33x33x75</t>
-  </si>
-  <si>
-    <t>bolso 33x33x57</t>
-  </si>
-  <si>
-    <t>bolso 25x25x54</t>
-  </si>
-  <si>
     <t>bolso 18x25x48</t>
   </si>
   <si>
-    <t>bolso 25x28x35</t>
-  </si>
-  <si>
     <t>camisa de hombre ripblanthi</t>
   </si>
   <si>
@@ -2269,9 +2257,6 @@
     <t>camisa lino hombre</t>
   </si>
   <si>
-    <t>remera connection</t>
-  </si>
-  <si>
     <t>camille gomones</t>
   </si>
   <si>
@@ -2293,9 +2278,6 @@
     <t>remera nena creppe con encaje</t>
   </si>
   <si>
-    <t>remera nena nuevas estampadas</t>
-  </si>
-  <si>
     <t>kansas</t>
   </si>
   <si>
@@ -2347,9 +2329,6 @@
     <t>cenitho pollera negra</t>
   </si>
   <si>
-    <t>remera lentejuela mujer</t>
-  </si>
-  <si>
     <t>ojotas mujer caribeña, berel y negra lisa</t>
   </si>
   <si>
@@ -2551,9 +2530,6 @@
     <t>jogging adidas lycra nene</t>
   </si>
   <si>
-    <t>buzo canguro narrow/ original/billabong adulto</t>
-  </si>
-  <si>
     <t>campera bebe ido kids</t>
   </si>
   <si>
@@ -2707,9 +2683,6 @@
     <t>cinto hombre 3,5</t>
   </si>
   <si>
-    <t>cinto hombre 2,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">cinto hombre 3,5 combinado </t>
   </si>
   <si>
@@ -2972,6 +2945,12 @@
   </si>
   <si>
     <t>art.222</t>
+  </si>
+  <si>
+    <t>cinto hombre opaco</t>
+  </si>
+  <si>
+    <t>cinto nene 2,5</t>
   </si>
 </sst>
 </file>
@@ -44073,8 +44052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1133" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1149" sqref="F1149"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1421" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1436" sqref="F1436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44507,7 +44486,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44519,7 +44498,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44543,7 +44522,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44555,7 +44534,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -44567,7 +44546,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -44646,7 +44625,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -44686,7 +44665,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45183,7 +45162,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45201,7 +45180,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45219,7 +45198,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -45583,7 +45562,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -45729,7 +45708,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1">
@@ -45765,7 +45744,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -45791,7 +45770,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -45801,7 +45780,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -45883,7 +45862,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46267,7 +46246,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="6" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="1">
@@ -46407,7 +46386,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46439,7 +46418,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46453,7 +46432,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46467,7 +46446,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46547,7 +46526,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46579,7 +46558,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -46647,7 +46626,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="1">
@@ -47039,7 +47018,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
@@ -47455,13 +47434,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -47745,7 +47724,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -47955,7 +47934,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -47969,7 +47948,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48676,7 +48655,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -48706,7 +48685,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -48790,7 +48769,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -48918,7 +48897,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -48964,7 +48943,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -49078,7 +49057,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -49092,7 +49071,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49106,7 +49085,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49175,10 +49154,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49302,7 +49281,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49479,7 +49458,7 @@
         <v>311</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49511,7 +49490,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49528,7 +49507,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49592,7 +49571,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -49796,10 +49775,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -49812,10 +49791,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -49917,7 +49896,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -49926,10 +49905,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -51301,7 +51280,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51323,7 +51302,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51371,7 +51350,7 @@
         <v>386</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -51383,7 +51362,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -51505,7 +51484,7 @@
         <v>311</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -51519,7 +51498,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -51559,7 +51538,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -51761,7 +51740,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -51789,7 +51768,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -51831,7 +51810,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -51859,7 +51838,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -51993,7 +51972,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52029,7 +52008,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52067,7 +52046,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52081,7 +52060,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52095,7 +52074,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52109,7 +52088,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D555" s="6"/>
       <c r="E555" s="1">
@@ -52123,7 +52102,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52137,7 +52116,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52383,7 +52362,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -52593,7 +52572,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -52735,7 +52714,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -52883,7 +52862,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -52896,7 +52875,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>449</v>
@@ -52927,7 +52906,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -52941,7 +52920,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -52955,7 +52934,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="D631" s="6"/>
       <c r="E631" s="1">
@@ -53235,7 +53214,7 @@
         <v>422</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
@@ -53251,7 +53230,7 @@
         <v>386</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
@@ -53267,7 +53246,7 @@
         <v>422</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
@@ -53283,7 +53262,7 @@
         <v>422</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
@@ -53299,7 +53278,7 @@
         <v>422</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
@@ -53313,7 +53292,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -53471,7 +53450,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -53485,7 +53464,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -53499,7 +53478,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -53595,7 +53574,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -54002,7 +53981,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -54015,7 +53994,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54028,7 +54007,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54154,13 +54133,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54172,13 +54151,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54190,13 +54169,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54208,13 +54187,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="C740" s="6" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54226,13 +54205,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54244,13 +54223,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54262,13 +54241,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C743" s="6" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54280,10 +54259,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -54295,10 +54274,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -54311,7 +54290,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -54383,7 +54362,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -54397,7 +54376,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -54411,7 +54390,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -54427,7 +54406,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -54442,7 +54421,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -54471,7 +54450,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -54502,7 +54481,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -54544,7 +54523,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -54623,7 +54602,7 @@
         <v>509</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C771" s="6" t="s">
         <v>511</v>
@@ -54656,11 +54635,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
@@ -55384,7 +55363,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -55475,7 +55454,7 @@
         <v>630</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
@@ -55490,7 +55469,7 @@
         <v>630</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
@@ -55502,10 +55481,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C849" s="6" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
@@ -55520,7 +55499,7 @@
         <v>492</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
@@ -55533,7 +55512,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
@@ -55952,7 +55931,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
@@ -55965,7 +55944,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
@@ -55978,7 +55957,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
@@ -55991,7 +55970,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
@@ -56004,7 +55983,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
@@ -56017,7 +55996,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
@@ -56199,7 +56178,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
@@ -56804,7 +56783,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -57243,7 +57222,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
@@ -57271,7 +57250,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
@@ -57376,7 +57355,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -57860,7 +57839,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
@@ -57892,7 +57871,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -58034,7 +58013,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
@@ -58226,7 +58205,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -58245,7 +58224,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -58297,7 +58276,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -58323,7 +58302,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
@@ -58336,7 +58315,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -58349,7 +58328,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
@@ -58362,7 +58341,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -58375,7 +58354,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -58388,7 +58367,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
@@ -58401,7 +58380,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
@@ -58414,7 +58393,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
@@ -58427,7 +58406,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
@@ -58440,7 +58419,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
@@ -58453,7 +58432,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
@@ -58701,7 +58680,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="6" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D1153" s="6"/>
       <c r="E1153">
@@ -58714,7 +58693,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -58727,14 +58706,14 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
         <v>1</v>
       </c>
       <c r="F1155" s="1">
-        <v>4980</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
@@ -58747,7 +58726,7 @@
         <v>10</v>
       </c>
       <c r="F1156" s="1">
-        <v>3300</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1157" spans="2:6" x14ac:dyDescent="0.25">
@@ -58766,7 +58745,7 @@
         <v>8</v>
       </c>
       <c r="F1158" s="1">
-        <v>2980</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
@@ -58779,7 +58758,7 @@
         <v>4</v>
       </c>
       <c r="F1159" s="1">
-        <v>2400</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1160" spans="2:6" x14ac:dyDescent="0.25">
@@ -58804,21 +58783,14 @@
         <v>8</v>
       </c>
       <c r="F1162" s="1">
-        <v>1680</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1163" s="1"/>
-      <c r="C1163" s="6" t="s">
-        <v>840</v>
-      </c>
+      <c r="C1163" s="6"/>
       <c r="D1163" s="6"/>
-      <c r="E1163">
-        <v>1</v>
-      </c>
-      <c r="F1163" s="1">
-        <v>9600</v>
-      </c>
+      <c r="F1163" s="1"/>
     </row>
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
@@ -58830,7 +58802,7 @@
         <v>1</v>
       </c>
       <c r="F1164" s="1">
-        <v>1790</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1165" spans="2:6" x14ac:dyDescent="0.25">
@@ -58914,46 +58886,46 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
         <v>1</v>
       </c>
       <c r="F1178" s="1">
-        <v>3600</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
         <v>1</v>
       </c>
       <c r="F1179" s="1">
-        <v>5980</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
         <v>1</v>
       </c>
       <c r="F1180" s="1">
-        <v>3900</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -58966,7 +58938,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -58995,10 +58967,10 @@
       </c>
       <c r="D1185" s="6"/>
       <c r="E1185">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F1185" s="1">
-        <v>2400</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
@@ -59008,10 +58980,10 @@
       </c>
       <c r="D1186" s="6"/>
       <c r="E1186">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F1186" s="1">
-        <v>2400</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
@@ -59021,10 +58993,10 @@
       </c>
       <c r="D1187" s="6"/>
       <c r="E1187">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F1187" s="1">
-        <v>280</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
@@ -59111,7 +59083,7 @@
         <v>2</v>
       </c>
       <c r="F1200" s="1">
-        <v>4380</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1201" spans="2:7" x14ac:dyDescent="0.25">
@@ -59126,7 +59098,7 @@
         <v>1</v>
       </c>
       <c r="F1201" s="1">
-        <v>4380</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1202" spans="2:7" x14ac:dyDescent="0.25">
@@ -59145,7 +59117,7 @@
         <v>2</v>
       </c>
       <c r="F1203" s="1">
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="G1203" t="s">
         <v>667</v>
@@ -59167,7 +59139,7 @@
         <v>23</v>
       </c>
       <c r="F1205" s="1">
-        <v>5980</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
@@ -59180,71 +59152,57 @@
         <v>9</v>
       </c>
       <c r="F1206" s="1">
-        <v>3890</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="1207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1207" s="1"/>
-      <c r="C1207" s="6" t="s">
-        <v>670</v>
-      </c>
+      <c r="C1207" s="6"/>
       <c r="D1207" s="6"/>
-      <c r="E1207">
-        <v>2</v>
-      </c>
-      <c r="F1207" s="1">
-        <v>7100</v>
-      </c>
+      <c r="F1207" s="1"/>
     </row>
     <row r="1208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1208" s="1"/>
-      <c r="C1208" s="6" t="s">
-        <v>671</v>
-      </c>
+      <c r="C1208" s="6"/>
       <c r="D1208" s="6"/>
       <c r="F1208" s="1"/>
     </row>
     <row r="1209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1209" s="1"/>
-      <c r="C1209" s="6" t="s">
-        <v>672</v>
-      </c>
+      <c r="C1209" s="6"/>
       <c r="D1209" s="6"/>
-      <c r="F1209" s="1">
-        <v>6800</v>
-      </c>
+      <c r="F1209" s="1"/>
     </row>
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="6" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D1210" s="6"/>
+      <c r="E1210">
+        <v>1</v>
+      </c>
       <c r="F1210" s="1">
-        <v>5300</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1211" s="1"/>
-      <c r="C1211" s="6" t="s">
-        <v>674</v>
-      </c>
+      <c r="C1211" s="6"/>
       <c r="D1211" s="6"/>
-      <c r="F1211" s="1">
-        <v>4800</v>
-      </c>
+      <c r="F1211" s="1"/>
     </row>
     <row r="1212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1212" s="1"/>
       <c r="C1212" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D1212" s="6"/>
       <c r="E1212">
         <v>2</v>
       </c>
       <c r="F1212" s="1">
-        <v>8980</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
@@ -59268,7 +59226,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216">
@@ -59281,7 +59239,7 @@
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217">
@@ -59318,14 +59276,14 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222">
         <v>1</v>
       </c>
       <c r="F1222" s="1">
-        <v>14680</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="1223" spans="2:6" x14ac:dyDescent="0.25">
@@ -59373,14 +59331,14 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230">
         <v>1</v>
       </c>
       <c r="F1230" s="1">
-        <v>830</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1231" spans="2:6" x14ac:dyDescent="0.25">
@@ -59397,20 +59355,20 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C1233" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233">
         <v>1</v>
       </c>
       <c r="F1233" s="1">
-        <v>16900</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
@@ -59464,14 +59422,14 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242">
         <v>2</v>
       </c>
       <c r="F1242" s="1">
-        <v>3180</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
@@ -59483,14 +59441,14 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244">
         <v>3</v>
       </c>
       <c r="F1244" s="1">
-        <v>3380</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.25">
@@ -59516,44 +59474,44 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248">
         <v>2</v>
       </c>
       <c r="F1248" s="1">
-        <v>2350</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C1249" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249">
         <v>3</v>
       </c>
       <c r="F1249" s="1">
-        <v>1950</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C1250" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250">
         <v>4</v>
       </c>
       <c r="F1250" s="1">
-        <v>2350</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1251" spans="2:6" x14ac:dyDescent="0.25">
@@ -59565,14 +59523,14 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252">
         <v>8</v>
       </c>
       <c r="F1252" s="1">
-        <v>895</v>
+        <v>980</v>
       </c>
     </row>
     <row r="1253" spans="2:6" x14ac:dyDescent="0.25">
@@ -59602,66 +59560,66 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257">
         <v>4</v>
       </c>
       <c r="F1257" s="1">
-        <v>4180</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258">
         <v>2</v>
       </c>
       <c r="F1258" s="1">
-        <v>4980</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="6" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259">
         <v>5</v>
       </c>
       <c r="F1259" s="1">
-        <v>4590</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
       <c r="C1260" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D1260" s="6"/>
       <c r="E1260">
         <v>14</v>
       </c>
       <c r="F1260" s="1">
-        <v>1980</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261">
         <v>11</v>
       </c>
       <c r="F1261" s="1">
-        <v>1390</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1262" spans="2:6" x14ac:dyDescent="0.25">
@@ -59673,40 +59631,40 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263">
         <v>1</v>
       </c>
       <c r="F1263" s="1">
-        <v>2590</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="E1264">
         <v>12</v>
       </c>
       <c r="F1264" s="1">
-        <v>1180</v>
+        <v>15400</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
         <v>11</v>
       </c>
       <c r="F1265" s="1">
-        <v>2200</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
@@ -59730,14 +59688,14 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
         <v>12</v>
       </c>
       <c r="F1269" s="1">
-        <v>1590</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
@@ -59749,7 +59707,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -59766,66 +59724,66 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
         <v>5</v>
       </c>
       <c r="F1273" s="1">
-        <v>5980</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
         <v>1</v>
       </c>
       <c r="F1274" s="1">
-        <v>5980</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
         <v>3</v>
       </c>
       <c r="F1275" s="1">
-        <v>4800</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
         <v>12</v>
       </c>
       <c r="F1276" s="1">
-        <v>5980</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
         <v>13</v>
       </c>
       <c r="F1277" s="1">
-        <v>5980</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
@@ -59833,17 +59791,17 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C1278" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
         <v>5</v>
       </c>
       <c r="F1278" s="1">
-        <v>3380</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
@@ -59851,17 +59809,17 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C1279" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
         <v>4</v>
       </c>
       <c r="F1279" s="1">
-        <v>2980</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
@@ -59872,17 +59830,17 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C1281" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
         <v>2</v>
       </c>
       <c r="F1281" s="1">
-        <v>3250</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1282" spans="2:6" x14ac:dyDescent="0.25">
@@ -59890,22 +59848,22 @@
         <v>429</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
         <v>3</v>
       </c>
       <c r="F1282" s="1">
-        <v>2980</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -59915,58 +59873,58 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
         <v>3</v>
       </c>
       <c r="F1284" s="1">
-        <v>2100</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
         <v>6</v>
       </c>
       <c r="F1285" s="1">
-        <v>1850</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C1286" s="6" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
         <v>1</v>
       </c>
       <c r="F1286" s="1">
-        <v>1440</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
       <c r="C1287" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D1287" s="6"/>
       <c r="E1287">
         <v>12</v>
       </c>
       <c r="F1287" s="1">
-        <v>2180</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1288" spans="2:6" x14ac:dyDescent="0.25">
@@ -59977,17 +59935,17 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
         <v>3</v>
       </c>
       <c r="F1289" s="1">
-        <v>3090</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1290" spans="2:6" x14ac:dyDescent="0.25">
@@ -60011,20 +59969,20 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
         <v>5</v>
       </c>
       <c r="F1293" s="1">
-        <v>1890</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
@@ -60035,14 +59993,14 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
         <v>7</v>
       </c>
       <c r="F1295" s="1">
-        <v>2780</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1296" spans="2:6" x14ac:dyDescent="0.25">
@@ -60054,66 +60012,66 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
         <v>8</v>
       </c>
       <c r="F1297" s="1">
-        <v>4590</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
         <v>4</v>
       </c>
       <c r="F1298" s="1">
-        <v>3390</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
         <v>4</v>
       </c>
       <c r="F1299" s="1">
-        <v>2590</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
         <v>5</v>
       </c>
       <c r="F1300" s="1">
-        <v>2590</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
         <v>15</v>
       </c>
       <c r="F1301" s="1">
-        <v>3590</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1302" spans="2:6" x14ac:dyDescent="0.25">
@@ -60125,40 +60083,40 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
         <v>4</v>
       </c>
       <c r="F1303" s="1">
-        <v>2980</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
         <v>3</v>
       </c>
       <c r="F1304" s="1">
-        <v>2190</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
         <v>2</v>
       </c>
       <c r="F1305" s="1">
-        <v>2480</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1306" spans="2:6" x14ac:dyDescent="0.25">
@@ -60170,53 +60128,53 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
         <v>3</v>
       </c>
       <c r="F1307" s="1">
-        <v>1100</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
         <v>5</v>
       </c>
       <c r="F1308" s="1">
-        <v>3680</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
         <v>3</v>
       </c>
       <c r="F1309" s="1">
-        <v>3590</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
         <v>2</v>
       </c>
       <c r="F1310" s="1">
-        <v>3590</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="1311" spans="2:6" x14ac:dyDescent="0.25">
@@ -60240,14 +60198,14 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
         <v>1</v>
       </c>
       <c r="F1314" s="1">
-        <v>2590</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
@@ -60255,14 +60213,14 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
         <v>6</v>
       </c>
       <c r="F1315" s="1">
-        <v>3490</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1316" spans="1:6" x14ac:dyDescent="0.25">
@@ -60278,14 +60236,14 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
         <v>6</v>
       </c>
       <c r="F1317" s="1">
-        <v>6980</v>
+        <v>9100</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
@@ -60293,14 +60251,14 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
         <v>6</v>
       </c>
       <c r="F1318" s="1">
-        <v>3280</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.25">
@@ -60308,14 +60266,14 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
         <v>9</v>
       </c>
       <c r="F1319" s="1">
-        <v>5230</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1320" spans="1:6" x14ac:dyDescent="0.25">
@@ -60323,17 +60281,17 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C1320" s="6" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
         <v>8</v>
       </c>
       <c r="F1320" s="1">
-        <v>3680</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
@@ -60342,14 +60300,14 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
         <v>10</v>
       </c>
       <c r="F1321" s="1">
-        <v>4450</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
@@ -60358,14 +60316,14 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
         <v>4</v>
       </c>
       <c r="F1322" s="1">
-        <v>3750</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
@@ -60374,14 +60332,14 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
         <v>6</v>
       </c>
       <c r="F1323" s="1">
-        <v>3450</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
@@ -60390,14 +60348,14 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
         <v>9</v>
       </c>
       <c r="F1324" s="1">
-        <v>2450</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1325" spans="1:6" x14ac:dyDescent="0.25">
@@ -60406,14 +60364,14 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
         <v>8</v>
       </c>
       <c r="F1325" s="1">
-        <v>3850</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
@@ -60422,27 +60380,27 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
         <v>5</v>
       </c>
       <c r="F1326" s="1">
-        <v>3290</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
         <v>16</v>
       </c>
       <c r="F1327" s="1">
-        <v>490</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
@@ -60531,176 +60489,176 @@
         <v>430</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
         <v>5</v>
       </c>
       <c r="F1336" s="1">
-        <v>3220</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
         <v>1</v>
       </c>
       <c r="F1337" s="1">
-        <v>4800</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
         <v>1</v>
       </c>
       <c r="F1338" s="1">
-        <v>5290</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
         <v>5</v>
       </c>
       <c r="F1339" s="1">
-        <v>7890</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1340" s="1"/>
-      <c r="C1340" s="6" t="s">
-        <v>746</v>
-      </c>
+      <c r="C1340" s="6"/>
       <c r="D1340" s="6"/>
-      <c r="E1340">
-        <v>1</v>
-      </c>
-      <c r="F1340" s="1">
-        <v>3200</v>
-      </c>
+      <c r="F1340" s="1"/>
     </row>
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
         <v>1</v>
       </c>
       <c r="F1341" s="1">
-        <v>4980</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>892</v>
+        <v>973</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
         <v>1</v>
       </c>
       <c r="F1342" s="1">
-        <v>3590</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
         <v>1</v>
       </c>
       <c r="F1343" s="1">
-        <v>4290</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
-      <c r="C1344" s="6"/>
+      <c r="C1344" s="6" t="s">
+        <v>972</v>
+      </c>
       <c r="D1344" s="6"/>
-      <c r="F1344" s="1"/>
+      <c r="E1344">
+        <v>1</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>6500</v>
+      </c>
     </row>
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
         <v>3</v>
       </c>
       <c r="F1345" s="1">
-        <v>2890</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
         <v>6</v>
       </c>
       <c r="F1346" s="1">
-        <v>3480</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
         <v>3</v>
       </c>
       <c r="F1347" s="1">
-        <v>9800</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
         <v>9</v>
       </c>
       <c r="F1348" s="1">
-        <v>7590</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
         <v>12</v>
       </c>
       <c r="F1349" s="1">
-        <v>2290</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1350" spans="2:6" x14ac:dyDescent="0.25">
@@ -60718,83 +60676,75 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
         <v>4</v>
       </c>
       <c r="F1352" s="1">
-        <v>2580</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="1353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1353" s="1"/>
       <c r="C1353" s="6" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="D1353" s="6"/>
       <c r="E1353">
         <v>4</v>
       </c>
       <c r="F1353" s="1">
-        <v>2470</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
         <v>10</v>
       </c>
       <c r="F1354" s="1">
-        <v>11980</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="1355" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1355" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C1355" s="6" t="s">
-        <v>754</v>
-      </c>
+      <c r="B1355" s="1"/>
+      <c r="C1355" s="6"/>
       <c r="D1355" s="6"/>
-      <c r="E1355" s="1">
-        <v>9</v>
-      </c>
-      <c r="F1355" s="1">
-        <v>1950</v>
-      </c>
+      <c r="E1355" s="1"/>
+      <c r="F1355" s="1"/>
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C1356" s="6" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
         <v>26</v>
       </c>
       <c r="F1356" s="1">
-        <v>8980</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
         <v>7</v>
       </c>
       <c r="F1357" s="1">
-        <v>8980</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="1358" spans="2:6" x14ac:dyDescent="0.25">
@@ -60842,137 +60792,137 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
         <v>3</v>
       </c>
       <c r="F1364" s="1">
-        <v>2790</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
         <v>5</v>
       </c>
       <c r="F1365" s="1">
-        <v>3290</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
         <v>1</v>
       </c>
       <c r="F1366" s="1">
-        <v>540</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
         <v>1</v>
       </c>
       <c r="F1367" s="1">
-        <v>1170</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
         <v>4</v>
       </c>
       <c r="F1368" s="1">
-        <v>2780</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
         <v>5</v>
       </c>
       <c r="F1369" s="1">
-        <v>1980</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
         <v>2</v>
       </c>
       <c r="F1370" s="1">
-        <v>3580</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
         <v>3</v>
       </c>
       <c r="F1371" s="1">
-        <v>3180</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
         <v>5</v>
       </c>
       <c r="F1372" s="1">
-        <v>6130</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
         <v>4</v>
       </c>
       <c r="F1373" s="1">
-        <v>8250</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -60983,33 +60933,33 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
         <v>8</v>
       </c>
       <c r="F1375" s="1">
-        <v>4200</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
         <v>5</v>
       </c>
       <c r="F1376" s="1">
-        <v>4180</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -61022,7 +60972,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -61035,52 +60985,48 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
         <v>3</v>
       </c>
       <c r="F1379" s="1">
-        <v>5850</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
         <v>5</v>
       </c>
       <c r="F1380" s="1">
-        <v>5850</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
         <v>1</v>
       </c>
       <c r="F1381" s="1">
-        <v>7780</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="6"/>
       <c r="D1382" s="6"/>
-      <c r="E1382" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1382" s="1">
-        <v>3450</v>
-      </c>
+      <c r="E1382" s="1"/>
+      <c r="F1382" s="1"/>
     </row>
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
@@ -61113,7 +61059,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -61125,73 +61071,67 @@
     </row>
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
-      <c r="C1388" s="6" t="s">
-        <v>772</v>
-      </c>
+      <c r="C1388" s="6"/>
       <c r="D1388" s="6"/>
-      <c r="E1388" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1388" s="1">
-        <v>4090</v>
-      </c>
+      <c r="E1388" s="1"/>
+      <c r="F1388" s="1"/>
     </row>
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
         <v>1</v>
       </c>
       <c r="F1389" s="1">
-        <v>1000</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
         <v>36</v>
       </c>
       <c r="F1390" s="1">
-        <v>740</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
         <v>4</v>
       </c>
       <c r="F1391" s="1">
-        <v>1650</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
         <v>32</v>
       </c>
       <c r="F1392" s="1">
-        <v>740</v>
+        <v>950</v>
       </c>
     </row>
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61204,7 +61144,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61217,46 +61157,46 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
         <v>1</v>
       </c>
       <c r="F1395" s="1">
-        <v>3790</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
         <v>3</v>
       </c>
       <c r="F1396" s="1">
-        <v>3680</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
         <v>2</v>
       </c>
       <c r="F1397" s="1">
-        <v>3650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -61269,20 +61209,20 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
         <v>4</v>
       </c>
       <c r="F1399" s="1">
-        <v>6880</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -61295,7 +61235,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -61308,42 +61248,42 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
         <v>5</v>
       </c>
       <c r="F1402" s="1">
-        <v>3800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
         <v>8</v>
       </c>
       <c r="F1403" s="1">
-        <v>4180</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C1404" s="6" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
         <v>1</v>
       </c>
       <c r="F1404" s="1">
-        <v>1590</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1405" spans="2:6" x14ac:dyDescent="0.25">
@@ -61351,42 +61291,42 @@
         <v>311</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
         <v>2</v>
       </c>
       <c r="F1405" s="1">
-        <v>2100</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C1406" s="6" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
         <v>2</v>
       </c>
       <c r="F1406" s="1">
-        <v>2440</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
         <v>4</v>
       </c>
       <c r="F1407" s="1">
-        <v>5150</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1408" spans="2:6" x14ac:dyDescent="0.25">
@@ -61399,14 +61339,14 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
         <v>3</v>
       </c>
       <c r="F1409" s="1">
-        <v>3800</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1410" spans="2:6" x14ac:dyDescent="0.25">
@@ -61419,14 +61359,14 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
         <v>2</v>
       </c>
       <c r="F1411" s="1">
-        <v>5500</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="1412" spans="2:6" x14ac:dyDescent="0.25">
@@ -61434,40 +61374,40 @@
         <v>311</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
         <v>1</v>
       </c>
       <c r="F1412" s="1">
-        <v>5320</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
         <v>7</v>
       </c>
       <c r="F1413" s="1">
-        <v>7890</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
         <v>8</v>
       </c>
       <c r="F1414" s="1">
-        <v>3380</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
@@ -61487,14 +61427,14 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
         <v>20</v>
       </c>
       <c r="F1417" s="1">
-        <v>3980</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1418" spans="2:6" x14ac:dyDescent="0.25">
@@ -61507,40 +61447,40 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
         <v>3</v>
       </c>
       <c r="F1419" s="1">
-        <v>3800</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
         <v>9</v>
       </c>
       <c r="F1420" s="1">
-        <v>3040</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
         <v>15</v>
       </c>
       <c r="F1421" s="1">
-        <v>4180</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="1422" spans="2:6" x14ac:dyDescent="0.25">
@@ -61553,79 +61493,79 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
         <v>12</v>
       </c>
       <c r="F1423" s="1">
-        <v>3670</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
         <v>1</v>
       </c>
       <c r="F1424" s="1">
-        <v>3850</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">
         <v>1</v>
       </c>
       <c r="F1425" s="1">
-        <v>7500</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="1426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
       <c r="C1426" s="6" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="D1426" s="6"/>
       <c r="E1426" s="1">
         <v>1</v>
       </c>
       <c r="F1426" s="1">
-        <v>1980</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
         <v>10</v>
       </c>
       <c r="F1427" s="1">
-        <v>5980</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
         <v>8</v>
       </c>
       <c r="F1428" s="1">
-        <v>3970</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1429" spans="2:6" x14ac:dyDescent="0.25">
@@ -61637,7 +61577,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="F1430" s="1"/>
@@ -61645,7 +61585,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="F1431" s="1"/>
@@ -61653,14 +61593,14 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
         <v>1</v>
       </c>
       <c r="F1432" s="1">
-        <v>7990</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
@@ -61684,11 +61624,11 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">
-        <v>2380</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1437" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4D59A4-5FD9-40BA-AB19-E176532916FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C95088-BAE5-4E3C-BFAB-BC55E39D29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11190,7 +11190,7 @@
                   <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>5980</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11890</c:v>
@@ -21583,7 +21583,7 @@
                   <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>5980</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11890</c:v>
@@ -31976,7 +31976,7 @@
                   <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>5980</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>11890</c:v>
@@ -41673,7 +41673,7 @@
                   <c:v>10200</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>5980</c:v>
+                  <c:v>6780</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>11890</c:v>
@@ -44052,8 +44052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1421" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1436" sqref="F1436"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A314" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F326" sqref="F326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49164,7 +49164,7 @@
         <v>1</v>
       </c>
       <c r="F326" s="1">
-        <v>5980</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C95088-BAE5-4E3C-BFAB-BC55E39D29EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB67EE-99B9-4E73-8096-B11489655A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44052,8 +44052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A314" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F326" sqref="F326"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1381" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1393" sqref="F1393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61138,7 +61138,7 @@
         <v>3</v>
       </c>
       <c r="F1393" s="1">
-        <v>14500</v>
+        <v>17400</v>
       </c>
     </row>
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AB67EE-99B9-4E73-8096-B11489655A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA03331-3965-40B6-AC54-232C4CE67FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="971">
   <si>
     <t>Articulo</t>
   </si>
@@ -1420,12 +1420,6 @@
     <t>sueter cuello redondo lana mauro sergio 419</t>
   </si>
   <si>
-    <t>campera lana mauro sergio 259</t>
-  </si>
-  <si>
-    <t>sueter de hilo cuello v mauro sergio</t>
-  </si>
-  <si>
     <t>buzo nene cuello redondo bordado tommy lacos</t>
   </si>
   <si>
@@ -2603,9 +2597,6 @@
   </si>
   <si>
     <t xml:space="preserve">medias floyd 2 rayas mujer </t>
-  </si>
-  <si>
-    <t>medias floyd light termica mujer</t>
   </si>
   <si>
     <t>medias floyd termica hombre</t>
@@ -3627,9 +3618,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -5745,9 +5733,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -7738,9 +7723,6 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
@@ -8733,9 +8715,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -10727,9 +10706,6 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>1100</c:v>
-                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -10863,7 +10839,7 @@
                   <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1400</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>5815</c:v>
@@ -11687,9 +11663,6 @@
                   </c:pt>
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
                   </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
@@ -14020,9 +13993,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -16138,9 +16108,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -18131,9 +18098,6 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
@@ -19126,9 +19090,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -21120,9 +21081,6 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>1100</c:v>
-                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -21256,7 +21214,7 @@
                   <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1400</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>5815</c:v>
@@ -22080,9 +22038,6 @@
                   </c:pt>
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
                   </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
@@ -24413,9 +24368,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -26531,9 +26483,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -28524,9 +28473,6 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
@@ -29519,9 +29465,6 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
-                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -31513,9 +31456,6 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
-                <c:pt idx="124">
-                  <c:v>1100</c:v>
-                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -31649,7 +31589,7 @@
                   <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1400</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>5815</c:v>
@@ -32473,9 +32413,6 @@
                   </c:pt>
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
-                  </c:pt>
-                  <c:pt idx="124">
-                    <c:v>medias floyd light termica mujer</c:v>
                   </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
@@ -36821,9 +36758,6 @@
                 <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
@@ -39398,9 +39332,6 @@
                 <c:pt idx="98">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="100">
                   <c:v>9</c:v>
                 </c:pt>
@@ -41210,9 +41141,6 @@
                 <c:pt idx="98">
                   <c:v>12890</c:v>
                 </c:pt>
-                <c:pt idx="99">
-                  <c:v>1100</c:v>
-                </c:pt>
                 <c:pt idx="100">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -41346,7 +41274,7 @@
                   <c:v>3750</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>1400</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="145">
                   <c:v>5815</c:v>
@@ -44052,8 +43980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1381" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1393" sqref="F1393"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1114" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1130" sqref="F1130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44486,7 +44414,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44498,7 +44426,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44522,7 +44450,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44534,7 +44462,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -44546,7 +44474,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -44625,7 +44553,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -44665,7 +44593,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45162,7 +45090,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45180,7 +45108,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45198,7 +45126,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -45562,7 +45490,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -45708,7 +45636,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1">
@@ -45744,7 +45672,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -45770,7 +45698,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -45780,7 +45708,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -45862,7 +45790,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46245,16 +46173,10 @@
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
-      <c r="C143" s="6" t="s">
-        <v>858</v>
-      </c>
+      <c r="C143" s="6"/>
       <c r="D143" s="6"/>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="1">
-        <v>1100</v>
-      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -46386,7 +46308,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46418,7 +46340,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46432,7 +46354,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46446,7 +46368,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46526,7 +46448,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46558,7 +46480,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -46626,7 +46548,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="1">
@@ -47018,14 +46940,14 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
         <v>1</v>
       </c>
       <c r="F188" s="1">
-        <v>1400</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -47434,13 +47356,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -47724,7 +47646,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -47934,7 +47856,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -47948,7 +47870,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48655,7 +48577,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -48685,7 +48607,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -48769,7 +48691,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -48897,7 +48819,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -48943,7 +48865,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -49057,7 +48979,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -49071,7 +48993,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49085,7 +49007,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49154,10 +49076,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49281,7 +49203,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49458,7 +49380,7 @@
         <v>311</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49490,7 +49412,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49507,7 +49429,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49571,7 +49493,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -49775,10 +49697,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -49791,10 +49713,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -49896,7 +49818,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -49905,10 +49827,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -51280,7 +51202,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51302,7 +51224,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51350,7 +51272,7 @@
         <v>386</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -51362,7 +51284,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -51484,7 +51406,7 @@
         <v>311</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -51498,7 +51420,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -51538,7 +51460,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -51740,7 +51662,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -51768,7 +51690,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -51810,7 +51732,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -51838,7 +51760,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -51972,7 +51894,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52008,7 +51930,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52046,7 +51968,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52060,7 +51982,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52074,7 +51996,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52088,7 +52010,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D555" s="6"/>
       <c r="E555" s="1">
@@ -52102,7 +52024,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52116,7 +52038,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52362,7 +52284,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -52572,7 +52494,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -52714,7 +52636,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -52862,7 +52784,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -52875,7 +52797,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>449</v>
@@ -52906,7 +52828,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -52920,7 +52842,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -52934,7 +52856,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D631" s="6"/>
       <c r="E631" s="1">
@@ -53154,19 +53076,11 @@
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
-      <c r="B648" s="1">
-        <v>259</v>
-      </c>
-      <c r="C648" s="6" t="s">
-        <v>463</v>
-      </c>
+      <c r="B648" s="1"/>
+      <c r="C648" s="6"/>
       <c r="D648" s="6"/>
-      <c r="E648" s="1">
-        <v>1</v>
-      </c>
-      <c r="F648" s="1">
-        <v>4500</v>
-      </c>
+      <c r="E648" s="1"/>
+      <c r="F648" s="1"/>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
@@ -53194,19 +53108,11 @@
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
-      <c r="B652" s="1">
-        <v>399</v>
-      </c>
-      <c r="C652" s="6" t="s">
-        <v>464</v>
-      </c>
+      <c r="B652" s="1"/>
+      <c r="C652" s="6"/>
       <c r="D652" s="6"/>
-      <c r="E652" s="1">
-        <v>4</v>
-      </c>
-      <c r="F652" s="1">
-        <v>8389</v>
-      </c>
+      <c r="E652" s="1"/>
+      <c r="F652" s="1"/>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
@@ -53214,14 +53120,14 @@
         <v>422</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
         <v>1</v>
       </c>
       <c r="F653" s="1">
-        <v>6650</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -53230,14 +53136,14 @@
         <v>386</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
         <v>1</v>
       </c>
       <c r="F654" s="1">
-        <v>5800</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -53246,14 +53152,14 @@
         <v>422</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
         <v>1</v>
       </c>
       <c r="F655" s="1">
-        <v>5600</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -53262,14 +53168,14 @@
         <v>422</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
         <v>1</v>
       </c>
       <c r="F656" s="1">
-        <v>6650</v>
+        <v>7980</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -53278,21 +53184,21 @@
         <v>422</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
         <v>1</v>
       </c>
       <c r="F657" s="1">
-        <v>7200</v>
+        <v>8650</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -53346,7 +53252,7 @@
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D664" s="6"/>
       <c r="E664" s="1">
@@ -53358,7 +53264,7 @@
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D665" s="6"/>
       <c r="E665" s="1">
@@ -53396,7 +53302,7 @@
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D669" s="6"/>
       <c r="E669" s="1">
@@ -53410,7 +53316,7 @@
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D670" s="6"/>
       <c r="E670" s="1"/>
@@ -53422,7 +53328,7 @@
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D671" s="6"/>
       <c r="E671" s="1"/>
@@ -53450,7 +53356,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -53464,7 +53370,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -53478,7 +53384,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -53492,7 +53398,7 @@
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D677" s="6"/>
       <c r="E677" s="1">
@@ -53514,7 +53420,7 @@
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D679" s="6"/>
       <c r="E679" s="1">
@@ -53528,7 +53434,7 @@
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D680" s="6"/>
       <c r="E680" s="1">
@@ -53574,7 +53480,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -53596,7 +53502,7 @@
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D687" s="6"/>
       <c r="E687" s="1">
@@ -53610,7 +53516,7 @@
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D688" s="6"/>
       <c r="E688" s="1">
@@ -53640,7 +53546,7 @@
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D691" s="6"/>
       <c r="E691" s="1">
@@ -53654,7 +53560,7 @@
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D692" s="6"/>
       <c r="E692" s="1">
@@ -53668,7 +53574,7 @@
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D693" s="6"/>
       <c r="E693" s="1">
@@ -53682,7 +53588,7 @@
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D694" s="6"/>
       <c r="E694" s="1">
@@ -53696,7 +53602,7 @@
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D695" s="6"/>
       <c r="E695" s="1">
@@ -53710,7 +53616,7 @@
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D696" s="6"/>
       <c r="E696" s="1">
@@ -53724,7 +53630,7 @@
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D697" s="6"/>
       <c r="E697" s="1">
@@ -53738,7 +53644,7 @@
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D698" s="6"/>
       <c r="E698" s="1">
@@ -53752,7 +53658,7 @@
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D699" s="6"/>
       <c r="E699" s="1">
@@ -53766,7 +53672,7 @@
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D700" s="6"/>
       <c r="E700" s="1">
@@ -53803,7 +53709,7 @@
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D704" s="6"/>
       <c r="E704" s="1">
@@ -53851,7 +53757,7 @@
     <row r="710" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D710" s="6"/>
       <c r="E710" s="1">
@@ -53864,7 +53770,7 @@
     <row r="711" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D711" s="6"/>
       <c r="E711" s="1">
@@ -53940,7 +53846,7 @@
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D721" s="6"/>
       <c r="E721" s="1">
@@ -53952,10 +53858,10 @@
     </row>
     <row r="722" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B722" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C722" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D722" s="6"/>
       <c r="E722" s="1">
@@ -53968,7 +53874,7 @@
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D723" s="6"/>
       <c r="E723" s="1">
@@ -53981,7 +53887,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -53994,7 +53900,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54007,7 +53913,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54019,10 +53925,10 @@
     </row>
     <row r="727" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B727" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C727" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D727" s="6"/>
       <c r="E727" s="1">
@@ -54049,7 +53955,7 @@
     <row r="730" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D730" s="6"/>
       <c r="E730" s="1">
@@ -54062,7 +53968,7 @@
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D731" s="6"/>
       <c r="E731" s="1">
@@ -54075,7 +53981,7 @@
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D732" s="6"/>
       <c r="E732" s="1">
@@ -54088,7 +53994,7 @@
     <row r="733" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D733" s="6"/>
       <c r="E733" s="1">
@@ -54101,7 +54007,7 @@
     <row r="734" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D734" s="6"/>
       <c r="E734" s="1">
@@ -54114,7 +54020,7 @@
     <row r="735" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D735" s="6"/>
       <c r="E735" s="1">
@@ -54133,13 +54039,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54151,13 +54057,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54169,13 +54075,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54187,13 +54093,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C740" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54205,13 +54111,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54223,13 +54129,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54241,13 +54147,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C743" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54259,10 +54165,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -54274,10 +54180,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -54290,7 +54196,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -54362,7 +54268,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -54376,7 +54282,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -54390,7 +54296,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -54406,7 +54312,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -54421,7 +54327,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -54434,7 +54340,7 @@
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D760" s="6"/>
       <c r="E760" s="1">
@@ -54450,7 +54356,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -54465,7 +54371,7 @@
         <v>257</v>
       </c>
       <c r="C762" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D762" s="6"/>
       <c r="E762" s="1">
@@ -54481,7 +54387,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -54494,7 +54400,7 @@
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D764" s="6"/>
       <c r="E764" s="1">
@@ -54507,7 +54413,7 @@
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D765" s="6"/>
       <c r="E765" s="1">
@@ -54523,7 +54429,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -54536,7 +54442,7 @@
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D767" s="6"/>
       <c r="E767" s="1">
@@ -54551,7 +54457,7 @@
         <v>34</v>
       </c>
       <c r="C768" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D768" s="6"/>
       <c r="E768" s="1">
@@ -54566,10 +54472,10 @@
         <v>194</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C769" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D769" s="6"/>
       <c r="E769" s="1">
@@ -54584,10 +54490,10 @@
         <v>167</v>
       </c>
       <c r="B770" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C770" s="6" t="s">
         <v>506</v>
-      </c>
-      <c r="C770" s="6" t="s">
-        <v>508</v>
       </c>
       <c r="D770" s="6"/>
       <c r="E770" s="1">
@@ -54599,13 +54505,13 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
+        <v>507</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C771" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B771" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C771" s="6" t="s">
-        <v>511</v>
       </c>
       <c r="D771" s="6"/>
       <c r="E771" s="1">
@@ -54617,13 +54523,13 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B772" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C772" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D772" s="6"/>
       <c r="E772" s="1">
@@ -54635,11 +54541,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
@@ -54651,13 +54557,13 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B774" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C774" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D774" s="6"/>
       <c r="E774" s="1">
@@ -54669,10 +54575,10 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C775" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D775" s="6"/>
       <c r="E775" s="1">
@@ -54684,13 +54590,13 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C776" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D776" s="6"/>
       <c r="E776" s="1">
@@ -54702,13 +54608,13 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B777" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C777" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D777" s="6"/>
       <c r="E777" s="1">
@@ -54727,13 +54633,13 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C779" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D779" s="6"/>
       <c r="E779" s="1">
@@ -54745,13 +54651,13 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C780" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D780" s="6"/>
       <c r="E780" s="1">
@@ -54763,13 +54669,13 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B781" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C781" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D781" s="6"/>
       <c r="E781" s="1">
@@ -54781,13 +54687,13 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>525</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C782" s="6" t="s">
         <v>527</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C782" s="6" t="s">
-        <v>529</v>
       </c>
       <c r="D782" s="6"/>
       <c r="E782" s="1">
@@ -54806,10 +54712,10 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B784" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C784" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D784" s="6"/>
       <c r="E784" s="1">
@@ -54821,10 +54727,10 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B785" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C785" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D785" s="6"/>
       <c r="E785" s="1">
@@ -54842,7 +54748,7 @@
         <v>40</v>
       </c>
       <c r="C786" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D786" s="6"/>
       <c r="E786" s="1">
@@ -54854,7 +54760,7 @@
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B787" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C787" s="6"/>
       <c r="D787" s="6"/>
@@ -54864,7 +54770,7 @@
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D788" s="6"/>
       <c r="E788" s="1">
@@ -54874,10 +54780,10 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B789" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C789" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D789" s="6"/>
       <c r="E789" s="1">
@@ -54888,7 +54794,7 @@
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D790" s="6"/>
       <c r="E790" s="1">
@@ -55363,7 +55269,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -55439,7 +55345,7 @@
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D846" s="6"/>
       <c r="E846" s="1">
@@ -55451,10 +55357,10 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B847" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
@@ -55466,10 +55372,10 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B848" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
@@ -55481,10 +55387,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C849" s="6" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
@@ -55496,10 +55402,10 @@
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
@@ -55512,7 +55418,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
@@ -55539,7 +55445,7 @@
     <row r="854" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D854" s="6"/>
       <c r="E854" s="1">
@@ -55601,7 +55507,7 @@
     <row r="862" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D862" s="6"/>
       <c r="E862" s="1">
@@ -55647,7 +55553,7 @@
     <row r="868" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D868" s="6"/>
       <c r="E868" s="1">
@@ -55660,7 +55566,7 @@
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D869" s="6"/>
       <c r="E869" s="1">
@@ -55876,7 +55782,7 @@
     <row r="899" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
       <c r="C899" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D899" s="6"/>
       <c r="E899" s="1">
@@ -55931,7 +55837,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
@@ -55944,7 +55850,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
@@ -55957,7 +55863,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
@@ -55970,7 +55876,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
@@ -55983,7 +55889,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
@@ -55996,7 +55902,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
@@ -56011,7 +55917,7 @@
         <v>106</v>
       </c>
       <c r="C912" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D912" s="6"/>
       <c r="E912" s="1">
@@ -56026,7 +55932,7 @@
         <v>592</v>
       </c>
       <c r="C913" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D913" s="6"/>
       <c r="E913" s="1">
@@ -56039,7 +55945,7 @@
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D914" s="6"/>
       <c r="E914" s="1">
@@ -56052,7 +55958,7 @@
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D915" s="6"/>
       <c r="E915" s="1">
@@ -56065,7 +55971,7 @@
     <row r="916" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B916" s="1"/>
       <c r="C916" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D916" s="6"/>
       <c r="E916" s="1">
@@ -56080,7 +55986,7 @@
         <v>104</v>
       </c>
       <c r="C917" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D917" s="6"/>
       <c r="E917" s="1">
@@ -56100,7 +56006,7 @@
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D919" s="6"/>
       <c r="E919" s="1">
@@ -56129,7 +56035,7 @@
         <v>16</v>
       </c>
       <c r="C922" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D922" s="6"/>
       <c r="E922" s="1">
@@ -56144,7 +56050,7 @@
         <v>27</v>
       </c>
       <c r="C923" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D923" s="6"/>
       <c r="E923" s="1">
@@ -56178,7 +56084,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
@@ -56205,7 +56111,7 @@
     <row r="930" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D930" s="6"/>
       <c r="E930" s="1">
@@ -56218,7 +56124,7 @@
     <row r="931" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D931" s="6"/>
       <c r="E931" s="1">
@@ -56238,7 +56144,7 @@
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D933" s="6"/>
       <c r="E933" s="1">
@@ -56254,7 +56160,7 @@
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D935" s="6"/>
       <c r="E935" s="1">
@@ -56267,7 +56173,7 @@
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D936" s="6"/>
       <c r="E936" s="1">
@@ -56280,7 +56186,7 @@
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D937" s="6"/>
       <c r="E937" s="1">
@@ -56300,7 +56206,7 @@
     <row r="939" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
       <c r="C939" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D939" s="6"/>
       <c r="E939" s="1">
@@ -56390,7 +56296,7 @@
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D951" s="6"/>
       <c r="E951" s="1">
@@ -56422,7 +56328,7 @@
     <row r="955" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D955" s="6"/>
       <c r="E955" s="1">
@@ -56435,7 +56341,7 @@
     <row r="956" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D956" s="6"/>
       <c r="E956" s="1">
@@ -56448,7 +56354,7 @@
     <row r="957" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D957" s="6"/>
       <c r="E957" s="1">
@@ -56468,7 +56374,7 @@
     <row r="959" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D959" s="6"/>
       <c r="E959" s="1">
@@ -56495,7 +56401,7 @@
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D962" s="6"/>
       <c r="E962" s="1">
@@ -56508,7 +56414,7 @@
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D963" s="6"/>
       <c r="E963" s="1">
@@ -56537,7 +56443,7 @@
         <v>190</v>
       </c>
       <c r="C966" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D966" s="6"/>
       <c r="E966" s="1">
@@ -56549,10 +56455,10 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B967" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C967" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D967" s="6"/>
       <c r="E967" s="1">
@@ -56564,13 +56470,13 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>257</v>
       </c>
       <c r="C968" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D968" s="6"/>
       <c r="E968" s="1">
@@ -56583,7 +56489,7 @@
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D969" s="6"/>
       <c r="E969">
@@ -56596,7 +56502,7 @@
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D970" s="6"/>
       <c r="E970">
@@ -56609,7 +56515,7 @@
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D971" s="6"/>
       <c r="E971">
@@ -56622,7 +56528,7 @@
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D972" s="6"/>
       <c r="E972">
@@ -56635,7 +56541,7 @@
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D973" s="6"/>
       <c r="F973" s="1"/>
@@ -56643,7 +56549,7 @@
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="6" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D974" s="6"/>
       <c r="E974">
@@ -56662,7 +56568,7 @@
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D976" s="6"/>
       <c r="E976">
@@ -56783,7 +56689,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -56796,7 +56702,7 @@
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D996" s="6"/>
       <c r="E996">
@@ -56809,7 +56715,7 @@
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="6" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D997" s="6"/>
       <c r="E997">
@@ -56822,7 +56728,7 @@
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D998" s="6"/>
       <c r="E998">
@@ -56835,7 +56741,7 @@
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
       <c r="C999" s="6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D999" s="6"/>
       <c r="E999">
@@ -56848,7 +56754,7 @@
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
       <c r="C1000" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D1000" s="6"/>
       <c r="E1000">
@@ -56861,7 +56767,7 @@
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1001" s="1"/>
       <c r="C1001" s="6" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D1001" s="6"/>
       <c r="E1001">
@@ -56874,7 +56780,7 @@
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1002" s="1"/>
       <c r="C1002" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D1002" s="6"/>
       <c r="E1002">
@@ -56887,7 +56793,7 @@
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1003" s="1"/>
       <c r="C1003" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D1003" s="6"/>
       <c r="E1003">
@@ -56912,7 +56818,7 @@
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1006" s="1"/>
       <c r="C1006" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D1006" s="6"/>
       <c r="E1006">
@@ -56925,7 +56831,7 @@
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1007" s="1"/>
       <c r="C1007" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D1007" s="6"/>
       <c r="E1007">
@@ -56973,13 +56879,13 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1010" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C1010" s="6" t="s">
         <v>589</v>
-      </c>
-      <c r="B1010" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C1010" s="6" t="s">
-        <v>591</v>
       </c>
       <c r="D1010" s="6"/>
       <c r="E1010">
@@ -56991,13 +56897,13 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C1011" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1011" s="6"/>
       <c r="E1011">
@@ -57009,13 +56915,13 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C1012" s="6" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D1012" s="6"/>
       <c r="E1012">
@@ -57028,7 +56934,7 @@
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1013" s="1"/>
       <c r="C1013" s="6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D1013" s="6"/>
       <c r="E1013">
@@ -57041,7 +56947,7 @@
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1014" s="1"/>
       <c r="C1014" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D1014" s="6"/>
       <c r="E1014">
@@ -57053,10 +56959,10 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1015" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C1015" s="6" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D1015" s="6"/>
       <c r="E1015">
@@ -57069,7 +56975,7 @@
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1016" s="1"/>
       <c r="C1016" s="6" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D1016" s="6"/>
       <c r="E1016">
@@ -57082,7 +56988,7 @@
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1017" s="1"/>
       <c r="C1017" s="6" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D1017" s="6"/>
       <c r="E1017">
@@ -57095,7 +57001,7 @@
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1018" s="1"/>
       <c r="C1018" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D1018" s="6"/>
       <c r="E1018">
@@ -57108,7 +57014,7 @@
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1019" s="1"/>
       <c r="C1019" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D1019" s="6"/>
       <c r="E1019">
@@ -57121,7 +57027,7 @@
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1020" s="1"/>
       <c r="C1020" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D1020" s="6"/>
       <c r="E1020">
@@ -57134,7 +57040,7 @@
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1021" s="1"/>
       <c r="C1021" s="6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D1021" s="6"/>
       <c r="E1021">
@@ -57153,7 +57059,7 @@
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1023" s="1"/>
       <c r="C1023" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D1023" s="6"/>
       <c r="E1023">
@@ -57166,7 +57072,7 @@
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1024" s="1"/>
       <c r="C1024" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D1024" s="6"/>
       <c r="E1024">
@@ -57179,7 +57085,7 @@
     <row r="1025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1025" s="1"/>
       <c r="C1025" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D1025" s="6"/>
       <c r="E1025">
@@ -57194,7 +57100,7 @@
         <v>593</v>
       </c>
       <c r="C1026" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D1026" s="6"/>
       <c r="E1026">
@@ -57209,7 +57115,7 @@
         <v>591</v>
       </c>
       <c r="C1027" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D1027" s="6"/>
       <c r="E1027">
@@ -57222,7 +57128,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
@@ -57237,7 +57143,7 @@
         <v>103</v>
       </c>
       <c r="C1029" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D1029" s="6"/>
       <c r="E1029">
@@ -57250,7 +57156,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
@@ -57263,7 +57169,7 @@
     <row r="1031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1031" s="1"/>
       <c r="C1031" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D1031" s="6"/>
       <c r="E1031">
@@ -57276,7 +57182,7 @@
     <row r="1032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1032" s="1"/>
       <c r="C1032" s="6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D1032" s="6"/>
       <c r="E1032">
@@ -57291,7 +57197,7 @@
         <v>594</v>
       </c>
       <c r="C1033" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D1033" s="6"/>
       <c r="E1033">
@@ -57306,7 +57212,7 @@
         <v>595</v>
       </c>
       <c r="C1034" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D1034" s="6"/>
       <c r="E1034">
@@ -57355,7 +57261,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -57568,7 +57474,7 @@
         <v>9004</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1058" s="6" t="s">
         <v>15</v>
@@ -57586,7 +57492,7 @@
         <v>9004</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C1059" s="6" t="s">
         <v>15</v>
@@ -57622,7 +57528,7 @@
         <v>9100</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1061" s="6" t="s">
         <v>15</v>
@@ -57694,7 +57600,7 @@
         <v>9106</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C1065" s="6" t="s">
         <v>15</v>
@@ -57712,7 +57618,7 @@
         <v>9110</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C1066" s="6" t="s">
         <v>15</v>
@@ -57766,7 +57672,7 @@
         <v>9125</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C1069" s="6" t="s">
         <v>15</v>
@@ -57784,7 +57690,7 @@
         <v>9135</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C1070" s="6" t="s">
         <v>15</v>
@@ -57800,7 +57706,7 @@
     <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1071" s="1"/>
       <c r="C1071" s="6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D1071" s="6"/>
       <c r="E1071">
@@ -57813,7 +57719,7 @@
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1072" s="1"/>
       <c r="C1072" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D1072" s="6"/>
       <c r="E1072">
@@ -57826,7 +57732,7 @@
     <row r="1073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1073" s="1"/>
       <c r="C1073" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D1073" s="6"/>
       <c r="E1073">
@@ -57839,7 +57745,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
@@ -57858,7 +57764,7 @@
     <row r="1076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1076" s="1"/>
       <c r="C1076" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D1076" s="6"/>
       <c r="E1076">
@@ -57871,7 +57777,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -57884,7 +57790,7 @@
     <row r="1078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1078" s="1"/>
       <c r="C1078" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D1078" s="6"/>
       <c r="E1078">
@@ -57903,7 +57809,7 @@
     <row r="1080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1080" s="1"/>
       <c r="C1080" s="6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D1080" s="6"/>
       <c r="E1080">
@@ -57916,7 +57822,7 @@
     <row r="1081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1081" s="1"/>
       <c r="C1081" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D1081" s="6"/>
       <c r="E1081">
@@ -57929,7 +57835,7 @@
     <row r="1082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1082" s="1"/>
       <c r="C1082" s="6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D1082" s="6"/>
       <c r="E1082">
@@ -57942,7 +57848,7 @@
     <row r="1083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1083" s="1"/>
       <c r="C1083" s="6" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D1083" s="6"/>
       <c r="E1083">
@@ -57955,7 +57861,7 @@
     <row r="1084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1084" s="1"/>
       <c r="C1084" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D1084" s="6"/>
       <c r="E1084">
@@ -57968,7 +57874,7 @@
     <row r="1085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1085" s="1"/>
       <c r="C1085" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D1085" s="6"/>
       <c r="E1085">
@@ -57981,7 +57887,7 @@
     <row r="1086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1086" s="1"/>
       <c r="C1086" s="6" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D1086" s="6"/>
       <c r="E1086">
@@ -57994,7 +57900,7 @@
     <row r="1087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1087" s="1"/>
       <c r="C1087" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D1087" s="6"/>
       <c r="E1087">
@@ -58013,7 +57919,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
@@ -58031,10 +57937,10 @@
     </row>
     <row r="1091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C1091" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D1091" s="6"/>
       <c r="E1091">
@@ -58112,10 +58018,10 @@
     </row>
     <row r="1103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1103" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C1103" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D1103" s="6"/>
       <c r="E1103">
@@ -58151,10 +58057,10 @@
     </row>
     <row r="1108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1108" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="C1108" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="D1108" s="6"/>
       <c r="E1108">
@@ -58179,7 +58085,7 @@
     <row r="1111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1111" s="1"/>
       <c r="C1111" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D1111" s="6"/>
       <c r="E1111">
@@ -58192,7 +58098,7 @@
     <row r="1112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1112" s="1"/>
       <c r="C1112" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D1112" s="6"/>
       <c r="E1112">
@@ -58205,7 +58111,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -58224,7 +58130,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -58237,7 +58143,7 @@
     <row r="1116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1116" s="1"/>
       <c r="C1116" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D1116" s="6"/>
       <c r="E1116">
@@ -58250,7 +58156,7 @@
     <row r="1117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1117" s="1"/>
       <c r="C1117" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D1117" s="6"/>
       <c r="E1117">
@@ -58263,7 +58169,7 @@
     <row r="1118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1118" s="1"/>
       <c r="C1118" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D1118" s="6"/>
       <c r="E1118">
@@ -58276,7 +58182,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -58289,7 +58195,7 @@
     <row r="1120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1120" s="1"/>
       <c r="C1120" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D1120" s="6"/>
       <c r="E1120">
@@ -58302,153 +58208,153 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
         <v>1</v>
       </c>
       <c r="F1121" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
         <v>1</v>
       </c>
       <c r="F1122" s="1">
-        <v>7680</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
         <v>1</v>
       </c>
       <c r="F1123" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
         <v>1</v>
       </c>
       <c r="F1124" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
         <v>1</v>
       </c>
       <c r="F1125" s="1">
-        <v>7680</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
         <v>1</v>
       </c>
       <c r="F1126" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
         <v>1</v>
       </c>
       <c r="F1127" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
         <v>1</v>
       </c>
       <c r="F1128" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
         <v>1</v>
       </c>
       <c r="F1129" s="1">
-        <v>5980</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
         <v>1</v>
       </c>
       <c r="F1130" s="1">
-        <v>7850</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
         <v>1</v>
       </c>
       <c r="F1131" s="1">
-        <v>5580</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B1132" s="1"/>
       <c r="C1132" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D1132" s="6"/>
       <c r="E1132">
@@ -58460,11 +58366,11 @@
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B1133" s="1"/>
       <c r="C1133" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D1133" s="6"/>
       <c r="E1133">
@@ -58480,7 +58386,7 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1134" s="6"/>
       <c r="E1134">
@@ -58496,7 +58402,7 @@
       </c>
       <c r="B1135" s="1"/>
       <c r="C1135" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D1135" s="6"/>
       <c r="E1135">
@@ -58515,7 +58421,7 @@
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1137" s="1"/>
       <c r="C1137" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D1137" s="6"/>
       <c r="E1137">
@@ -58527,11 +58433,11 @@
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B1138" s="1"/>
       <c r="C1138" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D1138" s="6"/>
       <c r="E1138">
@@ -58547,7 +58453,7 @@
       </c>
       <c r="B1139" s="1"/>
       <c r="C1139" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D1139" s="6"/>
       <c r="E1139">
@@ -58572,7 +58478,7 @@
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1142" s="1"/>
       <c r="C1142" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D1142" s="6"/>
       <c r="E1142">
@@ -58591,7 +58497,7 @@
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1144" s="1"/>
       <c r="C1144" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D1144" s="6"/>
       <c r="E1144">
@@ -58610,7 +58516,7 @@
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1146" s="1"/>
       <c r="C1146" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D1146" s="6"/>
       <c r="E1146">
@@ -58623,7 +58529,7 @@
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1147" s="1"/>
       <c r="C1147" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D1147" s="6"/>
       <c r="E1147">
@@ -58636,7 +58542,7 @@
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1148" s="1"/>
       <c r="C1148" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D1148" s="6"/>
       <c r="E1148">
@@ -58649,7 +58555,7 @@
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1149" s="1"/>
       <c r="C1149" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D1149" s="6"/>
       <c r="E1149">
@@ -58680,7 +58586,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D1153" s="6"/>
       <c r="E1153">
@@ -58693,7 +58599,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -58706,7 +58612,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -58719,7 +58625,7 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D1156" s="6"/>
       <c r="E1156">
@@ -58738,7 +58644,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D1158" s="6"/>
       <c r="E1158">
@@ -58751,7 +58657,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D1159" s="6"/>
       <c r="E1159">
@@ -58776,7 +58682,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D1162" s="6"/>
       <c r="E1162">
@@ -58795,7 +58701,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D1164" s="6"/>
       <c r="E1164">
@@ -58886,7 +58792,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -58899,7 +58805,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -58912,7 +58818,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -58925,7 +58831,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -58938,7 +58844,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -58963,7 +58869,7 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D1185" s="6"/>
       <c r="E1185">
@@ -58976,7 +58882,7 @@
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D1186" s="6"/>
       <c r="E1186">
@@ -58989,7 +58895,7 @@
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D1187" s="6"/>
       <c r="E1187">
@@ -59076,7 +58982,7 @@
         <v>311</v>
       </c>
       <c r="C1200" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D1200" s="6"/>
       <c r="E1200">
@@ -59091,7 +58997,7 @@
         <v>409</v>
       </c>
       <c r="C1201" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D1201" s="6"/>
       <c r="E1201">
@@ -59110,7 +59016,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D1203" s="6"/>
       <c r="E1203">
@@ -59120,7 +59026,7 @@
         <v>980</v>
       </c>
       <c r="G1203" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -59132,7 +59038,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D1205" s="6"/>
       <c r="E1205">
@@ -59145,7 +59051,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D1206" s="6"/>
       <c r="E1206">
@@ -59176,7 +59082,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D1210" s="6"/>
       <c r="E1210">
@@ -59195,7 +59101,7 @@
     <row r="1212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1212" s="1"/>
       <c r="C1212" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D1212" s="6"/>
       <c r="E1212">
@@ -59226,7 +59132,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216">
@@ -59239,7 +59145,7 @@
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217">
@@ -59276,7 +59182,7 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222">
@@ -59331,7 +59237,7 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230">
@@ -59355,13 +59261,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C1233" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233">
@@ -59422,7 +59328,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242">
@@ -59441,7 +59347,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244">
@@ -59459,7 +59365,7 @@
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C1246" s="6"/>
       <c r="D1246" s="6"/>
@@ -59474,7 +59380,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248">
@@ -59486,10 +59392,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C1249" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249">
@@ -59501,10 +59407,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C1250" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250">
@@ -59523,7 +59429,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252">
@@ -59560,7 +59466,7 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257">
@@ -59573,7 +59479,7 @@
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258">
@@ -59586,7 +59492,7 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259">
@@ -59599,7 +59505,7 @@
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
       <c r="C1260" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D1260" s="6"/>
       <c r="E1260">
@@ -59612,7 +59518,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261">
@@ -59631,7 +59537,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263">
@@ -59644,7 +59550,7 @@
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="E1264">
@@ -59657,7 +59563,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
@@ -59688,7 +59594,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
@@ -59707,7 +59613,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -59724,7 +59630,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
@@ -59737,7 +59643,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
@@ -59750,7 +59656,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
@@ -59763,7 +59669,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
@@ -59776,7 +59682,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
@@ -59791,10 +59697,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C1278" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
@@ -59809,10 +59715,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C1279" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
@@ -59830,10 +59736,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C1281" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
@@ -59848,7 +59754,7 @@
         <v>429</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
@@ -59860,10 +59766,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -59873,10 +59779,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
@@ -59889,7 +59795,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
@@ -59901,10 +59807,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C1286" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
@@ -59917,7 +59823,7 @@
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
       <c r="C1287" s="6" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D1287" s="6"/>
       <c r="E1287">
@@ -59935,10 +59841,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
@@ -59969,7 +59875,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
@@ -59982,7 +59888,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
@@ -59993,7 +59899,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
@@ -60012,7 +59918,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
@@ -60025,7 +59931,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
@@ -60038,7 +59944,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
@@ -60051,7 +59957,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
@@ -60064,7 +59970,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
@@ -60083,7 +59989,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
@@ -60096,7 +60002,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
@@ -60109,7 +60015,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
@@ -60128,7 +60034,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
@@ -60141,7 +60047,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
@@ -60154,7 +60060,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
@@ -60167,7 +60073,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
@@ -60198,7 +60104,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
@@ -60213,7 +60119,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
@@ -60236,7 +60142,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
@@ -60251,7 +60157,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
@@ -60266,7 +60172,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
@@ -60281,10 +60187,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C1320" s="6" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
@@ -60300,7 +60206,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
@@ -60316,7 +60222,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
@@ -60332,7 +60238,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
@@ -60348,7 +60254,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
@@ -60364,7 +60270,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
@@ -60380,7 +60286,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
@@ -60393,7 +60299,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
@@ -60489,7 +60395,7 @@
         <v>430</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
@@ -60502,7 +60408,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
@@ -60515,7 +60421,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
@@ -60528,7 +60434,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
@@ -60547,7 +60453,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
@@ -60560,7 +60466,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
@@ -60573,7 +60479,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
@@ -60586,7 +60492,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="6" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D1344" s="6"/>
       <c r="E1344">
@@ -60599,7 +60505,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
@@ -60612,7 +60518,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
@@ -60625,7 +60531,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
@@ -60638,7 +60544,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
@@ -60651,7 +60557,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
@@ -60676,7 +60582,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
@@ -60689,7 +60595,7 @@
     <row r="1353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1353" s="1"/>
       <c r="C1353" s="6" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D1353" s="6"/>
       <c r="E1353">
@@ -60702,7 +60608,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -60721,10 +60627,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C1356" s="6" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
@@ -60737,7 +60643,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
@@ -60792,7 +60698,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
@@ -60805,7 +60711,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
@@ -60818,7 +60724,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
@@ -60831,7 +60737,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
@@ -60844,7 +60750,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
@@ -60857,7 +60763,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
@@ -60870,7 +60776,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
@@ -60883,7 +60789,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
@@ -60896,7 +60802,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
@@ -60909,7 +60815,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
@@ -60922,7 +60828,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -60933,7 +60839,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
@@ -60946,7 +60852,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
@@ -60959,7 +60865,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -60972,7 +60878,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -60985,7 +60891,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
@@ -60998,7 +60904,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
@@ -61011,7 +60917,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
@@ -61059,7 +60965,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -61079,7 +60985,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
@@ -61092,7 +60998,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
@@ -61105,7 +61011,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
@@ -61118,7 +61024,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
@@ -61131,7 +61037,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61144,7 +61050,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61157,7 +61063,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
@@ -61170,7 +61076,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
@@ -61183,7 +61089,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
@@ -61196,7 +61102,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -61209,7 +61115,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
@@ -61222,7 +61128,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -61235,7 +61141,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -61248,7 +61154,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
@@ -61261,7 +61167,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
@@ -61273,10 +61179,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C1404" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
@@ -61291,7 +61197,7 @@
         <v>311</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
@@ -61303,10 +61209,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C1406" s="6" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
@@ -61319,7 +61225,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
@@ -61339,7 +61245,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
@@ -61359,7 +61265,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
@@ -61374,7 +61280,7 @@
         <v>311</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
@@ -61387,7 +61293,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
@@ -61400,7 +61306,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
@@ -61427,7 +61333,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
@@ -61447,7 +61353,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
@@ -61460,7 +61366,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
@@ -61473,7 +61379,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
@@ -61493,7 +61399,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
@@ -61506,7 +61412,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -61519,7 +61425,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">
@@ -61532,7 +61438,7 @@
     <row r="1426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
       <c r="C1426" s="6" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D1426" s="6"/>
       <c r="E1426" s="1">
@@ -61545,7 +61451,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
@@ -61558,7 +61464,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
@@ -61577,7 +61483,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="F1430" s="1"/>
@@ -61585,7 +61491,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="F1431" s="1"/>
@@ -61593,7 +61499,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
@@ -61624,7 +61530,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA03331-3965-40B6-AC54-232C4CE67FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F483E11-1450-46F4-A8E6-41F79DF00991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="972">
   <si>
     <t>Articulo</t>
   </si>
@@ -2942,6 +2942,9 @@
   </si>
   <si>
     <t>cinto nene 2,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camisa blanca lisa mujer </t>
   </si>
 </sst>
 </file>
@@ -43980,8 +43983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1114" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1130" sqref="F1130"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1200" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1213" sqref="F1213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59113,9 +59116,16 @@
     </row>
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
-      <c r="C1213" s="6"/>
+      <c r="C1213" s="6" t="s">
+        <v>971</v>
+      </c>
       <c r="D1213" s="6"/>
-      <c r="F1213" s="1"/>
+      <c r="E1213">
+        <v>1</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>7800</v>
+      </c>
     </row>
     <row r="1214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1214" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F483E11-1450-46F4-A8E6-41F79DF00991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8898587C-0403-4A85-8B52-88F85A6DE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2494,9 +2494,6 @@
     <t>tapado importado</t>
   </si>
   <si>
-    <t>chaleco engomado</t>
-  </si>
-  <si>
     <t xml:space="preserve">campera ecocuero </t>
   </si>
   <si>
@@ -2945,6 +2942,9 @@
   </si>
   <si>
     <t xml:space="preserve">camisa blanca lisa mujer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperia campera rustica adulto </t>
   </si>
 </sst>
 </file>
@@ -43983,8 +43983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1200" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1213" sqref="F1213"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1236" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1249" sqref="F1249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44417,7 +44417,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44453,7 +44453,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44556,7 +44556,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -44596,7 +44596,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45493,7 +45493,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -45701,7 +45701,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -45711,7 +45711,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -45793,7 +45793,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46311,7 +46311,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46343,7 +46343,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46357,7 +46357,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46371,7 +46371,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46451,7 +46451,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46483,7 +46483,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -46551,7 +46551,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D166" s="6"/>
       <c r="E166" s="1">
@@ -46943,7 +46943,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
@@ -47359,13 +47359,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>922</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>923</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -47649,7 +47649,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -48868,7 +48868,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -48982,7 +48982,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -48996,7 +48996,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49010,7 +49010,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49079,10 +49079,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49206,7 +49206,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49383,7 +49383,7 @@
         <v>311</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49415,7 +49415,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49432,7 +49432,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49496,7 +49496,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -49700,10 +49700,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -49716,10 +49716,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -49821,7 +49821,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -49830,10 +49830,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>874</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>875</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -51227,7 +51227,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51275,7 +51275,7 @@
         <v>386</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -51287,7 +51287,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -51409,7 +51409,7 @@
         <v>311</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -51735,7 +51735,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -52012,22 +52012,16 @@
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
-      <c r="C555" s="6" t="s">
-        <v>821</v>
-      </c>
+      <c r="C555" s="6"/>
       <c r="D555" s="6"/>
-      <c r="E555" s="1">
-        <v>1</v>
-      </c>
-      <c r="F555" s="1">
-        <v>34000</v>
-      </c>
+      <c r="E555" s="1"/>
+      <c r="F555" s="1"/>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52041,7 +52035,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52287,7 +52281,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -52639,7 +52633,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -52787,7 +52781,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -52800,7 +52794,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>449</v>
@@ -52831,7 +52825,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -52845,7 +52839,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -52859,7 +52853,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D631" s="6"/>
       <c r="E631" s="1">
@@ -53123,7 +53117,7 @@
         <v>422</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
@@ -53139,7 +53133,7 @@
         <v>386</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
@@ -53155,7 +53149,7 @@
         <v>422</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
@@ -53171,7 +53165,7 @@
         <v>422</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
@@ -53187,7 +53181,7 @@
         <v>422</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
@@ -53201,7 +53195,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -53359,7 +53353,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -53373,7 +53367,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -53387,7 +53381,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -53483,7 +53477,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -53890,7 +53884,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -53903,7 +53897,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -53916,7 +53910,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54042,13 +54036,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54060,13 +54054,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54078,13 +54072,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54099,10 +54093,10 @@
         <v>805</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="C740" s="6" t="s">
         <v>947</v>
-      </c>
-      <c r="C740" s="6" t="s">
-        <v>948</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54120,7 +54114,7 @@
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54132,13 +54126,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54150,13 +54144,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>950</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>952</v>
-      </c>
       <c r="C743" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54168,10 +54162,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C744" s="6" t="s">
         <v>952</v>
-      </c>
-      <c r="C744" s="6" t="s">
-        <v>953</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -54183,10 +54177,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -54199,7 +54193,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -54271,7 +54265,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -54285,7 +54279,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -54299,7 +54293,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -54315,7 +54309,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -54330,7 +54324,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -54359,7 +54353,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -54390,7 +54384,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -54432,7 +54426,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -54544,11 +54538,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
@@ -55272,7 +55266,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -55363,7 +55357,7 @@
         <v>628</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
@@ -55378,7 +55372,7 @@
         <v>628</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
@@ -55390,10 +55384,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C849" s="6" t="s">
         <v>958</v>
-      </c>
-      <c r="C849" s="6" t="s">
-        <v>959</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
@@ -55408,7 +55402,7 @@
         <v>490</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
@@ -55421,7 +55415,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
@@ -55840,7 +55834,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
@@ -55853,7 +55847,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
@@ -55866,7 +55860,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
@@ -55879,7 +55873,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
@@ -55892,7 +55886,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
@@ -55905,7 +55899,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
@@ -56087,7 +56081,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
@@ -56692,7 +56686,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -57131,7 +57125,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
@@ -57159,7 +57153,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
@@ -57264,7 +57258,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -57748,7 +57742,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
@@ -57780,7 +57774,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -57922,7 +57916,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
@@ -58133,7 +58127,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -58185,7 +58179,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -58211,7 +58205,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
@@ -58224,7 +58218,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -58237,7 +58231,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
@@ -58250,7 +58244,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -58263,7 +58257,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -58276,7 +58270,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
@@ -58289,7 +58283,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
@@ -58302,7 +58296,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
@@ -58315,7 +58309,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
@@ -58328,7 +58322,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
@@ -58341,7 +58335,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
@@ -58589,7 +58583,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D1153" s="6"/>
       <c r="E1153">
@@ -58602,7 +58596,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -58615,7 +58609,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -58795,7 +58789,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -58808,7 +58802,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -58821,7 +58815,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -58834,7 +58828,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -58847,7 +58841,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -59117,7 +59111,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D1213" s="6"/>
       <c r="E1213">
@@ -59274,7 +59268,7 @@
         <v>675</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C1233" s="6" t="s">
         <v>676</v>
@@ -59412,7 +59406,7 @@
         <v>3</v>
       </c>
       <c r="F1249" s="1">
-        <v>2340</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
@@ -60418,7 +60412,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
@@ -60431,7 +60425,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
@@ -60463,7 +60457,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
@@ -60476,7 +60470,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
@@ -60489,7 +60483,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
@@ -60502,7 +60496,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D1344" s="6"/>
       <c r="E1344">
@@ -60618,7 +60612,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -60734,7 +60728,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
@@ -60747,7 +60741,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
@@ -60875,7 +60869,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -60888,7 +60882,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -60975,7 +60969,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -60987,15 +60981,21 @@
     </row>
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
-      <c r="C1388" s="6"/>
+      <c r="C1388" s="6" t="s">
+        <v>971</v>
+      </c>
       <c r="D1388" s="6"/>
-      <c r="E1388" s="1"/>
-      <c r="F1388" s="1"/>
+      <c r="E1388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1388" s="1">
+        <v>7800</v>
+      </c>
     </row>
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
@@ -61047,7 +61047,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61112,7 +61112,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -61125,7 +61125,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
@@ -61138,7 +61138,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -61151,7 +61151,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -61422,7 +61422,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -61435,7 +61435,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DF545-ABE1-458D-ABB9-A228916368F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70B211-AC48-40D1-B71E-D7D44E557657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="970">
   <si>
     <t>Articulo</t>
   </si>
@@ -2095,9 +2095,6 @@
     <t>monito morley</t>
   </si>
   <si>
-    <t>remeras nena creaciones lu</t>
-  </si>
-  <si>
     <t xml:space="preserve">calza creaciones lu </t>
   </si>
   <si>
@@ -2269,9 +2266,6 @@
     <t xml:space="preserve">musculosa nena con puntilla </t>
   </si>
   <si>
-    <t>remera nena creppe con encaje</t>
-  </si>
-  <si>
     <t>kansas</t>
   </si>
   <si>
@@ -2279,9 +2273,6 @@
   </si>
   <si>
     <t>camisa hombre manga larga con bolsillo</t>
-  </si>
-  <si>
-    <t>remera nena corazon bordado volados</t>
   </si>
   <si>
     <t>biker gofrada roma fit</t>
@@ -43986,8 +43977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1003" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E1005" sqref="E1005"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1240" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C1260" sqref="C1260:D1260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44420,7 +44411,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1">
@@ -44432,7 +44423,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1">
@@ -44456,7 +44447,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1">
@@ -44468,7 +44459,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1">
@@ -44480,7 +44471,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1">
@@ -44559,7 +44550,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
@@ -44599,7 +44590,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
@@ -45096,7 +45087,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45114,7 +45105,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45132,7 +45123,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -45496,7 +45487,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1">
@@ -45642,7 +45633,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1">
@@ -45678,7 +45669,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1">
@@ -45704,7 +45695,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -45714,7 +45705,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1">
@@ -45796,7 +45787,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1">
@@ -46314,7 +46305,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1">
@@ -46346,7 +46337,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1">
@@ -46360,7 +46351,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1">
@@ -46374,7 +46365,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1">
@@ -46454,7 +46445,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="1">
@@ -46486,7 +46477,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="1">
@@ -46554,7 +46545,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D166" s="5"/>
       <c r="E166" s="1">
@@ -46946,7 +46937,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="1">
@@ -47362,13 +47353,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="1">
@@ -47652,7 +47643,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="1">
@@ -47862,7 +47853,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="1">
@@ -47876,7 +47867,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="1">
@@ -48583,7 +48574,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="1">
@@ -48613,7 +48604,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="1">
@@ -48697,7 +48688,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="1">
@@ -48825,7 +48816,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="1">
@@ -48871,7 +48862,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="1">
@@ -48985,7 +48976,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="1">
@@ -48999,7 +48990,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="1">
@@ -49013,7 +49004,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="1">
@@ -49082,10 +49073,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D326" s="5"/>
       <c r="E326" s="1">
@@ -49209,7 +49200,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="1"/>
@@ -49386,7 +49377,7 @@
         <v>311</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="1">
@@ -49418,7 +49409,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="1">
@@ -49435,7 +49426,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D350" s="5"/>
       <c r="E350" s="1">
@@ -49499,7 +49490,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="1">
@@ -49703,10 +49694,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="1">
@@ -49719,10 +49710,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="1">
@@ -49824,7 +49815,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="1"/>
@@ -49833,10 +49824,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="1"/>
@@ -51208,7 +51199,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="1">
@@ -51230,7 +51221,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="1">
@@ -51278,7 +51269,7 @@
         <v>386</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="1">
@@ -51290,7 +51281,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="1">
@@ -51412,7 +51403,7 @@
         <v>311</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="1">
@@ -51426,7 +51417,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="1">
@@ -51466,7 +51457,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="1">
@@ -51668,7 +51659,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="D525" s="5"/>
       <c r="E525" s="1">
@@ -51696,7 +51687,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="1">
@@ -51738,7 +51729,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="1">
@@ -51766,7 +51757,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D532" s="5"/>
       <c r="E532" s="1">
@@ -51900,7 +51891,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D545" s="5"/>
       <c r="E545" s="1">
@@ -51936,7 +51927,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="D548" s="5"/>
       <c r="E548" s="1">
@@ -51974,7 +51965,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D552" s="5"/>
       <c r="E552" s="1">
@@ -51988,7 +51979,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="1">
@@ -52002,7 +51993,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="1">
@@ -52024,7 +52015,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="5" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="1">
@@ -52038,7 +52029,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="5" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="D557" s="5"/>
       <c r="E557" s="1">
@@ -52284,7 +52275,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D583" s="5"/>
       <c r="E583" s="1"/>
@@ -52494,7 +52485,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D600" s="5"/>
       <c r="E600" s="1">
@@ -52636,7 +52627,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="1">
@@ -52784,7 +52775,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="5" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D626" s="5"/>
       <c r="E626" s="1">
@@ -52797,7 +52788,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>449</v>
@@ -52828,7 +52819,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="5" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D629" s="5"/>
       <c r="E629" s="1">
@@ -52842,7 +52833,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D630" s="5"/>
       <c r="E630" s="1">
@@ -52856,7 +52847,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D631" s="5"/>
       <c r="E631" s="1">
@@ -53120,7 +53111,7 @@
         <v>422</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="1">
@@ -53136,7 +53127,7 @@
         <v>386</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="1">
@@ -53152,7 +53143,7 @@
         <v>422</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="1">
@@ -53168,7 +53159,7 @@
         <v>422</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="1">
@@ -53184,7 +53175,7 @@
         <v>422</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="D657" s="5"/>
       <c r="E657" s="1">
@@ -53198,7 +53189,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D658" s="5"/>
       <c r="E658" s="1">
@@ -53356,7 +53347,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="5" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="1">
@@ -53370,7 +53361,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="1">
@@ -53384,7 +53375,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="1">
@@ -53480,7 +53471,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="1">
@@ -53887,7 +53878,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="1">
@@ -53900,7 +53891,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="1">
@@ -53913,7 +53904,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="D726" s="5"/>
       <c r="E726" s="1">
@@ -54039,13 +54030,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D737" s="5"/>
       <c r="E737" s="1">
@@ -54057,13 +54048,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="1">
@@ -54075,13 +54066,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="1">
@@ -54093,13 +54084,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="1">
@@ -54111,13 +54102,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="1">
@@ -54129,13 +54120,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D742" s="5"/>
       <c r="E742" s="1">
@@ -54147,13 +54138,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D743" s="5"/>
       <c r="E743" s="1">
@@ -54165,10 +54156,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D744" s="5"/>
       <c r="E744" s="1">
@@ -54180,10 +54171,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="D745" s="5"/>
       <c r="E745" s="1">
@@ -54196,7 +54187,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D746" s="5"/>
       <c r="E746" s="1">
@@ -54268,7 +54259,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
@@ -54282,7 +54273,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
@@ -54296,7 +54287,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="1">
@@ -54312,7 +54303,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="1">
@@ -54327,7 +54318,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D759" s="5"/>
       <c r="E759">
@@ -54356,7 +54347,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D761" s="5"/>
       <c r="E761" s="1">
@@ -54387,7 +54378,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D763" s="5"/>
       <c r="E763" s="1">
@@ -54429,7 +54420,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="1">
@@ -54541,11 +54532,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="1">
@@ -55269,7 +55260,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D836" s="5"/>
       <c r="E836" s="1">
@@ -55360,7 +55351,7 @@
         <v>628</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="D847" s="5"/>
       <c r="E847" s="1">
@@ -55375,7 +55366,7 @@
         <v>628</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="D848" s="5"/>
       <c r="E848" s="1">
@@ -55387,10 +55378,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C849" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="D849" s="5"/>
       <c r="E849" s="1">
@@ -55405,7 +55396,7 @@
         <v>490</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="D850" s="5"/>
       <c r="E850" s="1">
@@ -55418,7 +55409,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D851" s="5"/>
       <c r="E851" s="1">
@@ -55837,7 +55828,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D906" s="5"/>
       <c r="E906" s="1">
@@ -55850,7 +55841,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="D907" s="5"/>
       <c r="E907" s="1">
@@ -55863,7 +55854,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="1">
@@ -55876,7 +55867,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D909" s="5"/>
       <c r="E909" s="1">
@@ -55889,7 +55880,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D910" s="5"/>
       <c r="E910" s="1">
@@ -55902,7 +55893,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D911" s="5"/>
       <c r="E911" s="1">
@@ -56084,7 +56075,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D927" s="5"/>
       <c r="E927" s="1">
@@ -56689,7 +56680,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995">
@@ -56812,7 +56803,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="D1005" s="5"/>
       <c r="E1005">
@@ -57135,7 +57126,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D1028" s="5"/>
       <c r="E1028">
@@ -57163,7 +57154,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D1030" s="5"/>
       <c r="E1030">
@@ -57268,7 +57259,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D1041" s="5"/>
       <c r="E1041">
@@ -57752,7 +57743,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D1074" s="5"/>
       <c r="E1074">
@@ -57784,7 +57775,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="D1077" s="5"/>
       <c r="E1077">
@@ -57926,7 +57917,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D1089" s="5"/>
       <c r="E1089">
@@ -58118,7 +58109,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="5" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D1113" s="5"/>
       <c r="E1113">
@@ -58137,7 +58128,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="5" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D1115" s="5"/>
       <c r="E1115">
@@ -58189,7 +58180,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D1119" s="5"/>
       <c r="E1119">
@@ -58215,7 +58206,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121">
@@ -58228,7 +58219,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D1122" s="5"/>
       <c r="E1122">
@@ -58241,7 +58232,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D1123" s="5"/>
       <c r="E1123">
@@ -58254,7 +58245,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="D1124" s="5"/>
       <c r="E1124">
@@ -58267,7 +58258,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D1125" s="5"/>
       <c r="E1125">
@@ -58280,7 +58271,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D1126" s="5"/>
       <c r="E1126">
@@ -58293,7 +58284,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D1127" s="5"/>
       <c r="E1127">
@@ -58306,7 +58297,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="D1128" s="5"/>
       <c r="E1128">
@@ -58319,7 +58310,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D1129" s="5"/>
       <c r="E1129">
@@ -58332,7 +58323,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D1130" s="5"/>
       <c r="E1130">
@@ -58345,7 +58336,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D1131" s="5"/>
       <c r="E1131">
@@ -58593,7 +58584,7 @@
     <row r="1153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1153" s="1"/>
       <c r="C1153" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="D1153" s="5"/>
       <c r="E1153">
@@ -58606,7 +58597,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="5" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D1154" s="5"/>
       <c r="E1154">
@@ -58619,7 +58610,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D1155" s="5"/>
       <c r="E1155">
@@ -58799,7 +58790,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D1178" s="5"/>
       <c r="E1178">
@@ -58812,7 +58803,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="D1179" s="5"/>
       <c r="E1179">
@@ -58825,7 +58816,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="5" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="D1180" s="5"/>
       <c r="E1180">
@@ -58838,7 +58829,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="5" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D1181" s="5"/>
       <c r="E1181">
@@ -58851,7 +58842,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="5" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="D1182" s="5"/>
       <c r="E1182">
@@ -59121,7 +59112,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D1213" s="5"/>
       <c r="E1213">
@@ -59278,7 +59269,7 @@
         <v>675</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C1233" s="5" t="s">
         <v>676</v>
@@ -59518,21 +59509,14 @@
     </row>
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
-      <c r="C1260" s="5" t="s">
-        <v>688</v>
-      </c>
+      <c r="C1260" s="5"/>
       <c r="D1260" s="5"/>
-      <c r="E1260">
-        <v>14</v>
-      </c>
-      <c r="F1260" s="1">
-        <v>2380</v>
-      </c>
+      <c r="F1260" s="1"/>
     </row>
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D1261" s="5"/>
       <c r="E1261">
@@ -59551,7 +59535,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1263" s="5"/>
       <c r="E1263">
@@ -59564,7 +59548,7 @@
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D1264" s="5"/>
       <c r="E1264">
@@ -59577,7 +59561,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D1265" s="5"/>
       <c r="E1265">
@@ -59608,7 +59592,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1269" s="5"/>
       <c r="E1269">
@@ -59627,7 +59611,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1271" s="5"/>
       <c r="E1271">
@@ -59644,7 +59628,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1273" s="5"/>
       <c r="E1273">
@@ -59657,7 +59641,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1274" s="5"/>
       <c r="E1274">
@@ -59670,7 +59654,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1275" s="5"/>
       <c r="E1275">
@@ -59683,7 +59667,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1276" s="5"/>
       <c r="E1276">
@@ -59696,7 +59680,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1277" s="5"/>
       <c r="E1277">
@@ -59711,10 +59695,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1278" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="D1278" s="5"/>
       <c r="E1278">
@@ -59729,10 +59713,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1279" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="C1279" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="D1279" s="5"/>
       <c r="E1279">
@@ -59750,10 +59734,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1281" s="5" t="s">
         <v>704</v>
-      </c>
-      <c r="C1281" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="D1281" s="5"/>
       <c r="E1281">
@@ -59768,7 +59752,7 @@
         <v>429</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1282" s="5"/>
       <c r="E1282">
@@ -59780,10 +59764,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1283" s="5"/>
       <c r="E1283">
@@ -59793,10 +59777,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1284" s="5"/>
       <c r="E1284">
@@ -59809,7 +59793,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1285" s="5"/>
       <c r="E1285">
@@ -59821,10 +59805,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1286" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="C1286" s="5" t="s">
-        <v>710</v>
       </c>
       <c r="D1286" s="5"/>
       <c r="E1286">
@@ -59837,7 +59821,7 @@
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
       <c r="C1287" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1287" s="5"/>
       <c r="E1287">
@@ -59855,10 +59839,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1289" s="5"/>
       <c r="E1289">
@@ -59889,7 +59873,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1293" s="5"/>
       <c r="E1293">
@@ -59902,7 +59886,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D1294" s="5"/>
       <c r="E1294">
@@ -59913,7 +59897,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D1295" s="5"/>
       <c r="E1295">
@@ -59932,7 +59916,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1297" s="5"/>
       <c r="E1297">
@@ -59945,7 +59929,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1298" s="5"/>
       <c r="E1298">
@@ -59958,7 +59942,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1299" s="5"/>
       <c r="E1299">
@@ -59971,7 +59955,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1300" s="5"/>
       <c r="E1300">
@@ -59984,7 +59968,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1301" s="5"/>
       <c r="E1301">
@@ -60003,7 +59987,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1303" s="5"/>
       <c r="E1303">
@@ -60016,7 +60000,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1304" s="5"/>
       <c r="E1304">
@@ -60029,7 +60013,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1305" s="5"/>
       <c r="E1305">
@@ -60048,7 +60032,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1307" s="5"/>
       <c r="E1307">
@@ -60061,7 +60045,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1308" s="5"/>
       <c r="E1308">
@@ -60074,7 +60058,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1309" s="5"/>
       <c r="E1309">
@@ -60087,7 +60071,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D1310" s="5"/>
       <c r="E1310">
@@ -60118,7 +60102,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1314" s="5"/>
       <c r="E1314">
@@ -60133,7 +60117,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1315" s="5"/>
       <c r="E1315">
@@ -60156,7 +60140,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D1317" s="5"/>
       <c r="E1317">
@@ -60171,7 +60155,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1318" s="5"/>
       <c r="E1318">
@@ -60186,7 +60170,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1319" s="5"/>
       <c r="E1319">
@@ -60201,10 +60185,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C1320" s="5" t="s">
         <v>733</v>
-      </c>
-      <c r="C1320" s="5" t="s">
-        <v>734</v>
       </c>
       <c r="D1320" s="5"/>
       <c r="E1320">
@@ -60220,7 +60204,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1321" s="5"/>
       <c r="E1321">
@@ -60236,7 +60220,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1322" s="5"/>
       <c r="E1322">
@@ -60252,7 +60236,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1323" s="5"/>
       <c r="E1323">
@@ -60268,7 +60252,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1324" s="5"/>
       <c r="E1324">
@@ -60284,7 +60268,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1325" s="5"/>
       <c r="E1325">
@@ -60300,7 +60284,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1326" s="5"/>
       <c r="E1326">
@@ -60313,7 +60297,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D1327" s="5"/>
       <c r="E1327">
@@ -60409,7 +60393,7 @@
         <v>430</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1336" s="5"/>
       <c r="E1336">
@@ -60422,7 +60406,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D1337" s="5"/>
       <c r="E1337">
@@ -60435,7 +60419,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="D1338" s="5"/>
       <c r="E1338">
@@ -60448,7 +60432,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1339" s="5"/>
       <c r="E1339">
@@ -60467,7 +60451,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="D1341" s="5"/>
       <c r="E1341">
@@ -60480,7 +60464,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="D1342" s="5"/>
       <c r="E1342">
@@ -60493,7 +60477,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D1343" s="5"/>
       <c r="E1343">
@@ -60506,7 +60490,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D1344" s="5"/>
       <c r="E1344">
@@ -60519,7 +60503,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D1345" s="5"/>
       <c r="E1345">
@@ -60532,7 +60516,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D1346" s="5"/>
       <c r="E1346">
@@ -60545,7 +60529,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1347" s="5"/>
       <c r="E1347">
@@ -60558,7 +60542,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1348" s="5"/>
       <c r="E1348">
@@ -60571,7 +60555,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D1349" s="5"/>
       <c r="E1349">
@@ -60596,33 +60580,26 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1352" s="5"/>
       <c r="E1352">
         <v>4</v>
       </c>
       <c r="F1352" s="1">
-        <v>2980</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="1353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1353" s="1"/>
-      <c r="C1353" s="5" t="s">
-        <v>746</v>
-      </c>
+      <c r="C1353" s="5"/>
       <c r="D1353" s="5"/>
-      <c r="E1353">
-        <v>4</v>
-      </c>
-      <c r="F1353" s="1">
-        <v>2950</v>
-      </c>
+      <c r="F1353" s="1"/>
     </row>
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="D1354" s="5"/>
       <c r="E1354">
@@ -60641,10 +60618,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C1356" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D1356" s="5"/>
       <c r="E1356" s="1">
@@ -60657,7 +60634,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D1357" s="5"/>
       <c r="E1357" s="1">
@@ -60711,21 +60688,15 @@
     </row>
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
-      <c r="C1364" s="5" t="s">
-        <v>750</v>
-      </c>
+      <c r="C1364" s="5"/>
       <c r="D1364" s="5"/>
-      <c r="E1364" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1364" s="1">
-        <v>3290</v>
-      </c>
+      <c r="E1364" s="1"/>
+      <c r="F1364" s="1"/>
     </row>
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D1365" s="5"/>
       <c r="E1365" s="1">
@@ -60738,7 +60709,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D1366" s="5"/>
       <c r="E1366" s="1">
@@ -60751,7 +60722,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D1367" s="5"/>
       <c r="E1367" s="1">
@@ -60764,7 +60735,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D1368" s="5"/>
       <c r="E1368" s="1">
@@ -60777,7 +60748,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D1369" s="5"/>
       <c r="E1369" s="1">
@@ -60790,7 +60761,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D1370" s="5"/>
       <c r="E1370" s="1">
@@ -60803,7 +60774,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D1371" s="5"/>
       <c r="E1371" s="1">
@@ -60816,7 +60787,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D1372" s="5"/>
       <c r="E1372" s="1">
@@ -60829,7 +60800,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D1373" s="5"/>
       <c r="E1373" s="1">
@@ -60842,7 +60813,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D1374" s="5"/>
       <c r="E1374" s="1">
@@ -60853,7 +60824,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D1375" s="5"/>
       <c r="E1375" s="1">
@@ -60866,7 +60837,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D1376" s="5"/>
       <c r="E1376" s="1">
@@ -60879,7 +60850,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="D1377" s="5"/>
       <c r="E1377" s="1">
@@ -60892,7 +60863,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D1378" s="5"/>
       <c r="E1378" s="1">
@@ -60905,7 +60876,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D1379" s="5"/>
       <c r="E1379" s="1">
@@ -60918,7 +60889,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D1380" s="5"/>
       <c r="E1380" s="1">
@@ -60931,7 +60902,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D1381" s="5"/>
       <c r="E1381" s="1">
@@ -60979,7 +60950,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D1387" s="5"/>
       <c r="E1387" s="1">
@@ -60992,7 +60963,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D1388" s="5"/>
       <c r="E1388" s="1">
@@ -61005,7 +60976,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="D1389" s="5"/>
       <c r="E1389" s="1">
@@ -61018,7 +60989,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D1390" s="5"/>
       <c r="E1390" s="1">
@@ -61031,7 +61002,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D1391" s="5"/>
       <c r="E1391" s="1">
@@ -61044,7 +61015,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D1392" s="5"/>
       <c r="E1392" s="1">
@@ -61057,7 +61028,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D1393" s="5"/>
       <c r="E1393" s="1">
@@ -61070,7 +61041,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D1394" s="5"/>
       <c r="E1394" s="1">
@@ -61083,7 +61054,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D1395" s="5"/>
       <c r="E1395" s="1">
@@ -61096,7 +61067,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D1396" s="5"/>
       <c r="E1396" s="1">
@@ -61109,7 +61080,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D1397" s="5"/>
       <c r="E1397" s="1">
@@ -61122,7 +61093,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D1398" s="5"/>
       <c r="E1398" s="1">
@@ -61135,7 +61106,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D1399" s="5"/>
       <c r="E1399" s="1">
@@ -61148,7 +61119,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D1400" s="5"/>
       <c r="E1400" s="1">
@@ -61161,7 +61132,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D1401" s="5"/>
       <c r="E1401" s="1">
@@ -61174,7 +61145,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D1402" s="5"/>
       <c r="E1402" s="1">
@@ -61187,7 +61158,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D1403" s="5"/>
       <c r="E1403" s="1">
@@ -61199,10 +61170,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C1404" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D1404" s="5"/>
       <c r="E1404" s="1">
@@ -61217,7 +61188,7 @@
         <v>311</v>
       </c>
       <c r="C1405" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D1405" s="5"/>
       <c r="E1405" s="1">
@@ -61229,10 +61200,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C1406" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D1406" s="5"/>
       <c r="E1406" s="1">
@@ -61245,7 +61216,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D1407" s="5"/>
       <c r="E1407" s="1">
@@ -61265,7 +61236,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="D1409" s="5"/>
       <c r="E1409" s="1">
@@ -61285,7 +61256,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D1411" s="5"/>
       <c r="E1411" s="1">
@@ -61300,7 +61271,7 @@
         <v>311</v>
       </c>
       <c r="C1412" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D1412" s="5"/>
       <c r="E1412" s="1">
@@ -61313,7 +61284,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D1413" s="5"/>
       <c r="E1413" s="1">
@@ -61326,7 +61297,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D1414" s="5"/>
       <c r="E1414" s="1">
@@ -61353,7 +61324,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D1417" s="5"/>
       <c r="E1417" s="1">
@@ -61373,7 +61344,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D1419" s="5"/>
       <c r="E1419" s="1">
@@ -61386,7 +61357,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D1420" s="5"/>
       <c r="E1420" s="1">
@@ -61399,7 +61370,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D1421" s="5"/>
       <c r="E1421" s="1">
@@ -61419,7 +61390,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D1423" s="5"/>
       <c r="E1423" s="1">
@@ -61432,7 +61403,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D1424" s="5"/>
       <c r="E1424" s="1">
@@ -61445,7 +61416,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D1425" s="5"/>
       <c r="E1425" s="1">
@@ -61458,7 +61429,7 @@
     <row r="1426" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1426" s="1"/>
       <c r="C1426" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D1426" s="5"/>
       <c r="E1426" s="1">
@@ -61471,7 +61442,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D1427" s="5"/>
       <c r="E1427">
@@ -61484,7 +61455,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D1428" s="5"/>
       <c r="E1428">
@@ -61503,7 +61474,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D1430" s="5"/>
       <c r="F1430" s="1"/>
@@ -61511,7 +61482,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D1431" s="5"/>
       <c r="F1431" s="1"/>
@@ -61519,7 +61490,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="D1432" s="5"/>
       <c r="E1432">
@@ -61550,7 +61521,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D1436" s="5"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A70B211-AC48-40D1-B71E-D7D44E557657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F44553-5BE8-4FC2-ABFC-191377CEFDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="974">
   <si>
     <t>Articulo</t>
   </si>
@@ -2939,6 +2939,18 @@
   </si>
   <si>
     <t xml:space="preserve">zapatilla jordan retro 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remera like nena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remera corazon  nena </t>
+  </si>
+  <si>
+    <t xml:space="preserve">remera nena dreams </t>
+  </si>
+  <si>
+    <t>campera crepe sastrero fabulosa</t>
   </si>
 </sst>
 </file>
@@ -37388,6 +37400,18 @@
                 <c:pt idx="341">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="351">
                   <c:v>0</c:v>
                 </c:pt>
@@ -39938,6 +39962,18 @@
                 <c:pt idx="339">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="342">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="351">
                   <c:v>1</c:v>
                 </c:pt>
@@ -41707,6 +41743,18 @@
                 </c:pt>
                 <c:pt idx="339">
                   <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>4460</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>4540</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>4460</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>7780</c:v>
                 </c:pt>
                 <c:pt idx="351">
                   <c:v>6500</c:v>
@@ -43977,8 +44025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1240" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C1260" sqref="C1260:D1260"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A384" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F389" sqref="F389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49836,34 +49884,58 @@
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
-      <c r="C386" s="5"/>
+      <c r="C386" s="5" t="s">
+        <v>971</v>
+      </c>
       <c r="D386" s="5"/>
-      <c r="E386" s="1"/>
-      <c r="F386" s="1"/>
+      <c r="E386" s="1">
+        <v>1</v>
+      </c>
+      <c r="F386" s="1">
+        <v>4460</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
-      <c r="C387" s="5"/>
+      <c r="C387" s="5" t="s">
+        <v>970</v>
+      </c>
       <c r="D387" s="5"/>
-      <c r="E387" s="1"/>
-      <c r="F387" s="1"/>
+      <c r="E387" s="1">
+        <v>1</v>
+      </c>
+      <c r="F387" s="1">
+        <v>4540</v>
+      </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
-      <c r="C388" s="5"/>
+      <c r="C388" s="5" t="s">
+        <v>972</v>
+      </c>
       <c r="D388" s="5"/>
-      <c r="E388" s="1"/>
-      <c r="F388" s="1"/>
+      <c r="E388" s="1">
+        <v>1</v>
+      </c>
+      <c r="F388" s="1">
+        <v>4460</v>
+      </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
-      <c r="C389" s="5"/>
+      <c r="C389" s="5" t="s">
+        <v>973</v>
+      </c>
       <c r="D389" s="5"/>
-      <c r="E389" s="1"/>
-      <c r="F389" s="1"/>
+      <c r="E389" s="1">
+        <v>1</v>
+      </c>
+      <c r="F389" s="1">
+        <v>7780</v>
+      </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F44553-5BE8-4FC2-ABFC-191377CEFDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3138586-8373-4000-BF46-F8A6C122C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44025,8 +44025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A384" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F389" sqref="F389"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A675" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F688" sqref="F688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53572,7 +53572,7 @@
         <v>3</v>
       </c>
       <c r="F687" s="1">
-        <v>2900</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -53586,7 +53586,7 @@
         <v>3</v>
       </c>
       <c r="F688" s="1">
-        <v>2900</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3138586-8373-4000-BF46-F8A6C122C2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCDCBB0-E9A8-4871-A0DC-24A5DD3A92E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="978">
   <si>
     <t>Articulo</t>
   </si>
@@ -2951,6 +2951,18 @@
   </si>
   <si>
     <t>campera crepe sastrero fabulosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gexp campera friza lisa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gexp buzo friza tricolor y bicolor canguro </t>
+  </si>
+  <si>
+    <t>gexp buzo rustico bicolor canguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gexp buzo cuello redondo rustico tricolor </t>
   </si>
 </sst>
 </file>
@@ -44026,7 +44038,7 @@
   <dimension ref="A1:J2436"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A675" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F688" sqref="F688"/>
+      <selection activeCell="F684" sqref="F684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53510,34 +53522,58 @@
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
-      <c r="C681" s="5"/>
+      <c r="C681" s="5" t="s">
+        <v>974</v>
+      </c>
       <c r="D681" s="5"/>
-      <c r="E681" s="1"/>
-      <c r="F681" s="1"/>
+      <c r="E681" s="1">
+        <v>1</v>
+      </c>
+      <c r="F681" s="1">
+        <v>9800</v>
+      </c>
     </row>
     <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
-      <c r="C682" s="5"/>
+      <c r="C682" s="5" t="s">
+        <v>975</v>
+      </c>
       <c r="D682" s="5"/>
-      <c r="E682" s="1"/>
-      <c r="F682" s="1"/>
+      <c r="E682" s="1">
+        <v>1</v>
+      </c>
+      <c r="F682" s="1">
+        <v>9800</v>
+      </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
-      <c r="C683" s="5"/>
+      <c r="C683" s="5" t="s">
+        <v>976</v>
+      </c>
       <c r="D683" s="5"/>
-      <c r="E683" s="1"/>
-      <c r="F683" s="1"/>
+      <c r="E683" s="1">
+        <v>1</v>
+      </c>
+      <c r="F683" s="1">
+        <v>8200</v>
+      </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
-      <c r="C684" s="5"/>
+      <c r="C684" s="5" t="s">
+        <v>977</v>
+      </c>
       <c r="D684" s="5"/>
-      <c r="E684" s="1"/>
-      <c r="F684" s="1"/>
+      <c r="E684" s="1">
+        <v>1</v>
+      </c>
+      <c r="F684" s="1">
+        <v>9000</v>
+      </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60647450-A859-48D0-8E2A-69C9C59CD1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344B2E2-C353-4923-AC97-130C0A81E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="980">
   <si>
     <t>Articulo</t>
   </si>
@@ -2966,6 +2966,9 @@
   </si>
   <si>
     <t xml:space="preserve">silk top </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGUAR </t>
   </si>
 </sst>
 </file>
@@ -3840,6 +3843,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -3906,7 +3912,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -3930,6 +3942,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -3961,6 +3976,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -4565,6 +4583,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -4628,9 +4649,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -4678,6 +4705,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -5143,6 +5173,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -5206,9 +5239,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -5224,6 +5263,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -5256,6 +5298,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -5955,6 +6000,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -6021,7 +6069,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -6045,6 +6099,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -6076,6 +6133,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -6680,6 +6740,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -6743,9 +6806,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -6793,6 +6862,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -7258,6 +7330,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -7321,9 +7396,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -7339,6 +7420,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -7371,6 +7455,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -7946,6 +8033,9 @@
                 <c:pt idx="190">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8012,9 +8102,15 @@
                 <c:pt idx="213">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="215">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="217">
                   <c:v>5</c:v>
                 </c:pt>
@@ -8036,6 +8132,9 @@
                 <c:pt idx="223">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>2</c:v>
                 </c:pt>
@@ -8068,6 +8167,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2</c:v>
@@ -8937,6 +9039,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -9003,7 +9108,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -9027,6 +9138,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -9058,6 +9172,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -9662,6 +9779,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -9725,9 +9845,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -9775,6 +9901,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -10240,6 +10369,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -10303,9 +10435,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -10321,6 +10459,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -10353,6 +10494,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -11886,6 +12030,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -11952,7 +12099,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -11976,6 +12129,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -12007,6 +12163,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -12611,6 +12770,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -12674,9 +12836,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -12724,6 +12892,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -13189,6 +13360,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -13252,9 +13426,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -13270,6 +13450,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -13302,6 +13485,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -14215,6 +14401,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -14281,7 +14470,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -14305,6 +14500,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -14336,6 +14534,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -14940,6 +15141,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -15003,9 +15207,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -15053,6 +15263,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -15518,6 +15731,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -15581,9 +15797,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -15599,6 +15821,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -15631,6 +15856,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -16330,6 +16558,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -16396,7 +16627,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -16420,6 +16657,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -16451,6 +16691,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -17055,6 +17298,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -17118,9 +17364,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -17168,6 +17420,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -17633,6 +17888,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -17696,9 +17954,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -17714,6 +17978,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -17746,6 +18013,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -18321,6 +18591,9 @@
                 <c:pt idx="190">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>1</c:v>
                 </c:pt>
@@ -18387,9 +18660,15 @@
                 <c:pt idx="213">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="215">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="217">
                   <c:v>5</c:v>
                 </c:pt>
@@ -18411,6 +18690,9 @@
                 <c:pt idx="223">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>2</c:v>
                 </c:pt>
@@ -18443,6 +18725,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2</c:v>
@@ -19312,6 +19597,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -19378,7 +19666,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -19402,6 +19696,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -19433,6 +19730,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -20037,6 +20337,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -20100,9 +20403,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -20150,6 +20459,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -20615,6 +20927,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -20678,9 +20993,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -20696,6 +21017,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -20728,6 +21052,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -22261,6 +22588,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -22327,7 +22657,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -22351,6 +22687,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -22382,6 +22721,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -22986,6 +23328,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -23049,9 +23394,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -23099,6 +23450,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -23564,6 +23918,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -23627,9 +23984,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -23645,6 +24008,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -23677,6 +24043,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -24590,6 +24959,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -24656,7 +25028,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -24680,6 +25058,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -24711,6 +25092,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -25315,6 +25699,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -25378,9 +25765,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -25428,6 +25821,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -25893,6 +26289,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -25956,9 +26355,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -25974,6 +26379,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -26006,6 +26414,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -26705,6 +27116,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -26771,7 +27185,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -26795,6 +27215,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -26826,6 +27249,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -27430,6 +27856,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -27493,9 +27922,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -27543,6 +27978,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -28008,6 +28446,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -28071,9 +28512,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -28089,6 +28536,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -28121,6 +28571,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -28696,6 +29149,9 @@
                 <c:pt idx="190">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>1</c:v>
                 </c:pt>
@@ -28762,9 +29218,15 @@
                 <c:pt idx="213">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="215">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="217">
                   <c:v>5</c:v>
                 </c:pt>
@@ -28786,6 +29248,9 @@
                 <c:pt idx="223">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>2</c:v>
                 </c:pt>
@@ -28818,6 +29283,9 @@
                 </c:pt>
                 <c:pt idx="235">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
                   <c:v>2</c:v>
@@ -29687,6 +30155,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -29753,7 +30224,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -29777,6 +30254,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -29808,6 +30288,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -30412,6 +30895,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -30475,9 +30961,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -30525,6 +31017,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -30990,6 +31485,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -31053,9 +31551,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -31071,6 +31575,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -31103,6 +31610,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -32636,6 +33146,9 @@
                   <c:pt idx="190">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -32702,7 +33215,13 @@
                   <c:pt idx="213">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="215">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="216">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="217">
@@ -32726,6 +33245,9 @@
                   <c:pt idx="223">
                     <c:v>buzo bordado</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>JAGUAR </c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -32757,6 +33279,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="235">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="237">
@@ -33361,6 +33886,9 @@
                   <c:pt idx="190">
                     <c:v>35 AL 40</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>39 al 44</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>36 AL 41</c:v>
                   </c:pt>
@@ -33424,9 +33952,15 @@
                   <c:pt idx="213">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>24 AL 34</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>39 AL 44</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>35 al 40</c:v>
                   </c:pt>
@@ -33474,6 +34008,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>28 Al35</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>35 AL 40</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>28 AL 35</c:v>
@@ -33939,6 +34476,9 @@
                   <c:pt idx="190">
                     <c:v>4302</c:v>
                   </c:pt>
+                  <c:pt idx="191">
+                    <c:v>716</c:v>
+                  </c:pt>
                   <c:pt idx="192">
                     <c:v>4310</c:v>
                   </c:pt>
@@ -34002,9 +34542,15 @@
                   <c:pt idx="213">
                     <c:v>9002</c:v>
                   </c:pt>
+                  <c:pt idx="214">
+                    <c:v>9328</c:v>
+                  </c:pt>
                   <c:pt idx="215">
                     <c:v>9018</c:v>
                   </c:pt>
+                  <c:pt idx="216">
+                    <c:v>7123</c:v>
+                  </c:pt>
                   <c:pt idx="217">
                     <c:v>9031/1011</c:v>
                   </c:pt>
@@ -34020,6 +34566,9 @@
                   <c:pt idx="221">
                     <c:v>9041</c:v>
                   </c:pt>
+                  <c:pt idx="224">
+                    <c:v>936</c:v>
+                  </c:pt>
                   <c:pt idx="225">
                     <c:v>9051</c:v>
                   </c:pt>
@@ -34052,6 +34601,9 @@
                   </c:pt>
                   <c:pt idx="235">
                     <c:v>9201</c:v>
+                  </c:pt>
+                  <c:pt idx="236">
+                    <c:v>9334</c:v>
                   </c:pt>
                   <c:pt idx="237">
                     <c:v>9203</c:v>
@@ -34772,6 +35324,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -34835,9 +35390,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -34853,6 +35414,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -34885,6 +35449,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -35345,6 +35912,9 @@
                 <c:pt idx="165">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>0</c:v>
                 </c:pt>
@@ -35408,9 +35978,15 @@
                 <c:pt idx="188">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
                 </c:pt>
@@ -35457,6 +36033,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
@@ -36278,6 +36857,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -36341,9 +36923,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -36359,6 +36947,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -36391,6 +36982,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -36980,6 +37574,9 @@
                 <c:pt idx="165">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37046,9 +37643,15 @@
                 <c:pt idx="188">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37070,6 +37673,9 @@
                 <c:pt idx="198">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37101,6 +37707,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
@@ -38138,6 +38747,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -38201,9 +38813,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -38219,6 +38837,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -38251,6 +38872,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -38876,6 +39500,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -38939,9 +39566,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -38957,6 +39590,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -38989,6 +39625,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -39566,6 +40205,9 @@
                 <c:pt idx="165">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>1</c:v>
                 </c:pt>
@@ -39632,9 +40274,15 @@
                 <c:pt idx="188">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>5</c:v>
                 </c:pt>
@@ -39656,6 +40304,9 @@
                 <c:pt idx="198">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>2</c:v>
                 </c:pt>
@@ -39688,6 +40339,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>2</c:v>
@@ -40694,6 +41348,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -40757,9 +41414,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -40775,6 +41438,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -40807,6 +41473,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -42377,6 +43046,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -42440,9 +43112,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -42458,6 +43136,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -42490,6 +43171,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -43121,6 +43805,9 @@
                 <c:pt idx="165">
                   <c:v>4302</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>716</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>4310</c:v>
                 </c:pt>
@@ -43184,9 +43871,15 @@
                 <c:pt idx="188">
                   <c:v>9002</c:v>
                 </c:pt>
+                <c:pt idx="189">
+                  <c:v>9328</c:v>
+                </c:pt>
                 <c:pt idx="190">
                   <c:v>9018</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>7123</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>9031/1011</c:v>
                 </c:pt>
@@ -43202,6 +43895,9 @@
                 <c:pt idx="196">
                   <c:v>9041</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>936</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>9051</c:v>
                 </c:pt>
@@ -43234,6 +43930,9 @@
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>9201</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9334</c:v>
                 </c:pt>
                 <c:pt idx="212">
                   <c:v>9203</c:v>
@@ -44040,8 +44739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A153" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1175" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1187" sqref="F1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47389,11 +48088,19 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="5"/>
+      <c r="A210" s="1">
+        <v>716</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D210" s="5"/>
-      <c r="E210" s="1"/>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
       <c r="F210" s="1"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -47789,11 +48496,19 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="5"/>
+      <c r="A233" s="1">
+        <v>9328</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D233" s="5"/>
-      <c r="E233" s="1"/>
+      <c r="E233" s="1">
+        <v>1</v>
+      </c>
       <c r="F233" s="1"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -47815,11 +48530,19 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="5"/>
+      <c r="A235" s="1">
+        <v>7123</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D235" s="5"/>
-      <c r="E235" s="1"/>
+      <c r="E235" s="1">
+        <v>1</v>
+      </c>
       <c r="F235" s="1"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -47941,11 +48664,17 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>936</v>
+      </c>
       <c r="B243" s="1"/>
-      <c r="C243" s="5"/>
+      <c r="C243" s="5" t="s">
+        <v>979</v>
+      </c>
       <c r="D243" s="5"/>
-      <c r="E243" s="1"/>
+      <c r="E243" s="1">
+        <v>1</v>
+      </c>
       <c r="F243" s="1"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -48148,11 +48877,19 @@
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="5"/>
+      <c r="A255" s="1">
+        <v>9334</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D255" s="5"/>
-      <c r="E255" s="1"/>
+      <c r="E255" s="1">
+        <v>1</v>
+      </c>
       <c r="F255" s="1"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -59017,7 +59754,7 @@
         <v>1</v>
       </c>
       <c r="F1187" s="1">
-        <v>360</v>
+        <v>560</v>
       </c>
     </row>
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3344B2E2-C353-4923-AC97-130C0A81E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC74095-3735-44D1-8188-9774BB746964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="980">
   <si>
     <t>Articulo</t>
   </si>
@@ -3645,6 +3645,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -3997,6 +4000,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -4418,6 +4424,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -4723,6 +4732,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -4999,6 +5011,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -5319,6 +5334,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -5802,6 +5820,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -6154,6 +6175,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -6575,6 +6599,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -6880,6 +6907,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -7156,6 +7186,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -7476,6 +7509,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -7835,6 +7871,9 @@
                 <c:pt idx="123">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
                 </c:pt>
@@ -8188,6 +8227,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>10</c:v>
@@ -8841,6 +8883,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -9193,6 +9238,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -9614,6 +9662,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -9919,6 +9970,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -10195,6 +10249,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -10515,6 +10572,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -10874,6 +10934,9 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>21315</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -11072,6 +11135,9 @@
                 <c:pt idx="190">
                   <c:v>13255</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>9330</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>20125</c:v>
                 </c:pt>
@@ -11162,6 +11228,9 @@
                 <c:pt idx="223">
                   <c:v>12480</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>9200</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>12390</c:v>
                 </c:pt>
@@ -11195,6 +11264,9 @@
                 <c:pt idx="235">
                   <c:v>18070</c:v>
                 </c:pt>
+                <c:pt idx="236">
+                  <c:v>21255</c:v>
+                </c:pt>
                 <c:pt idx="237">
                   <c:v>13805</c:v>
                 </c:pt>
@@ -11212,6 +11284,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25230</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>8980</c:v>
@@ -11832,6 +11907,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -12184,6 +12262,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -12605,6 +12686,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -12910,6 +12994,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -13186,6 +13273,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -13506,6 +13596,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -14203,6 +14296,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -14555,6 +14651,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -14976,6 +15075,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -15281,6 +15383,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -15557,6 +15662,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -15877,6 +15985,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -16360,6 +16471,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -16712,6 +16826,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -17133,6 +17250,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -17438,6 +17558,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -17714,6 +17837,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -18034,6 +18160,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -18393,6 +18522,9 @@
                 <c:pt idx="123">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
                 </c:pt>
@@ -18746,6 +18878,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>10</c:v>
@@ -19399,6 +19534,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -19751,6 +19889,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -20172,6 +20313,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -20477,6 +20621,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -20753,6 +20900,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -21073,6 +21223,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -21432,6 +21585,9 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>21315</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -21630,6 +21786,9 @@
                 <c:pt idx="190">
                   <c:v>13255</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>9330</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>20125</c:v>
                 </c:pt>
@@ -21720,6 +21879,9 @@
                 <c:pt idx="223">
                   <c:v>12480</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>9200</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>12390</c:v>
                 </c:pt>
@@ -21753,6 +21915,9 @@
                 <c:pt idx="235">
                   <c:v>18070</c:v>
                 </c:pt>
+                <c:pt idx="236">
+                  <c:v>21255</c:v>
+                </c:pt>
                 <c:pt idx="237">
                   <c:v>13805</c:v>
                 </c:pt>
@@ -21770,6 +21935,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25230</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>8980</c:v>
@@ -22390,6 +22558,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -22742,6 +22913,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -23163,6 +23337,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -23468,6 +23645,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -23744,6 +23924,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -24064,6 +24247,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -24761,6 +24947,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -25113,6 +25302,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -25534,6 +25726,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -25839,6 +26034,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -26115,6 +26313,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -26435,6 +26636,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -26918,6 +27122,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -27270,6 +27477,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -27691,6 +27901,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -27996,6 +28209,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -28272,6 +28488,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -28592,6 +28811,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -28951,6 +29173,9 @@
                 <c:pt idx="123">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>9</c:v>
                 </c:pt>
@@ -29304,6 +29529,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>10</c:v>
@@ -29957,6 +30185,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -30309,6 +30540,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -30730,6 +30964,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -31035,6 +31272,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -31311,6 +31551,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -31631,6 +31874,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -31990,6 +32236,9 @@
                 <c:pt idx="123">
                   <c:v>12890</c:v>
                 </c:pt>
+                <c:pt idx="124">
+                  <c:v>21315</c:v>
+                </c:pt>
                 <c:pt idx="125">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -32188,6 +32437,9 @@
                 <c:pt idx="190">
                   <c:v>13255</c:v>
                 </c:pt>
+                <c:pt idx="191">
+                  <c:v>9330</c:v>
+                </c:pt>
                 <c:pt idx="192">
                   <c:v>20125</c:v>
                 </c:pt>
@@ -32278,6 +32530,9 @@
                 <c:pt idx="223">
                   <c:v>12480</c:v>
                 </c:pt>
+                <c:pt idx="224">
+                  <c:v>9200</c:v>
+                </c:pt>
                 <c:pt idx="225">
                   <c:v>12390</c:v>
                 </c:pt>
@@ -32311,6 +32566,9 @@
                 <c:pt idx="235">
                   <c:v>18070</c:v>
                 </c:pt>
+                <c:pt idx="236">
+                  <c:v>21255</c:v>
+                </c:pt>
                 <c:pt idx="237">
                   <c:v>13805</c:v>
                 </c:pt>
@@ -32328,6 +32586,9 @@
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>25230</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>8980</c:v>
@@ -32948,6 +33209,9 @@
                   <c:pt idx="123">
                     <c:v>BOMBACHAS CORTO ESPECIAL </c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -33300,6 +33564,9 @@
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="242">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
                   <c:pt idx="244">
@@ -33721,6 +33988,9 @@
                   <c:pt idx="123">
                     <c:v>56 AL 60</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>35 AL 40</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>19 AL 26</c:v>
                   </c:pt>
@@ -34026,6 +34296,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>35 AL 40</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>39 al 44 </c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>28 AL 35</c:v>
@@ -34302,6 +34575,9 @@
                   <c:pt idx="123">
                     <c:v>157</c:v>
                   </c:pt>
+                  <c:pt idx="124">
+                    <c:v>9332</c:v>
+                  </c:pt>
                   <c:pt idx="125">
                     <c:v>148</c:v>
                   </c:pt>
@@ -34622,6 +34898,9 @@
                   </c:pt>
                   <c:pt idx="242">
                     <c:v>9077</c:v>
+                  </c:pt>
+                  <c:pt idx="243">
+                    <c:v>9326</c:v>
                   </c:pt>
                   <c:pt idx="244">
                     <c:v>9094</c:v>
@@ -35150,6 +35429,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -35470,6 +35752,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -35747,6 +36032,9 @@
                 <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
@@ -36051,6 +36339,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
@@ -36683,6 +36974,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -37003,6 +37297,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -37376,6 +37673,9 @@
                 <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37728,6 +38028,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
@@ -38573,6 +38876,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -38893,6 +39199,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -39326,6 +39635,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -39646,6 +39958,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -40007,6 +40322,9 @@
                 <c:pt idx="98">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>9</c:v>
                 </c:pt>
@@ -40360,6 +40678,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>10</c:v>
@@ -41174,6 +41495,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -41494,6 +41818,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -41858,6 +42185,9 @@
                 <c:pt idx="98">
                   <c:v>12890</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>21315</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>4790</c:v>
                 </c:pt>
@@ -42056,6 +42386,9 @@
                 <c:pt idx="165">
                   <c:v>13255</c:v>
                 </c:pt>
+                <c:pt idx="166">
+                  <c:v>9330</c:v>
+                </c:pt>
                 <c:pt idx="167">
                   <c:v>20125</c:v>
                 </c:pt>
@@ -42146,6 +42479,9 @@
                 <c:pt idx="198">
                   <c:v>12480</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>9200</c:v>
+                </c:pt>
                 <c:pt idx="200">
                   <c:v>12390</c:v>
                 </c:pt>
@@ -42179,6 +42515,9 @@
                 <c:pt idx="210">
                   <c:v>18070</c:v>
                 </c:pt>
+                <c:pt idx="211">
+                  <c:v>21255</c:v>
+                </c:pt>
                 <c:pt idx="212">
                   <c:v>13805</c:v>
                 </c:pt>
@@ -42196,6 +42535,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>14080</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>25230</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>8980</c:v>
@@ -42872,6 +43214,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -43192,6 +43537,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -43631,6 +43979,9 @@
                 <c:pt idx="98">
                   <c:v>157</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>9332</c:v>
+                </c:pt>
                 <c:pt idx="100">
                   <c:v>148</c:v>
                 </c:pt>
@@ -43951,6 +44302,9 @@
                 </c:pt>
                 <c:pt idx="217">
                   <c:v>9077</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>9326</c:v>
                 </c:pt>
                 <c:pt idx="219">
                   <c:v>9094</c:v>
@@ -44739,8 +45093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1175" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1187" sqref="F1187"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A998" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1010" sqref="F1010"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46930,12 +47284,22 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="5"/>
+      <c r="A143" s="1">
+        <v>9332</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D143" s="5"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>21315</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -48101,7 +48465,9 @@
       <c r="E210" s="1">
         <v>1</v>
       </c>
-      <c r="F210" s="1"/>
+      <c r="F210" s="1">
+        <v>9330</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
@@ -48675,7 +49041,9 @@
       <c r="E243" s="1">
         <v>1</v>
       </c>
-      <c r="F243" s="1"/>
+      <c r="F243" s="1">
+        <v>9200</v>
+      </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
@@ -48890,7 +49258,9 @@
       <c r="E255" s="1">
         <v>1</v>
       </c>
-      <c r="F255" s="1"/>
+      <c r="F255" s="1">
+        <v>21255</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
@@ -48999,12 +49369,22 @@
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="5"/>
+      <c r="A262" s="1">
+        <v>9326</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="D262" s="5"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
+      <c r="E262" s="1">
+        <v>1</v>
+      </c>
+      <c r="F262" s="1">
+        <v>25230</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
@@ -57744,7 +58124,7 @@
         <v>12</v>
       </c>
       <c r="F1010" s="1">
-        <v>4680</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
@@ -58246,7 +58626,7 @@
         <v>4</v>
       </c>
       <c r="F1053" s="1">
-        <v>9040</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37899880-36AF-49EF-A5E9-E777A18FD1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9CE6EE-7D3F-47B5-B108-5067B2FA5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="998">
   <si>
     <t>Articulo</t>
   </si>
@@ -3930,9 +3930,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -4667,9 +4664,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -5262,9 +5256,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -6093,9 +6084,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -6830,9 +6818,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -7425,9 +7410,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -8125,9 +8107,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>8</c:v>
@@ -9135,9 +9114,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -9872,9 +9848,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -10467,9 +10440,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -10971,7 +10941,7 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3085</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>520</c:v>
@@ -11040,10 +11010,10 @@
                   <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3900</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5400</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>5400</c:v>
@@ -11173,9 +11143,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9890</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>9820</c:v>
@@ -12144,9 +12111,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -12881,9 +12845,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -13476,9 +13437,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -14521,9 +14479,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -15258,9 +15213,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -15853,9 +15805,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -16684,9 +16633,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -17421,9 +17367,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -18016,9 +17959,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -18716,9 +18656,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>8</c:v>
@@ -19726,9 +19663,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -20463,9 +20397,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -21058,9 +20989,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -21562,7 +21490,7 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3085</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>520</c:v>
@@ -21631,10 +21559,10 @@
                   <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3900</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5400</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>5400</c:v>
@@ -21764,9 +21692,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9890</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>9820</c:v>
@@ -22735,9 +22660,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -23472,9 +23394,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -24067,9 +23986,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -25112,9 +25028,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -25849,9 +25762,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -26444,9 +26354,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -27275,9 +27182,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -28012,9 +27916,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -28607,9 +28508,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -29307,9 +29205,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>8</c:v>
@@ -30317,9 +30212,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -31054,9 +30946,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -31649,9 +31538,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -32153,7 +32039,7 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3085</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>520</c:v>
@@ -32222,10 +32108,10 @@
                   <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3900</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>5400</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="159">
                   <c:v>5400</c:v>
@@ -32355,9 +32241,6 @@
                 </c:pt>
                 <c:pt idx="201">
                   <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>9890</c:v>
                 </c:pt>
                 <c:pt idx="203">
                   <c:v>9820</c:v>
@@ -33326,9 +33209,6 @@
                   <c:pt idx="201">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>JAGUAR</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -34063,9 +33943,6 @@
                   <c:pt idx="201">
                     <c:v>36 al 40</c:v>
                   </c:pt>
-                  <c:pt idx="202">
-                    <c:v>36 AL 40</c:v>
-                  </c:pt>
                   <c:pt idx="203">
                     <c:v>34 AL 40</c:v>
                   </c:pt>
@@ -34658,9 +34535,6 @@
                   </c:pt>
                   <c:pt idx="201">
                     <c:v>7118</c:v>
-                  </c:pt>
-                  <c:pt idx="202">
-                    <c:v>7112</c:v>
                   </c:pt>
                   <c:pt idx="203">
                     <c:v>8010</c:v>
@@ -35510,9 +35384,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -36111,9 +35982,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
@@ -37073,9 +36941,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -37803,9 +37668,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
@@ -39026,9 +38888,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -39803,9 +39662,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -40522,9 +40378,6 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>8</c:v>
@@ -41714,9 +41567,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -42237,7 +42087,7 @@
                   <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3085</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>520</c:v>
@@ -42306,10 +42156,10 @@
                   <c:v>2630</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3900</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5400</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="134">
                   <c:v>5400</c:v>
@@ -42439,9 +42289,6 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>11400</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>9890</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>9820</c:v>
@@ -43487,9 +43334,6 @@
                 <c:pt idx="176">
                   <c:v>7118</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
-                </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
                 </c:pt>
@@ -44272,9 +44116,6 @@
                 </c:pt>
                 <c:pt idx="176">
                   <c:v>7118</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>7112</c:v>
                 </c:pt>
                 <c:pt idx="178">
                   <c:v>8010</c:v>
@@ -45195,8 +45036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A999" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1013" sqref="F1013"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A809" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A823" sqref="A823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47560,7 +47401,7 @@
         <v>13</v>
       </c>
       <c r="F152" s="1">
-        <v>3085</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -47942,7 +47783,7 @@
         <v>9</v>
       </c>
       <c r="F175" s="1">
-        <v>3900</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -47960,7 +47801,7 @@
         <v>4</v>
       </c>
       <c r="F176" s="1">
-        <v>5400</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -48744,22 +48585,12 @@
       </c>
     </row>
     <row r="221" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>7112</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="6"/>
       <c r="D221" s="6"/>
-      <c r="E221" s="1">
-        <v>1</v>
-      </c>
-      <c r="F221" s="1">
-        <v>9890</v>
-      </c>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7033CAF-E62D-4254-9F3D-053D6BD6459A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C01FFCC-B1CB-4053-B400-542A0A8CFD36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44757,8 +44757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1421" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1449" sqref="F1449"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A660" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C675" sqref="C675:D675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54388,7 +54388,7 @@
         <v>1</v>
       </c>
       <c r="F674" s="1">
-        <v>7090</v>
+        <v>8450</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -54416,7 +54416,7 @@
         <v>1</v>
       </c>
       <c r="F676" s="1">
-        <v>6900</v>
+        <v>12890</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -54430,7 +54430,7 @@
         <v>2</v>
       </c>
       <c r="F677" s="1">
-        <v>7600</v>
+        <v>14790</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -59345,7 +59345,7 @@
         <v>1</v>
       </c>
       <c r="F1120" s="1">
-        <v>22980</v>
+        <v>25680</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EF39F-FEDB-4F53-A6DB-EF0BD85B320C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBD1077-BC78-4267-9B3B-229B0AE250FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="1030">
   <si>
     <t>Articulo</t>
   </si>
@@ -3113,6 +3113,12 @@
   </si>
   <si>
     <t>cortina tropical ambiente emanuel</t>
+  </si>
+  <si>
+    <t>PROWESS</t>
+  </si>
+  <si>
+    <t>39 AL 40</t>
   </si>
 </sst>
 </file>
@@ -3855,6 +3861,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -4580,6 +4589,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -5160,6 +5172,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -5979,6 +5994,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -6704,6 +6722,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -7284,6 +7305,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -7972,6 +7996,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3</c:v>
@@ -8961,6 +8988,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -9686,6 +9716,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -10266,6 +10299,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -10896,16 +10932,16 @@
                   <c:v>21300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4790</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5245</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5590</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6025</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>2600</c:v>
@@ -10932,7 +10968,7 @@
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6205</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>9465</c:v>
@@ -10960,6 +10996,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3975</c:v>
@@ -11913,6 +11952,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -12638,6 +12680,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -13218,6 +13263,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -14251,6 +14299,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -14976,6 +15027,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -15556,6 +15610,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -16375,6 +16432,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -17100,6 +17160,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -17680,6 +17743,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -18368,6 +18434,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3</c:v>
@@ -19357,6 +19426,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -20082,6 +20154,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -20662,6 +20737,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -21292,16 +21370,16 @@
                   <c:v>21300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4790</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5245</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5590</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6025</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>2600</c:v>
@@ -21328,7 +21406,7 @@
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6205</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>9465</c:v>
@@ -21356,6 +21434,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3975</c:v>
@@ -22309,6 +22390,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -23034,6 +23118,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -23614,6 +23701,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -24647,6 +24737,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -25372,6 +25465,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -25952,6 +26048,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -26771,6 +26870,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -27496,6 +27598,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -28076,6 +28181,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -28764,6 +28872,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3</c:v>
@@ -29753,6 +29864,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -30478,6 +30592,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -31058,6 +31175,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -31688,16 +31808,16 @@
                   <c:v>21300</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4790</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>5245</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5590</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6025</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="129">
                   <c:v>2600</c:v>
@@ -31724,7 +31844,7 @@
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6205</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>9465</c:v>
@@ -31752,6 +31872,9 @@
                 </c:pt>
                 <c:pt idx="146">
                   <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="148">
                   <c:v>3975</c:v>
@@ -32705,6 +32828,9 @@
                   <c:pt idx="146">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>JAGUAR</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>JAGUAR</c:v>
                   </c:pt>
@@ -33430,6 +33556,9 @@
                   <c:pt idx="146">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
+                  <c:pt idx="147">
+                    <c:v>28 al 35</c:v>
+                  </c:pt>
                   <c:pt idx="148">
                     <c:v>27 AL 33</c:v>
                   </c:pt>
@@ -34010,6 +34139,9 @@
                   </c:pt>
                   <c:pt idx="146">
                     <c:v>511</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>9211</c:v>
                   </c:pt>
                   <c:pt idx="148">
                     <c:v>512</c:v>
@@ -34859,6 +34991,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -35463,6 +35598,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
@@ -36410,6 +36548,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -37134,6 +37275,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
@@ -38372,6 +38516,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -39152,6 +39299,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -39865,6 +40015,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>3</c:v>
@@ -41072,6 +41225,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -41727,16 +41883,16 @@
                   <c:v>21300</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4790</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5245</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5590</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6025</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>2600</c:v>
@@ -41763,7 +41919,7 @@
                   <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>6205</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>9465</c:v>
@@ -41791,6 +41947,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>20300</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>3975</c:v>
@@ -42875,6 +43034,9 @@
                 <c:pt idx="121">
                   <c:v>511</c:v>
                 </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
+                </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
                 </c:pt>
@@ -43663,6 +43825,9 @@
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9211</c:v>
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>512</c:v>
@@ -44745,8 +44910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A266" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F280" sqref="F280"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A990" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1004" sqref="F1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46964,7 +47129,7 @@
         <v>9</v>
       </c>
       <c r="F144" s="1">
-        <v>4790</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -46982,7 +47147,7 @@
         <v>6</v>
       </c>
       <c r="F145" s="1">
-        <v>5245</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -47000,7 +47165,7 @@
         <v>5</v>
       </c>
       <c r="F146" s="1">
-        <v>5590</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -47018,7 +47183,7 @@
         <v>5</v>
       </c>
       <c r="F147" s="1">
-        <v>6025</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -47164,7 +47329,7 @@
         <v>28</v>
       </c>
       <c r="F156" s="1">
-        <v>6205</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -47316,12 +47481,22 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="5"/>
+      <c r="A166" s="1">
+        <v>9211</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D166" s="5"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="E166" s="1">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1">
+        <v>20300</v>
+      </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -57923,10 +58098,19 @@
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1004" s="1"/>
-      <c r="C1004" s="5"/>
+      <c r="A1004">
+        <v>1176</v>
+      </c>
+      <c r="B1004" s="1">
+        <v>41</v>
+      </c>
+      <c r="C1004" s="5" t="s">
+        <v>1028</v>
+      </c>
       <c r="D1004" s="5"/>
-      <c r="F1004" s="1"/>
+      <c r="F1004" s="1">
+        <v>10700</v>
+      </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
@@ -58422,10 +58606,22 @@
       <c r="F1045" s="1"/>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1046" s="1"/>
-      <c r="C1046" s="5"/>
+      <c r="A1046">
+        <v>9330</v>
+      </c>
+      <c r="B1046" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1046" s="5" t="s">
+        <v>956</v>
+      </c>
       <c r="D1046" s="5"/>
-      <c r="F1046" s="1"/>
+      <c r="E1046">
+        <v>1</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>25800</v>
+      </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1047">
@@ -58476,10 +58672,22 @@
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1050" s="1"/>
-      <c r="C1050" s="5"/>
+      <c r="A1050">
+        <v>9316</v>
+      </c>
+      <c r="B1050" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1050" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="D1050" s="5"/>
-      <c r="F1050" s="1"/>
+      <c r="E1050">
+        <v>1</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>23200</v>
+      </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1051">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE6570C-A707-439D-880A-96E8D9DF5854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51410379-D409-429B-8FFF-DBFBC736A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1029">
   <si>
     <t>Articulo</t>
   </si>
@@ -10503,13 +10503,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16360</c:v>
@@ -10530,7 +10530,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>49700</c:v>
@@ -11079,7 +11079,7 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>860</c:v>
@@ -20815,13 +20815,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16360</c:v>
@@ -20842,7 +20842,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>49700</c:v>
@@ -21391,7 +21391,7 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>860</c:v>
@@ -31127,13 +31127,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>16360</c:v>
@@ -31154,7 +31154,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>49700</c:v>
@@ -31703,7 +31703,7 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="210">
                   <c:v>860</c:v>
@@ -35660,6 +35660,9 @@
                 <c:pt idx="383">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="385">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37556,6 +37559,9 @@
                 <c:pt idx="383">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="384">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="385">
                   <c:v>0</c:v>
                 </c:pt>
@@ -40244,6 +40250,9 @@
                 <c:pt idx="383">
                   <c:v>62</c:v>
                 </c:pt>
+                <c:pt idx="384">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="385">
                   <c:v>14</c:v>
                 </c:pt>
@@ -40451,13 +40460,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>16360</c:v>
@@ -40478,7 +40487,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>49700</c:v>
@@ -41670,7 +41679,7 @@
                   <c:v>490</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="185">
                   <c:v>860</c:v>
@@ -42095,14 +42104,17 @@
                 <c:pt idx="383">
                   <c:v>5980</c:v>
                 </c:pt>
+                <c:pt idx="384">
+                  <c:v>3580</c:v>
+                </c:pt>
                 <c:pt idx="385">
-                  <c:v>1980</c:v>
+                  <c:v>3280</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>3780</c:v>
+                  <c:v>4780</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>2480</c:v>
+                  <c:v>4780</c:v>
                 </c:pt>
                 <c:pt idx="388">
                   <c:v>2800</c:v>
@@ -42242,13 +42254,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>16360</c:v>
@@ -42269,7 +42281,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>49700</c:v>
@@ -43025,13 +43037,13 @@
                   <c:v>6980</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4780</c:v>
+                  <c:v>9180</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2480</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3360</c:v>
+                  <c:v>3380</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>16360</c:v>
@@ -43052,7 +43064,7 @@
                   <c:v>4280</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4980</c:v>
+                  <c:v>5180</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>49700</c:v>
@@ -44430,8 +44442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1049" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G1058" sqref="G1058"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A723" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F744" sqref="F744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44743,7 +44755,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="1">
-        <v>4780</v>
+        <v>9180</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -44771,7 +44783,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>2480</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -44786,7 +44798,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1">
-        <v>3360</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -44889,7 +44901,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="1">
-        <v>4980</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -48083,7 +48095,7 @@
         <v>1</v>
       </c>
       <c r="F228" s="1">
-        <v>4980</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -50900,16 +50912,24 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
-      <c r="B428" s="1"/>
-      <c r="C428" s="5"/>
+      <c r="B428" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="D428" s="5"/>
-      <c r="E428" s="1"/>
-      <c r="F428" s="1"/>
+      <c r="E428" s="1">
+        <v>1</v>
+      </c>
+      <c r="F428" s="1">
+        <v>3580</v>
+      </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C429" s="5" t="s">
         <v>307</v>
@@ -50919,7 +50939,7 @@
         <v>14</v>
       </c>
       <c r="F429" s="1">
-        <v>1980</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -50935,7 +50955,7 @@
         <v>33</v>
       </c>
       <c r="F430" s="1">
-        <v>3780</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -50951,7 +50971,7 @@
         <v>7</v>
       </c>
       <c r="F431" s="1">
-        <v>2480</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -51906,7 +51926,9 @@
       <c r="E498" s="1">
         <v>2</v>
       </c>
-      <c r="F498" s="1"/>
+      <c r="F498" s="1">
+        <v>2980</v>
+      </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
@@ -53077,7 +53099,7 @@
         <v>8</v>
       </c>
       <c r="F596" s="1">
-        <v>4980</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -54790,7 +54812,7 @@
         <v>1</v>
       </c>
       <c r="F737" s="1">
-        <v>400</v>
+        <v>590</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
@@ -54808,7 +54830,7 @@
         <v>1</v>
       </c>
       <c r="F738" s="1">
-        <v>400</v>
+        <v>590</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
@@ -54826,7 +54848,7 @@
         <v>1</v>
       </c>
       <c r="F739" s="1">
-        <v>490</v>
+        <v>650</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
@@ -54844,7 +54866,7 @@
         <v>1</v>
       </c>
       <c r="F740" s="1">
-        <v>570</v>
+        <v>730</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
@@ -54862,7 +54884,7 @@
         <v>1</v>
       </c>
       <c r="F741" s="1">
-        <v>620</v>
+        <v>810</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
@@ -54880,7 +54902,7 @@
         <v>1</v>
       </c>
       <c r="F742" s="1">
-        <v>720</v>
+        <v>990</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
@@ -54898,7 +54920,7 @@
         <v>1</v>
       </c>
       <c r="F743" s="1">
-        <v>720</v>
+        <v>990</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
@@ -54913,7 +54935,7 @@
         <v>1</v>
       </c>
       <c r="F744" s="1">
-        <v>650</v>
+        <v>750</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
@@ -54928,7 +54950,7 @@
         <v>1</v>
       </c>
       <c r="F745" s="1">
-        <v>670</v>
+        <v>870</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
@@ -56221,7 +56243,7 @@
         <v>5</v>
       </c>
       <c r="F854" s="1">
-        <v>2600</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="855" spans="2:6" x14ac:dyDescent="0.25">
@@ -58735,7 +58757,7 @@
         <v>1</v>
       </c>
       <c r="F1089" s="1">
-        <v>710</v>
+        <v>810</v>
       </c>
     </row>
     <row r="1090" spans="2:6" x14ac:dyDescent="0.25">
@@ -61519,7 +61541,7 @@
         <v>1</v>
       </c>
       <c r="F1366" s="1">
-        <v>650</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51410379-D409-429B-8FFF-DBFBC736A226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A4E428-B3AF-47D0-AA19-6680B07F77DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1033">
   <si>
     <t>Articulo</t>
   </si>
@@ -3116,6 +3116,18 @@
   </si>
   <si>
     <t>39 AL 40</t>
+  </si>
+  <si>
+    <t>imperia bermuda chino hombre</t>
+  </si>
+  <si>
+    <t>imperia short rustico hombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperia canguro hombre estampado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">imperia canguro hombre liso </t>
   </si>
 </sst>
 </file>
@@ -37625,6 +37637,9 @@
                 <c:pt idx="406">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="407">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="408">
                   <c:v>0</c:v>
                 </c:pt>
@@ -37644,6 +37659,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="414">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="417">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="418">
@@ -40316,6 +40340,9 @@
                 <c:pt idx="406">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="407">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="408">
                   <c:v>2</c:v>
                 </c:pt>
@@ -40336,6 +40363,15 @@
                 </c:pt>
                 <c:pt idx="414">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="418">
                   <c:v>1</c:v>
@@ -42137,8 +42173,20 @@
                 <c:pt idx="402">
                   <c:v>9900</c:v>
                 </c:pt>
+                <c:pt idx="407">
+                  <c:v>11980</c:v>
+                </c:pt>
                 <c:pt idx="408">
                   <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>13380</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>7980</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>13700</c:v>
                 </c:pt>
                 <c:pt idx="418">
                   <c:v>5200</c:v>
@@ -44442,8 +44490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A723" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F744" sqref="F744"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A443" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E451" sqref="E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51279,10 +51327,16 @@
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
-      <c r="C451" s="5"/>
+      <c r="C451" s="5" t="s">
+        <v>1032</v>
+      </c>
       <c r="D451" s="5"/>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
+      <c r="E451" s="1">
+        <v>1</v>
+      </c>
+      <c r="F451" s="1">
+        <v>11980</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
@@ -51399,26 +51453,44 @@
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
-      <c r="C459" s="5"/>
+      <c r="C459" s="5" t="s">
+        <v>1029</v>
+      </c>
       <c r="D459" s="5"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
+      <c r="E459" s="1">
+        <v>1</v>
+      </c>
+      <c r="F459" s="1">
+        <v>13380</v>
+      </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
-      <c r="C460" s="5"/>
+      <c r="C460" s="5" t="s">
+        <v>1030</v>
+      </c>
       <c r="D460" s="5"/>
-      <c r="E460" s="1"/>
-      <c r="F460" s="1"/>
+      <c r="E460" s="1">
+        <v>1</v>
+      </c>
+      <c r="F460" s="1">
+        <v>7980</v>
+      </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
-      <c r="C461" s="5"/>
+      <c r="C461" s="5" t="s">
+        <v>1031</v>
+      </c>
       <c r="D461" s="5"/>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
+      <c r="E461" s="1">
+        <v>1</v>
+      </c>
+      <c r="F461" s="1">
+        <v>13700</v>
+      </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFD6D0E-A2A3-4487-9AA2-FB220F43042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967A566-C01D-4C30-A0A6-A190E78AFB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1032">
   <si>
     <t>Articulo</t>
   </si>
@@ -1946,9 +1946,6 @@
   </si>
   <si>
     <t>t2</t>
-  </si>
-  <si>
-    <t>calza nena estampada EL</t>
   </si>
   <si>
     <t>pantalon deportivo kappa de chico</t>
@@ -44490,8 +44487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1191" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1206" sqref="F1206"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1172" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1185" sqref="F1185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44573,7 +44570,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
@@ -44888,7 +44885,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1">
@@ -44942,7 +44939,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44954,7 +44951,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44978,7 +44975,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44990,7 +44987,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -45002,7 +44999,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -45079,7 +45076,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -45119,7 +45116,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45618,7 +45615,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45636,7 +45633,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45654,7 +45651,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -46012,7 +46009,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -46142,7 +46139,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1">
@@ -46178,7 +46175,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -46204,7 +46201,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -46214,7 +46211,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -46296,7 +46293,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46824,7 +46821,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46856,7 +46853,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46870,7 +46867,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46884,7 +46881,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46964,7 +46961,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46996,7 +46993,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -47440,7 +47437,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
@@ -47856,13 +47853,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>894</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>895</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -48136,7 +48133,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -48366,7 +48363,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -48380,7 +48377,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48396,7 +48393,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="1">
@@ -48724,7 +48721,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>159</v>
@@ -49103,7 +49100,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -49133,7 +49130,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -49207,7 +49204,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -49327,7 +49324,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -49365,7 +49362,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -49473,7 +49470,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -49487,7 +49484,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49501,7 +49498,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49570,10 +49567,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49697,7 +49694,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49800,7 +49797,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D342" s="6"/>
       <c r="E342" s="1">
@@ -49880,7 +49877,7 @@
         <v>300</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49912,7 +49909,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49929,7 +49926,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49993,7 +49990,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -50023,7 +50020,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D358" s="6"/>
       <c r="E358" s="1">
@@ -50069,7 +50066,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="1">
@@ -50083,7 +50080,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="1">
@@ -50097,7 +50094,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="1">
@@ -50111,7 +50108,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D364" s="6"/>
       <c r="E364" s="1">
@@ -50125,7 +50122,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D365" s="6"/>
       <c r="E365" s="1">
@@ -50141,7 +50138,7 @@
         <v>300</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D366" s="6"/>
       <c r="E366" s="1">
@@ -50157,7 +50154,7 @@
         <v>396</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="1">
@@ -50185,7 +50182,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="1">
@@ -50249,10 +50246,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -50265,10 +50262,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -50370,7 +50367,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -50379,10 +50376,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>847</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -50392,7 +50389,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D386" s="6"/>
       <c r="E386" s="1">
@@ -50406,7 +50403,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D387" s="6"/>
       <c r="E387" s="1">
@@ -50420,7 +50417,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="1">
@@ -50434,7 +50431,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="1">
@@ -50446,11 +50443,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="1">
@@ -50466,7 +50463,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="1">
@@ -50478,11 +50475,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="1">
@@ -50498,7 +50495,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D393" s="6"/>
       <c r="E393" s="1">
@@ -50510,11 +50507,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D394" s="6"/>
       <c r="E394" s="1">
@@ -50530,7 +50527,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D395" s="6"/>
       <c r="E395" s="1">
@@ -50706,7 +50703,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D407" s="6"/>
       <c r="E407" s="1">
@@ -50896,11 +50893,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D423" s="6"/>
       <c r="E423" s="1">
@@ -50912,11 +50909,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D424" s="6"/>
       <c r="E424" s="1">
@@ -51328,7 +51325,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D451" s="6"/>
       <c r="E451" s="1">
@@ -51454,7 +51451,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D459" s="6"/>
       <c r="E459" s="1">
@@ -51468,7 +51465,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D460" s="6"/>
       <c r="E460" s="1">
@@ -51482,7 +51479,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D461" s="6"/>
       <c r="E461" s="1">
@@ -51496,7 +51493,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D462" s="6"/>
       <c r="E462" s="1">
@@ -51510,7 +51507,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D463" s="6"/>
       <c r="E463" s="1">
@@ -51524,7 +51521,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D464" s="6"/>
       <c r="E464" s="1">
@@ -51538,7 +51535,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D465" s="6"/>
       <c r="E465" s="1">
@@ -51594,7 +51591,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D469" s="6"/>
       <c r="E469" s="1">
@@ -51608,7 +51605,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D470" s="6"/>
       <c r="E470" s="1">
@@ -51916,7 +51913,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51938,7 +51935,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51960,7 +51957,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D496" s="6"/>
       <c r="E496" s="1">
@@ -51992,7 +51989,7 @@
         <v>374</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -52006,7 +52003,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -52112,7 +52109,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D506" s="6"/>
       <c r="E506" s="1">
@@ -52128,7 +52125,7 @@
         <v>300</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -52142,7 +52139,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -52182,7 +52179,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -52384,7 +52381,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -52412,7 +52409,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -52454,7 +52451,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -52482,7 +52479,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -52616,7 +52613,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52652,7 +52649,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52690,7 +52687,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52704,7 +52701,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52718,7 +52715,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52740,7 +52737,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52754,7 +52751,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -53000,7 +52997,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -53210,7 +53207,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -53352,7 +53349,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -53500,7 +53497,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -53513,7 +53510,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>436</v>
@@ -53544,7 +53541,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -53558,7 +53555,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -53692,7 +53689,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D639" s="6"/>
       <c r="E639" s="1">
@@ -53706,7 +53703,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D640" s="6"/>
       <c r="E640" s="1">
@@ -53736,7 +53733,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D642" s="6"/>
       <c r="E642" s="1">
@@ -53750,7 +53747,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D643" s="6"/>
       <c r="E643" s="1">
@@ -53796,7 +53793,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D646" s="6"/>
       <c r="E646" s="1">
@@ -53810,7 +53807,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D647" s="6"/>
       <c r="E647" s="1">
@@ -53824,7 +53821,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D648" s="6"/>
       <c r="E648" s="1">
@@ -53838,7 +53835,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D649" s="6"/>
       <c r="E649" s="1">
@@ -53852,7 +53849,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D650" s="6"/>
       <c r="E650" s="1">
@@ -53866,7 +53863,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D651" s="6"/>
       <c r="E651" s="1">
@@ -53890,7 +53887,7 @@
         <v>409</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
@@ -53906,7 +53903,7 @@
         <v>374</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
@@ -53922,7 +53919,7 @@
         <v>409</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
@@ -53938,7 +53935,7 @@
         <v>409</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
@@ -53954,7 +53951,7 @@
         <v>409</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
@@ -53968,7 +53965,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -54126,7 +54123,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -54140,7 +54137,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -54154,7 +54151,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -54218,7 +54215,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D681" s="6"/>
       <c r="E681" s="1">
@@ -54232,7 +54229,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D682" s="6"/>
       <c r="E682" s="1">
@@ -54246,7 +54243,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D683" s="6"/>
       <c r="E683" s="1">
@@ -54260,7 +54257,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D684" s="6"/>
       <c r="E684" s="1">
@@ -54274,7 +54271,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -54288,7 +54285,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D686" s="6"/>
       <c r="E686" s="1">
@@ -54329,10 +54326,10 @@
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C689" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D689" s="6"/>
       <c r="E689" s="1">
@@ -54345,10 +54342,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C690" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D690" s="6"/>
       <c r="E690" s="1">
@@ -54500,7 +54497,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D701" s="6"/>
       <c r="E701" s="1">
@@ -54514,7 +54511,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D702" s="6"/>
       <c r="E702" s="1">
@@ -54528,7 +54525,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D703" s="6"/>
       <c r="E703" s="1">
@@ -54719,7 +54716,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -54732,7 +54729,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54745,7 +54742,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54871,13 +54868,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54889,13 +54886,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54907,13 +54904,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54925,13 +54922,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C740" s="6" t="s">
         <v>919</v>
-      </c>
-      <c r="C740" s="6" t="s">
-        <v>920</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54943,13 +54940,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54961,13 +54958,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54979,13 +54976,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>922</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>924</v>
-      </c>
       <c r="C743" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54997,10 +54994,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C744" s="6" t="s">
         <v>924</v>
-      </c>
-      <c r="C744" s="6" t="s">
-        <v>925</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -55012,10 +55009,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -55028,7 +55025,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -55100,7 +55097,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -55114,7 +55111,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -55128,7 +55125,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -55144,7 +55141,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -55159,7 +55156,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -55188,7 +55185,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -55219,7 +55216,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -55261,7 +55258,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -55340,7 +55337,7 @@
         <v>494</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C771" s="6" t="s">
         <v>496</v>
@@ -55373,11 +55370,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
@@ -55595,7 +55592,7 @@
         <v>518</v>
       </c>
       <c r="C787" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D787" s="6"/>
       <c r="E787" s="1">
@@ -55643,7 +55640,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D791" s="6"/>
       <c r="E791" s="1">
@@ -55656,7 +55653,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D792" s="6"/>
       <c r="E792" s="1">
@@ -55669,7 +55666,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D793" s="6"/>
       <c r="E793" s="1">
@@ -55682,7 +55679,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D794" s="6"/>
       <c r="E794" s="1">
@@ -55695,7 +55692,7 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D795" s="6"/>
       <c r="E795" s="1">
@@ -55708,7 +55705,7 @@
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D796" s="6"/>
       <c r="E796" s="1">
@@ -55721,7 +55718,7 @@
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D797" s="6"/>
       <c r="E797" s="1">
@@ -56132,7 +56129,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -56223,7 +56220,7 @@
         <v>613</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
@@ -56238,7 +56235,7 @@
         <v>613</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
@@ -56250,10 +56247,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C849" s="6" t="s">
         <v>930</v>
-      </c>
-      <c r="C849" s="6" t="s">
-        <v>931</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
@@ -56268,7 +56265,7 @@
         <v>477</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
@@ -56281,7 +56278,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
@@ -56700,7 +56697,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
@@ -56713,7 +56710,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
@@ -56726,7 +56723,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
@@ -56739,7 +56736,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
@@ -56752,7 +56749,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
@@ -56765,7 +56762,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
@@ -56836,7 +56833,7 @@
         <v>7184</v>
       </c>
       <c r="C916" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D916" s="6"/>
       <c r="E916" s="1">
@@ -56949,7 +56946,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
@@ -57549,7 +57546,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -57671,7 +57668,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D1004" s="6"/>
       <c r="F1004" s="1">
@@ -57681,7 +57678,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D1005" s="6"/>
       <c r="E1005">
@@ -58004,7 +58001,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
@@ -58032,7 +58029,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
@@ -58137,7 +58134,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -58179,7 +58176,7 @@
         <v>185</v>
       </c>
       <c r="C1046" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1046" s="6"/>
       <c r="E1046">
@@ -58242,7 +58239,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C1050" s="6" t="s">
         <v>159</v>
@@ -58261,7 +58258,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1051" s="6"/>
       <c r="E1051">
@@ -58648,7 +58645,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
@@ -58680,7 +58677,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -58822,7 +58819,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
@@ -59014,7 +59011,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -59033,7 +59030,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -59085,7 +59082,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -59111,7 +59108,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
@@ -59124,7 +59121,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -59137,7 +59134,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
@@ -59150,7 +59147,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -59163,7 +59160,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -59176,7 +59173,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
@@ -59189,7 +59186,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
@@ -59202,7 +59199,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
@@ -59215,7 +59212,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
@@ -59228,7 +59225,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
@@ -59241,7 +59238,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
@@ -59457,16 +59454,9 @@
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1149" s="1"/>
-      <c r="C1149" s="6" t="s">
-        <v>639</v>
-      </c>
+      <c r="C1149" s="6"/>
       <c r="D1149" s="6"/>
-      <c r="E1149">
-        <v>2</v>
-      </c>
-      <c r="F1149" s="1">
-        <v>2900</v>
-      </c>
+      <c r="F1149" s="1"/>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1150" s="1"/>
@@ -59495,7 +59485,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -59508,7 +59498,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -59521,7 +59511,7 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D1156" s="6"/>
       <c r="E1156">
@@ -59540,7 +59530,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D1158" s="6"/>
       <c r="E1158">
@@ -59553,7 +59543,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D1159" s="6"/>
       <c r="E1159">
@@ -59578,7 +59568,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D1162" s="6"/>
       <c r="E1162">
@@ -59597,7 +59587,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D1164" s="6"/>
       <c r="E1164">
@@ -59688,7 +59678,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -59701,7 +59691,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -59714,7 +59704,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -59727,7 +59717,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -59740,7 +59730,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -59759,7 +59749,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D1184" s="6"/>
       <c r="E1184">
@@ -59772,33 +59762,33 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D1185" s="6"/>
       <c r="E1185">
         <v>1</v>
       </c>
       <c r="F1185" s="1">
-        <v>2900</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D1186" s="6"/>
       <c r="E1186">
         <v>1</v>
       </c>
       <c r="F1186" s="1">
-        <v>2900</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D1187" s="6"/>
       <c r="E1187">
@@ -59811,7 +59801,7 @@
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D1188" s="6"/>
       <c r="E1188">
@@ -59892,7 +59882,7 @@
         <v>300</v>
       </c>
       <c r="C1200" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D1200" s="6"/>
       <c r="E1200">
@@ -59907,7 +59897,7 @@
         <v>396</v>
       </c>
       <c r="C1201" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D1201" s="6"/>
       <c r="E1201">
@@ -59926,7 +59916,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D1203" s="6"/>
       <c r="E1203">
@@ -59936,7 +59926,7 @@
         <v>980</v>
       </c>
       <c r="G1203" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -59948,7 +59938,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D1205" s="6"/>
       <c r="E1205">
@@ -59961,7 +59951,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D1206" s="6"/>
       <c r="E1206">
@@ -59992,7 +59982,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D1210" s="6"/>
       <c r="E1210">
@@ -60017,7 +60007,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D1213" s="6"/>
       <c r="E1213">
@@ -60042,7 +60032,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D1216" s="6"/>
       <c r="E1216">
@@ -60055,7 +60045,7 @@
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D1217" s="6"/>
       <c r="E1217">
@@ -60092,7 +60082,7 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D1222" s="6"/>
       <c r="E1222">
@@ -60147,7 +60137,7 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D1230" s="6"/>
       <c r="E1230">
@@ -60171,13 +60161,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C1233" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B1233" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C1233" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="D1233" s="6"/>
       <c r="E1233">
@@ -60238,7 +60228,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1242" s="6"/>
       <c r="E1242">
@@ -60257,7 +60247,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="6" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1244" s="6"/>
       <c r="E1244">
@@ -60290,7 +60280,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1248" s="6"/>
       <c r="E1248">
@@ -60302,10 +60292,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1249" s="6" t="s">
         <v>664</v>
-      </c>
-      <c r="C1249" s="6" t="s">
-        <v>665</v>
       </c>
       <c r="D1249" s="6"/>
       <c r="E1249">
@@ -60317,10 +60307,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1250" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="C1250" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="D1250" s="6"/>
       <c r="E1250">
@@ -60339,7 +60329,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D1252" s="6"/>
       <c r="E1252">
@@ -60376,7 +60366,7 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1257" s="6"/>
       <c r="E1257">
@@ -60389,7 +60379,7 @@
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D1258" s="6"/>
       <c r="E1258">
@@ -60402,7 +60392,7 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1259" s="6"/>
       <c r="E1259">
@@ -60421,7 +60411,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D1261" s="6"/>
       <c r="E1261">
@@ -60440,7 +60430,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D1263" s="6"/>
       <c r="E1263">
@@ -60453,7 +60443,7 @@
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
       <c r="C1264" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D1264" s="6"/>
       <c r="F1264" s="1"/>
@@ -60461,7 +60451,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
@@ -60492,7 +60482,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
@@ -60511,7 +60501,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -60528,7 +60518,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
@@ -60541,7 +60531,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
@@ -60554,7 +60544,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
@@ -60567,7 +60557,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
@@ -60580,7 +60570,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
@@ -60595,10 +60585,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1278" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="C1278" s="6" t="s">
-        <v>684</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
@@ -60613,10 +60603,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C1279" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="C1279" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
@@ -60634,10 +60624,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C1281" s="6" t="s">
         <v>687</v>
-      </c>
-      <c r="C1281" s="6" t="s">
-        <v>688</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
@@ -60652,7 +60642,7 @@
         <v>416</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
@@ -60664,10 +60654,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -60677,10 +60667,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
@@ -60693,7 +60683,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
@@ -60705,10 +60695,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1286" s="6" t="s">
         <v>692</v>
-      </c>
-      <c r="C1286" s="6" t="s">
-        <v>693</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
@@ -60732,10 +60722,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
@@ -60766,7 +60756,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
@@ -60777,7 +60767,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
@@ -60788,7 +60778,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
@@ -60807,7 +60797,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
@@ -60820,7 +60810,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
@@ -60833,7 +60823,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
@@ -60846,7 +60836,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
@@ -60859,7 +60849,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
@@ -60878,7 +60868,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
@@ -60891,7 +60881,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
@@ -60904,7 +60894,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
@@ -60923,7 +60913,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
@@ -60936,7 +60926,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
@@ -60949,7 +60939,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
@@ -60962,7 +60952,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
@@ -60993,7 +60983,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
@@ -61008,7 +60998,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
@@ -61031,7 +61021,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
@@ -61046,7 +61036,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
@@ -61061,7 +61051,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
@@ -61076,10 +61066,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C1320" s="6" t="s">
         <v>715</v>
-      </c>
-      <c r="C1320" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
@@ -61095,7 +61085,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
@@ -61111,7 +61101,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
@@ -61127,7 +61117,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
@@ -61143,7 +61133,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
@@ -61159,7 +61149,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
@@ -61175,7 +61165,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
@@ -61188,7 +61178,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
@@ -61284,7 +61274,7 @@
         <v>417</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
@@ -61297,7 +61287,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
@@ -61310,7 +61300,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
@@ -61323,7 +61313,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
@@ -61342,7 +61332,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
@@ -61355,7 +61345,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
@@ -61368,7 +61358,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
@@ -61381,7 +61371,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D1344" s="6"/>
       <c r="E1344">
@@ -61394,7 +61384,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
@@ -61407,7 +61397,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
@@ -61420,7 +61410,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
@@ -61433,7 +61423,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
@@ -61446,7 +61436,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
@@ -61471,7 +61461,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
@@ -61490,7 +61480,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -61509,10 +61499,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C1356" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="C1356" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
@@ -61525,7 +61515,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
@@ -61580,7 +61570,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
@@ -61593,7 +61583,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
@@ -61606,7 +61596,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
@@ -61619,7 +61609,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
@@ -61632,7 +61622,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
@@ -61645,7 +61635,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
@@ -61656,7 +61646,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
@@ -61669,7 +61659,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
@@ -61682,7 +61672,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
@@ -61695,7 +61685,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
@@ -61708,7 +61698,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -61719,7 +61709,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
@@ -61732,7 +61722,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
@@ -61745,7 +61735,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -61758,7 +61748,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -61771,7 +61761,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
@@ -61784,7 +61774,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
@@ -61797,7 +61787,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
@@ -61810,7 +61800,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D1382" s="6"/>
       <c r="E1382" s="1">
@@ -61823,7 +61813,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D1383" s="6"/>
       <c r="E1383" s="1">
@@ -61836,7 +61826,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D1384" s="6"/>
       <c r="E1384" s="1">
@@ -61849,7 +61839,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D1385" s="6"/>
       <c r="E1385" s="1">
@@ -61862,7 +61852,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D1386" s="6"/>
       <c r="E1386" s="1">
@@ -61875,7 +61865,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -61888,7 +61878,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D1388" s="6"/>
       <c r="E1388" s="1">
@@ -61901,7 +61891,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
@@ -61914,7 +61904,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
@@ -61927,7 +61917,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
@@ -61940,7 +61930,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
@@ -61953,7 +61943,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61966,7 +61956,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61979,7 +61969,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
@@ -61992,7 +61982,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
@@ -62005,7 +61995,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
@@ -62018,7 +62008,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -62031,7 +62021,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
@@ -62044,7 +62034,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -62057,7 +62047,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -62070,7 +62060,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
@@ -62083,7 +62073,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
@@ -62095,10 +62085,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C1404" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="C1404" s="6" t="s">
-        <v>754</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
@@ -62113,7 +62103,7 @@
         <v>300</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
@@ -62125,10 +62115,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C1406" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="C1406" s="6" t="s">
-        <v>757</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
@@ -62141,7 +62131,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
@@ -62161,7 +62151,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
@@ -62181,7 +62171,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
@@ -62196,7 +62186,7 @@
         <v>300</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
@@ -62209,7 +62199,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
@@ -62222,7 +62212,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
@@ -62235,7 +62225,7 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D1415" s="6"/>
       <c r="E1415" s="1">
@@ -62255,7 +62245,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
@@ -62275,7 +62265,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
@@ -62288,7 +62278,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
@@ -62301,7 +62291,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
@@ -62321,7 +62311,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
@@ -62334,7 +62324,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -62347,7 +62337,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">
@@ -62367,7 +62357,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
@@ -62380,7 +62370,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
@@ -62399,7 +62389,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="F1430" s="1"/>
@@ -62407,7 +62397,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="F1431" s="1"/>
@@ -62415,7 +62405,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
@@ -62428,7 +62418,7 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D1433" s="6"/>
       <c r="E1433">
@@ -62453,7 +62443,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6967A566-C01D-4C30-A0A6-A190E78AFB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D521FEC-1095-40AB-AB43-3F35195D06AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="1031">
   <si>
     <t>Articulo</t>
   </si>
@@ -2048,9 +2048,6 @@
   </si>
   <si>
     <t>pantalon fibrana nacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biker nena moon </t>
   </si>
   <si>
     <t>calza lycra estampada nena</t>
@@ -41997,7 +41994,7 @@
                   <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>2380</c:v>
+                  <c:v>2890</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>4380</c:v>
@@ -44487,8 +44484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1172" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1185" sqref="F1185"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1354" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C1371" sqref="C1371:D1371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44570,7 +44567,7 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
@@ -44885,7 +44882,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="1">
@@ -44939,7 +44936,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="1">
@@ -44951,7 +44948,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="6" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="1">
@@ -44975,7 +44972,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="1">
@@ -44987,7 +44984,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="6" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="1">
@@ -44999,7 +44996,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="1">
@@ -45076,7 +45073,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="6" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="1">
@@ -45116,7 +45113,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>49</v>
@@ -45615,7 +45612,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>75</v>
@@ -45633,7 +45630,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -45651,7 +45648,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>94</v>
@@ -46009,7 +46006,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="6" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="1">
@@ -46139,7 +46136,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="6" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="1">
@@ -46175,7 +46172,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="1">
@@ -46201,7 +46198,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
@@ -46211,7 +46208,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="1">
@@ -46293,7 +46290,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="6" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="1">
@@ -46821,7 +46818,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="1">
@@ -46853,7 +46850,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D153" s="6"/>
       <c r="E153" s="1">
@@ -46867,7 +46864,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D154" s="6"/>
       <c r="E154" s="1">
@@ -46881,7 +46878,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D155" s="6"/>
       <c r="E155" s="1">
@@ -46961,7 +46958,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D160" s="6"/>
       <c r="E160" s="1">
@@ -46993,7 +46990,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="6" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D162" s="6"/>
       <c r="E162" s="1">
@@ -47437,7 +47434,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D188" s="6"/>
       <c r="E188" s="1">
@@ -47853,13 +47850,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>894</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="1">
@@ -48133,7 +48130,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D228" s="6"/>
       <c r="E228" s="1">
@@ -48363,7 +48360,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D241" s="6"/>
       <c r="E241" s="1">
@@ -48377,7 +48374,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D242" s="6"/>
       <c r="E242" s="1">
@@ -48393,7 +48390,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D243" s="6"/>
       <c r="E243" s="1">
@@ -48721,7 +48718,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>159</v>
@@ -49100,7 +49097,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D288" s="6"/>
       <c r="E288" s="1">
@@ -49130,7 +49127,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D290" s="6"/>
       <c r="E290" s="1">
@@ -49204,7 +49201,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D296" s="6"/>
       <c r="E296" s="1">
@@ -49324,7 +49321,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D305" s="6"/>
       <c r="E305" s="1">
@@ -49362,7 +49359,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D309" s="6"/>
       <c r="E309" s="1">
@@ -49470,7 +49467,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D318" s="6"/>
       <c r="E318" s="1">
@@ -49484,7 +49481,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="1">
@@ -49498,7 +49495,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D320" s="6"/>
       <c r="E320" s="1">
@@ -49567,10 +49564,10 @@
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="1">
@@ -49694,7 +49691,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D335" s="6"/>
       <c r="E335" s="1"/>
@@ -49797,7 +49794,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D342" s="6"/>
       <c r="E342" s="1">
@@ -49877,7 +49874,7 @@
         <v>300</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="1">
@@ -49909,7 +49906,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="1">
@@ -49926,7 +49923,7 @@
         <v>6</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="1">
@@ -49990,7 +49987,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D355" s="6"/>
       <c r="E355" s="1">
@@ -50020,7 +50017,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D358" s="6"/>
       <c r="E358" s="1">
@@ -50043,7 +50040,7 @@
         <v>8</v>
       </c>
       <c r="F359" s="1">
-        <v>2380</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -50066,7 +50063,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D361" s="6"/>
       <c r="E361" s="1">
@@ -50080,7 +50077,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D362" s="6"/>
       <c r="E362" s="1">
@@ -50094,7 +50091,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D363" s="6"/>
       <c r="E363" s="1">
@@ -50108,7 +50105,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D364" s="6"/>
       <c r="E364" s="1">
@@ -50122,7 +50119,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D365" s="6"/>
       <c r="E365" s="1">
@@ -50138,7 +50135,7 @@
         <v>300</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D366" s="6"/>
       <c r="E366" s="1">
@@ -50154,7 +50151,7 @@
         <v>396</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D367" s="6"/>
       <c r="E367" s="1">
@@ -50182,7 +50179,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="1">
@@ -50246,10 +50243,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="1">
@@ -50262,10 +50259,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="1">
@@ -50367,7 +50364,7 @@
         <v>80</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="1"/>
@@ -50376,10 +50373,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>846</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="1"/>
@@ -50389,7 +50386,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D386" s="6"/>
       <c r="E386" s="1">
@@ -50403,7 +50400,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="6" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D387" s="6"/>
       <c r="E387" s="1">
@@ -50417,7 +50414,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D388" s="6"/>
       <c r="E388" s="1">
@@ -50431,7 +50428,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D389" s="6"/>
       <c r="E389" s="1">
@@ -50443,11 +50440,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="1">
@@ -50463,7 +50460,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="1">
@@ -50475,11 +50472,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="1">
@@ -50495,7 +50492,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D393" s="6"/>
       <c r="E393" s="1">
@@ -50507,11 +50504,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D394" s="6"/>
       <c r="E394" s="1">
@@ -50527,7 +50524,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D395" s="6"/>
       <c r="E395" s="1">
@@ -50703,7 +50700,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D407" s="6"/>
       <c r="E407" s="1">
@@ -50893,11 +50890,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D423" s="6"/>
       <c r="E423" s="1">
@@ -50909,11 +50906,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D424" s="6"/>
       <c r="E424" s="1">
@@ -51325,7 +51322,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D451" s="6"/>
       <c r="E451" s="1">
@@ -51451,7 +51448,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D459" s="6"/>
       <c r="E459" s="1">
@@ -51465,7 +51462,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D460" s="6"/>
       <c r="E460" s="1">
@@ -51479,7 +51476,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D461" s="6"/>
       <c r="E461" s="1">
@@ -51493,7 +51490,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D462" s="6"/>
       <c r="E462" s="1">
@@ -51507,7 +51504,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D463" s="6"/>
       <c r="E463" s="1">
@@ -51521,7 +51518,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D464" s="6"/>
       <c r="E464" s="1">
@@ -51535,7 +51532,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D465" s="6"/>
       <c r="E465" s="1">
@@ -51591,7 +51588,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D469" s="6"/>
       <c r="E469" s="1">
@@ -51605,7 +51602,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D470" s="6"/>
       <c r="E470" s="1">
@@ -51913,7 +51910,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D492" s="6"/>
       <c r="E492" s="1">
@@ -51935,7 +51932,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D494" s="6"/>
       <c r="E494" s="1">
@@ -51957,7 +51954,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="6" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D496" s="6"/>
       <c r="E496" s="1">
@@ -51989,7 +51986,7 @@
         <v>374</v>
       </c>
       <c r="C498" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D498" s="6"/>
       <c r="E498" s="1">
@@ -52003,7 +52000,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D499" s="6"/>
       <c r="E499" s="1">
@@ -52109,7 +52106,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D506" s="6"/>
       <c r="E506" s="1">
@@ -52125,7 +52122,7 @@
         <v>300</v>
       </c>
       <c r="C507" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D507" s="6"/>
       <c r="E507" s="1">
@@ -52139,7 +52136,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D508" s="6"/>
       <c r="E508" s="1">
@@ -52179,7 +52176,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D511" s="6"/>
       <c r="E511" s="1">
@@ -52381,7 +52378,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D525" s="6"/>
       <c r="E525" s="1">
@@ -52409,7 +52406,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D527" s="6"/>
       <c r="E527" s="1">
@@ -52451,7 +52448,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D530" s="6"/>
       <c r="E530" s="1">
@@ -52479,7 +52476,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D532" s="6"/>
       <c r="E532" s="1">
@@ -52613,7 +52610,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="6" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D545" s="6"/>
       <c r="E545" s="1">
@@ -52649,7 +52646,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="6" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D548" s="6"/>
       <c r="E548" s="1">
@@ -52687,7 +52684,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D552" s="6"/>
       <c r="E552" s="1">
@@ -52701,7 +52698,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="6" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D553" s="6"/>
       <c r="E553" s="1">
@@ -52715,7 +52712,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D554" s="6"/>
       <c r="E554" s="1">
@@ -52737,7 +52734,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="6" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D556" s="6"/>
       <c r="E556" s="1">
@@ -52751,7 +52748,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="6" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D557" s="6"/>
       <c r="E557" s="1">
@@ -52997,7 +52994,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D583" s="6"/>
       <c r="E583" s="1"/>
@@ -53207,7 +53204,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D600" s="6"/>
       <c r="E600" s="1">
@@ -53349,7 +53346,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D615" s="6"/>
       <c r="E615" s="1">
@@ -53497,7 +53494,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="1">
@@ -53510,7 +53507,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C627" s="6" t="s">
         <v>436</v>
@@ -53541,7 +53538,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="6" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D629" s="6"/>
       <c r="E629" s="1">
@@ -53555,7 +53552,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D630" s="6"/>
       <c r="E630" s="1">
@@ -53689,7 +53686,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D639" s="6"/>
       <c r="E639" s="1">
@@ -53703,7 +53700,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D640" s="6"/>
       <c r="E640" s="1">
@@ -53733,7 +53730,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="6" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D642" s="6"/>
       <c r="E642" s="1">
@@ -53747,7 +53744,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D643" s="6"/>
       <c r="E643" s="1">
@@ -53793,7 +53790,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D646" s="6"/>
       <c r="E646" s="1">
@@ -53807,7 +53804,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D647" s="6"/>
       <c r="E647" s="1">
@@ -53821,7 +53818,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D648" s="6"/>
       <c r="E648" s="1">
@@ -53835,7 +53832,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D649" s="6"/>
       <c r="E649" s="1">
@@ -53849,7 +53846,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D650" s="6"/>
       <c r="E650" s="1">
@@ -53863,7 +53860,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D651" s="6"/>
       <c r="E651" s="1">
@@ -53887,7 +53884,7 @@
         <v>409</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="1">
@@ -53903,7 +53900,7 @@
         <v>374</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="1">
@@ -53919,7 +53916,7 @@
         <v>409</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="1">
@@ -53935,7 +53932,7 @@
         <v>409</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="1">
@@ -53951,7 +53948,7 @@
         <v>409</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="1">
@@ -53965,7 +53962,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="1">
@@ -54123,7 +54120,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="1">
@@ -54137,7 +54134,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="1">
@@ -54151,7 +54148,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="1">
@@ -54215,7 +54212,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="6" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D681" s="6"/>
       <c r="E681" s="1">
@@ -54229,7 +54226,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="6" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D682" s="6"/>
       <c r="E682" s="1">
@@ -54243,7 +54240,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D683" s="6"/>
       <c r="E683" s="1">
@@ -54257,7 +54254,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D684" s="6"/>
       <c r="E684" s="1">
@@ -54271,7 +54268,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="1">
@@ -54285,7 +54282,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D686" s="6"/>
       <c r="E686" s="1">
@@ -54306,7 +54303,7 @@
         <v>3</v>
       </c>
       <c r="F687" s="1">
-        <v>3400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -54320,16 +54317,16 @@
         <v>3</v>
       </c>
       <c r="F688" s="1">
-        <v>3400</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C689" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D689" s="6"/>
       <c r="E689" s="1">
@@ -54342,10 +54339,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C690" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D690" s="6"/>
       <c r="E690" s="1">
@@ -54497,7 +54494,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D701" s="6"/>
       <c r="E701" s="1">
@@ -54511,7 +54508,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D702" s="6"/>
       <c r="E702" s="1">
@@ -54525,7 +54522,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D703" s="6"/>
       <c r="E703" s="1">
@@ -54716,7 +54713,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="6" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="1">
@@ -54729,7 +54726,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="6" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="1">
@@ -54742,7 +54739,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="1">
@@ -54868,13 +54865,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="1">
@@ -54886,13 +54883,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C738" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="1">
@@ -54904,13 +54901,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="1">
@@ -54922,13 +54919,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C740" s="6" t="s">
         <v>918</v>
-      </c>
-      <c r="C740" s="6" t="s">
-        <v>919</v>
       </c>
       <c r="D740" s="6"/>
       <c r="E740" s="1">
@@ -54940,13 +54937,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="1">
@@ -54958,13 +54955,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C742" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="1">
@@ -54976,13 +54973,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>921</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="C743" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D743" s="6"/>
       <c r="E743" s="1">
@@ -54994,10 +54991,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C744" s="6" t="s">
         <v>923</v>
-      </c>
-      <c r="C744" s="6" t="s">
-        <v>924</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="1">
@@ -55009,10 +55006,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C745" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D745" s="6"/>
       <c r="E745" s="1">
@@ -55025,7 +55022,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D746" s="6"/>
       <c r="E746" s="1">
@@ -55097,7 +55094,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D755" s="6"/>
       <c r="E755" s="1"/>
@@ -55111,7 +55108,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D756" s="6"/>
       <c r="E756" s="1"/>
@@ -55125,7 +55122,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D757" s="6"/>
       <c r="E757" s="1">
@@ -55141,7 +55138,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D758" s="6"/>
       <c r="E758" s="1">
@@ -55156,7 +55153,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D759" s="6"/>
       <c r="E759">
@@ -55185,7 +55182,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D761" s="6"/>
       <c r="E761" s="1">
@@ -55216,7 +55213,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D763" s="6"/>
       <c r="E763" s="1">
@@ -55258,7 +55255,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D766" s="6"/>
       <c r="E766" s="1">
@@ -55370,11 +55367,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D773" s="6"/>
       <c r="E773" s="1">
@@ -55592,7 +55589,7 @@
         <v>518</v>
       </c>
       <c r="C787" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D787" s="6"/>
       <c r="E787" s="1">
@@ -55640,7 +55637,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D791" s="6"/>
       <c r="E791" s="1">
@@ -55653,7 +55650,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D792" s="6"/>
       <c r="E792" s="1">
@@ -55666,7 +55663,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D793" s="6"/>
       <c r="E793" s="1">
@@ -55679,7 +55676,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D794" s="6"/>
       <c r="E794" s="1">
@@ -55692,7 +55689,7 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D795" s="6"/>
       <c r="E795" s="1">
@@ -55705,7 +55702,7 @@
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D796" s="6"/>
       <c r="E796" s="1">
@@ -55718,7 +55715,7 @@
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D797" s="6"/>
       <c r="E797" s="1">
@@ -56129,7 +56126,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D836" s="6"/>
       <c r="E836" s="1">
@@ -56220,7 +56217,7 @@
         <v>613</v>
       </c>
       <c r="C847" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D847" s="6"/>
       <c r="E847" s="1">
@@ -56235,7 +56232,7 @@
         <v>613</v>
       </c>
       <c r="C848" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D848" s="6"/>
       <c r="E848" s="1">
@@ -56247,10 +56244,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C849" s="6" t="s">
         <v>929</v>
-      </c>
-      <c r="C849" s="6" t="s">
-        <v>930</v>
       </c>
       <c r="D849" s="6"/>
       <c r="E849" s="1">
@@ -56265,7 +56262,7 @@
         <v>477</v>
       </c>
       <c r="C850" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D850" s="6"/>
       <c r="E850" s="1">
@@ -56278,7 +56275,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D851" s="6"/>
       <c r="E851" s="1">
@@ -56697,7 +56694,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D906" s="6"/>
       <c r="E906" s="1">
@@ -56710,7 +56707,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D907" s="6"/>
       <c r="E907" s="1">
@@ -56723,7 +56720,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D908" s="6"/>
       <c r="E908" s="1">
@@ -56736,7 +56733,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D909" s="6"/>
       <c r="E909" s="1">
@@ -56749,7 +56746,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D910" s="6"/>
       <c r="E910" s="1">
@@ -56762,7 +56759,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D911" s="6"/>
       <c r="E911" s="1">
@@ -56833,7 +56830,7 @@
         <v>7184</v>
       </c>
       <c r="C916" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D916" s="6"/>
       <c r="E916" s="1">
@@ -56946,7 +56943,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D927" s="6"/>
       <c r="E927" s="1">
@@ -57546,7 +57543,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D995" s="6"/>
       <c r="E995">
@@ -57668,7 +57665,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D1004" s="6"/>
       <c r="F1004" s="1">
@@ -57678,7 +57675,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D1005" s="6"/>
       <c r="E1005">
@@ -58001,7 +57998,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1028" s="6"/>
       <c r="E1028">
@@ -58029,7 +58026,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D1030" s="6"/>
       <c r="E1030">
@@ -58134,7 +58131,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="6" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1041" s="6"/>
       <c r="E1041">
@@ -58176,7 +58173,7 @@
         <v>185</v>
       </c>
       <c r="C1046" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1046" s="6"/>
       <c r="E1046">
@@ -58239,7 +58236,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C1050" s="6" t="s">
         <v>159</v>
@@ -58258,7 +58255,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="6" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1051" s="6"/>
       <c r="E1051">
@@ -58645,7 +58642,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1074" s="6"/>
       <c r="E1074">
@@ -58677,7 +58674,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D1077" s="6"/>
       <c r="E1077">
@@ -58819,7 +58816,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1089" s="6"/>
       <c r="E1089">
@@ -59011,7 +59008,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D1113" s="6"/>
       <c r="E1113">
@@ -59030,7 +59027,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="6" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D1115" s="6"/>
       <c r="E1115">
@@ -59082,7 +59079,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1119" s="6"/>
       <c r="E1119">
@@ -59108,7 +59105,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D1121" s="6"/>
       <c r="E1121">
@@ -59121,7 +59118,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="6" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D1122" s="6"/>
       <c r="E1122">
@@ -59134,7 +59131,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D1123" s="6"/>
       <c r="E1123">
@@ -59147,7 +59144,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D1124" s="6"/>
       <c r="E1124">
@@ -59160,7 +59157,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D1125" s="6"/>
       <c r="E1125">
@@ -59173,7 +59170,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D1126" s="6"/>
       <c r="E1126">
@@ -59186,7 +59183,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1127" s="6"/>
       <c r="E1127">
@@ -59199,7 +59196,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D1128" s="6"/>
       <c r="E1128">
@@ -59212,7 +59209,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D1129" s="6"/>
       <c r="E1129">
@@ -59225,7 +59222,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D1130" s="6"/>
       <c r="E1130">
@@ -59238,7 +59235,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D1131" s="6"/>
       <c r="E1131">
@@ -59485,7 +59482,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="6" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D1154" s="6"/>
       <c r="E1154">
@@ -59498,7 +59495,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D1155" s="6"/>
       <c r="E1155">
@@ -59550,7 +59547,7 @@
         <v>4</v>
       </c>
       <c r="F1159" s="1">
-        <v>2900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1160" spans="2:6" x14ac:dyDescent="0.25">
@@ -59678,7 +59675,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D1178" s="6"/>
       <c r="E1178">
@@ -59691,7 +59688,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D1179" s="6"/>
       <c r="E1179">
@@ -59704,7 +59701,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D1180" s="6"/>
       <c r="E1180">
@@ -59717,7 +59714,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D1181" s="6"/>
       <c r="E1181">
@@ -59730,7 +59727,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D1182" s="6"/>
       <c r="E1182">
@@ -59749,7 +59746,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D1184" s="6"/>
       <c r="E1184">
@@ -59769,7 +59766,7 @@
         <v>1</v>
       </c>
       <c r="F1185" s="1">
-        <v>3200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
@@ -59782,7 +59779,7 @@
         <v>1</v>
       </c>
       <c r="F1186" s="1">
-        <v>3200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
@@ -59801,7 +59798,7 @@
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D1188" s="6"/>
       <c r="E1188">
@@ -60007,7 +60004,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="6" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D1213" s="6"/>
       <c r="E1213">
@@ -60164,7 +60161,7 @@
         <v>658</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1233" s="6" t="s">
         <v>659</v>
@@ -60418,7 +60415,7 @@
         <v>1</v>
       </c>
       <c r="F1261" s="1">
-        <v>2900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1262" spans="2:6" x14ac:dyDescent="0.25">
@@ -60442,23 +60439,21 @@
     </row>
     <row r="1264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1264" s="1"/>
-      <c r="C1264" s="6" t="s">
-        <v>673</v>
-      </c>
+      <c r="C1264" s="6"/>
       <c r="D1264" s="6"/>
       <c r="F1264" s="1"/>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D1265" s="6"/>
       <c r="E1265">
         <v>1</v>
       </c>
       <c r="F1265" s="1">
-        <v>2900</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
@@ -60482,7 +60477,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D1269" s="6"/>
       <c r="E1269">
@@ -60501,7 +60496,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D1271" s="6"/>
       <c r="E1271">
@@ -60518,7 +60513,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1273" s="6"/>
       <c r="E1273">
@@ -60531,7 +60526,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D1274" s="6"/>
       <c r="E1274">
@@ -60544,7 +60539,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1275" s="6"/>
       <c r="E1275">
@@ -60557,7 +60552,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D1276" s="6"/>
       <c r="E1276">
@@ -60570,7 +60565,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D1277" s="6"/>
       <c r="E1277">
@@ -60585,10 +60580,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1278" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="C1278" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="D1278" s="6"/>
       <c r="E1278">
@@ -60603,10 +60598,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1279" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="C1279" s="6" t="s">
-        <v>685</v>
       </c>
       <c r="D1279" s="6"/>
       <c r="E1279">
@@ -60624,10 +60619,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C1281" s="6" t="s">
         <v>686</v>
-      </c>
-      <c r="C1281" s="6" t="s">
-        <v>687</v>
       </c>
       <c r="D1281" s="6"/>
       <c r="E1281">
@@ -60642,7 +60637,7 @@
         <v>416</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1282" s="6"/>
       <c r="E1282">
@@ -60654,10 +60649,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C1283" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1283" s="6"/>
       <c r="E1283">
@@ -60667,10 +60662,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C1284" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D1284" s="6"/>
       <c r="E1284">
@@ -60683,7 +60678,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1285" s="6"/>
       <c r="E1285">
@@ -60695,10 +60690,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C1286" s="6" t="s">
         <v>691</v>
-      </c>
-      <c r="C1286" s="6" t="s">
-        <v>692</v>
       </c>
       <c r="D1286" s="6"/>
       <c r="E1286">
@@ -60722,10 +60717,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1289" s="6"/>
       <c r="E1289">
@@ -60756,36 +60751,40 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1293" s="6"/>
       <c r="E1293">
         <v>5</v>
       </c>
-      <c r="F1293" s="1"/>
+      <c r="F1293" s="1">
+        <v>2980</v>
+      </c>
     </row>
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1294" s="6"/>
       <c r="E1294">
         <v>5</v>
       </c>
-      <c r="F1294" s="1"/>
+      <c r="F1294" s="1">
+        <v>2200</v>
+      </c>
     </row>
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1295" s="6"/>
       <c r="E1295">
         <v>7</v>
       </c>
       <c r="F1295" s="1">
-        <v>3600</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="1296" spans="2:6" x14ac:dyDescent="0.25">
@@ -60797,7 +60796,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1297" s="6"/>
       <c r="E1297">
@@ -60810,7 +60809,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1298" s="6"/>
       <c r="E1298">
@@ -60823,7 +60822,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1299" s="6"/>
       <c r="E1299">
@@ -60836,7 +60835,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D1300" s="6"/>
       <c r="E1300">
@@ -60849,7 +60848,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D1301" s="6"/>
       <c r="E1301">
@@ -60868,7 +60867,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1303" s="6"/>
       <c r="E1303">
@@ -60881,7 +60880,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1304" s="6"/>
       <c r="E1304">
@@ -60894,7 +60893,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1305" s="6"/>
       <c r="E1305">
@@ -60913,7 +60912,7 @@
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
       <c r="C1307" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1307" s="6"/>
       <c r="E1307">
@@ -60926,7 +60925,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1308" s="6"/>
       <c r="E1308">
@@ -60939,7 +60938,7 @@
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
       <c r="C1309" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1309" s="6"/>
       <c r="E1309">
@@ -60952,7 +60951,7 @@
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
       <c r="C1310" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1310" s="6"/>
       <c r="E1310">
@@ -60983,7 +60982,7 @@
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
       <c r="C1314" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1314" s="6"/>
       <c r="E1314">
@@ -60998,7 +60997,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="6" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1315" s="6"/>
       <c r="E1315">
@@ -61021,7 +61020,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1317" s="6"/>
       <c r="E1317">
@@ -61036,7 +61035,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1318" s="6"/>
       <c r="E1318">
@@ -61051,7 +61050,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1319" s="6"/>
       <c r="E1319">
@@ -61066,10 +61065,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1320" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="C1320" s="6" t="s">
-        <v>715</v>
       </c>
       <c r="D1320" s="6"/>
       <c r="E1320">
@@ -61085,7 +61084,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1321" s="6"/>
       <c r="E1321">
@@ -61101,7 +61100,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1322" s="6"/>
       <c r="E1322">
@@ -61117,7 +61116,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1323" s="6"/>
       <c r="E1323">
@@ -61133,7 +61132,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1324" s="6"/>
       <c r="E1324">
@@ -61149,7 +61148,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1325" s="6"/>
       <c r="E1325">
@@ -61165,7 +61164,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1326" s="6"/>
       <c r="E1326">
@@ -61178,7 +61177,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1327" s="6"/>
       <c r="E1327">
@@ -61274,7 +61273,7 @@
         <v>417</v>
       </c>
       <c r="C1336" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1336" s="6"/>
       <c r="E1336">
@@ -61287,7 +61286,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D1337" s="6"/>
       <c r="E1337">
@@ -61300,7 +61299,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D1338" s="6"/>
       <c r="E1338">
@@ -61313,7 +61312,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1339" s="6"/>
       <c r="E1339">
@@ -61332,7 +61331,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D1341" s="6"/>
       <c r="E1341">
@@ -61345,7 +61344,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D1342" s="6"/>
       <c r="E1342">
@@ -61358,7 +61357,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D1343" s="6"/>
       <c r="E1343">
@@ -61371,7 +61370,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D1344" s="6"/>
       <c r="E1344">
@@ -61384,7 +61383,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1345" s="6"/>
       <c r="E1345">
@@ -61397,7 +61396,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1346" s="6"/>
       <c r="E1346">
@@ -61410,7 +61409,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1347" s="6"/>
       <c r="E1347">
@@ -61423,7 +61422,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1348" s="6"/>
       <c r="E1348">
@@ -61436,7 +61435,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="6" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1349" s="6"/>
       <c r="E1349">
@@ -61461,7 +61460,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1352" s="6"/>
       <c r="E1352">
@@ -61480,7 +61479,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D1354" s="6"/>
       <c r="E1354">
@@ -61499,10 +61498,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1356" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="C1356" s="6" t="s">
-        <v>728</v>
       </c>
       <c r="D1356" s="6"/>
       <c r="E1356" s="1">
@@ -61515,7 +61514,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1357" s="6"/>
       <c r="E1357" s="1">
@@ -61570,7 +61569,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D1364" s="6"/>
       <c r="E1364" s="1">
@@ -61583,7 +61582,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D1365" s="6"/>
       <c r="E1365" s="1">
@@ -61596,7 +61595,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1366" s="6"/>
       <c r="E1366" s="1">
@@ -61609,7 +61608,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1367" s="6"/>
       <c r="E1367" s="1">
@@ -61622,7 +61621,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1368" s="6"/>
       <c r="E1368" s="1">
@@ -61635,7 +61634,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1369" s="6"/>
       <c r="E1369" s="1">
@@ -61646,7 +61645,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D1370" s="6"/>
       <c r="E1370" s="1">
@@ -61659,7 +61658,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1371" s="6"/>
       <c r="E1371" s="1">
@@ -61672,7 +61671,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1372" s="6"/>
       <c r="E1372" s="1">
@@ -61685,7 +61684,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1373" s="6"/>
       <c r="E1373" s="1">
@@ -61698,7 +61697,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1374" s="6"/>
       <c r="E1374" s="1">
@@ -61709,7 +61708,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D1375" s="6"/>
       <c r="E1375" s="1">
@@ -61722,7 +61721,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1376" s="6"/>
       <c r="E1376" s="1">
@@ -61735,7 +61734,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1377" s="6"/>
       <c r="E1377" s="1">
@@ -61748,7 +61747,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1378" s="6"/>
       <c r="E1378" s="1">
@@ -61761,7 +61760,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D1379" s="6"/>
       <c r="E1379" s="1">
@@ -61774,7 +61773,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D1380" s="6"/>
       <c r="E1380" s="1">
@@ -61787,7 +61786,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1381" s="6"/>
       <c r="E1381" s="1">
@@ -61800,7 +61799,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D1382" s="6"/>
       <c r="E1382" s="1">
@@ -61813,7 +61812,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D1383" s="6"/>
       <c r="E1383" s="1">
@@ -61826,7 +61825,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="6" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D1384" s="6"/>
       <c r="E1384" s="1">
@@ -61839,7 +61838,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D1385" s="6"/>
       <c r="E1385" s="1">
@@ -61852,7 +61851,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D1386" s="6"/>
       <c r="E1386" s="1">
@@ -61865,7 +61864,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1387" s="6"/>
       <c r="E1387" s="1">
@@ -61878,7 +61877,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="6" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D1388" s="6"/>
       <c r="E1388" s="1">
@@ -61891,7 +61890,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1389" s="6"/>
       <c r="E1389" s="1">
@@ -61904,7 +61903,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1390" s="6"/>
       <c r="E1390" s="1">
@@ -61917,7 +61916,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D1391" s="6"/>
       <c r="E1391" s="1">
@@ -61930,7 +61929,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1392" s="6"/>
       <c r="E1392" s="1">
@@ -61943,7 +61942,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D1393" s="6"/>
       <c r="E1393" s="1">
@@ -61956,7 +61955,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1394" s="6"/>
       <c r="E1394" s="1">
@@ -61969,7 +61968,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D1395" s="6"/>
       <c r="E1395" s="1">
@@ -61982,7 +61981,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1396" s="6"/>
       <c r="E1396" s="1">
@@ -61995,7 +61994,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D1397" s="6"/>
       <c r="E1397" s="1">
@@ -62008,7 +62007,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D1398" s="6"/>
       <c r="E1398" s="1">
@@ -62021,7 +62020,7 @@
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
       <c r="C1399" s="6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1399" s="6"/>
       <c r="E1399" s="1">
@@ -62034,7 +62033,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1400" s="6"/>
       <c r="E1400" s="1">
@@ -62047,7 +62046,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D1401" s="6"/>
       <c r="E1401" s="1">
@@ -62060,7 +62059,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="6" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D1402" s="6"/>
       <c r="E1402" s="1">
@@ -62073,7 +62072,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="6" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1403" s="6"/>
       <c r="E1403" s="1">
@@ -62085,10 +62084,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1404" s="6" t="s">
         <v>752</v>
-      </c>
-      <c r="C1404" s="6" t="s">
-        <v>753</v>
       </c>
       <c r="D1404" s="6"/>
       <c r="E1404" s="1">
@@ -62103,7 +62102,7 @@
         <v>300</v>
       </c>
       <c r="C1405" s="6" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D1405" s="6"/>
       <c r="E1405" s="1">
@@ -62115,10 +62114,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1406" s="6" t="s">
         <v>755</v>
-      </c>
-      <c r="C1406" s="6" t="s">
-        <v>756</v>
       </c>
       <c r="D1406" s="6"/>
       <c r="E1406" s="1">
@@ -62131,7 +62130,7 @@
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
       <c r="C1407" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D1407" s="6"/>
       <c r="E1407" s="1">
@@ -62151,7 +62150,7 @@
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
       <c r="C1409" s="6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D1409" s="6"/>
       <c r="E1409" s="1">
@@ -62171,7 +62170,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="6" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D1411" s="6"/>
       <c r="E1411" s="1">
@@ -62186,7 +62185,7 @@
         <v>300</v>
       </c>
       <c r="C1412" s="6" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D1412" s="6"/>
       <c r="E1412" s="1">
@@ -62199,7 +62198,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="6" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D1413" s="6"/>
       <c r="E1413" s="1">
@@ -62212,7 +62211,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="6" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D1414" s="6"/>
       <c r="E1414" s="1">
@@ -62225,7 +62224,7 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D1415" s="6"/>
       <c r="E1415" s="1">
@@ -62245,7 +62244,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="6" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D1417" s="6"/>
       <c r="E1417" s="1">
@@ -62265,7 +62264,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="6" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D1419" s="6"/>
       <c r="E1419" s="1">
@@ -62278,7 +62277,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D1420" s="6"/>
       <c r="E1420" s="1">
@@ -62291,7 +62290,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="6" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D1421" s="6"/>
       <c r="E1421" s="1">
@@ -62311,7 +62310,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D1423" s="6"/>
       <c r="E1423" s="1">
@@ -62324,7 +62323,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D1424" s="6"/>
       <c r="E1424" s="1">
@@ -62337,7 +62336,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D1425" s="6"/>
       <c r="E1425" s="1">
@@ -62357,7 +62356,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="6" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D1427" s="6"/>
       <c r="E1427">
@@ -62370,7 +62369,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="6" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D1428" s="6"/>
       <c r="E1428">
@@ -62389,7 +62388,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D1430" s="6"/>
       <c r="F1430" s="1"/>
@@ -62397,7 +62396,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D1431" s="6"/>
       <c r="F1431" s="1"/>
@@ -62405,7 +62404,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D1432" s="6"/>
       <c r="E1432">
@@ -62418,7 +62417,7 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D1433" s="6"/>
       <c r="E1433">
@@ -62443,7 +62442,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D1436" s="6"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D13F40-B5A6-493C-B65A-B60DE79498F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF5E90-FD87-4A55-88B6-07D548B8D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1014">
   <si>
     <t>Articulo</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t>buzo nene cuello redondo bordado tommy lacos</t>
   </si>
   <si>
-    <t>chaleco nena con corderito</t>
-  </si>
-  <si>
     <t>labastida faja pampa 12 cm</t>
   </si>
   <si>
@@ -1579,9 +1576,6 @@
     <t>30 al 32</t>
   </si>
   <si>
-    <t>32-33</t>
-  </si>
-  <si>
     <t>zapatillas nb-nike -adidas</t>
   </si>
   <si>
@@ -1609,9 +1603,6 @@
     <t>panntalon chino blue air</t>
   </si>
   <si>
-    <t xml:space="preserve">musculosa corta nena </t>
-  </si>
-  <si>
     <t xml:space="preserve">jogger camuflado </t>
   </si>
   <si>
@@ -1654,9 +1645,6 @@
     <t>chomba four m del 12 al 18</t>
   </si>
   <si>
-    <t>buzo medio cierre rompeviento nene</t>
-  </si>
-  <si>
     <t>gazi buzo cuello redondo</t>
   </si>
   <si>
@@ -1777,9 +1765,6 @@
     <t>bota jordan tornasolada</t>
   </si>
   <si>
-    <t>bota jordan 1</t>
-  </si>
-  <si>
     <t>bota force tm</t>
   </si>
   <si>
@@ -2137,21 +2122,9 @@
     <t xml:space="preserve">lumita kid musculosa estampada con volado </t>
   </si>
   <si>
-    <t>musculosa nene</t>
-  </si>
-  <si>
     <t>short jeans mujer</t>
   </si>
   <si>
-    <t xml:space="preserve">bella sol remeron lino estampado </t>
-  </si>
-  <si>
-    <t>bella sol remera lino liso con volado</t>
-  </si>
-  <si>
-    <t>musculosa fibrana estampada</t>
-  </si>
-  <si>
     <t>malla dos pieza</t>
   </si>
   <si>
@@ -2293,12 +2266,6 @@
     <t>body nena floreado luz de estrellita</t>
   </si>
   <si>
-    <t xml:space="preserve">imperia bermuda gabardina </t>
-  </si>
-  <si>
-    <t>remera nike lisa hombre</t>
-  </si>
-  <si>
     <t xml:space="preserve">campera rompeviento nike combinada mujer </t>
   </si>
   <si>
@@ -2530,9 +2497,6 @@
     <t xml:space="preserve">imperia campera pelucho </t>
   </si>
   <si>
-    <t xml:space="preserve">imperia jeans </t>
-  </si>
-  <si>
     <t xml:space="preserve">imperia campera inflada </t>
   </si>
   <si>
@@ -3062,9 +3026,6 @@
   </si>
   <si>
     <t>riñonera hombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remera dama basica </t>
   </si>
   <si>
     <t>conjunto ropa interior capicua/ tres piezas</t>
@@ -44187,8 +44148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A598" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F619" sqref="F619"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1414" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1440" sqref="F1440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44270,7 +44231,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>950</v>
+        <v>938</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -44585,7 +44546,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>951</v>
+        <v>939</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
@@ -44639,7 +44600,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1">
@@ -44651,7 +44612,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1">
@@ -44675,7 +44636,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1">
@@ -44687,7 +44648,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1">
@@ -44699,7 +44660,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1">
@@ -44776,7 +44737,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
@@ -44816,7 +44777,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
@@ -45305,7 +45266,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -45323,7 +45284,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
@@ -45341,7 +45302,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>93</v>
@@ -45699,7 +45660,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1">
@@ -45829,7 +45790,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1">
@@ -45865,7 +45826,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1">
@@ -45891,7 +45852,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -45901,7 +45862,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1">
@@ -45983,7 +45944,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1">
@@ -46511,7 +46472,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1">
@@ -46543,7 +46504,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1">
@@ -46557,7 +46518,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1">
@@ -46571,7 +46532,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1">
@@ -46651,7 +46612,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="1">
@@ -46683,7 +46644,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="1">
@@ -47127,7 +47088,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="1">
@@ -47543,13 +47504,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="1">
@@ -47823,7 +47784,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="1">
@@ -48053,7 +48014,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="5" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="1">
@@ -48067,7 +48028,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="5" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="1">
@@ -48083,7 +48044,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="5" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="1">
@@ -48411,7 +48372,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>158</v>
@@ -48790,7 +48751,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="5" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="1">
@@ -48820,7 +48781,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="5" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="1">
@@ -48894,7 +48855,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="5" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="1">
@@ -49014,7 +48975,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="5" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="1">
@@ -49052,7 +49013,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="5" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="1">
@@ -49160,7 +49121,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="5" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="1">
@@ -49174,7 +49135,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="5" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="1">
@@ -49188,7 +49149,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="5" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="1">
@@ -49376,7 +49337,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="5" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="1"/>
@@ -49479,7 +49440,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="5" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="1">
@@ -49559,7 +49520,7 @@
         <v>299</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="1">
@@ -49591,7 +49552,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>853</v>
+        <v>841</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="1">
@@ -49664,7 +49625,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="1"/>
@@ -49690,7 +49651,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="5" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="1">
@@ -49736,7 +49697,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="5" t="s">
-        <v>952</v>
+        <v>940</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="1">
@@ -49750,7 +49711,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="5" t="s">
-        <v>953</v>
+        <v>941</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="1">
@@ -49764,7 +49725,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="5" t="s">
-        <v>954</v>
+        <v>942</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="1">
@@ -49778,7 +49739,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="5" t="s">
-        <v>959</v>
+        <v>947</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="1">
@@ -49792,7 +49753,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="5" t="s">
-        <v>956</v>
+        <v>944</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="1">
@@ -49808,7 +49769,7 @@
         <v>299</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="1">
@@ -49824,7 +49785,7 @@
         <v>395</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>958</v>
+        <v>946</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="1">
@@ -49852,7 +49813,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="5" t="s">
-        <v>955</v>
+        <v>943</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="1">
@@ -49916,10 +49877,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="1">
@@ -49932,10 +49893,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="1">
@@ -50037,7 +49998,7 @@
         <v>79</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="1"/>
@@ -50046,10 +50007,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="1"/>
@@ -50059,7 +50020,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="5" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="1">
@@ -50073,7 +50034,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="5" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="1">
@@ -50087,7 +50048,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="5" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="1">
@@ -50101,7 +50062,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="5" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="1">
@@ -50113,11 +50074,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>961</v>
+        <v>949</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="5" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="1">
@@ -50133,7 +50094,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="5" t="s">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="1">
@@ -50145,11 +50106,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>962</v>
+        <v>950</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="5" t="s">
-        <v>963</v>
+        <v>951</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="1">
@@ -50165,7 +50126,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="5" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="1">
@@ -50177,11 +50138,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="5" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="1">
@@ -50197,7 +50158,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="5" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="1">
@@ -50371,7 +50332,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="5" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="1">
@@ -50561,11 +50522,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="5" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="1">
@@ -50577,11 +50538,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="5" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="1">
@@ -50991,7 +50952,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="5" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="1">
@@ -51117,7 +51078,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="5" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="1">
@@ -51131,7 +51092,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="5" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="1">
@@ -51145,7 +51106,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="5" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="1">
@@ -51159,7 +51120,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="5" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="1">
@@ -51173,7 +51134,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="5" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="1">
@@ -51187,7 +51148,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="5" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="1">
@@ -51201,7 +51162,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="5" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="1">
@@ -51257,7 +51218,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="5" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="1">
@@ -51271,7 +51232,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="5" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="1">
@@ -51579,7 +51540,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="5" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="1">
@@ -51601,7 +51562,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="1">
@@ -51623,7 +51584,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="5" t="s">
-        <v>948</v>
+        <v>936</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="1">
@@ -51655,7 +51616,7 @@
         <v>373</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="1">
@@ -51669,7 +51630,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="5" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="1">
@@ -51775,7 +51736,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="5" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="1">
@@ -51791,7 +51752,7 @@
         <v>299</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="1">
@@ -51805,7 +51766,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="5" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="1">
@@ -51845,7 +51806,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="5" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="1">
@@ -52049,7 +52010,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="5" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="D525" s="5"/>
       <c r="E525" s="1">
@@ -52077,7 +52038,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="5" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="1">
@@ -52119,7 +52080,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="5" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="1">
@@ -52147,7 +52108,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="5" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="D532" s="5"/>
       <c r="E532" s="1">
@@ -52275,7 +52236,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="5" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="D545" s="5"/>
       <c r="E545" s="1">
@@ -52311,7 +52272,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="5" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="D548" s="5"/>
       <c r="E548" s="1">
@@ -52349,7 +52310,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="5" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D552" s="5"/>
       <c r="E552" s="1">
@@ -52363,7 +52324,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="5" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="1">
@@ -52377,7 +52338,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="5" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="1">
@@ -52399,7 +52360,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="5" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="1">
@@ -52413,7 +52374,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="5" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="D557" s="5"/>
       <c r="E557" s="1">
@@ -52651,7 +52612,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="5" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="D583" s="5"/>
       <c r="E583" s="1"/>
@@ -52859,7 +52820,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="5" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="D600" s="5"/>
       <c r="E600" s="1">
@@ -52999,7 +52960,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="5" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="1">
@@ -53052,7 +53013,7 @@
         <v>1</v>
       </c>
       <c r="F619" s="1">
-        <v>6900</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -53068,7 +53029,7 @@
         <v>11</v>
       </c>
       <c r="F620" s="1">
-        <v>5400</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -53084,7 +53045,7 @@
         <v>36</v>
       </c>
       <c r="F621" s="1">
-        <v>3500</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -53100,7 +53061,7 @@
         <v>3</v>
       </c>
       <c r="F622" s="1">
-        <v>5980</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -53124,7 +53085,7 @@
         <v>3</v>
       </c>
       <c r="F624" s="1">
-        <v>6900</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -53140,27 +53101,27 @@
         <v>3</v>
       </c>
       <c r="F625" s="1">
-        <v>4500</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="5" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="D626" s="5"/>
       <c r="E626" s="1">
         <v>1</v>
       </c>
       <c r="F626" s="1">
-        <v>3000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>434</v>
@@ -53184,14 +53145,14 @@
         <v>4</v>
       </c>
       <c r="F628" s="1">
-        <v>14900</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="5" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="D629" s="5"/>
       <c r="E629" s="1">
@@ -53205,15 +53166,11 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="5" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="D630" s="5"/>
-      <c r="E630" s="1">
-        <v>1</v>
-      </c>
-      <c r="F630" s="1">
-        <v>2800</v>
-      </c>
+      <c r="E630" s="1"/>
+      <c r="F630" s="1"/>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
@@ -53236,7 +53193,7 @@
         <v>8</v>
       </c>
       <c r="F632" s="1">
-        <v>15980</v>
+        <v>19980</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
@@ -53252,7 +53209,7 @@
         <v>10</v>
       </c>
       <c r="F633" s="1">
-        <v>19980</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -53284,7 +53241,7 @@
         <v>1</v>
       </c>
       <c r="F635" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -53300,7 +53257,7 @@
         <v>3</v>
       </c>
       <c r="F636" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -53316,7 +53273,7 @@
         <v>6</v>
       </c>
       <c r="F637" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -53332,35 +53289,35 @@
         <v>3</v>
       </c>
       <c r="F638" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="5" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="D639" s="5"/>
       <c r="E639" s="1">
         <v>1</v>
       </c>
       <c r="F639" s="1">
-        <v>1880</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="5" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D640" s="5"/>
       <c r="E640" s="1">
         <v>1</v>
       </c>
       <c r="F640" s="1">
-        <v>12300</v>
+        <v>14750</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -53376,14 +53333,14 @@
         <v>6</v>
       </c>
       <c r="F641" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="5" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="D642" s="5"/>
       <c r="E642" s="1">
@@ -53397,7 +53354,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="5" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D643" s="5"/>
       <c r="E643" s="1">
@@ -53420,7 +53377,7 @@
         <v>4</v>
       </c>
       <c r="F644" s="1">
-        <v>5159</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -53436,14 +53393,14 @@
         <v>5</v>
       </c>
       <c r="F645" s="1">
-        <v>5379</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="5" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="D646" s="5"/>
       <c r="E646" s="1">
@@ -53457,7 +53414,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="D647" s="5"/>
       <c r="E647" s="1">
@@ -53471,7 +53428,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="5" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="D648" s="5"/>
       <c r="E648" s="1">
@@ -53485,7 +53442,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="5" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
       <c r="D649" s="5"/>
       <c r="E649" s="1">
@@ -53499,7 +53456,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="5" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="D650" s="5"/>
       <c r="E650" s="1">
@@ -53513,7 +53470,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="5" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="D651" s="5"/>
       <c r="E651" s="1">
@@ -53537,7 +53494,7 @@
         <v>407</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="1">
@@ -53553,7 +53510,7 @@
         <v>373</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="1">
@@ -53569,7 +53526,7 @@
         <v>407</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="1">
@@ -53585,7 +53542,7 @@
         <v>407</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="1">
@@ -53601,7 +53558,7 @@
         <v>407</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="D657" s="5"/>
       <c r="E657" s="1">
@@ -53615,7 +53572,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="5" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="D658" s="5"/>
       <c r="E658" s="1">
@@ -53675,21 +53632,17 @@
       <c r="E664" s="1">
         <v>4</v>
       </c>
-      <c r="F664" s="1"/>
+      <c r="F664" s="1">
+        <v>6980</v>
+      </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
-      <c r="C665" s="5" t="s">
-        <v>449</v>
-      </c>
+      <c r="C665" s="5"/>
       <c r="D665" s="5"/>
-      <c r="E665" s="1">
-        <v>4</v>
-      </c>
-      <c r="F665" s="1">
-        <v>6750</v>
-      </c>
+      <c r="E665" s="1"/>
+      <c r="F665" s="1"/>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
@@ -53719,21 +53672,21 @@
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D669" s="5"/>
       <c r="E669" s="1">
         <v>2</v>
       </c>
       <c r="F669" s="1">
-        <v>7000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D670" s="5"/>
       <c r="E670" s="1"/>
@@ -53745,7 +53698,7 @@
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D671" s="5"/>
       <c r="E671" s="1"/>
@@ -53773,7 +53726,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="5" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="1">
@@ -53787,7 +53740,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="5" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="1">
@@ -53801,7 +53754,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="5" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="1">
@@ -53815,7 +53768,7 @@
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D677" s="5"/>
       <c r="E677" s="1">
@@ -53837,7 +53790,7 @@
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D679" s="5"/>
       <c r="E679" s="1">
@@ -53851,7 +53804,7 @@
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D680" s="5"/>
       <c r="E680" s="1">
@@ -53865,7 +53818,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="5" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="D681" s="5"/>
       <c r="E681" s="1">
@@ -53879,7 +53832,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="5" t="s">
-        <v>945</v>
+        <v>933</v>
       </c>
       <c r="D682" s="5"/>
       <c r="E682" s="1">
@@ -53893,7 +53846,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="5" t="s">
-        <v>946</v>
+        <v>934</v>
       </c>
       <c r="D683" s="5"/>
       <c r="E683" s="1">
@@ -53907,7 +53860,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="5" t="s">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="D684" s="5"/>
       <c r="E684" s="1">
@@ -53921,65 +53874,65 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="5" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="1">
         <v>1</v>
       </c>
       <c r="F685" s="1">
-        <v>2800</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="5" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="D686" s="5"/>
       <c r="E686" s="1">
         <v>1</v>
       </c>
       <c r="F686" s="1">
-        <v>5600</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D687" s="5"/>
       <c r="E687" s="1">
         <v>3</v>
       </c>
       <c r="F687" s="1">
-        <v>3600</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D688" s="5"/>
       <c r="E688" s="1">
         <v>3</v>
       </c>
       <c r="F688" s="1">
-        <v>3600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="D689" s="5"/>
       <c r="E689" s="1">
@@ -53992,10 +53945,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="D690" s="5"/>
       <c r="E690" s="1">
@@ -54009,7 +53962,7 @@
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D691" s="5"/>
       <c r="E691" s="1">
@@ -54023,119 +53976,119 @@
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D692" s="5"/>
       <c r="E692" s="1">
         <v>24</v>
       </c>
       <c r="F692" s="1">
-        <v>750</v>
+        <v>980</v>
       </c>
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D693" s="5"/>
       <c r="E693" s="1">
         <v>10</v>
       </c>
       <c r="F693" s="1">
-        <v>10800</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D694" s="5"/>
       <c r="E694" s="1">
         <v>2</v>
       </c>
       <c r="F694" s="1">
-        <v>11400</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D695" s="5"/>
       <c r="E695" s="1">
         <v>23</v>
       </c>
       <c r="F695" s="1">
-        <v>11000</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D696" s="5"/>
       <c r="E696" s="1">
         <v>4</v>
       </c>
       <c r="F696" s="1">
-        <v>10600</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D697" s="5"/>
       <c r="E697" s="1">
         <v>17</v>
       </c>
       <c r="F697" s="1">
-        <v>10400</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D698" s="5"/>
       <c r="E698" s="1">
         <v>4</v>
       </c>
       <c r="F698" s="1">
-        <v>10600</v>
+        <v>12600</v>
       </c>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D699" s="5"/>
       <c r="E699" s="1">
         <v>1</v>
       </c>
       <c r="F699" s="1">
-        <v>17000</v>
+        <v>20400</v>
       </c>
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D700" s="5"/>
       <c r="E700" s="1">
@@ -54147,21 +54100,21 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="5" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="D701" s="5"/>
       <c r="E701" s="1">
         <v>1</v>
       </c>
       <c r="F701" s="1">
-        <v>13200</v>
+        <v>13800</v>
       </c>
     </row>
     <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="5" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="D702" s="5"/>
       <c r="E702" s="1">
@@ -54175,7 +54128,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="5" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="D703" s="5"/>
       <c r="E703" s="1">
@@ -54188,14 +54141,14 @@
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D704" s="5"/>
       <c r="E704" s="1">
         <v>5</v>
       </c>
       <c r="F704" s="1">
-        <v>10400</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="705" spans="2:6" x14ac:dyDescent="0.25">
@@ -54236,27 +54189,27 @@
     <row r="710" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D710" s="5"/>
       <c r="E710" s="1">
         <v>9</v>
       </c>
       <c r="F710" s="1">
-        <v>2900</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="711" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D711" s="5"/>
       <c r="E711" s="1">
         <v>5</v>
       </c>
       <c r="F711" s="1">
-        <v>2900</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="712" spans="2:6" x14ac:dyDescent="0.25">
@@ -54325,7 +54278,7 @@
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D721" s="5"/>
       <c r="E721" s="1">
@@ -54337,10 +54290,10 @@
     </row>
     <row r="722" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B722" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C722" s="5" t="s">
         <v>472</v>
-      </c>
-      <c r="C722" s="5" t="s">
-        <v>473</v>
       </c>
       <c r="D722" s="5"/>
       <c r="E722" s="1">
@@ -54353,7 +54306,7 @@
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D723" s="5"/>
       <c r="E723" s="1">
@@ -54366,7 +54319,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="5" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="1">
@@ -54379,7 +54332,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="5" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="1">
@@ -54392,7 +54345,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="5" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="D726" s="5"/>
       <c r="E726" s="1">
@@ -54404,10 +54357,10 @@
     </row>
     <row r="727" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B727" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C727" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="C727" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="D727" s="5"/>
       <c r="E727" s="1">
@@ -54434,7 +54387,7 @@
     <row r="730" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D730" s="5"/>
       <c r="E730" s="1">
@@ -54447,7 +54400,7 @@
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D731" s="5"/>
       <c r="E731" s="1">
@@ -54460,7 +54413,7 @@
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D732" s="5"/>
       <c r="E732" s="1">
@@ -54473,7 +54426,7 @@
     <row r="733" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D733" s="5"/>
       <c r="E733" s="1">
@@ -54486,7 +54439,7 @@
     <row r="734" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D734" s="5"/>
       <c r="E734" s="1">
@@ -54499,7 +54452,7 @@
     <row r="735" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D735" s="5"/>
       <c r="E735" s="1">
@@ -54518,171 +54471,171 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D737" s="5"/>
       <c r="E737" s="1">
         <v>1</v>
       </c>
       <c r="F737" s="1">
-        <v>590</v>
+        <v>700</v>
       </c>
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="1">
         <v>1</v>
       </c>
       <c r="F738" s="1">
-        <v>590</v>
+        <v>700</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="1">
         <v>1</v>
       </c>
       <c r="F739" s="1">
-        <v>650</v>
+        <v>780</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
       <c r="C740" s="5" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="1">
         <v>1</v>
       </c>
       <c r="F740" s="1">
-        <v>730</v>
+        <v>880</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="1">
         <v>1</v>
       </c>
       <c r="F741" s="1">
-        <v>810</v>
+        <v>970</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D742" s="5"/>
       <c r="E742" s="1">
         <v>1</v>
       </c>
       <c r="F742" s="1">
-        <v>990</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="C743" s="5" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D743" s="5"/>
       <c r="E743" s="1">
         <v>1</v>
       </c>
       <c r="F743" s="1">
-        <v>990</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="C744" s="5" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="D744" s="5"/>
       <c r="E744" s="1">
         <v>1</v>
       </c>
       <c r="F744" s="1">
-        <v>750</v>
+        <v>900</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="D745" s="5"/>
       <c r="E745" s="1">
         <v>1</v>
       </c>
       <c r="F745" s="1">
-        <v>870</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="5" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="D746" s="5"/>
       <c r="E746" s="1">
         <v>1</v>
       </c>
       <c r="F746" s="1">
-        <v>670</v>
+        <v>800</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.25">
@@ -54747,7 +54700,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="5" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
@@ -54761,7 +54714,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="5" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
@@ -54775,7 +54728,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="5" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="1">
@@ -54791,7 +54744,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="5" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="1">
@@ -54806,7 +54759,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="D759" s="5"/>
       <c r="E759">
@@ -54819,14 +54772,14 @@
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D760" s="5"/>
       <c r="E760" s="1">
         <v>4</v>
       </c>
       <c r="F760" s="1">
-        <v>2960</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.25">
@@ -54835,7 +54788,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="5" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D761" s="5"/>
       <c r="E761" s="1">
@@ -54850,7 +54803,7 @@
         <v>247</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D762" s="5"/>
       <c r="E762" s="1">
@@ -54866,7 +54819,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="5" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D763" s="5"/>
       <c r="E763" s="1">
@@ -54879,7 +54832,7 @@
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D764" s="5"/>
       <c r="E764" s="1">
@@ -54892,7 +54845,7 @@
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D765" s="5"/>
       <c r="E765" s="1">
@@ -54908,7 +54861,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="5" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="1">
@@ -54921,7 +54874,7 @@
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D767" s="5"/>
       <c r="E767" s="1">
@@ -54936,7 +54889,7 @@
         <v>34</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D768" s="5"/>
       <c r="E768" s="1">
@@ -54951,10 +54904,10 @@
         <v>194</v>
       </c>
       <c r="B769" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C769" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="C769" s="5" t="s">
-        <v>490</v>
       </c>
       <c r="D769" s="5"/>
       <c r="E769" s="1">
@@ -54969,10 +54922,10 @@
         <v>167</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D770" s="5"/>
       <c r="E770" s="1">
@@ -54984,13 +54937,13 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D771" s="5"/>
       <c r="E771" s="1">
@@ -55002,13 +54955,13 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
+        <v>494</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C772" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C772" s="5" t="s">
-        <v>496</v>
       </c>
       <c r="D772" s="5"/>
       <c r="E772" s="1">
@@ -55020,11 +54973,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="5" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="1">
@@ -55036,13 +54989,13 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>496</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C774" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C774" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D774" s="5"/>
       <c r="E774" s="1">
@@ -55054,10 +55007,10 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C775" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D775" s="5"/>
       <c r="E775" s="1">
@@ -55069,13 +55022,13 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
+        <v>499</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C776" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C776" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D776" s="5"/>
       <c r="E776" s="1">
@@ -55087,13 +55040,13 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
+        <v>501</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C777" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C777" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="D777" s="5"/>
       <c r="E777" s="1">
@@ -55112,13 +55065,13 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C779" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D779" s="5"/>
       <c r="E779" s="1">
@@ -55130,13 +55083,13 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
+        <v>505</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C780" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C780" s="5" t="s">
-        <v>507</v>
       </c>
       <c r="D780" s="5"/>
       <c r="E780" s="1">
@@ -55148,13 +55101,13 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
+        <v>507</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C781" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C781" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="D781" s="5"/>
       <c r="E781" s="1">
@@ -55166,13 +55119,13 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>509</v>
+      </c>
+      <c r="B782" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B782" s="1" t="s">
+      <c r="C782" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C782" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="D782" s="5"/>
       <c r="E782" s="1">
@@ -55191,33 +55144,29 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B784" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C784" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="C784" s="5" t="s">
-        <v>514</v>
       </c>
       <c r="D784" s="5"/>
       <c r="E784" s="1">
         <v>9</v>
       </c>
-      <c r="F784" s="1">
-        <v>3200</v>
-      </c>
+      <c r="F784" s="1"/>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B785" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C785" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D785" s="5"/>
       <c r="E785" s="1">
         <v>8</v>
       </c>
-      <c r="F785" s="1">
-        <v>4900</v>
-      </c>
+      <c r="F785" s="1"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786">
@@ -55227,35 +55176,25 @@
         <v>40</v>
       </c>
       <c r="C786" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D786" s="5"/>
       <c r="E786" s="1">
         <v>1</v>
       </c>
-      <c r="F786" s="1">
-        <v>2400</v>
-      </c>
+      <c r="F786" s="1"/>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B787" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C787" s="5" t="s">
-        <v>1011</v>
-      </c>
+      <c r="B787" s="1"/>
+      <c r="C787" s="5"/>
       <c r="D787" s="5"/>
-      <c r="E787" s="1">
-        <v>1</v>
-      </c>
-      <c r="F787" s="1">
-        <v>3800</v>
-      </c>
+      <c r="E787" s="1"/>
+      <c r="F787" s="1"/>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D788" s="5"/>
       <c r="E788" s="1">
@@ -55265,10 +55204,10 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B789" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C789" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D789" s="5"/>
       <c r="E789" s="1">
@@ -55279,7 +55218,7 @@
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D790" s="5"/>
       <c r="E790" s="1">
@@ -55290,7 +55229,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="5" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="D791" s="5"/>
       <c r="E791" s="1">
@@ -55303,7 +55242,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="5" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="1">
@@ -55316,7 +55255,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="5" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="D793" s="5"/>
       <c r="E793" s="1">
@@ -55329,7 +55268,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="5" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="D794" s="5"/>
       <c r="E794" s="1">
@@ -55342,40 +55281,38 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="5" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="D795" s="5"/>
       <c r="E795" s="1">
         <v>1</v>
       </c>
       <c r="F795" s="1">
-        <v>22500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="5" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="D796" s="5"/>
       <c r="E796" s="1">
         <v>1</v>
       </c>
-      <c r="F796" s="1">
-        <v>5600</v>
-      </c>
+      <c r="F796" s="1"/>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="5" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="D797" s="5"/>
       <c r="E797" s="1">
         <v>1</v>
       </c>
       <c r="F797" s="1">
-        <v>6400</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -55779,7 +55716,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="5" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="D836" s="5"/>
       <c r="E836" s="1">
@@ -55855,7 +55792,7 @@
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="5" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D846" s="5"/>
       <c r="E846" s="1">
@@ -55867,10 +55804,10 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B847" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="D847" s="5"/>
       <c r="E847" s="1">
@@ -55882,10 +55819,10 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B848" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="D848" s="5"/>
       <c r="E848" s="1">
@@ -55897,10 +55834,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="C849" s="5" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="D849" s="5"/>
       <c r="E849" s="1">
@@ -55912,10 +55849,10 @@
     </row>
     <row r="850" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="D850" s="5"/>
       <c r="E850" s="1">
@@ -55928,7 +55865,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="D851" s="5"/>
       <c r="E851" s="1">
@@ -55955,7 +55892,7 @@
     <row r="854" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="5" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D854" s="5"/>
       <c r="E854" s="1">
@@ -56017,7 +55954,7 @@
     <row r="862" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="5" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D862" s="5"/>
       <c r="E862" s="1">
@@ -56063,20 +56000,20 @@
     <row r="868" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D868" s="5"/>
       <c r="E868" s="1">
         <v>3</v>
       </c>
       <c r="F868" s="1">
-        <v>9000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="5" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D869" s="5"/>
       <c r="E869" s="1">
@@ -56291,16 +56228,10 @@
     </row>
     <row r="899" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B899" s="1"/>
-      <c r="C899" s="5" t="s">
-        <v>526</v>
-      </c>
+      <c r="C899" s="5"/>
       <c r="D899" s="5"/>
-      <c r="E899" s="1">
-        <v>4</v>
-      </c>
-      <c r="F899" s="1">
-        <v>1540</v>
-      </c>
+      <c r="E899" s="1"/>
+      <c r="F899" s="1"/>
     </row>
     <row r="900" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B900" s="1"/>
@@ -56347,7 +56278,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="5" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D906" s="5"/>
       <c r="E906" s="1">
@@ -56360,7 +56291,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="5" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="D907" s="5"/>
       <c r="E907" s="1">
@@ -56373,7 +56304,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="5" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="1">
@@ -56386,7 +56317,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="5" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="D909" s="5"/>
       <c r="E909" s="1">
@@ -56399,7 +56330,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="5" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="D910" s="5"/>
       <c r="E910" s="1">
@@ -56412,7 +56343,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="5" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="D911" s="5"/>
       <c r="E911" s="1">
@@ -56427,7 +56358,7 @@
         <v>106</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D912" s="5"/>
       <c r="E912" s="1">
@@ -56442,7 +56373,7 @@
         <v>592</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D913" s="5"/>
       <c r="E913" s="1">
@@ -56455,7 +56386,7 @@
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D914" s="5"/>
       <c r="E914" s="1">
@@ -56468,7 +56399,7 @@
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D915" s="5"/>
       <c r="E915" s="1">
@@ -56483,7 +56414,7 @@
         <v>7184</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
       <c r="D916" s="5"/>
       <c r="E916" s="1">
@@ -56498,7 +56429,7 @@
         <v>104</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D917" s="5"/>
       <c r="E917" s="1">
@@ -56518,14 +56449,14 @@
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D919" s="5"/>
       <c r="E919" s="1">
         <v>5</v>
       </c>
       <c r="F919" s="1">
-        <v>3250</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="920" spans="2:6" x14ac:dyDescent="0.25">
@@ -56547,14 +56478,14 @@
         <v>16</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D922" s="5"/>
       <c r="E922" s="1">
         <v>5</v>
       </c>
       <c r="F922" s="1">
-        <v>2850</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="923" spans="2:6" x14ac:dyDescent="0.25">
@@ -56562,14 +56493,14 @@
         <v>27</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D923" s="5"/>
       <c r="E923" s="1">
         <v>8</v>
       </c>
       <c r="F923" s="1">
-        <v>3400</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="924" spans="2:6" x14ac:dyDescent="0.25">
@@ -56596,14 +56527,14 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="5" t="s">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="D927" s="5"/>
       <c r="E927" s="1">
         <v>1</v>
       </c>
       <c r="F927" s="1">
-        <v>650</v>
+        <v>780</v>
       </c>
     </row>
     <row r="928" spans="2:6" x14ac:dyDescent="0.25">
@@ -56623,27 +56554,27 @@
     <row r="930" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D930" s="5"/>
       <c r="E930" s="1">
         <v>1</v>
       </c>
       <c r="F930" s="1">
-        <v>3680</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="931" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D931" s="5"/>
       <c r="E931" s="1">
         <v>1</v>
       </c>
       <c r="F931" s="1">
-        <v>8180</v>
+        <v>12180</v>
       </c>
     </row>
     <row r="932" spans="2:6" x14ac:dyDescent="0.25">
@@ -56656,14 +56587,14 @@
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D933" s="5"/>
       <c r="E933" s="1">
         <v>1</v>
       </c>
       <c r="F933" s="1">
-        <v>540</v>
+        <v>650</v>
       </c>
     </row>
     <row r="934" spans="2:6" x14ac:dyDescent="0.25">
@@ -56672,20 +56603,20 @@
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D935" s="5"/>
       <c r="E935" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F935" s="1">
-        <v>1680</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D936" s="5"/>
       <c r="E936" s="1">
@@ -56698,14 +56629,14 @@
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D937" s="5"/>
       <c r="E937" s="1">
         <v>3</v>
       </c>
       <c r="F937" s="1">
-        <v>5500</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="938" spans="2:6" x14ac:dyDescent="0.25">
@@ -56717,16 +56648,10 @@
     </row>
     <row r="939" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B939" s="1"/>
-      <c r="C939" s="5" t="s">
-        <v>541</v>
-      </c>
+      <c r="C939" s="5"/>
       <c r="D939" s="5"/>
-      <c r="E939" s="1">
-        <v>3</v>
-      </c>
-      <c r="F939" s="1">
-        <v>4180</v>
-      </c>
+      <c r="E939" s="1"/>
+      <c r="F939" s="1"/>
     </row>
     <row r="940" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B940" s="1"/>
@@ -56808,13 +56733,15 @@
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D951" s="5"/>
       <c r="E951" s="1">
         <v>1</v>
       </c>
-      <c r="F951" s="1"/>
+      <c r="F951" s="1">
+        <v>7900</v>
+      </c>
     </row>
     <row r="952" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B952" s="1"/>
@@ -56840,7 +56767,7 @@
     <row r="955" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D955" s="5"/>
       <c r="E955" s="1">
@@ -56853,7 +56780,7 @@
     <row r="956" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D956" s="5"/>
       <c r="E956" s="1">
@@ -56866,7 +56793,7 @@
     <row r="957" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D957" s="5"/>
       <c r="E957" s="1">
@@ -56886,7 +56813,7 @@
     <row r="959" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D959" s="5"/>
       <c r="E959" s="1">
@@ -56913,7 +56840,7 @@
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D962" s="5"/>
       <c r="E962" s="1">
@@ -56926,7 +56853,7 @@
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D963" s="5"/>
       <c r="E963" s="1">
@@ -56955,40 +56882,40 @@
         <v>184</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D966" s="5"/>
       <c r="E966" s="1">
         <v>20</v>
       </c>
       <c r="F966" s="1">
-        <v>5150</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B967" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C967" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D967" s="5"/>
       <c r="E967" s="1">
         <v>104</v>
       </c>
       <c r="F967" s="1">
-        <v>4780</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D968" s="5"/>
       <c r="E968" s="1">
@@ -57001,7 +56928,7 @@
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D969" s="5"/>
       <c r="E969">
@@ -57014,7 +56941,7 @@
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D970" s="5"/>
       <c r="E970">
@@ -57027,7 +56954,7 @@
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D971" s="5"/>
       <c r="E971">
@@ -57040,7 +56967,7 @@
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D972" s="5"/>
       <c r="E972">
@@ -57053,7 +56980,7 @@
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D973" s="5"/>
       <c r="F973" s="1"/>
@@ -57061,7 +56988,7 @@
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D974" s="5"/>
       <c r="F974" s="1"/>
@@ -57075,7 +57002,7 @@
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D976" s="5"/>
       <c r="E976">
@@ -57196,7 +57123,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="5" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995">
@@ -57209,7 +57136,7 @@
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D996" s="5"/>
       <c r="E996">
@@ -57222,7 +57149,7 @@
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D997" s="5"/>
       <c r="E997">
@@ -57235,7 +57162,7 @@
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D998" s="5"/>
       <c r="E998">
@@ -57248,7 +57175,7 @@
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
       <c r="C999" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D999" s="5"/>
       <c r="E999">
@@ -57261,7 +57188,7 @@
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
       <c r="C1000" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D1000" s="5"/>
       <c r="E1000">
@@ -57274,7 +57201,7 @@
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1001" s="1"/>
       <c r="C1001" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D1001" s="5"/>
       <c r="E1001">
@@ -57287,7 +57214,7 @@
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1002" s="1"/>
       <c r="C1002" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D1002" s="5"/>
       <c r="E1002">
@@ -57300,7 +57227,7 @@
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1003" s="1"/>
       <c r="C1003" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D1003" s="5"/>
       <c r="E1003">
@@ -57318,7 +57245,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="D1004" s="5"/>
       <c r="F1004" s="1">
@@ -57328,7 +57255,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="5" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="D1005" s="5"/>
       <c r="E1005">
@@ -57341,27 +57268,27 @@
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1006" s="1"/>
       <c r="C1006" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D1006" s="5"/>
       <c r="E1006">
         <v>1</v>
       </c>
       <c r="F1006" s="1">
-        <v>5680</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1007" s="1"/>
       <c r="C1007" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D1007" s="5"/>
       <c r="E1007">
         <v>1</v>
       </c>
       <c r="F1007" s="1">
-        <v>5980</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
@@ -57402,31 +57329,31 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C1010" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D1010" s="5"/>
       <c r="E1010">
         <v>12</v>
       </c>
       <c r="F1010" s="1">
-        <v>4300</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D1011" s="5"/>
       <c r="E1011">
@@ -57438,13 +57365,13 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B1012" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C1012" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D1012" s="5"/>
       <c r="E1012">
@@ -57457,7 +57384,7 @@
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1013" s="1"/>
       <c r="C1013" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D1013" s="5"/>
       <c r="E1013">
@@ -57470,107 +57397,100 @@
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1014" s="1"/>
       <c r="C1014" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D1014" s="5"/>
       <c r="E1014">
         <v>46</v>
       </c>
       <c r="F1014" s="1">
-        <v>1500</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1015" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C1015" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D1015" s="5"/>
       <c r="E1015">
         <v>3</v>
       </c>
       <c r="F1015" s="1">
-        <v>18800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1016" s="1"/>
       <c r="C1016" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D1016" s="5"/>
       <c r="E1016">
         <v>1</v>
       </c>
       <c r="F1016" s="1">
-        <v>18200</v>
+        <v>21800</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1017" s="1"/>
-      <c r="C1017" s="5" t="s">
-        <v>582</v>
-      </c>
+      <c r="C1017" s="5"/>
       <c r="D1017" s="5"/>
-      <c r="E1017">
-        <v>1</v>
-      </c>
-      <c r="F1017" s="1">
-        <v>18200</v>
-      </c>
+      <c r="F1017" s="1"/>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1018" s="1"/>
       <c r="C1018" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D1018" s="5"/>
       <c r="E1018">
         <v>2</v>
       </c>
       <c r="F1018" s="1">
-        <v>18380</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1019" s="1"/>
       <c r="C1019" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D1019" s="5"/>
       <c r="E1019">
         <v>2</v>
       </c>
       <c r="F1019" s="1">
-        <v>18800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1020" s="1"/>
       <c r="C1020" s="5" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D1020" s="5"/>
       <c r="E1020">
         <v>4</v>
       </c>
       <c r="F1020" s="1">
-        <v>18800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1021" s="1"/>
       <c r="C1021" s="5" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D1021" s="5"/>
       <c r="E1021">
         <v>6</v>
       </c>
       <c r="F1021" s="1">
-        <v>18800</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -57582,7 +57502,7 @@
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1023" s="1"/>
       <c r="C1023" s="5" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D1023" s="5"/>
       <c r="E1023">
@@ -57595,7 +57515,7 @@
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1024" s="1"/>
       <c r="C1024" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D1024" s="5"/>
       <c r="E1024">
@@ -57608,7 +57528,7 @@
     <row r="1025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1025" s="1"/>
       <c r="C1025" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D1025" s="5"/>
       <c r="E1025">
@@ -57623,7 +57543,7 @@
         <v>593</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D1026" s="5"/>
       <c r="E1026">
@@ -57638,7 +57558,7 @@
         <v>591</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D1027" s="5"/>
       <c r="E1027">
@@ -57651,7 +57571,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="5" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="D1028" s="5"/>
       <c r="E1028">
@@ -57666,7 +57586,7 @@
         <v>103</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D1029" s="5"/>
       <c r="E1029">
@@ -57679,7 +57599,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="5" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="D1030" s="5"/>
       <c r="E1030">
@@ -57692,7 +57612,7 @@
     <row r="1031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1031" s="1"/>
       <c r="C1031" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D1031" s="5"/>
       <c r="E1031">
@@ -57705,7 +57625,7 @@
     <row r="1032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1032" s="1"/>
       <c r="C1032" s="5" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D1032" s="5"/>
       <c r="E1032">
@@ -57720,7 +57640,7 @@
         <v>594</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D1033" s="5"/>
       <c r="E1033">
@@ -57735,7 +57655,7 @@
         <v>595</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D1034" s="5"/>
       <c r="E1034">
@@ -57784,14 +57704,14 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="5" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="D1041" s="5"/>
       <c r="E1041">
         <v>1</v>
       </c>
       <c r="F1041" s="1">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
@@ -57826,7 +57746,7 @@
         <v>184</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="D1046" s="5"/>
       <c r="E1046">
@@ -57889,7 +57809,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>158</v>
@@ -57908,7 +57828,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="5" t="s">
-        <v>949</v>
+        <v>937</v>
       </c>
       <c r="D1051" s="5"/>
       <c r="E1051">
@@ -58031,7 +57951,7 @@
         <v>9004</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1058" s="5" t="s">
         <v>15</v>
@@ -58049,7 +57969,7 @@
         <v>9004</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C1059" s="5" t="s">
         <v>15</v>
@@ -58085,7 +58005,7 @@
         <v>9100</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1061" s="5" t="s">
         <v>15</v>
@@ -58157,7 +58077,7 @@
         <v>9106</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1065" s="5" t="s">
         <v>15</v>
@@ -58175,7 +58095,7 @@
         <v>9110</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C1066" s="5" t="s">
         <v>15</v>
@@ -58229,7 +58149,7 @@
         <v>9125</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C1069" s="5" t="s">
         <v>15</v>
@@ -58247,7 +58167,7 @@
         <v>9135</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C1070" s="5" t="s">
         <v>15</v>
@@ -58269,7 +58189,7 @@
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1072" s="1"/>
       <c r="C1072" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D1072" s="5"/>
       <c r="E1072">
@@ -58282,7 +58202,7 @@
     <row r="1073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1073" s="1"/>
       <c r="C1073" s="5" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D1073" s="5"/>
       <c r="E1073">
@@ -58295,7 +58215,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="5" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D1074" s="5"/>
       <c r="E1074">
@@ -58314,7 +58234,7 @@
     <row r="1076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1076" s="1"/>
       <c r="C1076" s="5" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D1076" s="5"/>
       <c r="E1076">
@@ -58327,7 +58247,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="5" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="D1077" s="5"/>
       <c r="E1077">
@@ -58340,7 +58260,7 @@
     <row r="1078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1078" s="1"/>
       <c r="C1078" s="5" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D1078" s="5"/>
       <c r="E1078">
@@ -58359,7 +58279,7 @@
     <row r="1080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1080" s="1"/>
       <c r="C1080" s="5" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D1080" s="5"/>
       <c r="E1080">
@@ -58372,7 +58292,7 @@
     <row r="1081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1081" s="1"/>
       <c r="C1081" s="5" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D1081" s="5"/>
       <c r="E1081">
@@ -58385,7 +58305,7 @@
     <row r="1082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1082" s="1"/>
       <c r="C1082" s="5" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D1082" s="5"/>
       <c r="E1082">
@@ -58398,7 +58318,7 @@
     <row r="1083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1083" s="1"/>
       <c r="C1083" s="5" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D1083" s="5"/>
       <c r="E1083">
@@ -58411,7 +58331,7 @@
     <row r="1084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1084" s="1"/>
       <c r="C1084" s="5" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D1084" s="5"/>
       <c r="E1084">
@@ -58424,7 +58344,7 @@
     <row r="1085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1085" s="1"/>
       <c r="C1085" s="5" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D1085" s="5"/>
       <c r="E1085">
@@ -58437,7 +58357,7 @@
     <row r="1086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1086" s="1"/>
       <c r="C1086" s="5" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D1086" s="5"/>
       <c r="E1086">
@@ -58450,7 +58370,7 @@
     <row r="1087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1087" s="1"/>
       <c r="C1087" s="5" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D1087" s="5"/>
       <c r="E1087">
@@ -58469,14 +58389,14 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="5" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="D1089" s="5"/>
       <c r="E1089">
         <v>1</v>
       </c>
       <c r="F1089" s="1">
-        <v>810</v>
+        <v>890</v>
       </c>
     </row>
     <row r="1090" spans="2:6" x14ac:dyDescent="0.25">
@@ -58487,10 +58407,10 @@
     </row>
     <row r="1091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C1091" s="5" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D1091" s="5"/>
       <c r="E1091">
@@ -58568,17 +58488,17 @@
     </row>
     <row r="1103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1103" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C1103" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D1103" s="5"/>
       <c r="E1103">
         <v>3</v>
       </c>
       <c r="F1103" s="1">
-        <v>4400</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1104" spans="2:6" x14ac:dyDescent="0.25">
@@ -58607,17 +58527,17 @@
     </row>
     <row r="1108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D1108" s="5"/>
       <c r="E1108">
         <v>4</v>
       </c>
       <c r="F1108" s="1">
-        <v>5280</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1109" spans="2:6" x14ac:dyDescent="0.25">
@@ -58635,7 +58555,7 @@
     <row r="1111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1111" s="1"/>
       <c r="C1111" s="5" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D1111" s="5"/>
       <c r="E1111">
@@ -58648,7 +58568,7 @@
     <row r="1112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1112" s="1"/>
       <c r="C1112" s="5" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D1112" s="5"/>
       <c r="E1112">
@@ -58661,7 +58581,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="5" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="D1113" s="5"/>
       <c r="E1113">
@@ -58680,7 +58600,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="5" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="D1115" s="5"/>
       <c r="E1115">
@@ -58693,7 +58613,7 @@
     <row r="1116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1116" s="1"/>
       <c r="C1116" s="5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D1116" s="5"/>
       <c r="E1116">
@@ -58706,7 +58626,7 @@
     <row r="1117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1117" s="1"/>
       <c r="C1117" s="5" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D1117" s="5"/>
       <c r="E1117">
@@ -58719,7 +58639,7 @@
     <row r="1118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1118" s="1"/>
       <c r="C1118" s="5" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D1118" s="5"/>
       <c r="E1118">
@@ -58732,7 +58652,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="5" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D1119" s="5"/>
       <c r="E1119">
@@ -58745,7 +58665,7 @@
     <row r="1120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1120" s="1"/>
       <c r="C1120" s="5" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D1120" s="5"/>
       <c r="E1120">
@@ -58758,7 +58678,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="5" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121">
@@ -58771,7 +58691,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="5" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="D1122" s="5"/>
       <c r="E1122">
@@ -58784,7 +58704,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="5" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D1123" s="5"/>
       <c r="E1123">
@@ -58797,7 +58717,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="5" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="D1124" s="5"/>
       <c r="E1124">
@@ -58810,7 +58730,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="5" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="D1125" s="5"/>
       <c r="E1125">
@@ -58823,7 +58743,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="5" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="D1126" s="5"/>
       <c r="E1126">
@@ -58836,7 +58756,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="5" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D1127" s="5"/>
       <c r="E1127">
@@ -58849,7 +58769,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="5" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D1128" s="5"/>
       <c r="E1128">
@@ -58862,7 +58782,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="5" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D1129" s="5"/>
       <c r="E1129">
@@ -58875,7 +58795,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="5" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="D1130" s="5"/>
       <c r="E1130">
@@ -58888,7 +58808,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="5" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="D1131" s="5"/>
       <c r="E1131">
@@ -58900,34 +58820,34 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B1132" s="1"/>
       <c r="C1132" s="5" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D1132" s="5"/>
       <c r="E1132">
         <v>1</v>
       </c>
       <c r="F1132" s="1">
-        <v>3890</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B1133" s="1"/>
       <c r="C1133" s="5" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D1133" s="5"/>
       <c r="E1133">
         <v>1</v>
       </c>
       <c r="F1133" s="1">
-        <v>4250</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
@@ -58936,14 +58856,14 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="5" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D1134" s="5"/>
       <c r="E1134">
         <v>1</v>
       </c>
       <c r="F1134" s="1">
-        <v>3890</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
@@ -58952,14 +58872,14 @@
       </c>
       <c r="B1135" s="1"/>
       <c r="C1135" s="5" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D1135" s="5"/>
       <c r="E1135">
         <v>1</v>
       </c>
       <c r="F1135" s="1">
-        <v>2220</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
@@ -58971,30 +58891,30 @@
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1137" s="1"/>
       <c r="C1137" s="5" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D1137" s="5"/>
       <c r="E1137">
         <v>1</v>
       </c>
       <c r="F1137" s="1">
-        <v>2580</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B1138" s="1"/>
       <c r="C1138" s="5" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D1138" s="5"/>
       <c r="E1138">
         <v>1</v>
       </c>
       <c r="F1138" s="1">
-        <v>2400</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
@@ -59003,14 +58923,14 @@
       </c>
       <c r="B1139" s="1"/>
       <c r="C1139" s="5" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D1139" s="5"/>
       <c r="E1139">
         <v>1</v>
       </c>
       <c r="F1139" s="1">
-        <v>4250</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
@@ -59028,7 +58948,7 @@
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1142" s="1"/>
       <c r="C1142" s="5" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D1142" s="5"/>
       <c r="E1142">
@@ -59047,14 +58967,14 @@
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1144" s="1"/>
       <c r="C1144" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D1144" s="5"/>
       <c r="E1144">
         <v>1</v>
       </c>
       <c r="F1144" s="1">
-        <v>7800</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
@@ -59066,40 +58986,40 @@
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1146" s="1"/>
       <c r="C1146" s="5" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D1146" s="5"/>
       <c r="E1146">
         <v>2</v>
       </c>
       <c r="F1146" s="1">
-        <v>7800</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1147" s="1"/>
       <c r="C1147" s="5" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D1147" s="5"/>
       <c r="E1147">
         <v>2</v>
       </c>
       <c r="F1147" s="1">
-        <v>7800</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1148" s="1"/>
       <c r="C1148" s="5" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D1148" s="5"/>
       <c r="E1148">
         <v>3</v>
       </c>
       <c r="F1148" s="1">
-        <v>7800</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
@@ -59135,20 +59055,20 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="5" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="D1154" s="5"/>
       <c r="E1154">
         <v>1</v>
       </c>
       <c r="F1154" s="1">
-        <v>5400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="5" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="D1155" s="5"/>
       <c r="E1155">
@@ -59161,14 +59081,14 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="5" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D1156" s="5"/>
       <c r="E1156">
         <v>10</v>
       </c>
       <c r="F1156" s="1">
-        <v>4200</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="1157" spans="2:6" x14ac:dyDescent="0.25">
@@ -59180,7 +59100,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="5" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D1158" s="5"/>
       <c r="E1158">
@@ -59193,7 +59113,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="5" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D1159" s="5"/>
       <c r="E1159">
@@ -59218,7 +59138,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D1162" s="5"/>
       <c r="E1162">
@@ -59237,7 +59157,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="5" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="D1164" s="5"/>
       <c r="E1164">
@@ -59328,20 +59248,18 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="5" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="D1178" s="5"/>
       <c r="E1178">
         <v>1</v>
       </c>
-      <c r="F1178" s="1">
-        <v>4200</v>
-      </c>
+      <c r="F1178" s="1"/>
     </row>
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="5" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="D1179" s="5"/>
       <c r="E1179">
@@ -59354,7 +59272,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="5" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D1180" s="5"/>
       <c r="E1180">
@@ -59367,7 +59285,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="5" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="D1181" s="5"/>
       <c r="E1181">
@@ -59380,7 +59298,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="5" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="D1182" s="5"/>
       <c r="E1182">
@@ -59399,7 +59317,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="5" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="D1184" s="5"/>
       <c r="E1184">
@@ -59412,7 +59330,7 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="5" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D1185" s="5"/>
       <c r="E1185">
@@ -59425,7 +59343,7 @@
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="5" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D1186" s="5"/>
       <c r="E1186">
@@ -59438,20 +59356,20 @@
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="5" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D1187" s="5"/>
       <c r="E1187">
         <v>1</v>
       </c>
       <c r="F1187" s="1">
-        <v>560</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="5" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="D1188" s="5"/>
       <c r="E1188">
@@ -59532,7 +59450,7 @@
         <v>299</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D1200" s="5"/>
       <c r="E1200">
@@ -59547,7 +59465,7 @@
         <v>395</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D1201" s="5"/>
       <c r="E1201">
@@ -59566,7 +59484,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="5" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D1203" s="5"/>
       <c r="E1203">
@@ -59576,7 +59494,7 @@
         <v>980</v>
       </c>
       <c r="G1203" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -59588,7 +59506,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D1205" s="5"/>
       <c r="E1205">
@@ -59601,7 +59519,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="5" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D1206" s="5"/>
       <c r="E1206">
@@ -59632,7 +59550,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="5" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D1210" s="5"/>
       <c r="E1210">
@@ -59657,7 +59575,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="5" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="D1213" s="5"/>
       <c r="E1213">
@@ -59682,27 +59600,27 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="5" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D1216" s="5"/>
       <c r="E1216">
         <v>7</v>
       </c>
       <c r="F1216" s="1">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="5" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D1217" s="5"/>
       <c r="E1217">
         <v>8</v>
       </c>
       <c r="F1217" s="1">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="1218" spans="2:6" x14ac:dyDescent="0.25">
@@ -59732,14 +59650,14 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="5" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D1222" s="5"/>
       <c r="E1222">
         <v>1</v>
       </c>
       <c r="F1222" s="1">
-        <v>24900</v>
+        <v>29900</v>
       </c>
     </row>
     <row r="1223" spans="2:6" x14ac:dyDescent="0.25">
@@ -59787,14 +59705,14 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="5" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D1230" s="5"/>
       <c r="E1230">
         <v>1</v>
       </c>
       <c r="F1230" s="1">
-        <v>980</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="1231" spans="2:6" x14ac:dyDescent="0.25">
@@ -59811,13 +59729,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="C1233" s="5" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D1233" s="5"/>
       <c r="E1233">
@@ -59878,7 +59796,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="5" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="D1242" s="5"/>
       <c r="E1242">
@@ -59897,7 +59815,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="5" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D1244" s="5"/>
       <c r="E1244">
@@ -59915,7 +59833,7 @@
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C1246" s="5"/>
       <c r="D1246" s="5"/>
@@ -59930,7 +59848,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="5" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D1248" s="5"/>
       <c r="E1248">
@@ -59942,10 +59860,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C1249" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D1249" s="5"/>
       <c r="E1249">
@@ -59957,10 +59875,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C1250" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D1250" s="5"/>
       <c r="E1250">
@@ -59979,7 +59897,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D1252" s="5"/>
       <c r="E1252">
@@ -60016,41 +59934,35 @@
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
       <c r="C1257" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D1257" s="5"/>
       <c r="E1257">
         <v>4</v>
       </c>
-      <c r="F1257" s="1">
-        <v>5450</v>
-      </c>
+      <c r="F1257" s="1"/>
     </row>
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="5" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="D1258" s="5"/>
       <c r="E1258">
         <v>2</v>
       </c>
-      <c r="F1258" s="1">
-        <v>6500</v>
-      </c>
+      <c r="F1258" s="1"/>
     </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="5" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D1259" s="5"/>
       <c r="E1259">
         <v>5</v>
       </c>
-      <c r="F1259" s="1">
-        <v>5980</v>
-      </c>
+      <c r="F1259" s="1"/>
     </row>
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
@@ -60061,7 +59973,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="D1261" s="5"/>
       <c r="E1261">
@@ -60080,7 +59992,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="5" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="D1263" s="5"/>
       <c r="E1263">
@@ -60099,7 +60011,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D1265" s="5"/>
       <c r="E1265">
@@ -60130,7 +60042,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="5" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D1269" s="5"/>
       <c r="E1269">
@@ -60149,13 +60061,15 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="5" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="D1271" s="5"/>
       <c r="E1271">
         <v>3</v>
       </c>
-      <c r="F1271" s="1"/>
+      <c r="F1271" s="1">
+        <v>6980</v>
+      </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1272" s="1"/>
@@ -60166,33 +60080,33 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="5" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D1273" s="5"/>
       <c r="E1273">
         <v>5</v>
       </c>
       <c r="F1273" s="1">
-        <v>7780</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="5" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="D1274" s="5"/>
       <c r="E1274">
         <v>1</v>
       </c>
       <c r="F1274" s="1">
-        <v>7780</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="5" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="D1275" s="5"/>
       <c r="E1275">
@@ -60205,27 +60119,27 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="5" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D1276" s="5"/>
       <c r="E1276">
         <v>12</v>
       </c>
       <c r="F1276" s="1">
-        <v>7780</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D1277" s="5"/>
       <c r="E1277">
         <v>13</v>
       </c>
       <c r="F1277" s="1">
-        <v>7780</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
@@ -60233,17 +60147,17 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C1278" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="D1278" s="5"/>
       <c r="E1278">
         <v>5</v>
       </c>
       <c r="F1278" s="1">
-        <v>4380</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
@@ -60251,17 +60165,17 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C1279" s="5" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D1279" s="5"/>
       <c r="E1279">
         <v>4</v>
       </c>
       <c r="F1279" s="1">
-        <v>3890</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
@@ -60272,40 +60186,36 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C1281" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D1281" s="5"/>
       <c r="E1281">
         <v>2</v>
       </c>
-      <c r="F1281" s="1">
-        <v>4200</v>
-      </c>
+      <c r="F1281" s="1"/>
     </row>
     <row r="1282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1282" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D1282" s="5"/>
       <c r="E1282">
         <v>3</v>
       </c>
-      <c r="F1282" s="1">
-        <v>3890</v>
-      </c>
+      <c r="F1282" s="1"/>
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D1283" s="5"/>
       <c r="E1283">
@@ -60315,46 +60225,40 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D1284" s="5"/>
       <c r="E1284">
         <v>3</v>
       </c>
-      <c r="F1284" s="1">
-        <v>2680</v>
-      </c>
+      <c r="F1284" s="1"/>
     </row>
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="5" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D1285" s="5"/>
       <c r="E1285">
         <v>6</v>
       </c>
-      <c r="F1285" s="1">
-        <v>2380</v>
-      </c>
+      <c r="F1285" s="1"/>
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C1286" s="5" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D1286" s="5"/>
       <c r="E1286">
         <v>1</v>
       </c>
-      <c r="F1286" s="1">
-        <v>1890</v>
-      </c>
+      <c r="F1286" s="1"/>
     </row>
     <row r="1287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1287" s="1"/>
@@ -60370,18 +60274,16 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D1289" s="5"/>
       <c r="E1289">
         <v>3</v>
       </c>
-      <c r="F1289" s="1">
-        <v>3980</v>
-      </c>
+      <c r="F1289" s="1"/>
     </row>
     <row r="1290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1290" s="1"/>
@@ -60404,7 +60306,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D1293" s="5"/>
       <c r="E1293">
@@ -60417,7 +60319,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="5" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D1294" s="5"/>
       <c r="E1294">
@@ -60430,7 +60332,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D1295" s="5"/>
       <c r="E1295">
@@ -60449,7 +60351,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="5" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D1297" s="5"/>
       <c r="E1297">
@@ -60462,7 +60364,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="5" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D1298" s="5"/>
       <c r="E1298">
@@ -60475,7 +60377,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="5" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D1299" s="5"/>
       <c r="E1299">
@@ -60488,7 +60390,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="5" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D1300" s="5"/>
       <c r="E1300">
@@ -60501,7 +60403,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="5" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D1301" s="5"/>
       <c r="E1301">
@@ -60520,7 +60422,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D1303" s="5"/>
       <c r="E1303">
@@ -60533,7 +60435,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="5" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D1304" s="5"/>
       <c r="E1304">
@@ -60546,7 +60448,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="D1305" s="5"/>
       <c r="E1305">
@@ -60564,21 +60466,14 @@
     </row>
     <row r="1307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1307" s="1"/>
-      <c r="C1307" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="C1307" s="5"/>
       <c r="D1307" s="5"/>
-      <c r="E1307">
-        <v>3</v>
-      </c>
-      <c r="F1307" s="1">
-        <v>1450</v>
-      </c>
+      <c r="F1307" s="1"/>
     </row>
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D1308" s="5"/>
       <c r="E1308">
@@ -60590,29 +60485,15 @@
     </row>
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1309" s="1"/>
-      <c r="C1309" s="5" t="s">
-        <v>704</v>
-      </c>
+      <c r="C1309" s="5"/>
       <c r="D1309" s="5"/>
-      <c r="E1309">
-        <v>3</v>
-      </c>
-      <c r="F1309" s="1">
-        <v>4650</v>
-      </c>
+      <c r="F1309" s="1"/>
     </row>
     <row r="1310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1310" s="1"/>
-      <c r="C1310" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="C1310" s="5"/>
       <c r="D1310" s="5"/>
-      <c r="E1310">
-        <v>2</v>
-      </c>
-      <c r="F1310" s="1">
-        <v>4650</v>
-      </c>
+      <c r="F1310" s="1"/>
     </row>
     <row r="1311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1311" s="1"/>
@@ -60634,30 +60515,23 @@
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1314" s="1"/>
-      <c r="C1314" s="5" t="s">
-        <v>706</v>
-      </c>
+      <c r="C1314" s="5"/>
       <c r="D1314" s="5"/>
-      <c r="E1314">
-        <v>1</v>
-      </c>
-      <c r="F1314" s="1">
-        <v>3380</v>
-      </c>
+      <c r="F1314" s="1"/>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1315" s="1">
         <v>310</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="D1315" s="5"/>
       <c r="E1315">
         <v>6</v>
       </c>
       <c r="F1315" s="1">
-        <v>4550</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="1316" spans="1:6" x14ac:dyDescent="0.25">
@@ -60673,14 +60547,14 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D1317" s="5"/>
       <c r="E1317">
         <v>6</v>
       </c>
       <c r="F1317" s="1">
-        <v>9100</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
@@ -60688,14 +60562,14 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D1318" s="5"/>
       <c r="E1318">
         <v>6</v>
       </c>
       <c r="F1318" s="1">
-        <v>4300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.25">
@@ -60703,14 +60577,14 @@
         <v>113</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="D1319" s="5"/>
       <c r="E1319">
         <v>9</v>
       </c>
       <c r="F1319" s="1">
-        <v>6800</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="1320" spans="1:6" x14ac:dyDescent="0.25">
@@ -60718,17 +60592,17 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="C1320" s="5" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="D1320" s="5"/>
       <c r="E1320">
         <v>8</v>
       </c>
       <c r="F1320" s="1">
-        <v>4800</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
@@ -60737,14 +60611,14 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D1321" s="5"/>
       <c r="E1321">
         <v>10</v>
       </c>
       <c r="F1321" s="1">
-        <v>5800</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
@@ -60753,14 +60627,14 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D1322" s="5"/>
       <c r="E1322">
         <v>4</v>
       </c>
       <c r="F1322" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
@@ -60769,14 +60643,14 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="D1323" s="5"/>
       <c r="E1323">
         <v>6</v>
       </c>
       <c r="F1323" s="1">
-        <v>4500</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
@@ -60785,14 +60659,14 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="5" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D1324" s="5"/>
       <c r="E1324">
         <v>9</v>
       </c>
       <c r="F1324" s="1">
-        <v>3200</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1325" spans="1:6" x14ac:dyDescent="0.25">
@@ -60801,14 +60675,14 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="5" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="D1325" s="5"/>
       <c r="E1325">
         <v>8</v>
       </c>
       <c r="F1325" s="1">
-        <v>5000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
@@ -60817,27 +60691,27 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="D1326" s="5"/>
       <c r="E1326">
         <v>5</v>
       </c>
       <c r="F1326" s="1">
-        <v>4300</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="5" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="D1327" s="5"/>
       <c r="E1327">
         <v>16</v>
       </c>
       <c r="F1327" s="1">
-        <v>590</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
@@ -60926,20 +60800,18 @@
         <v>415</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D1336" s="5"/>
       <c r="E1336">
         <v>5</v>
       </c>
-      <c r="F1336" s="1">
-        <v>4200</v>
-      </c>
+      <c r="F1336" s="1"/>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="5" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="D1337" s="5"/>
       <c r="E1337">
@@ -60952,7 +60824,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="5" t="s">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="D1338" s="5"/>
       <c r="E1338">
@@ -60965,7 +60837,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D1339" s="5"/>
       <c r="E1339">
@@ -60984,7 +60856,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D1341" s="5"/>
       <c r="E1341">
@@ -60997,7 +60869,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="5" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D1342" s="5"/>
       <c r="E1342">
@@ -61010,7 +60882,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="5" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="D1343" s="5"/>
       <c r="E1343">
@@ -61023,7 +60895,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="5" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="D1344" s="5"/>
       <c r="E1344">
@@ -61036,33 +60908,33 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D1345" s="5"/>
       <c r="E1345">
         <v>3</v>
       </c>
       <c r="F1345" s="1">
-        <v>3900</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="D1346" s="5"/>
       <c r="E1346">
         <v>6</v>
       </c>
       <c r="F1346" s="1">
-        <v>4600</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D1347" s="5"/>
       <c r="E1347">
@@ -61075,7 +60947,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="5" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="D1348" s="5"/>
       <c r="E1348">
@@ -61088,14 +60960,14 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="D1349" s="5"/>
       <c r="E1349">
         <v>12</v>
       </c>
       <c r="F1349" s="1">
-        <v>2980</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1350" spans="2:6" x14ac:dyDescent="0.25">
@@ -61113,7 +60985,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D1352" s="5"/>
       <c r="E1352">
@@ -61132,7 +61004,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="5" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="D1354" s="5"/>
       <c r="E1354">
@@ -61151,30 +61023,30 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C1356" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="D1356" s="5"/>
       <c r="E1356" s="1">
         <v>26</v>
       </c>
       <c r="F1356" s="1">
-        <v>10980</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="5" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="D1357" s="5"/>
       <c r="E1357" s="1">
         <v>7</v>
       </c>
       <c r="F1357" s="1">
-        <v>10980</v>
+        <v>11980</v>
       </c>
     </row>
     <row r="1358" spans="2:6" x14ac:dyDescent="0.25">
@@ -61222,7 +61094,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="5" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="D1364" s="5"/>
       <c r="E1364" s="1">
@@ -61235,7 +61107,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="5" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D1365" s="5"/>
       <c r="E1365" s="1">
@@ -61248,33 +61120,33 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="5" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D1366" s="5"/>
       <c r="E1366" s="1">
         <v>1</v>
       </c>
       <c r="F1366" s="1">
-        <v>690</v>
+        <v>830</v>
       </c>
     </row>
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="5" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="D1367" s="5"/>
       <c r="E1367" s="1">
         <v>1</v>
       </c>
       <c r="F1367" s="1">
-        <v>1380</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="D1368" s="5"/>
       <c r="E1368" s="1">
@@ -61287,7 +61159,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="D1369" s="5"/>
       <c r="E1369" s="1">
@@ -61298,7 +61170,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="D1370" s="5"/>
       <c r="E1370" s="1">
@@ -61311,7 +61183,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="5" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="D1371" s="5"/>
       <c r="E1371" s="1">
@@ -61324,7 +61196,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="5" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="D1372" s="5"/>
       <c r="E1372" s="1">
@@ -61337,7 +61209,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="5" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="D1373" s="5"/>
       <c r="E1373" s="1">
@@ -61350,7 +61222,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D1374" s="5"/>
       <c r="E1374" s="1">
@@ -61361,33 +61233,33 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D1375" s="5"/>
       <c r="E1375" s="1">
         <v>8</v>
       </c>
       <c r="F1375" s="1">
-        <v>5500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="5" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="D1376" s="5"/>
       <c r="E1376" s="1">
         <v>5</v>
       </c>
       <c r="F1376" s="1">
-        <v>5400</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="5" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D1377" s="5"/>
       <c r="E1377" s="1">
@@ -61400,7 +61272,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="5" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D1378" s="5"/>
       <c r="E1378" s="1">
@@ -61413,7 +61285,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="D1379" s="5"/>
       <c r="E1379" s="1">
@@ -61426,7 +61298,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="5" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="D1380" s="5"/>
       <c r="E1380" s="1">
@@ -61439,7 +61311,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="5" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="D1381" s="5"/>
       <c r="E1381" s="1">
@@ -61452,7 +61324,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="5" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
       <c r="D1382" s="5"/>
       <c r="E1382" s="1">
@@ -61465,7 +61337,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="5" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="D1383" s="5"/>
       <c r="E1383" s="1">
@@ -61478,7 +61350,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="5" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="D1384" s="5"/>
       <c r="E1384" s="1">
@@ -61491,7 +61363,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="5" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="D1385" s="5"/>
       <c r="E1385" s="1">
@@ -61504,7 +61376,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="5" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="D1386" s="5"/>
       <c r="E1386" s="1">
@@ -61517,7 +61389,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="5" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="D1387" s="5"/>
       <c r="E1387" s="1">
@@ -61530,72 +61402,66 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="5" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="D1388" s="5"/>
       <c r="E1388" s="1">
         <v>1</v>
       </c>
       <c r="F1388" s="1">
-        <v>7800</v>
+        <v>9800</v>
       </c>
     </row>
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="5" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D1389" s="5"/>
       <c r="E1389" s="1">
         <v>1</v>
       </c>
       <c r="F1389" s="1">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="5" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="D1390" s="5"/>
       <c r="E1390" s="1">
         <v>36</v>
       </c>
-      <c r="F1390" s="1">
-        <v>950</v>
-      </c>
+      <c r="F1390" s="1"/>
     </row>
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="5" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D1391" s="5"/>
       <c r="E1391" s="1">
         <v>4</v>
       </c>
-      <c r="F1391" s="1">
-        <v>2200</v>
-      </c>
+      <c r="F1391" s="1"/>
     </row>
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="5" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D1392" s="5"/>
       <c r="E1392" s="1">
         <v>32</v>
       </c>
-      <c r="F1392" s="1">
-        <v>950</v>
-      </c>
+      <c r="F1392" s="1"/>
     </row>
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="5" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="D1393" s="5"/>
       <c r="E1393" s="1">
@@ -61608,7 +61474,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="5" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D1394" s="5"/>
       <c r="E1394" s="1">
@@ -61621,7 +61487,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="5" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D1395" s="5"/>
       <c r="E1395" s="1">
@@ -61634,7 +61500,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="5" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D1396" s="5"/>
       <c r="E1396" s="1">
@@ -61647,7 +61513,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="D1397" s="5"/>
       <c r="E1397" s="1">
@@ -61660,7 +61526,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="5" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="D1398" s="5"/>
       <c r="E1398" s="1">
@@ -61672,34 +61538,28 @@
     </row>
     <row r="1399" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1399" s="1"/>
-      <c r="C1399" s="5" t="s">
-        <v>833</v>
-      </c>
+      <c r="C1399" s="5"/>
       <c r="D1399" s="5"/>
-      <c r="E1399" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1399" s="1">
-        <v>9200</v>
-      </c>
+      <c r="E1399" s="1"/>
+      <c r="F1399" s="1"/>
     </row>
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="5" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="D1400" s="5"/>
       <c r="E1400" s="1">
         <v>9</v>
       </c>
       <c r="F1400" s="1">
-        <v>17300</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="5" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="D1401" s="5"/>
       <c r="E1401" s="1">
@@ -61712,7 +61572,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="5" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="D1402" s="5"/>
       <c r="E1402" s="1">
@@ -61725,7 +61585,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="5" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="D1403" s="5"/>
       <c r="E1403" s="1">
@@ -61737,10 +61597,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="C1404" s="5" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="D1404" s="5"/>
       <c r="E1404" s="1">
@@ -61755,7 +61615,7 @@
         <v>299</v>
       </c>
       <c r="C1405" s="5" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="D1405" s="5"/>
       <c r="E1405" s="1">
@@ -61767,10 +61627,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="C1406" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="D1406" s="5"/>
       <c r="E1406" s="1">
@@ -61782,16 +61642,10 @@
     </row>
     <row r="1407" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1407" s="1"/>
-      <c r="C1407" s="5" t="s">
-        <v>754</v>
-      </c>
+      <c r="C1407" s="5"/>
       <c r="D1407" s="5"/>
-      <c r="E1407" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1407" s="1">
-        <v>6800</v>
-      </c>
+      <c r="E1407" s="1"/>
+      <c r="F1407" s="1"/>
     </row>
     <row r="1408" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1408" s="1"/>
@@ -61802,16 +61656,10 @@
     </row>
     <row r="1409" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1409" s="1"/>
-      <c r="C1409" s="5" t="s">
-        <v>755</v>
-      </c>
+      <c r="C1409" s="5"/>
       <c r="D1409" s="5"/>
-      <c r="E1409" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1409" s="1">
-        <v>4400</v>
-      </c>
+      <c r="E1409" s="1"/>
+      <c r="F1409" s="1"/>
     </row>
     <row r="1410" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1410" s="1"/>
@@ -61823,7 +61671,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="5" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="D1411" s="5"/>
       <c r="E1411" s="1">
@@ -61838,7 +61686,7 @@
         <v>299</v>
       </c>
       <c r="C1412" s="5" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="D1412" s="5"/>
       <c r="E1412" s="1">
@@ -61851,7 +61699,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="5" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="D1413" s="5"/>
       <c r="E1413" s="1">
@@ -61864,20 +61712,20 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="5" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="D1414" s="5"/>
       <c r="E1414" s="1">
         <v>8</v>
       </c>
       <c r="F1414" s="1">
-        <v>4400</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="5" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
       <c r="D1415" s="5"/>
       <c r="E1415" s="1">
@@ -61897,7 +61745,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="5" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D1417" s="5"/>
       <c r="E1417" s="1">
@@ -61917,7 +61765,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="5" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D1419" s="5"/>
       <c r="E1419" s="1">
@@ -61930,7 +61778,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="5" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="D1420" s="5"/>
       <c r="E1420" s="1">
@@ -61943,7 +61791,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="5" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="D1421" s="5"/>
       <c r="E1421" s="1">
@@ -61963,7 +61811,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="5" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D1423" s="5"/>
       <c r="E1423" s="1">
@@ -61976,7 +61824,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="5" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="D1424" s="5"/>
       <c r="E1424" s="1">
@@ -61989,7 +61837,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="5" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="D1425" s="5"/>
       <c r="E1425" s="1">
@@ -62009,27 +61857,27 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="5" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="D1427" s="5"/>
       <c r="E1427">
         <v>10</v>
       </c>
       <c r="F1427" s="1">
-        <v>7800</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="5" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D1428" s="5"/>
       <c r="E1428">
         <v>8</v>
       </c>
       <c r="F1428" s="1">
-        <v>4980</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1429" spans="2:6" x14ac:dyDescent="0.25">
@@ -62041,7 +61889,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="5" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D1430" s="5"/>
       <c r="F1430" s="1"/>
@@ -62049,7 +61897,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="5" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="D1431" s="5"/>
       <c r="F1431" s="1"/>
@@ -62057,7 +61905,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="5" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D1432" s="5"/>
       <c r="E1432">
@@ -62070,14 +61918,14 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="5" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="D1433" s="5"/>
       <c r="E1433">
         <v>1</v>
       </c>
       <c r="F1433" s="1">
-        <v>4800</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="1434" spans="2:6" x14ac:dyDescent="0.25">
@@ -62095,7 +61943,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="5" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D1436" s="5"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF5E90-FD87-4A55-88B6-07D548B8D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD99813-89B2-4C26-8F9A-0BE0BADAA9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41640,7 +41640,7 @@
                   <c:v>10780</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>6350</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>15400</c:v>
@@ -44148,8 +44148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1414" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1440" sqref="F1440"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A328" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C342" sqref="C342:D342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49447,7 +49447,7 @@
         <v>1</v>
       </c>
       <c r="F342" s="1">
-        <v>6350</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -53895,7 +53895,7 @@
         <v>1</v>
       </c>
       <c r="F686" s="1">
-        <v>6600</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD99813-89B2-4C26-8F9A-0BE0BADAA9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884158B-E2EF-4B24-BC18-E11395E7FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41871,7 +41871,7 @@
                   <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>21800</c:v>
+                  <c:v>31800</c:v>
                 </c:pt>
                 <c:pt idx="428">
                   <c:v>2680</c:v>
@@ -44148,8 +44148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A328" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C342" sqref="C342:D342"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A457" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F471" sqref="F471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51253,7 +51253,7 @@
         <v>1</v>
       </c>
       <c r="F471" s="1">
-        <v>21800</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -57262,7 +57262,7 @@
         <v>1</v>
       </c>
       <c r="F1005" s="1">
-        <v>23400</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
@@ -57419,7 +57419,7 @@
         <v>3</v>
       </c>
       <c r="F1015" s="1">
-        <v>22500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
@@ -57432,7 +57432,7 @@
         <v>1</v>
       </c>
       <c r="F1016" s="1">
-        <v>21800</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
@@ -57451,7 +57451,7 @@
         <v>2</v>
       </c>
       <c r="F1018" s="1">
-        <v>22000</v>
+        <v>26400</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
@@ -57464,7 +57464,7 @@
         <v>2</v>
       </c>
       <c r="F1019" s="1">
-        <v>22500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
@@ -57477,7 +57477,7 @@
         <v>4</v>
       </c>
       <c r="F1020" s="1">
-        <v>22500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
@@ -57490,7 +57490,7 @@
         <v>6</v>
       </c>
       <c r="F1021" s="1">
-        <v>22500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
@@ -59557,7 +59557,7 @@
         <v>1</v>
       </c>
       <c r="F1210" s="1">
-        <v>7500</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="1211" spans="2:7" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4884158B-E2EF-4B24-BC18-E11395E7FA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85D1AF-72B9-45A1-B009-8279383A2036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1016">
   <si>
     <t>Articulo</t>
   </si>
@@ -3071,6 +3071,12 @@
   </si>
   <si>
     <t xml:space="preserve">imperia canguro hombre liso </t>
+  </si>
+  <si>
+    <t>palazzo lino dama</t>
+  </si>
+  <si>
+    <t>palazzo fibrana importada dama</t>
   </si>
 </sst>
 </file>
@@ -44148,8 +44154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A457" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F471" sqref="F471"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A464" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="C479" sqref="C479:D479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51359,10 +51365,16 @@
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
-      <c r="C479" s="5"/>
+      <c r="C479" s="5" t="s">
+        <v>1015</v>
+      </c>
       <c r="D479" s="5"/>
-      <c r="E479" s="1"/>
-      <c r="F479" s="1"/>
+      <c r="E479" s="1">
+        <v>1</v>
+      </c>
+      <c r="F479" s="1">
+        <v>8400</v>
+      </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
@@ -51465,10 +51477,16 @@
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
-      <c r="C486" s="5"/>
+      <c r="C486" s="5" t="s">
+        <v>1014</v>
+      </c>
       <c r="D486" s="5"/>
-      <c r="E486" s="1"/>
-      <c r="F486" s="1"/>
+      <c r="E486" s="1">
+        <v>1</v>
+      </c>
+      <c r="F486" s="1">
+        <v>7600</v>
+      </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C85D1AF-72B9-45A1-B009-8279383A2036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94FA88-24E3-453D-8ED7-29D09471EC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="1015">
   <si>
     <t>Articulo</t>
   </si>
@@ -2012,9 +2012,6 @@
   </si>
   <si>
     <t>remera anime chicos</t>
-  </si>
-  <si>
-    <t>palazo lino</t>
   </si>
   <si>
     <t xml:space="preserve">monito fibrana </t>
@@ -44154,8 +44151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A464" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C479" sqref="C479:D479"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1284" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1298" sqref="F1298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44237,7 +44234,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -44552,7 +44549,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
@@ -44606,7 +44603,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1">
@@ -44618,7 +44615,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1">
@@ -44642,7 +44639,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1">
@@ -44654,7 +44651,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1">
@@ -44666,7 +44663,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1">
@@ -44743,7 +44740,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
@@ -44783,7 +44780,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
@@ -45272,7 +45269,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -45290,7 +45287,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
@@ -45308,7 +45305,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>93</v>
@@ -45666,7 +45663,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1">
@@ -45796,7 +45793,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1">
@@ -45832,7 +45829,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1">
@@ -45858,7 +45855,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -45868,7 +45865,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1">
@@ -45950,7 +45947,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1">
@@ -46478,7 +46475,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1">
@@ -46510,7 +46507,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1">
@@ -46524,7 +46521,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1">
@@ -46538,7 +46535,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1">
@@ -46618,7 +46615,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="1">
@@ -46650,7 +46647,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="1">
@@ -47094,7 +47091,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="1">
@@ -47510,13 +47507,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>876</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>877</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="1">
@@ -47790,7 +47787,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="1">
@@ -48020,7 +48017,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="1">
@@ -48034,7 +48031,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="1">
@@ -48050,7 +48047,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="1">
@@ -48378,7 +48375,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>158</v>
@@ -48757,7 +48754,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="1">
@@ -48787,7 +48784,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="1">
@@ -48861,7 +48858,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="1">
@@ -48981,7 +48978,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="1">
@@ -49019,7 +49016,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="1">
@@ -49127,7 +49124,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="1">
@@ -49141,7 +49138,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="1">
@@ -49155,7 +49152,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="1">
@@ -49343,7 +49340,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="1"/>
@@ -49446,7 +49443,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="1">
@@ -49526,7 +49523,7 @@
         <v>299</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="1">
@@ -49558,7 +49555,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="1">
@@ -49631,7 +49628,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="1"/>
@@ -49657,7 +49654,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="1">
@@ -49703,7 +49700,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="1">
@@ -49717,7 +49714,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="1">
@@ -49731,7 +49728,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="1">
@@ -49745,7 +49742,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="1">
@@ -49759,7 +49756,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="1">
@@ -49775,7 +49772,7 @@
         <v>299</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="1">
@@ -49791,7 +49788,7 @@
         <v>395</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="1">
@@ -49819,7 +49816,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="1">
@@ -49883,10 +49880,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="1">
@@ -49899,10 +49896,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="1">
@@ -50004,7 +50001,7 @@
         <v>79</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="1"/>
@@ -50013,10 +50010,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>830</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="1"/>
@@ -50026,7 +50023,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="1">
@@ -50040,7 +50037,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="1">
@@ -50054,7 +50051,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="1">
@@ -50068,7 +50065,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="1">
@@ -50080,11 +50077,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="1">
@@ -50100,7 +50097,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="1">
@@ -50112,11 +50109,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="1">
@@ -50132,7 +50129,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="1">
@@ -50144,11 +50141,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="1">
@@ -50164,7 +50161,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="1">
@@ -50338,7 +50335,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="1">
@@ -50528,11 +50525,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="1">
@@ -50544,11 +50541,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="1">
@@ -50958,7 +50955,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="1">
@@ -51084,7 +51081,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="1">
@@ -51098,7 +51095,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="1">
@@ -51112,7 +51109,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="1">
@@ -51126,7 +51123,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="1">
@@ -51140,7 +51137,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="1">
@@ -51154,7 +51151,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="1">
@@ -51168,7 +51165,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="1">
@@ -51224,7 +51221,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="1">
@@ -51238,7 +51235,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="1">
@@ -51366,7 +51363,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="1">
@@ -51478,7 +51475,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="1">
@@ -51558,7 +51555,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="1">
@@ -51580,7 +51577,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="1">
@@ -51602,7 +51599,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="1">
@@ -51634,7 +51631,7 @@
         <v>373</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="1">
@@ -51648,7 +51645,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="1">
@@ -51754,7 +51751,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="1">
@@ -51770,7 +51767,7 @@
         <v>299</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="1">
@@ -51784,7 +51781,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="1">
@@ -51824,7 +51821,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="1">
@@ -52028,7 +52025,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D525" s="5"/>
       <c r="E525" s="1">
@@ -52056,7 +52053,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="1">
@@ -52098,7 +52095,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="1">
@@ -52126,7 +52123,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D532" s="5"/>
       <c r="E532" s="1">
@@ -52254,7 +52251,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D545" s="5"/>
       <c r="E545" s="1">
@@ -52290,7 +52287,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D548" s="5"/>
       <c r="E548" s="1">
@@ -52328,7 +52325,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D552" s="5"/>
       <c r="E552" s="1">
@@ -52342,7 +52339,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="1">
@@ -52356,7 +52353,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="1">
@@ -52378,7 +52375,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="1">
@@ -52392,7 +52389,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D557" s="5"/>
       <c r="E557" s="1">
@@ -52630,7 +52627,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D583" s="5"/>
       <c r="E583" s="1"/>
@@ -52838,7 +52835,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D600" s="5"/>
       <c r="E600" s="1">
@@ -52978,7 +52975,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="1">
@@ -53126,7 +53123,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D626" s="5"/>
       <c r="E626" s="1">
@@ -53139,7 +53136,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>434</v>
@@ -53170,7 +53167,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D629" s="5"/>
       <c r="E629" s="1">
@@ -53184,7 +53181,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D630" s="5"/>
       <c r="E630" s="1"/>
@@ -53314,7 +53311,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D639" s="5"/>
       <c r="E639" s="1">
@@ -53328,7 +53325,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D640" s="5"/>
       <c r="E640" s="1">
@@ -53358,7 +53355,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D642" s="5"/>
       <c r="E642" s="1">
@@ -53372,7 +53369,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D643" s="5"/>
       <c r="E643" s="1">
@@ -53418,7 +53415,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D646" s="5"/>
       <c r="E646" s="1">
@@ -53432,7 +53429,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D647" s="5"/>
       <c r="E647" s="1">
@@ -53446,7 +53443,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D648" s="5"/>
       <c r="E648" s="1">
@@ -53460,7 +53457,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D649" s="5"/>
       <c r="E649" s="1">
@@ -53474,7 +53471,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D650" s="5"/>
       <c r="E650" s="1">
@@ -53488,7 +53485,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D651" s="5"/>
       <c r="E651" s="1">
@@ -53512,7 +53509,7 @@
         <v>407</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="1">
@@ -53528,7 +53525,7 @@
         <v>373</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="1">
@@ -53544,7 +53541,7 @@
         <v>407</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="1">
@@ -53560,7 +53557,7 @@
         <v>407</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="1">
@@ -53576,7 +53573,7 @@
         <v>407</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D657" s="5"/>
       <c r="E657" s="1">
@@ -53590,7 +53587,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D658" s="5"/>
       <c r="E658" s="1">
@@ -53744,7 +53741,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="1">
@@ -53758,7 +53755,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="1">
@@ -53772,7 +53769,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="1">
@@ -53836,7 +53833,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D681" s="5"/>
       <c r="E681" s="1">
@@ -53850,7 +53847,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D682" s="5"/>
       <c r="E682" s="1">
@@ -53864,7 +53861,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D683" s="5"/>
       <c r="E683" s="1">
@@ -53878,7 +53875,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D684" s="5"/>
       <c r="E684" s="1">
@@ -53892,7 +53889,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="1">
@@ -53906,7 +53903,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D686" s="5"/>
       <c r="E686" s="1">
@@ -53947,10 +53944,10 @@
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D689" s="5"/>
       <c r="E689" s="1">
@@ -53963,10 +53960,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D690" s="5"/>
       <c r="E690" s="1">
@@ -54118,7 +54115,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D701" s="5"/>
       <c r="E701" s="1">
@@ -54132,7 +54129,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D702" s="5"/>
       <c r="E702" s="1">
@@ -54146,7 +54143,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D703" s="5"/>
       <c r="E703" s="1">
@@ -54337,7 +54334,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="1">
@@ -54350,7 +54347,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="1">
@@ -54363,7 +54360,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D726" s="5"/>
       <c r="E726" s="1">
@@ -54489,13 +54486,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D737" s="5"/>
       <c r="E737" s="1">
@@ -54507,13 +54504,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="1">
@@ -54525,13 +54522,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="1">
@@ -54543,13 +54540,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C740" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="C740" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="1">
@@ -54561,13 +54558,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="1">
@@ -54579,13 +54576,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D742" s="5"/>
       <c r="E742" s="1">
@@ -54597,13 +54594,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>904</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>906</v>
-      </c>
       <c r="C743" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D743" s="5"/>
       <c r="E743" s="1">
@@ -54615,10 +54612,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C744" s="5" t="s">
         <v>906</v>
-      </c>
-      <c r="C744" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="D744" s="5"/>
       <c r="E744" s="1">
@@ -54630,10 +54627,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D745" s="5"/>
       <c r="E745" s="1">
@@ -54646,7 +54643,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D746" s="5"/>
       <c r="E746" s="1">
@@ -54718,7 +54715,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
@@ -54732,7 +54729,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
@@ -54746,7 +54743,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="1">
@@ -54762,7 +54759,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="1">
@@ -54777,7 +54774,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D759" s="5"/>
       <c r="E759">
@@ -54806,7 +54803,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D761" s="5"/>
       <c r="E761" s="1">
@@ -54837,7 +54834,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D763" s="5"/>
       <c r="E763" s="1">
@@ -54879,7 +54876,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="1">
@@ -54991,11 +54988,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="1">
@@ -55247,7 +55244,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D791" s="5"/>
       <c r="E791" s="1">
@@ -55260,7 +55257,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="1">
@@ -55273,7 +55270,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D793" s="5"/>
       <c r="E793" s="1">
@@ -55286,7 +55283,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D794" s="5"/>
       <c r="E794" s="1">
@@ -55299,7 +55296,7 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D795" s="5"/>
       <c r="E795" s="1">
@@ -55312,7 +55309,7 @@
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D796" s="5"/>
       <c r="E796" s="1">
@@ -55323,7 +55320,7 @@
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D797" s="5"/>
       <c r="E797" s="1">
@@ -55734,7 +55731,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D836" s="5"/>
       <c r="E836" s="1">
@@ -55825,7 +55822,7 @@
         <v>606</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D847" s="5"/>
       <c r="E847" s="1">
@@ -55840,7 +55837,7 @@
         <v>606</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D848" s="5"/>
       <c r="E848" s="1">
@@ -55852,10 +55849,10 @@
     </row>
     <row r="849" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C849" s="5" t="s">
         <v>912</v>
-      </c>
-      <c r="C849" s="5" t="s">
-        <v>913</v>
       </c>
       <c r="D849" s="5"/>
       <c r="E849" s="1">
@@ -55870,7 +55867,7 @@
         <v>474</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D850" s="5"/>
       <c r="E850" s="1">
@@ -55883,7 +55880,7 @@
     <row r="851" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D851" s="5"/>
       <c r="E851" s="1">
@@ -56038,7 +56035,7 @@
         <v>14</v>
       </c>
       <c r="F869" s="1">
-        <v>12000</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="870" spans="2:6" x14ac:dyDescent="0.25">
@@ -56296,7 +56293,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D906" s="5"/>
       <c r="E906" s="1">
@@ -56309,7 +56306,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D907" s="5"/>
       <c r="E907" s="1">
@@ -56322,7 +56319,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="1">
@@ -56335,7 +56332,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D909" s="5"/>
       <c r="E909" s="1">
@@ -56348,7 +56345,7 @@
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D910" s="5"/>
       <c r="E910" s="1">
@@ -56361,7 +56358,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D911" s="5"/>
       <c r="E911" s="1">
@@ -56432,7 +56429,7 @@
         <v>7184</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D916" s="5"/>
       <c r="E916" s="1">
@@ -56545,7 +56542,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D927" s="5"/>
       <c r="E927" s="1">
@@ -57141,7 +57138,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995">
@@ -57263,7 +57260,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D1004" s="5"/>
       <c r="F1004" s="1">
@@ -57273,7 +57270,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D1005" s="5"/>
       <c r="E1005">
@@ -57589,7 +57586,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D1028" s="5"/>
       <c r="E1028">
@@ -57617,7 +57614,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D1030" s="5"/>
       <c r="E1030">
@@ -57722,7 +57719,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D1041" s="5"/>
       <c r="E1041">
@@ -57764,7 +57761,7 @@
         <v>184</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1046" s="5"/>
       <c r="E1046">
@@ -57827,7 +57824,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>158</v>
@@ -57846,7 +57843,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1051" s="5"/>
       <c r="E1051">
@@ -58233,7 +58230,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D1074" s="5"/>
       <c r="E1074">
@@ -58265,7 +58262,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1077" s="5"/>
       <c r="E1077">
@@ -58407,7 +58404,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D1089" s="5"/>
       <c r="E1089">
@@ -58599,7 +58596,7 @@
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D1113" s="5"/>
       <c r="E1113">
@@ -58618,7 +58615,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D1115" s="5"/>
       <c r="E1115">
@@ -58670,7 +58667,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D1119" s="5"/>
       <c r="E1119">
@@ -58696,7 +58693,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121">
@@ -58709,7 +58706,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1122" s="5"/>
       <c r="E1122">
@@ -58722,7 +58719,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1123" s="5"/>
       <c r="E1123">
@@ -58735,7 +58732,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1124" s="5"/>
       <c r="E1124">
@@ -58748,7 +58745,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1125" s="5"/>
       <c r="E1125">
@@ -58761,7 +58758,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1126" s="5"/>
       <c r="E1126">
@@ -58774,7 +58771,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D1127" s="5"/>
       <c r="E1127">
@@ -58787,7 +58784,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1128" s="5"/>
       <c r="E1128">
@@ -58800,7 +58797,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1129" s="5"/>
       <c r="E1129">
@@ -58813,7 +58810,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1130" s="5"/>
       <c r="E1130">
@@ -58826,7 +58823,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1131" s="5"/>
       <c r="E1131">
@@ -59073,7 +59070,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D1154" s="5"/>
       <c r="E1154">
@@ -59086,7 +59083,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D1155" s="5"/>
       <c r="E1155">
@@ -59266,7 +59263,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D1178" s="5"/>
       <c r="E1178">
@@ -59277,7 +59274,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D1179" s="5"/>
       <c r="E1179">
@@ -59290,7 +59287,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D1180" s="5"/>
       <c r="E1180">
@@ -59303,7 +59300,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D1181" s="5"/>
       <c r="E1181">
@@ -59316,7 +59313,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1182" s="5"/>
       <c r="E1182">
@@ -59335,7 +59332,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D1184" s="5"/>
       <c r="E1184">
@@ -59387,7 +59384,7 @@
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D1188" s="5"/>
       <c r="E1188">
@@ -59593,7 +59590,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D1213" s="5"/>
       <c r="E1213">
@@ -59750,7 +59747,7 @@
         <v>651</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C1233" s="5" t="s">
         <v>652</v>
@@ -59951,36 +59948,35 @@
     </row>
     <row r="1257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1257" s="1"/>
-      <c r="C1257" s="5" t="s">
-        <v>661</v>
-      </c>
+      <c r="C1257" s="5"/>
       <c r="D1257" s="5"/>
-      <c r="E1257">
-        <v>4</v>
-      </c>
       <c r="F1257" s="1"/>
     </row>
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1258" s="5"/>
       <c r="E1258">
         <v>2</v>
       </c>
-      <c r="F1258" s="1"/>
+      <c r="F1258" s="1">
+        <v>8400</v>
+      </c>
     </row>
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1259" s="5"/>
       <c r="E1259">
         <v>5</v>
       </c>
-      <c r="F1259" s="1"/>
+      <c r="F1259" s="1">
+        <v>8400</v>
+      </c>
     </row>
     <row r="1260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1260" s="1"/>
@@ -59991,7 +59987,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D1261" s="5"/>
       <c r="E1261">
@@ -60010,7 +60006,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D1263" s="5"/>
       <c r="E1263">
@@ -60029,7 +60025,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D1265" s="5"/>
       <c r="E1265">
@@ -60060,7 +60056,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D1269" s="5"/>
       <c r="E1269">
@@ -60079,7 +60075,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D1271" s="5"/>
       <c r="E1271">
@@ -60098,7 +60094,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1273" s="5"/>
       <c r="E1273">
@@ -60111,7 +60107,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D1274" s="5"/>
       <c r="E1274">
@@ -60124,7 +60120,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1275" s="5"/>
       <c r="E1275">
@@ -60137,7 +60133,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D1276" s="5"/>
       <c r="E1276">
@@ -60150,7 +60146,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D1277" s="5"/>
       <c r="E1277">
@@ -60165,10 +60161,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1278" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="D1278" s="5"/>
       <c r="E1278">
@@ -60183,10 +60179,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1279" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="C1279" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="D1279" s="5"/>
       <c r="E1279">
@@ -60204,10 +60200,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1281" s="5" t="s">
         <v>678</v>
-      </c>
-      <c r="C1281" s="5" t="s">
-        <v>679</v>
       </c>
       <c r="D1281" s="5"/>
       <c r="E1281">
@@ -60220,7 +60216,7 @@
         <v>414</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1282" s="5"/>
       <c r="E1282">
@@ -60230,10 +60226,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1283" s="5"/>
       <c r="E1283">
@@ -60243,10 +60239,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D1284" s="5"/>
       <c r="E1284">
@@ -60257,7 +60253,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D1285" s="5"/>
       <c r="E1285">
@@ -60267,10 +60263,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1286" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="C1286" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="D1286" s="5"/>
       <c r="E1286">
@@ -60292,10 +60288,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D1289" s="5"/>
       <c r="E1289">
@@ -60324,7 +60320,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D1293" s="5"/>
       <c r="E1293">
@@ -60337,7 +60333,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1294" s="5"/>
       <c r="E1294">
@@ -60350,7 +60346,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D1295" s="5"/>
       <c r="E1295">
@@ -60369,7 +60365,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D1297" s="5"/>
       <c r="E1297">
@@ -60382,20 +60378,20 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1298" s="5"/>
       <c r="E1298">
         <v>4</v>
       </c>
       <c r="F1298" s="1">
-        <v>4400</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D1299" s="5"/>
       <c r="E1299">
@@ -60408,7 +60404,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D1300" s="5"/>
       <c r="E1300">
@@ -60421,7 +60417,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1301" s="5"/>
       <c r="E1301">
@@ -60440,7 +60436,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1303" s="5"/>
       <c r="E1303">
@@ -60453,7 +60449,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1304" s="5"/>
       <c r="E1304">
@@ -60466,7 +60462,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1305" s="5"/>
       <c r="E1305">
@@ -60491,7 +60487,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1308" s="5"/>
       <c r="E1308">
@@ -60542,7 +60538,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1315" s="5"/>
       <c r="E1315">
@@ -60565,7 +60561,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1317" s="5"/>
       <c r="E1317">
@@ -60580,7 +60576,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D1318" s="5"/>
       <c r="E1318">
@@ -60595,7 +60591,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D1319" s="5"/>
       <c r="E1319">
@@ -60610,10 +60606,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1320" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="C1320" s="5" t="s">
-        <v>703</v>
       </c>
       <c r="D1320" s="5"/>
       <c r="E1320">
@@ -60629,7 +60625,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1321" s="5"/>
       <c r="E1321">
@@ -60645,7 +60641,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1322" s="5"/>
       <c r="E1322">
@@ -60661,7 +60657,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1323" s="5"/>
       <c r="E1323">
@@ -60677,7 +60673,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1324" s="5"/>
       <c r="E1324">
@@ -60693,7 +60689,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1325" s="5"/>
       <c r="E1325">
@@ -60709,7 +60705,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D1326" s="5"/>
       <c r="E1326">
@@ -60722,7 +60718,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1327" s="5"/>
       <c r="E1327">
@@ -60818,7 +60814,7 @@
         <v>415</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D1336" s="5"/>
       <c r="E1336">
@@ -60829,7 +60825,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D1337" s="5"/>
       <c r="E1337">
@@ -60842,7 +60838,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D1338" s="5"/>
       <c r="E1338">
@@ -60855,7 +60851,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1339" s="5"/>
       <c r="E1339">
@@ -60874,7 +60870,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1341" s="5"/>
       <c r="E1341">
@@ -60887,7 +60883,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D1342" s="5"/>
       <c r="E1342">
@@ -60900,7 +60896,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D1343" s="5"/>
       <c r="E1343">
@@ -60913,7 +60909,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D1344" s="5"/>
       <c r="E1344">
@@ -60926,7 +60922,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1345" s="5"/>
       <c r="E1345">
@@ -60939,7 +60935,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1346" s="5"/>
       <c r="E1346">
@@ -60952,7 +60948,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1347" s="5"/>
       <c r="E1347">
@@ -60965,7 +60961,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1348" s="5"/>
       <c r="E1348">
@@ -60978,7 +60974,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D1349" s="5"/>
       <c r="E1349">
@@ -61003,7 +60999,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D1352" s="5"/>
       <c r="E1352">
@@ -61022,7 +61018,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D1354" s="5"/>
       <c r="E1354">
@@ -61041,10 +61037,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C1356" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="C1356" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="D1356" s="5"/>
       <c r="E1356" s="1">
@@ -61057,7 +61053,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1357" s="5"/>
       <c r="E1357" s="1">
@@ -61112,7 +61108,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D1364" s="5"/>
       <c r="E1364" s="1">
@@ -61125,7 +61121,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1365" s="5"/>
       <c r="E1365" s="1">
@@ -61138,7 +61134,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D1366" s="5"/>
       <c r="E1366" s="1">
@@ -61151,7 +61147,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D1367" s="5"/>
       <c r="E1367" s="1">
@@ -61164,7 +61160,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1368" s="5"/>
       <c r="E1368" s="1">
@@ -61177,7 +61173,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1369" s="5"/>
       <c r="E1369" s="1">
@@ -61188,7 +61184,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1370" s="5"/>
       <c r="E1370" s="1">
@@ -61201,7 +61197,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1371" s="5"/>
       <c r="E1371" s="1">
@@ -61214,7 +61210,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1372" s="5"/>
       <c r="E1372" s="1">
@@ -61227,7 +61223,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1373" s="5"/>
       <c r="E1373" s="1">
@@ -61240,7 +61236,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1374" s="5"/>
       <c r="E1374" s="1">
@@ -61251,7 +61247,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1375" s="5"/>
       <c r="E1375" s="1">
@@ -61264,7 +61260,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D1376" s="5"/>
       <c r="E1376" s="1">
@@ -61277,7 +61273,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1377" s="5"/>
       <c r="E1377" s="1">
@@ -61290,7 +61286,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1378" s="5"/>
       <c r="E1378" s="1">
@@ -61303,7 +61299,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1379" s="5"/>
       <c r="E1379" s="1">
@@ -61316,7 +61312,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1380" s="5"/>
       <c r="E1380" s="1">
@@ -61329,7 +61325,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D1381" s="5"/>
       <c r="E1381" s="1">
@@ -61342,7 +61338,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D1382" s="5"/>
       <c r="E1382" s="1">
@@ -61355,7 +61351,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1383" s="5"/>
       <c r="E1383" s="1">
@@ -61368,7 +61364,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1384" s="5"/>
       <c r="E1384" s="1">
@@ -61381,7 +61377,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1385" s="5"/>
       <c r="E1385" s="1">
@@ -61394,7 +61390,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D1386" s="5"/>
       <c r="E1386" s="1">
@@ -61407,7 +61403,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D1387" s="5"/>
       <c r="E1387" s="1">
@@ -61420,7 +61416,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1388" s="5"/>
       <c r="E1388" s="1">
@@ -61433,7 +61429,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D1389" s="5"/>
       <c r="E1389" s="1">
@@ -61446,7 +61442,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1390" s="5"/>
       <c r="E1390" s="1">
@@ -61457,7 +61453,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1391" s="5"/>
       <c r="E1391" s="1">
@@ -61468,7 +61464,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D1392" s="5"/>
       <c r="E1392" s="1">
@@ -61479,7 +61475,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1393" s="5"/>
       <c r="E1393" s="1">
@@ -61492,7 +61488,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1394" s="5"/>
       <c r="E1394" s="1">
@@ -61505,7 +61501,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1395" s="5"/>
       <c r="E1395" s="1">
@@ -61518,7 +61514,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1396" s="5"/>
       <c r="E1396" s="1">
@@ -61531,7 +61527,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1397" s="5"/>
       <c r="E1397" s="1">
@@ -61544,7 +61540,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D1398" s="5"/>
       <c r="E1398" s="1">
@@ -61564,7 +61560,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D1400" s="5"/>
       <c r="E1400" s="1">
@@ -61577,7 +61573,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D1401" s="5"/>
       <c r="E1401" s="1">
@@ -61590,7 +61586,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D1402" s="5"/>
       <c r="E1402" s="1">
@@ -61603,7 +61599,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D1403" s="5"/>
       <c r="E1403" s="1">
@@ -61615,10 +61611,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1404" s="5" t="s">
         <v>740</v>
-      </c>
-      <c r="C1404" s="5" t="s">
-        <v>741</v>
       </c>
       <c r="D1404" s="5"/>
       <c r="E1404" s="1">
@@ -61633,7 +61629,7 @@
         <v>299</v>
       </c>
       <c r="C1405" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D1405" s="5"/>
       <c r="E1405" s="1">
@@ -61645,10 +61641,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C1406" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="C1406" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="D1406" s="5"/>
       <c r="E1406" s="1">
@@ -61689,7 +61685,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1411" s="5"/>
       <c r="E1411" s="1">
@@ -61704,7 +61700,7 @@
         <v>299</v>
       </c>
       <c r="C1412" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1412" s="5"/>
       <c r="E1412" s="1">
@@ -61717,7 +61713,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D1413" s="5"/>
       <c r="E1413" s="1">
@@ -61730,7 +61726,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1414" s="5"/>
       <c r="E1414" s="1">
@@ -61743,7 +61739,7 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D1415" s="5"/>
       <c r="E1415" s="1">
@@ -61763,7 +61759,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D1417" s="5"/>
       <c r="E1417" s="1">
@@ -61783,7 +61779,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D1419" s="5"/>
       <c r="E1419" s="1">
@@ -61796,7 +61792,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1420" s="5"/>
       <c r="E1420" s="1">
@@ -61809,7 +61805,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D1421" s="5"/>
       <c r="E1421" s="1">
@@ -61829,7 +61825,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D1423" s="5"/>
       <c r="E1423" s="1">
@@ -61842,7 +61838,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D1424" s="5"/>
       <c r="E1424" s="1">
@@ -61855,7 +61851,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D1425" s="5"/>
       <c r="E1425" s="1">
@@ -61875,7 +61871,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D1427" s="5"/>
       <c r="E1427">
@@ -61888,7 +61884,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D1428" s="5"/>
       <c r="E1428">
@@ -61907,7 +61903,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D1430" s="5"/>
       <c r="F1430" s="1"/>
@@ -61915,7 +61911,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D1431" s="5"/>
       <c r="F1431" s="1"/>
@@ -61923,7 +61919,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D1432" s="5"/>
       <c r="E1432">
@@ -61936,7 +61932,7 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D1433" s="5"/>
       <c r="E1433">
@@ -61961,7 +61957,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D1436" s="5"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A94FA88-24E3-453D-8ED7-29D09471EC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F033932-64F1-4522-8B80-A1051481ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10494,7 +10494,7 @@
                   <c:v>3330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1040</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3090</c:v>
@@ -10560,7 +10560,7 @@
                   <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>860</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>830</c:v>
@@ -20734,7 +20734,7 @@
                   <c:v>3330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1040</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3090</c:v>
@@ -20800,7 +20800,7 @@
                   <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>860</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>830</c:v>
@@ -30974,7 +30974,7 @@
                   <c:v>3330</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1040</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3090</c:v>
@@ -31040,7 +31040,7 @@
                   <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>860</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>830</c:v>
@@ -40908,7 +40908,7 @@
                   <c:v>3330</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1040</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3090</c:v>
@@ -40974,7 +40974,7 @@
                   <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>860</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>830</c:v>
@@ -44151,8 +44151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1284" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1298" sqref="F1298"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A56" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44924,7 +44924,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="G52" s="1"/>
     </row>
@@ -45300,7 +45300,7 @@
         <v>21</v>
       </c>
       <c r="F76" s="1">
-        <v>860</v>
+        <v>770</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F033932-64F1-4522-8B80-A1051481ED28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7479F17-7E89-4511-A993-40F976430D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41806,6 +41806,9 @@
                 </c:pt>
                 <c:pt idx="380">
                   <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="384">
                   <c:v>3580</c:v>
@@ -44151,8 +44154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A56" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A413" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F427" sqref="F427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50583,7 +50586,9 @@
       <c r="E427" s="1">
         <v>62</v>
       </c>
-      <c r="F427" s="1"/>
+      <c r="F427" s="1">
+        <v>5600</v>
+      </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12D0ACD-EA4D-4FD2-BA00-CA580187316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1847D66-2CD7-4546-AA53-988D74106A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44154,8 +44154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1283" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1299" sqref="F1299"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A682" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F697" sqref="F697"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54059,7 +54059,7 @@
         <v>4</v>
       </c>
       <c r="F696" s="1">
-        <v>12200</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.25">
@@ -54073,7 +54073,7 @@
         <v>17</v>
       </c>
       <c r="F697" s="1">
-        <v>12500</v>
+        <v>12200</v>
       </c>
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1847D66-2CD7-4546-AA53-988D74106A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086A3B5-FDBE-43D9-9A88-7E0E62EF3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44154,8 +44154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A682" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F697" sqref="F697"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A985" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F999" sqref="F999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57202,7 +57202,7 @@
         <v>9</v>
       </c>
       <c r="F999" s="1">
-        <v>32500</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F086A3B5-FDBE-43D9-9A88-7E0E62EF3B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2B379-6321-43EF-A300-8BAAA4E99B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10677,7 +10677,7 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3280</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>3350</c:v>
@@ -20917,7 +20917,7 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3280</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>3350</c:v>
@@ -31157,7 +31157,7 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3280</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>3350</c:v>
@@ -41091,7 +41091,7 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3280</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3350</c:v>
@@ -44154,8 +44154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A985" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F999" sqref="F999"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A119" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45973,7 +45973,7 @@
         <v>42</v>
       </c>
       <c r="F122" s="1">
-        <v>3280</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C7F98-90F1-4E49-BCB5-98F3CC530D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF05607-00F6-4377-B20A-91FFD666974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1024">
   <si>
     <t>Articulo</t>
   </si>
@@ -3083,6 +3083,24 @@
   </si>
   <si>
     <t>pantufla mujer negra lisa inyectada</t>
+  </si>
+  <si>
+    <t>cenitho campera jeans</t>
+  </si>
+  <si>
+    <t>46 al 54</t>
+  </si>
+  <si>
+    <t>40 al 42</t>
+  </si>
+  <si>
+    <t>cenitho jeans matizado</t>
+  </si>
+  <si>
+    <t>cenitho jeans bolsillo tacha</t>
+  </si>
+  <si>
+    <t>cenitho jeans bolsillo pulido botamanga desigual</t>
   </si>
 </sst>
 </file>
@@ -4209,6 +4227,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -4877,11 +4901,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5379,6 +5409,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -6303,6 +6339,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -6971,11 +7013,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -7473,6 +7521,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -8260,6 +8314,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1</c:v>
@@ -9249,6 +9309,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -9917,11 +9983,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -10419,6 +10491,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -11176,6 +11254,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>21980</c:v>
@@ -12165,6 +12249,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -12833,11 +12923,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -13335,6 +13431,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -14473,6 +14575,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -15141,11 +15249,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -15643,6 +15757,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -16567,6 +16687,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -17235,11 +17361,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -17737,6 +17869,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -18524,6 +18662,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1</c:v>
@@ -19513,6 +19657,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -20181,11 +20331,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -20683,6 +20839,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -21440,6 +21602,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>21980</c:v>
@@ -22429,6 +22597,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -23097,11 +23271,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -23599,6 +23779,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -24737,6 +24923,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -25405,11 +25597,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -25907,6 +26105,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -26831,6 +27035,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -27499,11 +27709,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -28001,6 +28217,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -28788,6 +29010,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>1</c:v>
@@ -29777,6 +30005,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -30445,11 +30679,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -30947,6 +31187,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -31704,6 +31950,12 @@
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
                   <c:v>21980</c:v>
@@ -32693,6 +32945,12 @@
                   <c:pt idx="283">
                     <c:v>repasador pesado </c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>cenitho jeans bolsillo tacha</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>cenitho jeans bolsillo pulido botamanga desigual</c:v>
+                  </c:pt>
                   <c:pt idx="286">
                     <c:v>acolchado paris cotton touch king</c:v>
                   </c:pt>
@@ -33361,11 +33619,17 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="285">
+                    <c:v>46 al 54</c:v>
+                  </c:pt>
                   <c:pt idx="313">
                     <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="315">
                     <c:v>34 al 40</c:v>
+                  </c:pt>
+                  <c:pt idx="316">
+                    <c:v>36 al 40</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -33863,6 +34127,12 @@
                   </c:pt>
                   <c:pt idx="264">
                     <c:v>4450</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>183</c:v>
+                  </c:pt>
+                  <c:pt idx="285">
+                    <c:v>808</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -34703,6 +34973,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -35366,10 +35642,16 @@
                 <c:pt idx="255">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="288">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="295">
@@ -36233,6 +36515,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -37062,6 +37350,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="261">
@@ -38189,6 +38483,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -38960,6 +39260,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -39772,6 +40078,12 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>1</c:v>
@@ -40874,6 +41186,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -41656,6 +41974,12 @@
                 </c:pt>
                 <c:pt idx="258">
                   <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="261">
                   <c:v>21980</c:v>
@@ -42668,6 +42992,12 @@
                 <c:pt idx="239">
                   <c:v>4450</c:v>
                 </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -43447,6 +43777,12 @@
                 </c:pt>
                 <c:pt idx="239">
                   <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
@@ -44250,8 +44586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1118" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C1134" sqref="C1134:D1134"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A758" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F771" sqref="F771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49058,20 +49394,38 @@
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A303" s="1"/>
+      <c r="A303" s="1">
+        <v>183</v>
+      </c>
       <c r="B303" s="1"/>
-      <c r="C303" s="5"/>
+      <c r="C303" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="D303" s="5"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
+      <c r="E303" s="1">
+        <v>1</v>
+      </c>
+      <c r="F303" s="1">
+        <v>23000</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A304" s="1"/>
-      <c r="B304" s="1"/>
-      <c r="C304" s="5"/>
+      <c r="A304" s="1">
+        <v>808</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>1023</v>
+      </c>
       <c r="D304" s="5"/>
-      <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
+      <c r="E304" s="1">
+        <v>1</v>
+      </c>
+      <c r="F304" s="1">
+        <v>24400</v>
+      </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
@@ -49443,7 +49797,9 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
-      <c r="B335" s="1"/>
+      <c r="B335" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="C335" s="5" t="s">
         <v>1012</v>
       </c>
@@ -54814,11 +55170,20 @@
       <c r="F753" s="1"/>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>105</v>
+      </c>
       <c r="B754" s="1"/>
-      <c r="C754" s="5"/>
+      <c r="C754" s="5" t="s">
+        <v>1021</v>
+      </c>
       <c r="D754" s="5"/>
-      <c r="E754" s="1"/>
-      <c r="F754" s="1"/>
+      <c r="E754" s="1">
+        <v>1</v>
+      </c>
+      <c r="F754" s="1">
+        <v>22600</v>
+      </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755">
@@ -55076,7 +55441,7 @@
         <v>3</v>
       </c>
       <c r="F771" s="1">
-        <v>18690</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
@@ -55094,7 +55459,7 @@
         <v>7</v>
       </c>
       <c r="F772" s="1">
-        <v>17290</v>
+        <v>22400</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
@@ -55909,7 +56274,9 @@
       <c r="F844" s="1"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B845" s="1"/>
+      <c r="B845" s="1">
+        <v>36</v>
+      </c>
       <c r="C845" s="5" t="s">
         <v>1013</v>
       </c>
@@ -55964,7 +56331,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="849" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
         <v>908</v>
       </c>
@@ -55979,7 +56346,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="850" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
         <v>474</v>
       </c>
@@ -55994,7 +56361,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="851" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
         <v>910</v>
@@ -56007,7 +56374,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="852" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
       <c r="C852" s="5" t="s">
         <v>1015</v>
@@ -56020,14 +56387,14 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="853" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B853" s="1"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="5" t="s">
         <v>520</v>
@@ -56040,56 +56407,78 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="855" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B855" s="1"/>
-      <c r="C855" s="5"/>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>739</v>
+      </c>
+      <c r="B855" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C855" s="5" t="s">
+        <v>1018</v>
+      </c>
       <c r="D855" s="5"/>
-      <c r="E855" s="1"/>
-      <c r="F855" s="1"/>
-    </row>
-    <row r="856" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B856" s="1"/>
-      <c r="C856" s="5"/>
+      <c r="E855" s="1">
+        <v>1</v>
+      </c>
+      <c r="F855" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>276</v>
+      </c>
+      <c r="B856" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C856" s="5" t="s">
+        <v>1018</v>
+      </c>
       <c r="D856" s="5"/>
-      <c r="E856" s="1"/>
-      <c r="F856" s="1"/>
-    </row>
-    <row r="857" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E856" s="1">
+        <v>1</v>
+      </c>
+      <c r="F856" s="1">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B857" s="1"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B858" s="1"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B859" s="1"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B860" s="1"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B861" s="1"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="5" t="s">
         <v>521</v>
@@ -56100,14 +56489,14 @@
       </c>
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B863" s="1"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B864" s="1"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF05607-00F6-4377-B20A-91FFD666974A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824CDFA-2939-47B3-B935-2F2874B041A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42165,10 +42165,10 @@
                   <c:v>7780</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>13400</c:v>
+                  <c:v>14600</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>13400</c:v>
+                  <c:v>14600</c:v>
                 </c:pt>
                 <c:pt idx="348">
                   <c:v>7400</c:v>
@@ -42177,10 +42177,10 @@
                   <c:v>14800</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>15400</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>14500</c:v>
+                  <c:v>14600</c:v>
                 </c:pt>
                 <c:pt idx="352">
                   <c:v>4500</c:v>
@@ -42225,7 +42225,7 @@
                   <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>15000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="383">
                   <c:v>5600</c:v>
@@ -44586,8 +44586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A758" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F771" sqref="F771"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A707" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F722" sqref="F722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50553,7 +50553,7 @@
         <v>1</v>
       </c>
       <c r="F390" s="1">
-        <v>13400</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -50569,7 +50569,7 @@
         <v>1</v>
       </c>
       <c r="F391" s="1">
-        <v>13400</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -50617,7 +50617,7 @@
         <v>1</v>
       </c>
       <c r="F394" s="1">
-        <v>15400</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -50633,7 +50633,7 @@
         <v>1</v>
       </c>
       <c r="F395" s="1">
-        <v>14500</v>
+        <v>14600</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -51017,7 +51017,7 @@
         <v>1</v>
       </c>
       <c r="F424" s="1">
-        <v>15000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -54767,7 +54767,7 @@
         <v>3</v>
       </c>
       <c r="F721" s="1">
-        <v>14600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="722" spans="2:6" x14ac:dyDescent="0.25">
@@ -54782,7 +54782,7 @@
         <v>58</v>
       </c>
       <c r="F722" s="1">
-        <v>14400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
@@ -55196,7 +55196,7 @@
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
       <c r="F755" s="1">
-        <v>20280</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.25">
@@ -55210,7 +55210,7 @@
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
       <c r="F756" s="1">
-        <v>20280</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.25">
@@ -55226,7 +55226,7 @@
         <v>1</v>
       </c>
       <c r="F757" s="1">
-        <v>17180</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.25">
@@ -55242,7 +55242,7 @@
         <v>1</v>
       </c>
       <c r="F758">
-        <v>16680</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
@@ -55257,7 +55257,7 @@
         <v>1</v>
       </c>
       <c r="F759">
-        <v>20100</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
@@ -55286,7 +55286,7 @@
         <v>1</v>
       </c>
       <c r="F761" s="1">
-        <v>17280</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.25">
@@ -55317,7 +55317,7 @@
         <v>1</v>
       </c>
       <c r="F763" s="1">
-        <v>15800</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
@@ -55330,7 +55330,7 @@
         <v>1</v>
       </c>
       <c r="F764" s="1">
-        <v>14600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
@@ -55343,7 +55343,7 @@
         <v>8</v>
       </c>
       <c r="F765" s="1">
-        <v>17300</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
@@ -55359,7 +55359,7 @@
         <v>1</v>
       </c>
       <c r="F766" s="1">
-        <v>17900</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
@@ -55372,7 +55372,7 @@
         <v>1</v>
       </c>
       <c r="F767" s="1">
-        <v>15900</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
@@ -55387,7 +55387,7 @@
         <v>2</v>
       </c>
       <c r="F768" s="1">
-        <v>17300</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
@@ -55405,7 +55405,7 @@
         <v>3</v>
       </c>
       <c r="F769" s="1">
-        <v>17900</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
@@ -55423,7 +55423,7 @@
         <v>4</v>
       </c>
       <c r="F770" s="1">
-        <v>15890</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
@@ -55475,7 +55475,7 @@
         <v>1</v>
       </c>
       <c r="F773" s="1">
-        <v>17880</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
@@ -55493,7 +55493,7 @@
         <v>1</v>
       </c>
       <c r="F774" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
@@ -55508,7 +55508,7 @@
         <v>10</v>
       </c>
       <c r="F775" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
@@ -55526,7 +55526,7 @@
         <v>3</v>
       </c>
       <c r="F776" s="1">
-        <v>15740</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
@@ -55544,7 +55544,7 @@
         <v>1</v>
       </c>
       <c r="F777" s="1">
-        <v>18680</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.25">
@@ -55569,7 +55569,7 @@
         <v>3</v>
       </c>
       <c r="F779" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
@@ -55587,7 +55587,7 @@
         <v>3</v>
       </c>
       <c r="F780" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
@@ -55605,7 +55605,7 @@
         <v>1</v>
       </c>
       <c r="F781" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
@@ -55623,7 +55623,7 @@
         <v>6</v>
       </c>
       <c r="F782" s="1">
-        <v>15840</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -57449,7 +57449,7 @@
         <v>4</v>
       </c>
       <c r="F968" s="1">
-        <v>17900</v>
+        <v>22600</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
@@ -60269,7 +60269,7 @@
         <v>1</v>
       </c>
       <c r="F1233" s="1">
-        <v>20280</v>
+        <v>24400</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3824CDFA-2939-47B3-B935-2F2874B041A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8BB606-88C0-4B8B-99FC-B218E962F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1025">
   <si>
     <t>Articulo</t>
   </si>
@@ -3101,6 +3101,9 @@
   </si>
   <si>
     <t>cenitho jeans bolsillo pulido botamanga desigual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cenitho jeans </t>
   </si>
 </sst>
 </file>
@@ -34979,6 +34982,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -35697,6 +35703,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="331">
@@ -36521,6 +36530,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -37518,6 +37530,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="327">
@@ -38489,6 +38504,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -39266,6 +39284,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -40234,6 +40255,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>52</c:v>
@@ -41192,6 +41216,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -42124,6 +42151,9 @@
                 </c:pt>
                 <c:pt idx="325">
                   <c:v>3980</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="327">
                   <c:v>5600</c:v>
@@ -42998,6 +43028,9 @@
                 <c:pt idx="260">
                   <c:v>808</c:v>
                 </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
+                </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
                 </c:pt>
@@ -43783,6 +43816,9 @@
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="346">
                   <c:v>400/3</c:v>
@@ -44586,8 +44622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A707" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F722" sqref="F722"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A351" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F370" sqref="F370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50292,12 +50328,22 @@
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="1"/>
-      <c r="B370" s="1"/>
-      <c r="C370" s="5"/>
+      <c r="A370" s="1">
+        <v>810</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>1024</v>
+      </c>
       <c r="D370" s="5"/>
-      <c r="E370" s="1"/>
-      <c r="F370" s="1"/>
+      <c r="E370" s="1">
+        <v>1</v>
+      </c>
+      <c r="F370" s="1">
+        <v>24400</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8BB606-88C0-4B8B-99FC-B218E962F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0E427-2DFC-46C9-A6A6-6B2CE3B46F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1026">
   <si>
     <t>Articulo</t>
   </si>
@@ -3104,6 +3104,9 @@
   </si>
   <si>
     <t xml:space="preserve">cenitho jeans </t>
+  </si>
+  <si>
+    <t>46 al 50</t>
   </si>
 </sst>
 </file>
@@ -4904,6 +4907,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -7016,6 +7022,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -9986,6 +9995,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -12925,6 +12937,9 @@
                   </c:pt>
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
@@ -15252,6 +15267,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -17364,6 +17382,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -20334,6 +20355,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -23273,6 +23297,9 @@
                   </c:pt>
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
@@ -25600,6 +25627,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -27712,6 +27742,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -30682,6 +30715,9 @@
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
                   </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
+                  </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
                   </c:pt>
@@ -33621,6 +33657,9 @@
                   </c:pt>
                   <c:pt idx="280">
                     <c:v>2,5</c:v>
+                  </c:pt>
+                  <c:pt idx="284">
+                    <c:v>36 al 46</c:v>
                   </c:pt>
                   <c:pt idx="285">
                     <c:v>46 al 54</c:v>
@@ -35647,6 +35686,9 @@
                 </c:pt>
                 <c:pt idx="255">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
                   <c:v>0</c:v>
@@ -44622,8 +44664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A351" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F370" sqref="F370"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A842" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="B855" sqref="B855"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49433,7 +49475,9 @@
       <c r="A303" s="1">
         <v>183</v>
       </c>
-      <c r="B303" s="1"/>
+      <c r="B303" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C303" s="5" t="s">
         <v>1022</v>
       </c>
@@ -55219,7 +55263,9 @@
       <c r="A754">
         <v>105</v>
       </c>
-      <c r="B754" s="1"/>
+      <c r="B754" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C754" s="5" t="s">
         <v>1021</v>
       </c>
@@ -56458,7 +56504,7 @@
         <v>739</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="C855" s="5" t="s">
         <v>1018</v>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC0E427-2DFC-46C9-A6A6-6B2CE3B46F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4356CD-D3FD-4967-A74C-5230F4D78A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2368,9 +2368,6 @@
     <t>cinto nene</t>
   </si>
   <si>
-    <t>campera jeans mujer</t>
-  </si>
-  <si>
     <t xml:space="preserve">campera puffer importada </t>
   </si>
   <si>
@@ -3107,6 +3104,9 @@
   </si>
   <si>
     <t>46 al 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -11310,22 +11310,22 @@
                   <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10200</c:v>
+                  <c:v>13680</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>14600</c:v>
@@ -11334,7 +11334,7 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>14600</c:v>
@@ -21670,22 +21670,22 @@
                   <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10200</c:v>
+                  <c:v>13680</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>14600</c:v>
@@ -21694,7 +21694,7 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>14600</c:v>
@@ -32030,22 +32030,22 @@
                   <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10200</c:v>
+                  <c:v>13680</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="313">
                   <c:v>14600</c:v>
@@ -32054,7 +32054,7 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="316">
                   <c:v>14600</c:v>
@@ -42084,22 +42084,22 @@
                   <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>10200</c:v>
+                  <c:v>13680</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="288">
                   <c:v>14600</c:v>
@@ -42108,7 +42108,7 @@
                   <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="291">
                   <c:v>14600</c:v>
@@ -42117,34 +42117,34 @@
                   <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>12800</c:v>
+                  <c:v>14680</c:v>
                 </c:pt>
                 <c:pt idx="295">
                   <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>10780</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>10780</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="298">
                   <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>15400</c:v>
+                  <c:v>18480</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>15400</c:v>
+                  <c:v>18480</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>14900</c:v>
+                  <c:v>17880</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>11450</c:v>
+                  <c:v>17880</c:v>
                 </c:pt>
                 <c:pt idx="303">
                   <c:v>3600</c:v>
@@ -44664,8 +44664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A842" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B855" sqref="B855"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1464" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1492" sqref="F1492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44747,7 +44747,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -45062,7 +45062,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
@@ -45116,7 +45116,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1">
@@ -45152,7 +45152,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1">
@@ -45176,7 +45176,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1">
@@ -45253,7 +45253,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
@@ -45293,7 +45293,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
@@ -46176,7 +46176,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1">
@@ -46368,7 +46368,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -46378,7 +46378,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1">
@@ -46460,7 +46460,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1">
@@ -46988,7 +46988,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1">
@@ -47020,7 +47020,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1">
@@ -47034,7 +47034,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1">
@@ -47048,7 +47048,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1">
@@ -47128,7 +47128,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="1">
@@ -47160,7 +47160,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="1">
@@ -47604,7 +47604,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="1">
@@ -48020,13 +48020,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>874</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="1">
@@ -48300,7 +48300,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="1">
@@ -48560,7 +48560,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="1">
@@ -48888,7 +48888,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>158</v>
@@ -49479,7 +49479,7 @@
         <v>247</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="1">
@@ -49494,10 +49494,10 @@
         <v>808</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="1">
@@ -49549,7 +49549,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="1">
@@ -49657,7 +49657,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="1">
@@ -49671,7 +49671,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="1">
@@ -49685,7 +49685,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="1">
@@ -49740,7 +49740,7 @@
         <v>5</v>
       </c>
       <c r="F324" s="1">
-        <v>10200</v>
+        <v>13680</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -49770,7 +49770,7 @@
         <v>4</v>
       </c>
       <c r="F327" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -49784,7 +49784,7 @@
         <v>4</v>
       </c>
       <c r="F328" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -49798,7 +49798,7 @@
         <v>8</v>
       </c>
       <c r="F329" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -49812,7 +49812,7 @@
         <v>12</v>
       </c>
       <c r="F330" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -49826,7 +49826,7 @@
         <v>4</v>
       </c>
       <c r="F331" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -49849,7 +49849,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="1">
@@ -49872,7 +49872,7 @@
         <v>3</v>
       </c>
       <c r="F334" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -49881,7 +49881,7 @@
         <v>179</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="1">
@@ -49916,7 +49916,7 @@
         <v>5</v>
       </c>
       <c r="F337" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -49930,7 +49930,7 @@
         <v>13</v>
       </c>
       <c r="F338" s="1">
-        <v>12800</v>
+        <v>14680</v>
       </c>
       <c r="J338" t="s">
         <v>254</v>
@@ -49965,7 +49965,7 @@
         <v>3</v>
       </c>
       <c r="F340" s="1">
-        <v>10780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -49981,14 +49981,14 @@
         <v>7</v>
       </c>
       <c r="F341" s="1">
-        <v>10780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="1">
@@ -50011,7 +50011,7 @@
         <v>3</v>
       </c>
       <c r="F343" s="1">
-        <v>15400</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -50027,7 +50027,7 @@
         <v>26</v>
       </c>
       <c r="F344" s="1">
-        <v>15400</v>
+        <v>18480</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -50043,7 +50043,7 @@
         <v>62</v>
       </c>
       <c r="F345" s="1">
-        <v>14900</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -50059,7 +50059,7 @@
         <v>1</v>
       </c>
       <c r="F346" s="1">
-        <v>11450</v>
+        <v>17880</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -50068,7 +50068,7 @@
         <v>299</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="1">
@@ -50100,7 +50100,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="1">
@@ -50173,7 +50173,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="1"/>
@@ -50199,7 +50199,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="1">
@@ -50245,7 +50245,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="1">
@@ -50259,7 +50259,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="1">
@@ -50273,7 +50273,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="1">
@@ -50287,7 +50287,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="1">
@@ -50301,7 +50301,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="1">
@@ -50317,7 +50317,7 @@
         <v>299</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="1">
@@ -50333,7 +50333,7 @@
         <v>395</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="1">
@@ -50361,7 +50361,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="1">
@@ -50376,10 +50376,10 @@
         <v>810</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="1">
@@ -50435,10 +50435,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="1">
@@ -50451,10 +50451,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="1">
@@ -50556,7 +50556,7 @@
         <v>79</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="1"/>
@@ -50565,10 +50565,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>828</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>829</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="1"/>
@@ -50578,7 +50578,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="1">
@@ -50592,7 +50592,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="1">
@@ -50606,7 +50606,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="1">
@@ -50620,7 +50620,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="1">
@@ -50632,11 +50632,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="1">
@@ -50652,7 +50652,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="1">
@@ -50664,11 +50664,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="1">
@@ -50684,7 +50684,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="1">
@@ -50696,11 +50696,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="1">
@@ -50716,7 +50716,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="1">
@@ -50890,7 +50890,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="1">
@@ -51080,11 +51080,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="1">
@@ -51096,11 +51096,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="1">
@@ -51512,7 +51512,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="1">
@@ -51638,7 +51638,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="1">
@@ -51652,7 +51652,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="1">
@@ -51666,7 +51666,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="1">
@@ -51680,7 +51680,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="1">
@@ -51694,7 +51694,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="1">
@@ -51708,7 +51708,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="1">
@@ -51722,7 +51722,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="1">
@@ -51778,7 +51778,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="1">
@@ -51792,7 +51792,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="1">
@@ -51920,7 +51920,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="1">
@@ -52032,7 +52032,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="1">
@@ -52134,7 +52134,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="1">
@@ -52156,7 +52156,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="1">
@@ -52188,7 +52188,7 @@
         <v>373</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="1">
@@ -52202,7 +52202,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="1">
@@ -52308,7 +52308,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="1">
@@ -52324,7 +52324,7 @@
         <v>299</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="1">
@@ -52652,7 +52652,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="1">
@@ -52843,16 +52843,10 @@
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
-      <c r="C548" s="5" t="s">
-        <v>779</v>
-      </c>
+      <c r="C548" s="5"/>
       <c r="D548" s="5"/>
-      <c r="E548" s="1">
-        <v>1</v>
-      </c>
-      <c r="F548" s="1">
-        <v>10180</v>
-      </c>
+      <c r="E548" s="1"/>
+      <c r="F548" s="1"/>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
@@ -52882,7 +52876,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D552" s="5"/>
       <c r="E552" s="1">
@@ -52896,7 +52890,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="1">
@@ -52910,7 +52904,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="1">
@@ -52932,7 +52926,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="1">
@@ -52946,7 +52940,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D557" s="5"/>
       <c r="E557" s="1">
@@ -53184,7 +53178,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D583" s="5"/>
       <c r="E583" s="1"/>
@@ -53532,7 +53526,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="1">
@@ -53680,7 +53674,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D626" s="5"/>
       <c r="E626" s="1">
@@ -53693,7 +53687,7 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C627" s="5" t="s">
         <v>434</v>
@@ -53724,7 +53718,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D629" s="5"/>
       <c r="E629" s="1">
@@ -53738,7 +53732,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D630" s="5"/>
       <c r="E630" s="1"/>
@@ -53868,7 +53862,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D639" s="5"/>
       <c r="E639" s="1">
@@ -53882,7 +53876,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D640" s="5"/>
       <c r="E640" s="1">
@@ -53912,7 +53906,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D642" s="5"/>
       <c r="E642" s="1">
@@ -53926,7 +53920,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D643" s="5"/>
       <c r="E643" s="1">
@@ -53972,7 +53966,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D646" s="5"/>
       <c r="E646" s="1">
@@ -53986,7 +53980,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D647" s="5"/>
       <c r="E647" s="1">
@@ -54000,7 +53994,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D648" s="5"/>
       <c r="E648" s="1">
@@ -54014,7 +54008,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D649" s="5"/>
       <c r="E649" s="1">
@@ -54028,7 +54022,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D650" s="5"/>
       <c r="E650" s="1">
@@ -54042,7 +54036,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D651" s="5"/>
       <c r="E651" s="1">
@@ -54066,7 +54060,7 @@
         <v>407</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="1">
@@ -54082,7 +54076,7 @@
         <v>373</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="1">
@@ -54098,7 +54092,7 @@
         <v>407</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="1">
@@ -54114,7 +54108,7 @@
         <v>407</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="1">
@@ -54130,7 +54124,7 @@
         <v>407</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D657" s="5"/>
       <c r="E657" s="1">
@@ -54144,7 +54138,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D658" s="5"/>
       <c r="E658" s="1">
@@ -54298,7 +54292,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="1">
@@ -54312,7 +54306,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="1">
@@ -54326,7 +54320,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="1">
@@ -54390,7 +54384,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D681" s="5"/>
       <c r="E681" s="1">
@@ -54404,7 +54398,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D682" s="5"/>
       <c r="E682" s="1">
@@ -54418,7 +54412,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D683" s="5"/>
       <c r="E683" s="1">
@@ -54432,7 +54426,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D684" s="5"/>
       <c r="E684" s="1">
@@ -54446,7 +54440,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="1">
@@ -54460,7 +54454,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D686" s="5"/>
       <c r="E686" s="1">
@@ -54501,10 +54495,10 @@
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D689" s="5"/>
       <c r="E689" s="1">
@@ -54517,10 +54511,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D690" s="5"/>
       <c r="E690" s="1">
@@ -54672,7 +54666,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D701" s="5"/>
       <c r="E701" s="1">
@@ -54686,7 +54680,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D702" s="5"/>
       <c r="E702" s="1">
@@ -54700,7 +54694,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D703" s="5"/>
       <c r="E703" s="1">
@@ -54885,13 +54879,13 @@
         <v>5</v>
       </c>
       <c r="F723" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="1">
@@ -54904,7 +54898,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="1">
@@ -54917,7 +54911,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D726" s="5"/>
       <c r="E726" s="1">
@@ -55043,13 +55037,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D737" s="5"/>
       <c r="E737" s="1">
@@ -55061,13 +55055,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="1">
@@ -55079,13 +55073,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="1">
@@ -55100,10 +55094,10 @@
         <v>767</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C740" s="5" t="s">
         <v>898</v>
-      </c>
-      <c r="C740" s="5" t="s">
-        <v>899</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="1">
@@ -55121,7 +55115,7 @@
         <v>61</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="1">
@@ -55133,13 +55127,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D742" s="5"/>
       <c r="E742" s="1">
@@ -55151,13 +55145,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>901</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>903</v>
-      </c>
       <c r="C743" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D743" s="5"/>
       <c r="E743" s="1">
@@ -55169,10 +55163,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C744" s="5" t="s">
         <v>903</v>
-      </c>
-      <c r="C744" s="5" t="s">
-        <v>904</v>
       </c>
       <c r="D744" s="5"/>
       <c r="E744" s="1">
@@ -55184,10 +55178,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D745" s="5"/>
       <c r="E745" s="1">
@@ -55200,7 +55194,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D746" s="5"/>
       <c r="E746" s="1">
@@ -55267,7 +55261,7 @@
         <v>247</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D754" s="5"/>
       <c r="E754" s="1">
@@ -55283,7 +55277,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
@@ -55297,7 +55291,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
@@ -55311,7 +55305,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="1">
@@ -55327,7 +55321,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="1">
@@ -55342,7 +55336,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D759" s="5"/>
       <c r="E759">
@@ -55371,7 +55365,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D761" s="5"/>
       <c r="E761" s="1">
@@ -55402,7 +55396,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D763" s="5"/>
       <c r="E763" s="1">
@@ -55444,7 +55438,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="1">
@@ -55556,11 +55550,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="1">
@@ -55812,7 +55806,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D791" s="5"/>
       <c r="E791" s="1">
@@ -55825,7 +55819,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="1">
@@ -55838,7 +55832,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D793" s="5"/>
       <c r="E793" s="1">
@@ -55851,7 +55845,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D794" s="5"/>
       <c r="E794" s="1">
@@ -55864,7 +55858,7 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D795" s="5"/>
       <c r="E795" s="1">
@@ -55877,7 +55871,7 @@
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D796" s="5"/>
       <c r="E796" s="1">
@@ -55888,7 +55882,7 @@
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D797" s="5"/>
       <c r="E797" s="1">
@@ -56299,7 +56293,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D836" s="5"/>
       <c r="E836" s="1">
@@ -56370,7 +56364,7 @@
         <v>36</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D845" s="5"/>
       <c r="E845" s="1">
@@ -56398,7 +56392,7 @@
         <v>606</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D847" s="5"/>
       <c r="E847" s="1">
@@ -56413,7 +56407,7 @@
         <v>606</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D848" s="5"/>
       <c r="E848" s="1">
@@ -56423,12 +56417,12 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C849" s="5" t="s">
         <v>908</v>
-      </c>
-      <c r="C849" s="5" t="s">
-        <v>909</v>
       </c>
       <c r="D849" s="5"/>
       <c r="E849" s="1">
@@ -56438,12 +56432,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
-        <v>474</v>
+        <v>606</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D850" s="5"/>
       <c r="E850" s="1">
@@ -56453,10 +56447,10 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D851" s="5"/>
       <c r="E851" s="1">
@@ -56466,10 +56460,10 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
       <c r="C852" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D852" s="5"/>
       <c r="E852" s="1">
@@ -56479,14 +56473,14 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B853" s="1"/>
       <c r="C853" s="5"/>
       <c r="D853" s="5"/>
       <c r="E853" s="1"/>
       <c r="F853" s="1"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="5" t="s">
         <v>520</v>
@@ -56499,15 +56493,15 @@
         <v>4780</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>739</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D855" s="5"/>
       <c r="E855" s="1">
@@ -56517,15 +56511,15 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>276</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D856" s="5"/>
       <c r="E856" s="1">
@@ -56534,43 +56528,46 @@
       <c r="F856" s="1">
         <v>29000</v>
       </c>
-    </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G856" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B857" s="1"/>
       <c r="C857" s="5"/>
       <c r="D857" s="5"/>
       <c r="E857" s="1"/>
       <c r="F857" s="1"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B858" s="1"/>
       <c r="C858" s="5"/>
       <c r="D858" s="5"/>
       <c r="E858" s="1"/>
       <c r="F858" s="1"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B859" s="1"/>
       <c r="C859" s="5"/>
       <c r="D859" s="5"/>
       <c r="E859" s="1"/>
       <c r="F859" s="1"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B860" s="1"/>
       <c r="C860" s="5"/>
       <c r="D860" s="5"/>
       <c r="E860" s="1"/>
       <c r="F860" s="1"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B861" s="1"/>
       <c r="C861" s="5"/>
       <c r="D861" s="5"/>
       <c r="E861" s="1"/>
       <c r="F861" s="1"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="5" t="s">
         <v>521</v>
@@ -56581,14 +56578,14 @@
       </c>
       <c r="F862" s="1"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B863" s="1"/>
       <c r="C863" s="5"/>
       <c r="D863" s="5"/>
       <c r="E863" s="1"/>
       <c r="F863" s="1"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B864" s="1"/>
       <c r="C864" s="5"/>
       <c r="D864" s="5"/>
@@ -56626,7 +56623,7 @@
         <v>3</v>
       </c>
       <c r="F868" s="1">
-        <v>10000</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
@@ -56639,7 +56636,7 @@
         <v>14</v>
       </c>
       <c r="F869" s="1">
-        <v>13000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="870" spans="2:6" x14ac:dyDescent="0.25">
@@ -56897,79 +56894,79 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D906" s="5"/>
       <c r="E906" s="1">
         <v>1</v>
       </c>
       <c r="F906" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D907" s="5"/>
       <c r="E907" s="1">
         <v>1</v>
       </c>
       <c r="F907" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="1">
         <v>1</v>
       </c>
       <c r="F908" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D909" s="5"/>
       <c r="E909" s="1">
         <v>1</v>
       </c>
       <c r="F909" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="910" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B910" s="1"/>
       <c r="C910" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D910" s="5"/>
       <c r="E910" s="1">
         <v>1</v>
       </c>
       <c r="F910" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D911" s="5"/>
       <c r="E911" s="1">
         <v>1</v>
       </c>
       <c r="F911" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="912" spans="2:6" x14ac:dyDescent="0.25">
@@ -56984,7 +56981,7 @@
         <v>3</v>
       </c>
       <c r="F912" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="913" spans="2:6" x14ac:dyDescent="0.25">
@@ -56999,7 +56996,7 @@
         <v>12</v>
       </c>
       <c r="F913" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
@@ -57012,7 +57009,7 @@
         <v>4</v>
       </c>
       <c r="F914" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
@@ -57025,7 +57022,7 @@
         <v>3</v>
       </c>
       <c r="F915" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="916" spans="2:6" x14ac:dyDescent="0.25">
@@ -57033,14 +57030,14 @@
         <v>7184</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D916" s="5"/>
       <c r="E916" s="1">
         <v>4</v>
       </c>
       <c r="F916" s="1">
-        <v>13000</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="917" spans="2:6" x14ac:dyDescent="0.25">
@@ -57055,7 +57052,7 @@
         <v>28</v>
       </c>
       <c r="F917" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="918" spans="2:6" x14ac:dyDescent="0.25">
@@ -57146,7 +57143,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D927" s="5"/>
       <c r="E927" s="1">
@@ -57742,7 +57739,7 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995">
@@ -57864,7 +57861,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D1004" s="5"/>
       <c r="F1004" s="1">
@@ -57874,7 +57871,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D1005" s="5"/>
       <c r="E1005">
@@ -58010,7 +58007,7 @@
         <v>22</v>
       </c>
       <c r="F1013" s="1">
-        <v>10780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
@@ -58169,7 +58166,7 @@
         <v>7</v>
       </c>
       <c r="F1026" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1027" spans="2:6" x14ac:dyDescent="0.25">
@@ -58184,20 +58181,20 @@
         <v>17</v>
       </c>
       <c r="F1027" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D1028" s="5"/>
       <c r="E1028">
         <v>1</v>
       </c>
       <c r="F1028" s="1">
-        <v>13200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1029" spans="2:6" x14ac:dyDescent="0.25">
@@ -58212,20 +58209,20 @@
         <v>10</v>
       </c>
       <c r="F1029" s="1">
-        <v>12000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D1030" s="5"/>
       <c r="E1030">
         <v>1</v>
       </c>
       <c r="F1030" s="1">
-        <v>13200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1031" spans="2:6" x14ac:dyDescent="0.25">
@@ -58238,7 +58235,7 @@
         <v>15</v>
       </c>
       <c r="F1031" s="1">
-        <v>10780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1032" spans="2:6" x14ac:dyDescent="0.25">
@@ -58251,7 +58248,7 @@
         <v>15</v>
       </c>
       <c r="F1032" s="1">
-        <v>13150</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1033" spans="2:6" x14ac:dyDescent="0.25">
@@ -58266,7 +58263,7 @@
         <v>14</v>
       </c>
       <c r="F1033" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1034" spans="2:6" x14ac:dyDescent="0.25">
@@ -58281,7 +58278,7 @@
         <v>6</v>
       </c>
       <c r="F1034" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1035" spans="2:6" x14ac:dyDescent="0.25">
@@ -58323,7 +58320,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D1041" s="5"/>
       <c r="E1041">
@@ -58365,7 +58362,7 @@
         <v>184</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D1046" s="5"/>
       <c r="E1046">
@@ -58428,7 +58425,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>158</v>
@@ -58447,7 +58444,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D1051" s="5"/>
       <c r="E1051">
@@ -58834,7 +58831,7 @@
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D1074" s="5"/>
       <c r="E1074">
@@ -58866,7 +58863,7 @@
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D1077" s="5"/>
       <c r="E1077">
@@ -59008,7 +59005,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D1089" s="5"/>
       <c r="E1089">
@@ -59036,7 +59033,7 @@
         <v>1</v>
       </c>
       <c r="F1091" s="1">
-        <v>15100</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="1092" spans="2:6" x14ac:dyDescent="0.25">
@@ -59219,7 +59216,7 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D1115" s="5"/>
       <c r="E1115">
@@ -59271,7 +59268,7 @@
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1119" s="5"/>
       <c r="E1119">
@@ -59297,7 +59294,7 @@
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121">
@@ -59310,7 +59307,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1122" s="5"/>
       <c r="E1122">
@@ -59323,7 +59320,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D1123" s="5"/>
       <c r="E1123">
@@ -59336,7 +59333,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D1124" s="5"/>
       <c r="E1124">
@@ -59349,7 +59346,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1125" s="5"/>
       <c r="E1125">
@@ -59362,7 +59359,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1126" s="5"/>
       <c r="E1126">
@@ -59375,7 +59372,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D1127" s="5"/>
       <c r="E1127">
@@ -59388,7 +59385,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1128" s="5"/>
       <c r="E1128">
@@ -59401,7 +59398,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1129" s="5"/>
       <c r="E1129">
@@ -59414,7 +59411,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1130" s="5"/>
       <c r="E1130">
@@ -59427,7 +59424,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1131" s="5"/>
       <c r="E1131">
@@ -59475,7 +59472,7 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D1134" s="5"/>
       <c r="E1134">
@@ -59593,7 +59590,7 @@
         <v>1</v>
       </c>
       <c r="F1144" s="1">
-        <v>8800</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
@@ -59612,7 +59609,7 @@
         <v>2</v>
       </c>
       <c r="F1146" s="1">
-        <v>8800</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
@@ -59625,7 +59622,7 @@
         <v>2</v>
       </c>
       <c r="F1147" s="1">
-        <v>8800</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
@@ -59638,7 +59635,7 @@
         <v>3</v>
       </c>
       <c r="F1148" s="1">
-        <v>8800</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
@@ -59674,7 +59671,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D1154" s="5"/>
       <c r="E1154">
@@ -59687,7 +59684,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D1155" s="5"/>
       <c r="E1155">
@@ -59867,7 +59864,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D1178" s="5"/>
       <c r="E1178">
@@ -59878,7 +59875,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1179" s="5"/>
       <c r="E1179">
@@ -59891,7 +59888,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D1180" s="5"/>
       <c r="E1180">
@@ -59904,7 +59901,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D1181" s="5"/>
       <c r="E1181">
@@ -59917,7 +59914,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D1182" s="5"/>
       <c r="E1182">
@@ -59936,7 +59933,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D1184" s="5"/>
       <c r="E1184">
@@ -59988,7 +59985,7 @@
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1188" s="5"/>
       <c r="E1188">
@@ -60194,7 +60191,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D1213" s="5"/>
       <c r="E1213">
@@ -60351,7 +60348,7 @@
         <v>650</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C1233" s="5" t="s">
         <v>651</v>
@@ -60686,7 +60683,7 @@
         <v>3</v>
       </c>
       <c r="F1271" s="1">
-        <v>6980</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
@@ -60705,7 +60702,7 @@
         <v>5</v>
       </c>
       <c r="F1273" s="1">
-        <v>8780</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
@@ -60718,7 +60715,7 @@
         <v>1</v>
       </c>
       <c r="F1274" s="1">
-        <v>8780</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
@@ -60731,7 +60728,7 @@
         <v>3</v>
       </c>
       <c r="F1275" s="1">
-        <v>6980</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
@@ -60744,7 +60741,7 @@
         <v>12</v>
       </c>
       <c r="F1276" s="1">
-        <v>8780</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
@@ -60757,7 +60754,7 @@
         <v>13</v>
       </c>
       <c r="F1277" s="1">
-        <v>8780</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
@@ -61098,7 +61095,7 @@
         <v>5</v>
       </c>
       <c r="F1308" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1309" spans="2:6" x14ac:dyDescent="0.25">
@@ -61429,7 +61426,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1337" s="5"/>
       <c r="E1337">
@@ -61442,7 +61439,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D1338" s="5"/>
       <c r="E1338">
@@ -61474,7 +61471,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D1341" s="5"/>
       <c r="E1341">
@@ -61487,7 +61484,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1342" s="5"/>
       <c r="E1342">
@@ -61500,7 +61497,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D1343" s="5"/>
       <c r="E1343">
@@ -61513,7 +61510,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1344" s="5"/>
       <c r="E1344">
@@ -61622,14 +61619,14 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D1354" s="5"/>
       <c r="E1354">
         <v>10</v>
       </c>
       <c r="F1354" s="1">
-        <v>14200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="1355" spans="2:6" x14ac:dyDescent="0.25">
@@ -61712,14 +61709,14 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1364" s="5"/>
       <c r="E1364" s="1">
         <v>1</v>
       </c>
       <c r="F1364" s="1">
-        <v>6900</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
@@ -61738,7 +61735,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D1366" s="5"/>
       <c r="E1366" s="1">
@@ -61751,7 +61748,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1367" s="5"/>
       <c r="E1367" s="1">
@@ -61821,7 +61818,7 @@
         <v>5</v>
       </c>
       <c r="F1372" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
@@ -61834,7 +61831,7 @@
         <v>4</v>
       </c>
       <c r="F1373" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
@@ -61858,7 +61855,7 @@
         <v>8</v>
       </c>
       <c r="F1375" s="1">
-        <v>6500</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
@@ -61871,13 +61868,13 @@
         <v>5</v>
       </c>
       <c r="F1376" s="1">
-        <v>6400</v>
+        <v>7680</v>
       </c>
     </row>
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1377" s="5"/>
       <c r="E1377" s="1">
@@ -61890,7 +61887,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D1378" s="5"/>
       <c r="E1378" s="1">
@@ -61910,7 +61907,7 @@
         <v>3</v>
       </c>
       <c r="F1379" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
@@ -61923,7 +61920,7 @@
         <v>5</v>
       </c>
       <c r="F1380" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
@@ -61936,26 +61933,26 @@
         <v>1</v>
       </c>
       <c r="F1381" s="1">
-        <v>12500</v>
+        <v>14680</v>
       </c>
     </row>
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1382" s="5"/>
       <c r="E1382" s="1">
         <v>1</v>
       </c>
       <c r="F1382" s="1">
-        <v>10400</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1383" s="5"/>
       <c r="E1383" s="1">
@@ -61968,7 +61965,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1384" s="5"/>
       <c r="E1384" s="1">
@@ -61981,33 +61978,33 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D1385" s="5"/>
       <c r="E1385" s="1">
         <v>1</v>
       </c>
       <c r="F1385" s="1">
-        <v>9000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D1386" s="5"/>
       <c r="E1386" s="1">
         <v>1</v>
       </c>
       <c r="F1386" s="1">
-        <v>6900</v>
+        <v>8280</v>
       </c>
     </row>
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D1387" s="5"/>
       <c r="E1387" s="1">
@@ -62020,7 +62017,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1388" s="5"/>
       <c r="E1388" s="1">
@@ -62033,7 +62030,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1389" s="5"/>
       <c r="E1389" s="1">
@@ -62079,7 +62076,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D1393" s="5"/>
       <c r="E1393" s="1">
@@ -62144,7 +62141,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D1398" s="5"/>
       <c r="E1398" s="1">
@@ -62164,7 +62161,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D1400" s="5"/>
       <c r="E1400" s="1">
@@ -62177,7 +62174,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D1401" s="5"/>
       <c r="E1401" s="1">
@@ -62343,14 +62340,14 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D1415" s="5"/>
       <c r="E1415" s="1">
         <v>1</v>
       </c>
       <c r="F1415" s="1">
-        <v>9000</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="1416" spans="2:6" x14ac:dyDescent="0.25">
@@ -62442,7 +62439,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D1424" s="5"/>
       <c r="E1424" s="1">
@@ -62455,7 +62452,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D1425" s="5"/>
       <c r="E1425" s="1">
@@ -62482,7 +62479,7 @@
         <v>10</v>
       </c>
       <c r="F1427" s="1">
-        <v>8800</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
@@ -62495,7 +62492,7 @@
         <v>8</v>
       </c>
       <c r="F1428" s="1">
-        <v>5980</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="1429" spans="2:6" x14ac:dyDescent="0.25">
@@ -62530,13 +62527,13 @@
         <v>1</v>
       </c>
       <c r="F1432" s="1">
-        <v>10780</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D1433" s="5"/>
       <c r="E1433">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB16546B-50DF-4CBA-ADC7-BA701D0002F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0D474C-CA67-4DE6-A649-55B55015CFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1027">
   <si>
     <t>Articulo</t>
   </si>
@@ -3104,6 +3104,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>42 al 48</t>
+  </si>
+  <si>
+    <t>pantalon trabajo mensual</t>
   </si>
 </sst>
 </file>
@@ -3684,6 +3690,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -4460,6 +4469,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -5022,6 +5034,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -5799,6 +5814,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -6575,6 +6593,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -7137,6 +7158,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -7786,6 +7810,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1</c:v>
@@ -8772,6 +8799,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -9548,6 +9578,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -10110,6 +10143,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -11715,6 +11751,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -12491,6 +12530,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -13053,6 +13095,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -14044,6 +14089,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -14820,6 +14868,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -15382,6 +15433,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -16159,6 +16213,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -16935,6 +16992,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -17497,6 +17557,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -18146,6 +18209,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1</c:v>
@@ -19132,6 +19198,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -19908,6 +19977,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -20470,6 +20542,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -22075,6 +22150,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -22851,6 +22929,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -23413,6 +23494,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -24404,6 +24488,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -25180,6 +25267,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -25742,6 +25832,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -26519,6 +26612,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -27295,6 +27391,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -27857,6 +27956,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -28506,6 +28608,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1</c:v>
@@ -29492,6 +29597,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -30268,6 +30376,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -30830,6 +30941,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -32435,6 +32549,9 @@
                   <c:pt idx="92">
                     <c:v>SOQUETES NIKE </c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>pantalon trabajo mensual</c:v>
+                  </c:pt>
                   <c:pt idx="94">
                     <c:v>soquete jordan </c:v>
                   </c:pt>
@@ -33211,6 +33328,9 @@
                   <c:pt idx="87">
                     <c:v>talle 1 al 3</c:v>
                   </c:pt>
+                  <c:pt idx="93">
+                    <c:v>42 al 48</c:v>
+                  </c:pt>
                   <c:pt idx="99">
                     <c:v>20 AL 33</c:v>
                   </c:pt>
@@ -33773,6 +33893,9 @@
                   </c:pt>
                   <c:pt idx="87">
                     <c:v>913</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>105</c:v>
                   </c:pt>
                   <c:pt idx="99">
                     <c:v>212</c:v>
@@ -34619,6 +34742,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -35238,6 +35364,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
@@ -36170,6 +36299,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -36855,6 +36987,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
@@ -38144,6 +38279,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -38924,6 +39062,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -39601,6 +39742,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>1</c:v>
@@ -40856,6 +41000,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -42668,6 +42815,9 @@
                 <c:pt idx="62">
                   <c:v>913</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
+                </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
                 </c:pt>
@@ -43456,6 +43606,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>212</c:v>
@@ -44661,8 +44814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A892" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C910" sqref="C910:D910"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A107" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46328,11 +46481,19 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="6"/>
+      <c r="A112" s="1">
+        <v>105</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>1026</v>
+      </c>
       <c r="D112" s="6"/>
-      <c r="E112" s="1"/>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18E04E6-F2C1-489B-B87A-D839B1A3472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB17156F-49CE-4327-B04D-4AD7E450C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10804,6 +10804,9 @@
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14100</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>520</c:v>
@@ -21204,6 +21207,9 @@
                 <c:pt idx="92">
                   <c:v>230</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>14100</c:v>
+                </c:pt>
                 <c:pt idx="94">
                   <c:v>520</c:v>
                 </c:pt>
@@ -31603,6 +31609,9 @@
                 <c:pt idx="92">
                   <c:v>230</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>14100</c:v>
+                </c:pt>
                 <c:pt idx="94">
                   <c:v>520</c:v>
                 </c:pt>
@@ -41689,6 +41698,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14100</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>520</c:v>
@@ -44814,8 +44826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1422" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F1436" sqref="F1436"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A98" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46494,7 +46506,9 @@
       <c r="E112" s="1">
         <v>1</v>
       </c>
-      <c r="F112" s="1"/>
+      <c r="F112" s="1">
+        <v>14100</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB17156F-49CE-4327-B04D-4AD7E450C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C6194-85D2-4713-A49B-C578A0E89285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10578,7 +10578,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1280</c:v>
@@ -10617,7 +10617,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>980</c:v>
@@ -11256,37 +11256,37 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>23540</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>13310</c:v>
+                  <c:v>18970</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>36970</c:v>
+                  <c:v>44750</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10100</c:v>
+                  <c:v>15740</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>43130</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>13000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>11470</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>16100</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>6200</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>26580</c:v>
+                  <c:v>32160</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>10900</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>32800</c:v>
@@ -20980,7 +20980,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1280</c:v>
@@ -21019,7 +21019,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>980</c:v>
@@ -21658,37 +21658,37 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>23540</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>13310</c:v>
+                  <c:v>18970</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>36970</c:v>
+                  <c:v>44750</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10100</c:v>
+                  <c:v>15740</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>43130</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>13000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>11470</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>16100</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>6200</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>26580</c:v>
+                  <c:v>32160</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>10900</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>32800</c:v>
@@ -31382,7 +31382,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1280</c:v>
@@ -31421,7 +31421,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>980</c:v>
@@ -32060,37 +32060,37 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>23540</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>13310</c:v>
+                  <c:v>18970</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>36970</c:v>
+                  <c:v>44750</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>10100</c:v>
+                  <c:v>15740</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>43130</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>13000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>11470</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>16100</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>6200</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>26580</c:v>
+                  <c:v>32160</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>10900</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="278">
                   <c:v>32800</c:v>
@@ -40820,7 +40820,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1280</c:v>
@@ -40859,7 +40859,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>980</c:v>
@@ -42150,37 +42150,37 @@
                   <c:v>7900</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>23540</c:v>
+                  <c:v>28500</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>13310</c:v>
+                  <c:v>18970</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>36970</c:v>
+                  <c:v>44750</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>10100</c:v>
+                  <c:v>15740</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>43130</c:v>
+                  <c:v>52200</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>13000</c:v>
+                  <c:v>19000</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>11470</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>16100</c:v>
+                  <c:v>19500</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>6200</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>26580</c:v>
+                  <c:v>32160</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>10900</c:v>
+                  <c:v>13400</c:v>
                 </c:pt>
                 <c:pt idx="253">
                   <c:v>32800</c:v>
@@ -42638,7 +42638,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1280</c:v>
@@ -42677,7 +42677,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>980</c:v>
@@ -43430,7 +43430,7 @@
                   <c:v>24600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9750</c:v>
+                  <c:v>12770</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1280</c:v>
@@ -43469,7 +43469,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45200</c:v>
+                  <c:v>54730</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>980</c:v>
@@ -44826,8 +44826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A98" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45249,7 +45249,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="1">
-        <v>9750</v>
+        <v>12770</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -45422,7 +45422,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>45200</v>
+        <v>54730</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -49384,7 +49384,7 @@
         <v>1</v>
       </c>
       <c r="F284" s="1">
-        <v>23540</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -49400,7 +49400,7 @@
         <v>4</v>
       </c>
       <c r="F285" s="1">
-        <v>13310</v>
+        <v>18970</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -49416,7 +49416,7 @@
         <v>1</v>
       </c>
       <c r="F286" s="1">
-        <v>36970</v>
+        <v>44750</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -49432,7 +49432,7 @@
         <v>1</v>
       </c>
       <c r="F287" s="1">
-        <v>10100</v>
+        <v>15740</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -49446,7 +49446,7 @@
         <v>1</v>
       </c>
       <c r="F288" s="1">
-        <v>43130</v>
+        <v>52200</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -49462,7 +49462,7 @@
         <v>2</v>
       </c>
       <c r="F289" s="1">
-        <v>13000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -49476,7 +49476,7 @@
         <v>1</v>
       </c>
       <c r="F290" s="1">
-        <v>11470</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -49492,7 +49492,7 @@
         <v>2</v>
       </c>
       <c r="F291" s="1">
-        <v>16100</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -49514,7 +49514,7 @@
         <v>1</v>
       </c>
       <c r="F293" s="1">
-        <v>6200</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -49528,7 +49528,7 @@
         <v>1</v>
       </c>
       <c r="F294" s="1">
-        <v>26580</v>
+        <v>32160</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -49550,7 +49550,7 @@
         <v>1</v>
       </c>
       <c r="F296" s="1">
-        <v>10900</v>
+        <v>13400</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70C6194-85D2-4713-A49B-C578A0E89285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF6FDD6-E22B-4705-8410-6F42B05FED14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="1026">
   <si>
     <t>Articulo</t>
   </si>
@@ -1304,9 +1304,6 @@
   </si>
   <si>
     <t>meninos chaleco con corderito bebe</t>
-  </si>
-  <si>
-    <t>cortina ambiente fioco</t>
   </si>
   <si>
     <t>41 al 46</t>
@@ -11292,19 +11289,19 @@
                   <c:v>32800</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>23000</c:v>
+                  <c:v>27860</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>6700</c:v>
+                  <c:v>8140</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>880</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>23000</c:v>
@@ -11313,25 +11310,25 @@
                   <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>21980</c:v>
+                  <c:v>32100</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9980</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>9790</c:v>
+                  <c:v>11870</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3450</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>4500</c:v>
@@ -11343,10 +11340,10 @@
                   <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>5900</c:v>
+                  <c:v>7170</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12680</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>14680</c:v>
@@ -21694,19 +21691,19 @@
                   <c:v>32800</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>23000</c:v>
+                  <c:v>27860</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>6700</c:v>
+                  <c:v>8140</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>880</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>23000</c:v>
@@ -21715,25 +21712,25 @@
                   <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>21980</c:v>
+                  <c:v>32100</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9980</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>9790</c:v>
+                  <c:v>11870</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3450</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>4500</c:v>
@@ -21745,10 +21742,10 @@
                   <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>5900</c:v>
+                  <c:v>7170</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12680</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>14680</c:v>
@@ -32096,19 +32093,19 @@
                   <c:v>32800</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>23000</c:v>
+                  <c:v>27860</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>6700</c:v>
+                  <c:v>8140</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>880</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="284">
                   <c:v>23000</c:v>
@@ -32117,25 +32114,25 @@
                   <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>21980</c:v>
+                  <c:v>32100</c:v>
                 </c:pt>
                 <c:pt idx="290">
                   <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>9980</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>9790</c:v>
+                  <c:v>11870</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3450</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="299">
                   <c:v>4500</c:v>
@@ -32147,10 +32144,10 @@
                   <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>5900</c:v>
+                  <c:v>7170</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>12680</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="308">
                   <c:v>14680</c:v>
@@ -42186,19 +42183,19 @@
                   <c:v>32800</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>23000</c:v>
+                  <c:v>27860</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>18300</c:v>
+                  <c:v>22150</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>6700</c:v>
+                  <c:v>8140</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>880</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="259">
                   <c:v>23000</c:v>
@@ -42207,25 +42204,25 @@
                   <c:v>24400</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>21980</c:v>
+                  <c:v>32100</c:v>
                 </c:pt>
                 <c:pt idx="265">
                   <c:v>780</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>9980</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>9900</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>9790</c:v>
+                  <c:v>11870</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>3450</c:v>
+                  <c:v>4190</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>4500</c:v>
@@ -42237,10 +42234,10 @@
                   <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>5900</c:v>
+                  <c:v>7170</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>12680</c:v>
+                  <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="283">
                   <c:v>14680</c:v>
@@ -44826,8 +44823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A13" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A1106" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F1120" sqref="F1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44909,7 +44906,7 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
@@ -45224,7 +45221,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="1">
@@ -45278,7 +45275,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="1">
@@ -45290,7 +45287,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="1">
@@ -45314,7 +45311,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C33" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="1">
@@ -45326,7 +45323,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C34" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="1">
@@ -45338,7 +45335,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="1">
@@ -45415,7 +45412,7 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="1">
@@ -45455,7 +45452,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
@@ -45944,7 +45941,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -45962,7 +45959,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>74</v>
@@ -45980,7 +45977,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>93</v>
@@ -46338,7 +46335,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1">
@@ -46468,7 +46465,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="1">
@@ -46497,10 +46494,10 @@
         <v>105</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="1">
@@ -46514,7 +46511,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="1">
@@ -46540,7 +46537,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="1"/>
@@ -46550,7 +46547,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="1">
@@ -46632,7 +46629,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="1">
@@ -47160,7 +47157,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1">
@@ -47192,7 +47189,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1">
@@ -47206,7 +47203,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1">
@@ -47220,7 +47217,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1">
@@ -47300,7 +47297,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D160" s="5"/>
       <c r="E160" s="1">
@@ -47332,7 +47329,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="1">
@@ -47776,7 +47773,7 @@
         <v>57</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="1">
@@ -48192,13 +48189,13 @@
     </row>
     <row r="212" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C212" s="5" t="s">
         <v>871</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="C212" s="5" t="s">
-        <v>872</v>
       </c>
       <c r="D212" s="5"/>
       <c r="E212" s="1">
@@ -48472,7 +48469,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D228" s="5"/>
       <c r="E228" s="1">
@@ -48702,7 +48699,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D241" s="5"/>
       <c r="E241" s="1">
@@ -48716,7 +48713,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D242" s="5"/>
       <c r="E242" s="1">
@@ -48732,7 +48729,7 @@
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D243" s="5"/>
       <c r="E243" s="1">
@@ -49060,7 +49057,7 @@
         <v>9326</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>158</v>
@@ -49439,7 +49436,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D288" s="5"/>
       <c r="E288" s="1">
@@ -49469,7 +49466,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D290" s="5"/>
       <c r="E290" s="1">
@@ -49543,7 +49540,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D296" s="5"/>
       <c r="E296" s="1">
@@ -49582,7 +49579,7 @@
         <v>3</v>
       </c>
       <c r="F298" s="1">
-        <v>18300</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -49598,7 +49595,7 @@
         <v>1</v>
       </c>
       <c r="F299" s="1">
-        <v>23000</v>
+        <v>27860</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -49612,7 +49609,7 @@
         <v>2</v>
       </c>
       <c r="F300" s="1">
-        <v>18300</v>
+        <v>22150</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -49626,7 +49623,7 @@
         <v>5</v>
       </c>
       <c r="F301" s="1">
-        <v>6700</v>
+        <v>8140</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -49640,7 +49637,7 @@
         <v>16</v>
       </c>
       <c r="F302" s="1">
-        <v>880</v>
+        <v>980</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -49651,7 +49648,7 @@
         <v>247</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="1">
@@ -49666,10 +49663,10 @@
         <v>808</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D304" s="5"/>
       <c r="E304" s="1">
@@ -49683,14 +49680,14 @@
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D305" s="5"/>
       <c r="E305" s="1">
         <v>1</v>
       </c>
       <c r="F305" s="1">
-        <v>21980</v>
+        <v>32100</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -49721,7 +49718,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D309" s="5"/>
       <c r="E309" s="1">
@@ -49742,7 +49739,7 @@
         <v>1</v>
       </c>
       <c r="F310" s="1">
-        <v>9900</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -49756,7 +49753,7 @@
         <v>6</v>
       </c>
       <c r="F311" s="1">
-        <v>9980</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -49778,7 +49775,7 @@
         <v>2</v>
       </c>
       <c r="F313" s="1">
-        <v>9900</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -49792,7 +49789,7 @@
         <v>8</v>
       </c>
       <c r="F314" s="1">
-        <v>9790</v>
+        <v>11870</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -49822,14 +49819,14 @@
         <v>1</v>
       </c>
       <c r="F317" s="1">
-        <v>3450</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D318" s="5"/>
       <c r="E318" s="1">
@@ -49843,7 +49840,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D319" s="5"/>
       <c r="E319" s="1">
@@ -49857,7 +49854,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D320" s="5"/>
       <c r="E320" s="1">
@@ -49878,7 +49875,7 @@
         <v>3</v>
       </c>
       <c r="F321" s="1">
-        <v>5900</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -49912,7 +49909,7 @@
         <v>5</v>
       </c>
       <c r="F324" s="1">
-        <v>12680</v>
+        <v>12800</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -50021,7 +50018,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D333" s="5"/>
       <c r="E333" s="1">
@@ -50053,7 +50050,7 @@
         <v>179</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D335" s="5"/>
       <c r="E335" s="1">
@@ -50160,7 +50157,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D342" s="5"/>
       <c r="E342" s="1">
@@ -50240,7 +50237,7 @@
         <v>299</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D347" s="5"/>
       <c r="E347" s="1">
@@ -50272,7 +50269,7 @@
         <v>27</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D349" s="5"/>
       <c r="E349" s="1">
@@ -50345,7 +50342,7 @@
         <v>6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D355" s="5"/>
       <c r="E355" s="1"/>
@@ -50371,7 +50368,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D358" s="5"/>
       <c r="E358" s="1">
@@ -50417,7 +50414,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D361" s="5"/>
       <c r="E361" s="1">
@@ -50431,7 +50428,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D362" s="5"/>
       <c r="E362" s="1">
@@ -50445,7 +50442,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D363" s="5"/>
       <c r="E363" s="1">
@@ -50459,7 +50456,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D364" s="5"/>
       <c r="E364" s="1">
@@ -50473,7 +50470,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D365" s="5"/>
       <c r="E365" s="1">
@@ -50489,7 +50486,7 @@
         <v>299</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D366" s="5"/>
       <c r="E366" s="1">
@@ -50505,7 +50502,7 @@
         <v>395</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D367" s="5"/>
       <c r="E367" s="1">
@@ -50533,7 +50530,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D369" s="5"/>
       <c r="E369" s="1">
@@ -50548,10 +50545,10 @@
         <v>810</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D370" s="5"/>
       <c r="E370" s="1">
@@ -50607,10 +50604,10 @@
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D375" s="5"/>
       <c r="E375" s="1">
@@ -50623,10 +50620,10 @@
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D376" s="5"/>
       <c r="E376" s="1">
@@ -50728,7 +50725,7 @@
         <v>79</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="1"/>
@@ -50737,10 +50734,10 @@
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C385" s="5" t="s">
         <v>827</v>
-      </c>
-      <c r="C385" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="1"/>
@@ -50750,7 +50747,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="1">
@@ -50764,7 +50761,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="1">
@@ -50778,7 +50775,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="1">
@@ -50792,7 +50789,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="1">
@@ -50804,11 +50801,11 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B390" s="1"/>
       <c r="C390" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="1">
@@ -50824,7 +50821,7 @@
       </c>
       <c r="B391" s="1"/>
       <c r="C391" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="1">
@@ -50836,11 +50833,11 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B392" s="1"/>
       <c r="C392" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="1">
@@ -50856,7 +50853,7 @@
       </c>
       <c r="B393" s="1"/>
       <c r="C393" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="1">
@@ -50868,11 +50865,11 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B394" s="1"/>
       <c r="C394" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="1">
@@ -50888,7 +50885,7 @@
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="1">
@@ -51062,7 +51059,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="1">
@@ -51252,11 +51249,11 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D423" s="5"/>
       <c r="E423" s="1">
@@ -51268,11 +51265,11 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D424" s="5"/>
       <c r="E424" s="1">
@@ -51684,7 +51681,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D451" s="5"/>
       <c r="E451" s="1">
@@ -51810,7 +51807,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D459" s="5"/>
       <c r="E459" s="1">
@@ -51824,7 +51821,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D460" s="5"/>
       <c r="E460" s="1">
@@ -51838,7 +51835,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D461" s="5"/>
       <c r="E461" s="1">
@@ -51852,7 +51849,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D462" s="5"/>
       <c r="E462" s="1">
@@ -51866,7 +51863,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D463" s="5"/>
       <c r="E463" s="1">
@@ -51880,7 +51877,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D464" s="5"/>
       <c r="E464" s="1">
@@ -51894,7 +51891,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D465" s="5"/>
       <c r="E465" s="1">
@@ -51950,7 +51947,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D469" s="5"/>
       <c r="E469" s="1">
@@ -51964,7 +51961,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D470" s="5"/>
       <c r="E470" s="1">
@@ -52092,7 +52089,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D479" s="5"/>
       <c r="E479" s="1">
@@ -52204,7 +52201,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D486" s="5"/>
       <c r="E486" s="1">
@@ -52284,7 +52281,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D492" s="5"/>
       <c r="E492" s="1">
@@ -52306,7 +52303,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D494" s="5"/>
       <c r="E494" s="1">
@@ -52328,7 +52325,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D496" s="5"/>
       <c r="E496" s="1">
@@ -52360,7 +52357,7 @@
         <v>373</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D498" s="5"/>
       <c r="E498" s="1">
@@ -52374,7 +52371,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D499" s="5"/>
       <c r="E499" s="1">
@@ -52480,7 +52477,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D506" s="5"/>
       <c r="E506" s="1">
@@ -52496,7 +52493,7 @@
         <v>299</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D507" s="5"/>
       <c r="E507" s="1">
@@ -52510,7 +52507,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D508" s="5"/>
       <c r="E508" s="1">
@@ -52550,7 +52547,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D511" s="5"/>
       <c r="E511" s="1">
@@ -52754,14 +52751,14 @@
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D525" s="5"/>
       <c r="E525" s="1">
         <v>1</v>
       </c>
       <c r="F525" s="1">
-        <v>3980</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
@@ -52775,21 +52772,21 @@
         <v>18</v>
       </c>
       <c r="F526" s="1">
-        <v>1650</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D527" s="5"/>
       <c r="E527" s="1">
         <v>1</v>
       </c>
       <c r="F527" s="1">
-        <v>5450</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
@@ -52803,7 +52800,7 @@
         <v>3</v>
       </c>
       <c r="F528" s="1">
-        <v>8500</v>
+        <v>10370</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
@@ -52824,7 +52821,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D530" s="5"/>
       <c r="E530" s="1">
@@ -52845,21 +52842,21 @@
         <v>11</v>
       </c>
       <c r="F531" s="1">
-        <v>2310</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D532" s="5"/>
       <c r="E532" s="1">
         <v>22</v>
       </c>
       <c r="F532" s="1">
-        <v>1560</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
@@ -52980,7 +52977,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D545" s="5"/>
       <c r="E545" s="1">
@@ -53048,7 +53045,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D552" s="5"/>
       <c r="E552" s="1">
@@ -53062,7 +53059,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D553" s="5"/>
       <c r="E553" s="1">
@@ -53076,7 +53073,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D554" s="5"/>
       <c r="E554" s="1">
@@ -53098,7 +53095,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D556" s="5"/>
       <c r="E556" s="1">
@@ -53112,7 +53109,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D557" s="5"/>
       <c r="E557" s="1">
@@ -53350,7 +53347,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D583" s="5"/>
       <c r="E583" s="1"/>
@@ -53558,14 +53555,14 @@
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D600" s="5"/>
       <c r="E600" s="1">
         <v>1</v>
       </c>
       <c r="F600" s="1">
-        <v>7450</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -53698,7 +53695,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D615" s="5"/>
       <c r="E615" s="1">
@@ -53719,16 +53716,10 @@
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
-      <c r="C617" s="5" t="s">
-        <v>425</v>
-      </c>
+      <c r="C617" s="5"/>
       <c r="D617" s="5"/>
-      <c r="E617" s="1">
-        <v>1</v>
-      </c>
-      <c r="F617" s="1">
-        <v>9100</v>
-      </c>
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
@@ -53741,10 +53732,10 @@
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C619" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C619" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="D619" s="5"/>
       <c r="E619" s="1">
@@ -53760,7 +53751,7 @@
         <v>162</v>
       </c>
       <c r="C620" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D620" s="5"/>
       <c r="E620" s="1">
@@ -53773,10 +53764,10 @@
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C621" s="5" t="s">
         <v>429</v>
-      </c>
-      <c r="C621" s="5" t="s">
-        <v>430</v>
       </c>
       <c r="D621" s="5"/>
       <c r="E621" s="1">
@@ -53792,7 +53783,7 @@
         <v>184</v>
       </c>
       <c r="C622" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D622" s="5"/>
       <c r="E622" s="1">
@@ -53813,10 +53804,10 @@
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C624" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D624" s="5"/>
       <c r="E624" s="1">
@@ -53829,10 +53820,10 @@
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C625" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D625" s="5"/>
       <c r="E625" s="1">
@@ -53846,7 +53837,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D626" s="5"/>
       <c r="E626" s="1">
@@ -53859,10 +53850,10 @@
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C627" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D627" s="5"/>
       <c r="E627" s="1">
@@ -53873,10 +53864,10 @@
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C628" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="C628" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="D628" s="5"/>
       <c r="E628" s="1">
@@ -53890,7 +53881,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D629" s="5"/>
       <c r="E629" s="1">
@@ -53904,7 +53895,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D630" s="5"/>
       <c r="E630" s="1"/>
@@ -53921,10 +53912,10 @@
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C632" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="C632" s="5" t="s">
-        <v>438</v>
       </c>
       <c r="D632" s="5"/>
       <c r="E632" s="1">
@@ -53937,10 +53928,10 @@
     <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C633" s="5" t="s">
         <v>439</v>
-      </c>
-      <c r="C633" s="5" t="s">
-        <v>440</v>
       </c>
       <c r="D633" s="5"/>
       <c r="E633" s="1">
@@ -53956,7 +53947,7 @@
         <v>261</v>
       </c>
       <c r="C634" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D634" s="5"/>
       <c r="E634" s="1">
@@ -53972,7 +53963,7 @@
         <v>368</v>
       </c>
       <c r="C635" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D635" s="5"/>
       <c r="E635" s="1">
@@ -53988,7 +53979,7 @@
         <v>293</v>
       </c>
       <c r="C636" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D636" s="5"/>
       <c r="E636" s="1">
@@ -54004,7 +53995,7 @@
         <v>212</v>
       </c>
       <c r="C637" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D637" s="5"/>
       <c r="E637" s="1">
@@ -54020,7 +54011,7 @@
         <v>449</v>
       </c>
       <c r="C638" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D638" s="5"/>
       <c r="E638" s="1">
@@ -54034,7 +54025,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D639" s="5"/>
       <c r="E639" s="1">
@@ -54048,7 +54039,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D640" s="5"/>
       <c r="E640" s="1">
@@ -54064,7 +54055,7 @@
         <v>466</v>
       </c>
       <c r="C641" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D641" s="5"/>
       <c r="E641" s="1">
@@ -54078,7 +54069,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D642" s="5"/>
       <c r="E642" s="1">
@@ -54092,7 +54083,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D643" s="5"/>
       <c r="E643" s="1">
@@ -54108,7 +54099,7 @@
         <v>419</v>
       </c>
       <c r="C644" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D644" s="5"/>
       <c r="E644" s="1">
@@ -54124,7 +54115,7 @@
         <v>420</v>
       </c>
       <c r="C645" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D645" s="5"/>
       <c r="E645" s="1">
@@ -54138,7 +54129,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D646" s="5"/>
       <c r="E646" s="1">
@@ -54152,7 +54143,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D647" s="5"/>
       <c r="E647" s="1">
@@ -54166,7 +54157,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D648" s="5"/>
       <c r="E648" s="1">
@@ -54180,7 +54171,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D649" s="5"/>
       <c r="E649" s="1">
@@ -54194,7 +54185,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D650" s="5"/>
       <c r="E650" s="1">
@@ -54208,7 +54199,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D651" s="5"/>
       <c r="E651" s="1">
@@ -54232,7 +54223,7 @@
         <v>407</v>
       </c>
       <c r="C653" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D653" s="5"/>
       <c r="E653" s="1">
@@ -54248,7 +54239,7 @@
         <v>373</v>
       </c>
       <c r="C654" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D654" s="5"/>
       <c r="E654" s="1">
@@ -54264,7 +54255,7 @@
         <v>407</v>
       </c>
       <c r="C655" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D655" s="5"/>
       <c r="E655" s="1">
@@ -54280,7 +54271,7 @@
         <v>407</v>
       </c>
       <c r="C656" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D656" s="5"/>
       <c r="E656" s="1">
@@ -54296,7 +54287,7 @@
         <v>407</v>
       </c>
       <c r="C657" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D657" s="5"/>
       <c r="E657" s="1">
@@ -54310,7 +54301,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D658" s="5"/>
       <c r="E658" s="1">
@@ -54364,7 +54355,7 @@
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D664" s="5"/>
       <c r="E664" s="1">
@@ -54410,7 +54401,7 @@
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D669" s="5"/>
       <c r="E669" s="1">
@@ -54424,7 +54415,7 @@
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D670" s="5"/>
       <c r="E670" s="1"/>
@@ -54436,7 +54427,7 @@
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D671" s="5"/>
       <c r="E671" s="1"/>
@@ -54464,56 +54455,56 @@
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D674" s="5"/>
       <c r="E674" s="1">
         <v>1</v>
       </c>
       <c r="F674" s="1">
-        <v>8450</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D675" s="5"/>
       <c r="E675" s="1">
         <v>1</v>
       </c>
       <c r="F675" s="1">
-        <v>10650</v>
+        <v>11700</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D676" s="5"/>
       <c r="E676" s="1">
         <v>1</v>
       </c>
       <c r="F676" s="1">
-        <v>12890</v>
+        <v>16290</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D677" s="5"/>
       <c r="E677" s="1">
         <v>2</v>
       </c>
       <c r="F677" s="1">
-        <v>14790</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -54528,35 +54519,35 @@
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D679" s="5"/>
       <c r="E679" s="1">
         <v>3</v>
       </c>
       <c r="F679" s="1">
-        <v>18900</v>
+        <v>22900</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D680" s="5"/>
       <c r="E680" s="1">
         <v>1</v>
       </c>
       <c r="F680" s="1">
-        <v>3540</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D681" s="5"/>
       <c r="E681" s="1">
@@ -54570,7 +54561,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D682" s="5"/>
       <c r="E682" s="1">
@@ -54584,7 +54575,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D683" s="5"/>
       <c r="E683" s="1">
@@ -54598,7 +54589,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D684" s="5"/>
       <c r="E684" s="1">
@@ -54612,7 +54603,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D685" s="5"/>
       <c r="E685" s="1">
@@ -54626,7 +54617,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D686" s="5"/>
       <c r="E686" s="1">
@@ -54640,7 +54631,7 @@
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D687" s="5"/>
       <c r="E687" s="1">
@@ -54654,7 +54645,7 @@
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D688" s="5"/>
       <c r="E688" s="1">
@@ -54667,10 +54658,10 @@
     <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C689" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D689" s="5"/>
       <c r="E689" s="1">
@@ -54683,10 +54674,10 @@
     <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C690" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D690" s="5"/>
       <c r="E690" s="1">
@@ -54700,7 +54691,7 @@
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D691" s="5"/>
       <c r="E691" s="1">
@@ -54714,7 +54705,7 @@
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D692" s="5"/>
       <c r="E692" s="1">
@@ -54728,7 +54719,7 @@
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D693" s="5"/>
       <c r="E693" s="1">
@@ -54742,7 +54733,7 @@
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D694" s="5"/>
       <c r="E694" s="1">
@@ -54756,7 +54747,7 @@
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D695" s="5"/>
       <c r="E695" s="1">
@@ -54770,7 +54761,7 @@
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D696" s="5"/>
       <c r="E696" s="1">
@@ -54784,7 +54775,7 @@
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D697" s="5"/>
       <c r="E697" s="1">
@@ -54798,7 +54789,7 @@
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D698" s="5"/>
       <c r="E698" s="1">
@@ -54812,7 +54803,7 @@
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D699" s="5"/>
       <c r="E699" s="1">
@@ -54826,7 +54817,7 @@
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D700" s="5"/>
       <c r="E700" s="1">
@@ -54838,7 +54829,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D701" s="5"/>
       <c r="E701" s="1">
@@ -54852,7 +54843,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D702" s="5"/>
       <c r="E702" s="1">
@@ -54866,7 +54857,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D703" s="5"/>
       <c r="E703" s="1">
@@ -54879,7 +54870,7 @@
     <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="C704" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D704" s="5"/>
       <c r="E704" s="1">
@@ -54927,7 +54918,7 @@
     <row r="710" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="C710" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D710" s="5"/>
       <c r="E710" s="1">
@@ -54940,7 +54931,7 @@
     <row r="711" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="C711" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D711" s="5"/>
       <c r="E711" s="1">
@@ -55016,7 +55007,7 @@
     <row r="721" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B721" s="1"/>
       <c r="C721" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D721" s="5"/>
       <c r="E721" s="1">
@@ -55028,10 +55019,10 @@
     </row>
     <row r="722" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B722" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C722" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="C722" s="5" t="s">
-        <v>472</v>
       </c>
       <c r="D722" s="5"/>
       <c r="E722" s="1">
@@ -55044,7 +55035,7 @@
     <row r="723" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B723" s="1"/>
       <c r="C723" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D723" s="5"/>
       <c r="E723" s="1">
@@ -55057,7 +55048,7 @@
     <row r="724" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B724" s="1"/>
       <c r="C724" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D724" s="5"/>
       <c r="E724" s="1">
@@ -55070,7 +55061,7 @@
     <row r="725" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B725" s="1"/>
       <c r="C725" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D725" s="5"/>
       <c r="E725" s="1">
@@ -55083,7 +55074,7 @@
     <row r="726" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B726" s="1"/>
       <c r="C726" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D726" s="5"/>
       <c r="E726" s="1">
@@ -55095,10 +55086,10 @@
     </row>
     <row r="727" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B727" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C727" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="C727" s="5" t="s">
-        <v>475</v>
       </c>
       <c r="D727" s="5"/>
       <c r="E727" s="1">
@@ -55125,7 +55116,7 @@
     <row r="730" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B730" s="1"/>
       <c r="C730" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D730" s="5"/>
       <c r="E730" s="1">
@@ -55138,7 +55129,7 @@
     <row r="731" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B731" s="1"/>
       <c r="C731" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D731" s="5"/>
       <c r="E731" s="1">
@@ -55151,7 +55142,7 @@
     <row r="732" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B732" s="1"/>
       <c r="C732" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D732" s="5"/>
       <c r="E732" s="1">
@@ -55164,7 +55155,7 @@
     <row r="733" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B733" s="1"/>
       <c r="C733" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D733" s="5"/>
       <c r="E733" s="1">
@@ -55177,7 +55168,7 @@
     <row r="734" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B734" s="1"/>
       <c r="C734" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D734" s="5"/>
       <c r="E734" s="1">
@@ -55190,7 +55181,7 @@
     <row r="735" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B735" s="1"/>
       <c r="C735" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D735" s="5"/>
       <c r="E735" s="1">
@@ -55209,13 +55200,13 @@
     </row>
     <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C737" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D737" s="5"/>
       <c r="E737" s="1">
@@ -55227,13 +55218,13 @@
     </row>
     <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C738" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D738" s="5"/>
       <c r="E738" s="1">
@@ -55245,13 +55236,13 @@
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C739" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D739" s="5"/>
       <c r="E739" s="1">
@@ -55263,13 +55254,13 @@
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B740" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C740" s="5" t="s">
         <v>896</v>
-      </c>
-      <c r="C740" s="5" t="s">
-        <v>897</v>
       </c>
       <c r="D740" s="5"/>
       <c r="E740" s="1">
@@ -55281,13 +55272,13 @@
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B741" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C741" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D741" s="5"/>
       <c r="E741" s="1">
@@ -55299,13 +55290,13 @@
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C742" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D742" s="5"/>
       <c r="E742" s="1">
@@ -55317,13 +55308,13 @@
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
+        <v>899</v>
+      </c>
+      <c r="B743" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B743" s="1" t="s">
-        <v>901</v>
-      </c>
       <c r="C743" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D743" s="5"/>
       <c r="E743" s="1">
@@ -55335,10 +55326,10 @@
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B744" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C744" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="C744" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="D744" s="5"/>
       <c r="E744" s="1">
@@ -55350,10 +55341,10 @@
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B745" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C745" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D745" s="5"/>
       <c r="E745" s="1">
@@ -55366,7 +55357,7 @@
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B746" s="1"/>
       <c r="C746" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D746" s="5"/>
       <c r="E746" s="1">
@@ -55433,7 +55424,7 @@
         <v>247</v>
       </c>
       <c r="C754" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D754" s="5"/>
       <c r="E754" s="1">
@@ -55449,7 +55440,7 @@
       </c>
       <c r="B755" s="1"/>
       <c r="C755" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D755" s="5"/>
       <c r="E755" s="1"/>
@@ -55463,7 +55454,7 @@
       </c>
       <c r="B756" s="1"/>
       <c r="C756" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D756" s="5"/>
       <c r="E756" s="1"/>
@@ -55477,7 +55468,7 @@
       </c>
       <c r="B757" s="1"/>
       <c r="C757" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D757" s="5"/>
       <c r="E757" s="1">
@@ -55493,7 +55484,7 @@
       </c>
       <c r="B758" s="1"/>
       <c r="C758" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D758" s="5"/>
       <c r="E758" s="1">
@@ -55508,7 +55499,7 @@
         <v>239</v>
       </c>
       <c r="C759" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D759" s="5"/>
       <c r="E759">
@@ -55521,7 +55512,7 @@
     <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B760" s="1"/>
       <c r="C760" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D760" s="5"/>
       <c r="E760" s="1">
@@ -55537,7 +55528,7 @@
       </c>
       <c r="B761" s="1"/>
       <c r="C761" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D761" s="5"/>
       <c r="E761" s="1">
@@ -55552,7 +55543,7 @@
         <v>247</v>
       </c>
       <c r="C762" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D762" s="5"/>
       <c r="E762" s="1">
@@ -55568,7 +55559,7 @@
       </c>
       <c r="B763" s="1"/>
       <c r="C763" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D763" s="5"/>
       <c r="E763" s="1">
@@ -55581,7 +55572,7 @@
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B764" s="1"/>
       <c r="C764" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D764" s="5"/>
       <c r="E764" s="1">
@@ -55594,7 +55585,7 @@
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B765" s="1"/>
       <c r="C765" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D765" s="5"/>
       <c r="E765" s="1">
@@ -55610,7 +55601,7 @@
       </c>
       <c r="B766" s="1"/>
       <c r="C766" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D766" s="5"/>
       <c r="E766" s="1">
@@ -55623,7 +55614,7 @@
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B767" s="1"/>
       <c r="C767" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D767" s="5"/>
       <c r="E767" s="1">
@@ -55638,7 +55629,7 @@
         <v>34</v>
       </c>
       <c r="C768" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D768" s="5"/>
       <c r="E768" s="1">
@@ -55653,10 +55644,10 @@
         <v>194</v>
       </c>
       <c r="B769" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C769" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="C769" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="D769" s="5"/>
       <c r="E769" s="1">
@@ -55671,10 +55662,10 @@
         <v>167</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C770" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D770" s="5"/>
       <c r="E770" s="1">
@@ -55686,13 +55677,13 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C771" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D771" s="5"/>
       <c r="E771" s="1">
@@ -55704,13 +55695,13 @@
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
+        <v>493</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C772" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C772" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="D772" s="5"/>
       <c r="E772" s="1">
@@ -55722,11 +55713,11 @@
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B773" s="1"/>
       <c r="C773" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D773" s="5"/>
       <c r="E773" s="1">
@@ -55738,13 +55729,13 @@
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
+        <v>495</v>
+      </c>
+      <c r="B774" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C774" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C774" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="D774" s="5"/>
       <c r="E774" s="1">
@@ -55756,10 +55747,10 @@
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B775" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C775" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D775" s="5"/>
       <c r="E775" s="1">
@@ -55771,13 +55762,13 @@
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
+        <v>498</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C776" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C776" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="D776" s="5"/>
       <c r="E776" s="1">
@@ -55789,13 +55780,13 @@
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
+        <v>500</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C777" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C777" s="5" t="s">
-        <v>502</v>
       </c>
       <c r="D777" s="5"/>
       <c r="E777" s="1">
@@ -55814,13 +55805,13 @@
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B779" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C779" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D779" s="5"/>
       <c r="E779" s="1">
@@ -55832,13 +55823,13 @@
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
+        <v>504</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C780" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C780" s="5" t="s">
-        <v>506</v>
       </c>
       <c r="D780" s="5"/>
       <c r="E780" s="1">
@@ -55850,13 +55841,13 @@
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
+        <v>506</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C781" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C781" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D781" s="5"/>
       <c r="E781" s="1">
@@ -55868,13 +55859,13 @@
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
+        <v>508</v>
+      </c>
+      <c r="B782" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B782" s="1" t="s">
+      <c r="C782" s="5" t="s">
         <v>510</v>
-      </c>
-      <c r="C782" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="D782" s="5"/>
       <c r="E782" s="1">
@@ -55893,10 +55884,10 @@
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B784" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C784" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="C784" s="5" t="s">
-        <v>513</v>
       </c>
       <c r="D784" s="5"/>
       <c r="E784" s="1">
@@ -55906,10 +55897,10 @@
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B785" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C785" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D785" s="5"/>
       <c r="E785" s="1">
@@ -55925,7 +55916,7 @@
         <v>40</v>
       </c>
       <c r="C786" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D786" s="5"/>
       <c r="E786" s="1">
@@ -55943,7 +55934,7 @@
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B788" s="1"/>
       <c r="C788" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D788" s="5"/>
       <c r="E788" s="1">
@@ -55953,10 +55944,10 @@
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B789" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C789" s="5" t="s">
         <v>516</v>
-      </c>
-      <c r="C789" s="5" t="s">
-        <v>517</v>
       </c>
       <c r="D789" s="5"/>
       <c r="E789" s="1">
@@ -55967,7 +55958,7 @@
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B790" s="1"/>
       <c r="C790" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D790" s="5"/>
       <c r="E790" s="1">
@@ -55978,7 +55969,7 @@
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B791" s="1"/>
       <c r="C791" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D791" s="5"/>
       <c r="E791" s="1">
@@ -55991,7 +55982,7 @@
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B792" s="1"/>
       <c r="C792" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D792" s="5"/>
       <c r="E792" s="1">
@@ -56004,7 +55995,7 @@
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B793" s="1"/>
       <c r="C793" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D793" s="5"/>
       <c r="E793" s="1">
@@ -56017,7 +56008,7 @@
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B794" s="1"/>
       <c r="C794" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D794" s="5"/>
       <c r="E794" s="1">
@@ -56030,7 +56021,7 @@
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B795" s="1"/>
       <c r="C795" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D795" s="5"/>
       <c r="E795" s="1">
@@ -56043,18 +56034,20 @@
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B796" s="1"/>
       <c r="C796" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D796" s="5"/>
       <c r="E796" s="1">
         <v>1</v>
       </c>
-      <c r="F796" s="1"/>
+      <c r="F796" s="1">
+        <v>6400</v>
+      </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B797" s="1"/>
       <c r="C797" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D797" s="5"/>
       <c r="E797" s="1">
@@ -56465,7 +56458,7 @@
       </c>
       <c r="B836" s="1"/>
       <c r="C836" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D836" s="5"/>
       <c r="E836" s="1">
@@ -56536,7 +56529,7 @@
         <v>36</v>
       </c>
       <c r="C845" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D845" s="5"/>
       <c r="E845" s="1">
@@ -56549,7 +56542,7 @@
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B846" s="1"/>
       <c r="C846" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D846" s="5"/>
       <c r="E846" s="1">
@@ -56561,10 +56554,10 @@
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B847" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C847" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D847" s="5"/>
       <c r="E847" s="1">
@@ -56576,10 +56569,10 @@
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B848" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C848" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D848" s="5"/>
       <c r="E848" s="1">
@@ -56591,10 +56584,10 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B849" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C849" s="5" t="s">
         <v>906</v>
-      </c>
-      <c r="C849" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="D849" s="5"/>
       <c r="E849" s="1">
@@ -56606,10 +56599,10 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B850" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C850" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D850" s="5"/>
       <c r="E850" s="1">
@@ -56622,7 +56615,7 @@
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B851" s="1"/>
       <c r="C851" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D851" s="5"/>
       <c r="E851" s="1">
@@ -56635,7 +56628,7 @@
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B852" s="1"/>
       <c r="C852" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D852" s="5"/>
       <c r="E852" s="1">
@@ -56655,7 +56648,7 @@
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B854" s="1"/>
       <c r="C854" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D854" s="5"/>
       <c r="E854" s="1">
@@ -56670,10 +56663,10 @@
         <v>739</v>
       </c>
       <c r="B855" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C855" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D855" s="5"/>
       <c r="E855" s="1">
@@ -56688,10 +56681,10 @@
         <v>276</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C856" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D856" s="5"/>
       <c r="E856" s="1">
@@ -56701,7 +56694,7 @@
         <v>29000</v>
       </c>
       <c r="G856" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
@@ -56742,7 +56735,7 @@
     <row r="862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B862" s="1"/>
       <c r="C862" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D862" s="5"/>
       <c r="E862" s="1">
@@ -56788,7 +56781,7 @@
     <row r="868" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B868" s="1"/>
       <c r="C868" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D868" s="5"/>
       <c r="E868" s="1">
@@ -56801,7 +56794,7 @@
     <row r="869" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B869" s="1"/>
       <c r="C869" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D869" s="5"/>
       <c r="E869" s="1">
@@ -57066,7 +57059,7 @@
     <row r="906" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B906" s="1"/>
       <c r="C906" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D906" s="5"/>
       <c r="E906" s="1">
@@ -57079,7 +57072,7 @@
     <row r="907" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B907" s="1"/>
       <c r="C907" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D907" s="5"/>
       <c r="E907" s="1">
@@ -57092,7 +57085,7 @@
     <row r="908" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B908" s="1"/>
       <c r="C908" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D908" s="5"/>
       <c r="E908" s="1">
@@ -57105,7 +57098,7 @@
     <row r="909" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B909" s="1"/>
       <c r="C909" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D909" s="5"/>
       <c r="E909" s="1">
@@ -57125,7 +57118,7 @@
     <row r="911" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B911" s="1"/>
       <c r="C911" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D911" s="5"/>
       <c r="E911" s="1">
@@ -57140,7 +57133,7 @@
         <v>106</v>
       </c>
       <c r="C912" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D912" s="5"/>
       <c r="E912" s="1">
@@ -57155,7 +57148,7 @@
         <v>592</v>
       </c>
       <c r="C913" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D913" s="5"/>
       <c r="E913" s="1">
@@ -57168,7 +57161,7 @@
     <row r="914" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B914" s="1"/>
       <c r="C914" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D914" s="5"/>
       <c r="E914" s="1">
@@ -57181,7 +57174,7 @@
     <row r="915" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B915" s="1"/>
       <c r="C915" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D915" s="5"/>
       <c r="E915" s="1">
@@ -57196,7 +57189,7 @@
         <v>7184</v>
       </c>
       <c r="C916" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D916" s="5"/>
       <c r="E916" s="1">
@@ -57211,7 +57204,7 @@
         <v>104</v>
       </c>
       <c r="C917" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D917" s="5"/>
       <c r="E917" s="1">
@@ -57231,7 +57224,7 @@
     <row r="919" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B919" s="1"/>
       <c r="C919" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D919" s="5"/>
       <c r="E919" s="1">
@@ -57260,7 +57253,7 @@
         <v>16</v>
       </c>
       <c r="C922" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D922" s="5"/>
       <c r="E922" s="1">
@@ -57275,7 +57268,7 @@
         <v>27</v>
       </c>
       <c r="C923" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D923" s="5"/>
       <c r="E923" s="1">
@@ -57309,7 +57302,7 @@
     <row r="927" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B927" s="1"/>
       <c r="C927" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D927" s="5"/>
       <c r="E927" s="1">
@@ -57336,7 +57329,7 @@
     <row r="930" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B930" s="1"/>
       <c r="C930" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D930" s="5"/>
       <c r="E930" s="1">
@@ -57349,7 +57342,7 @@
     <row r="931" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B931" s="1"/>
       <c r="C931" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D931" s="5"/>
       <c r="E931" s="1">
@@ -57369,7 +57362,7 @@
     <row r="933" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B933" s="1"/>
       <c r="C933" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D933" s="5"/>
       <c r="E933" s="1">
@@ -57385,7 +57378,7 @@
     <row r="935" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B935" s="1"/>
       <c r="C935" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D935" s="5"/>
       <c r="E935" s="1">
@@ -57398,7 +57391,7 @@
     <row r="936" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B936" s="1"/>
       <c r="C936" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D936" s="5"/>
       <c r="E936" s="1">
@@ -57411,7 +57404,7 @@
     <row r="937" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B937" s="1"/>
       <c r="C937" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D937" s="5"/>
       <c r="E937" s="1">
@@ -57515,7 +57508,7 @@
     <row r="951" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B951" s="1"/>
       <c r="C951" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D951" s="5"/>
       <c r="E951" s="1">
@@ -57549,7 +57542,7 @@
     <row r="955" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B955" s="1"/>
       <c r="C955" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D955" s="5"/>
       <c r="E955" s="1">
@@ -57562,7 +57555,7 @@
     <row r="956" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B956" s="1"/>
       <c r="C956" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D956" s="5"/>
       <c r="E956" s="1">
@@ -57575,7 +57568,7 @@
     <row r="957" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B957" s="1"/>
       <c r="C957" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D957" s="5"/>
       <c r="E957" s="1">
@@ -57595,7 +57588,7 @@
     <row r="959" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B959" s="1"/>
       <c r="C959" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D959" s="5"/>
       <c r="E959" s="1">
@@ -57622,7 +57615,7 @@
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B962" s="1"/>
       <c r="C962" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D962" s="5"/>
       <c r="E962" s="1">
@@ -57635,7 +57628,7 @@
     <row r="963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B963" s="1"/>
       <c r="C963" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D963" s="5"/>
       <c r="E963" s="1">
@@ -57664,7 +57657,7 @@
         <v>184</v>
       </c>
       <c r="C966" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D966" s="5"/>
       <c r="E966" s="1">
@@ -57676,10 +57669,10 @@
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B967" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C967" s="5" t="s">
         <v>546</v>
-      </c>
-      <c r="C967" s="5" t="s">
-        <v>547</v>
       </c>
       <c r="D967" s="5"/>
       <c r="E967" s="1">
@@ -57691,13 +57684,13 @@
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B968" s="1" t="s">
         <v>247</v>
       </c>
       <c r="C968" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D968" s="5"/>
       <c r="E968" s="1">
@@ -57710,59 +57703,59 @@
     <row r="969" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B969" s="1"/>
       <c r="C969" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D969" s="5"/>
       <c r="E969">
         <v>3</v>
       </c>
       <c r="F969" s="1">
-        <v>17400</v>
+        <v>21090</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B970" s="1"/>
       <c r="C970" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D970" s="5"/>
       <c r="E970">
         <v>6</v>
       </c>
       <c r="F970" s="1">
-        <v>19300</v>
+        <v>23400</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B971" s="1"/>
       <c r="C971" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D971" s="5"/>
       <c r="E971">
         <v>2</v>
       </c>
       <c r="F971" s="1">
-        <v>17400</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B972" s="1"/>
       <c r="C972" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D972" s="5"/>
       <c r="E972">
         <v>2</v>
       </c>
       <c r="F972" s="1">
-        <v>12000</v>
+        <v>14570</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B973" s="1"/>
       <c r="C973" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D973" s="5"/>
       <c r="F973" s="1"/>
@@ -57770,7 +57763,7 @@
     <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B974" s="1"/>
       <c r="C974" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D974" s="5"/>
       <c r="F974" s="1"/>
@@ -57784,14 +57777,14 @@
     <row r="976" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B976" s="1"/>
       <c r="C976" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D976" s="5"/>
       <c r="E976">
         <v>4</v>
       </c>
       <c r="F976" s="1">
-        <v>17850</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="977" spans="2:6" x14ac:dyDescent="0.25">
@@ -57905,118 +57898,118 @@
     <row r="995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B995" s="1"/>
       <c r="C995" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D995" s="5"/>
       <c r="E995">
         <v>1</v>
       </c>
       <c r="F995" s="1">
-        <v>26270</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B996" s="1"/>
       <c r="C996" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D996" s="5"/>
       <c r="E996">
         <v>10</v>
       </c>
       <c r="F996" s="1">
-        <v>34700</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B997" s="1"/>
       <c r="C997" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D997" s="5"/>
       <c r="E997">
         <v>20</v>
       </c>
       <c r="F997" s="1">
-        <v>34100</v>
+        <v>41300</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B998" s="1"/>
       <c r="C998" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D998" s="5"/>
       <c r="E998">
         <v>10</v>
       </c>
       <c r="F998" s="1">
-        <v>42600</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B999" s="1"/>
       <c r="C999" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D999" s="5"/>
       <c r="E999">
         <v>9</v>
       </c>
       <c r="F999" s="1">
-        <v>47000</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1000" s="1"/>
       <c r="C1000" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D1000" s="5"/>
       <c r="E1000">
         <v>7</v>
       </c>
       <c r="F1000" s="1">
-        <v>16000</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1001" s="1"/>
       <c r="C1001" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D1001" s="5"/>
       <c r="E1001">
         <v>9</v>
       </c>
       <c r="F1001" s="1">
-        <v>8360</v>
+        <v>10200</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1002" s="1"/>
       <c r="C1002" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D1002" s="5"/>
       <c r="E1002">
         <v>11</v>
       </c>
       <c r="F1002" s="1">
-        <v>10950</v>
+        <v>13300</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1003" s="1"/>
       <c r="C1003" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D1003" s="5"/>
       <c r="E1003">
         <v>2</v>
       </c>
       <c r="F1003" s="1">
-        <v>10300</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
@@ -58027,7 +58020,7 @@
         <v>41</v>
       </c>
       <c r="C1004" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D1004" s="5"/>
       <c r="F1004" s="1">
@@ -58037,7 +58030,7 @@
     <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1005" s="1"/>
       <c r="C1005" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D1005" s="5"/>
       <c r="E1005">
@@ -58050,7 +58043,7 @@
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1006" s="1"/>
       <c r="C1006" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D1006" s="5"/>
       <c r="E1006">
@@ -58063,7 +58056,7 @@
     <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1007" s="1"/>
       <c r="C1007" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D1007" s="5"/>
       <c r="E1007">
@@ -58111,13 +58104,13 @@
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1010" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B1010" s="1" t="s">
+      <c r="C1010" s="5" t="s">
         <v>568</v>
-      </c>
-      <c r="C1010" s="5" t="s">
-        <v>569</v>
       </c>
       <c r="D1010" s="5"/>
       <c r="E1010">
@@ -58129,13 +58122,13 @@
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B1011" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C1011" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1011" s="5"/>
       <c r="E1011">
@@ -58147,13 +58140,13 @@
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1012" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B1012" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="C1012" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D1012" s="5"/>
       <c r="E1012">
@@ -58166,7 +58159,7 @@
     <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1013" s="1"/>
       <c r="C1013" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D1013" s="5"/>
       <c r="E1013">
@@ -58179,7 +58172,7 @@
     <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1014" s="1"/>
       <c r="C1014" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D1014" s="5"/>
       <c r="E1014">
@@ -58191,10 +58184,10 @@
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1015" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1015" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="C1015" s="5" t="s">
-        <v>576</v>
       </c>
       <c r="D1015" s="5"/>
       <c r="E1015">
@@ -58207,7 +58200,7 @@
     <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1016" s="1"/>
       <c r="C1016" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D1016" s="5"/>
       <c r="E1016">
@@ -58226,7 +58219,7 @@
     <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1018" s="1"/>
       <c r="C1018" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D1018" s="5"/>
       <c r="E1018">
@@ -58239,7 +58232,7 @@
     <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1019" s="1"/>
       <c r="C1019" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D1019" s="5"/>
       <c r="E1019">
@@ -58252,7 +58245,7 @@
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1020" s="1"/>
       <c r="C1020" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D1020" s="5"/>
       <c r="E1020">
@@ -58265,7 +58258,7 @@
     <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1021" s="1"/>
       <c r="C1021" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D1021" s="5"/>
       <c r="E1021">
@@ -58284,7 +58277,7 @@
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1023" s="1"/>
       <c r="C1023" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D1023" s="5"/>
       <c r="E1023">
@@ -58297,7 +58290,7 @@
     <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1024" s="1"/>
       <c r="C1024" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D1024" s="5"/>
       <c r="E1024">
@@ -58310,7 +58303,7 @@
     <row r="1025" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1025" s="1"/>
       <c r="C1025" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D1025" s="5"/>
       <c r="E1025">
@@ -58325,7 +58318,7 @@
         <v>593</v>
       </c>
       <c r="C1026" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D1026" s="5"/>
       <c r="E1026">
@@ -58340,7 +58333,7 @@
         <v>591</v>
       </c>
       <c r="C1027" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D1027" s="5"/>
       <c r="E1027">
@@ -58353,7 +58346,7 @@
     <row r="1028" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1028" s="1"/>
       <c r="C1028" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D1028" s="5"/>
       <c r="E1028">
@@ -58368,7 +58361,7 @@
         <v>103</v>
       </c>
       <c r="C1029" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D1029" s="5"/>
       <c r="E1029">
@@ -58381,7 +58374,7 @@
     <row r="1030" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1030" s="1"/>
       <c r="C1030" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D1030" s="5"/>
       <c r="E1030">
@@ -58394,7 +58387,7 @@
     <row r="1031" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1031" s="1"/>
       <c r="C1031" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D1031" s="5"/>
       <c r="E1031">
@@ -58407,7 +58400,7 @@
     <row r="1032" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1032" s="1"/>
       <c r="C1032" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D1032" s="5"/>
       <c r="E1032">
@@ -58422,7 +58415,7 @@
         <v>594</v>
       </c>
       <c r="C1033" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D1033" s="5"/>
       <c r="E1033">
@@ -58437,7 +58430,7 @@
         <v>595</v>
       </c>
       <c r="C1034" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D1034" s="5"/>
       <c r="E1034">
@@ -58486,7 +58479,7 @@
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1041" s="1"/>
       <c r="C1041" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D1041" s="5"/>
       <c r="E1041">
@@ -58528,7 +58521,7 @@
         <v>184</v>
       </c>
       <c r="C1046" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D1046" s="5"/>
       <c r="E1046">
@@ -58591,7 +58584,7 @@
         <v>9316</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C1050" s="5" t="s">
         <v>158</v>
@@ -58610,7 +58603,7 @@
       </c>
       <c r="B1051" s="1"/>
       <c r="C1051" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D1051" s="5"/>
       <c r="E1051">
@@ -58733,7 +58726,7 @@
         <v>9004</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1058" s="5" t="s">
         <v>15</v>
@@ -58751,7 +58744,7 @@
         <v>9004</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C1059" s="5" t="s">
         <v>15</v>
@@ -58787,7 +58780,7 @@
         <v>9100</v>
       </c>
       <c r="B1061" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1061" s="5" t="s">
         <v>15</v>
@@ -58859,7 +58852,7 @@
         <v>9106</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C1065" s="5" t="s">
         <v>15</v>
@@ -58877,7 +58870,7 @@
         <v>9110</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C1066" s="5" t="s">
         <v>15</v>
@@ -58931,7 +58924,7 @@
         <v>9125</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C1069" s="5" t="s">
         <v>15</v>
@@ -58949,7 +58942,7 @@
         <v>9135</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C1070" s="5" t="s">
         <v>15</v>
@@ -58971,33 +58964,33 @@
     <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1072" s="1"/>
       <c r="C1072" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D1072" s="5"/>
       <c r="E1072">
         <v>2</v>
       </c>
       <c r="F1072" s="1">
-        <v>6850</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="1073" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1073" s="1"/>
       <c r="C1073" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D1073" s="5"/>
       <c r="E1073">
         <v>2</v>
       </c>
       <c r="F1073" s="1">
-        <v>5400</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="1074" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1074" s="1"/>
       <c r="C1074" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D1074" s="5"/>
       <c r="E1074">
@@ -59016,40 +59009,40 @@
     <row r="1076" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1076" s="1"/>
       <c r="C1076" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D1076" s="5"/>
       <c r="E1076">
         <v>6</v>
       </c>
       <c r="F1076" s="1">
-        <v>6000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="1077" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1077" s="1"/>
       <c r="C1077" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1077" s="5"/>
       <c r="E1077">
         <v>2</v>
       </c>
       <c r="F1077" s="1">
-        <v>5100</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="1078" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1078" s="1"/>
       <c r="C1078" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D1078" s="5"/>
       <c r="E1078">
         <v>2</v>
       </c>
       <c r="F1078" s="1">
-        <v>6980</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="1079" spans="2:6" x14ac:dyDescent="0.25">
@@ -59061,105 +59054,105 @@
     <row r="1080" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1080" s="1"/>
       <c r="C1080" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D1080" s="5"/>
       <c r="E1080">
         <v>16</v>
       </c>
       <c r="F1080" s="1">
-        <v>4580</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="1081" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1081" s="1"/>
       <c r="C1081" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D1081" s="5"/>
       <c r="E1081">
         <v>2</v>
       </c>
       <c r="F1081" s="1">
-        <v>6500</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="1082" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1082" s="1"/>
       <c r="C1082" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D1082" s="5"/>
       <c r="E1082">
         <v>3</v>
       </c>
       <c r="F1082" s="1">
-        <v>8450</v>
+        <v>12400</v>
       </c>
     </row>
     <row r="1083" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1083" s="1"/>
       <c r="C1083" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D1083" s="5"/>
       <c r="E1083">
         <v>2</v>
       </c>
       <c r="F1083" s="1">
-        <v>3150</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="1084" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1084" s="1"/>
       <c r="C1084" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D1084" s="5"/>
       <c r="E1084">
         <v>4</v>
       </c>
       <c r="F1084" s="1">
-        <v>3800</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="1085" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1085" s="1"/>
       <c r="C1085" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D1085" s="5"/>
       <c r="E1085">
         <v>10</v>
       </c>
       <c r="F1085" s="1">
-        <v>3200</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="1086" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1086" s="1"/>
       <c r="C1086" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D1086" s="5"/>
       <c r="E1086">
         <v>15</v>
       </c>
       <c r="F1086" s="1">
-        <v>4200</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1087" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1087" s="1"/>
       <c r="C1087" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D1087" s="5"/>
       <c r="E1087">
         <v>2</v>
       </c>
       <c r="F1087" s="1">
-        <v>3750</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="1088" spans="2:6" x14ac:dyDescent="0.25">
@@ -59171,7 +59164,7 @@
     <row r="1089" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1089" s="1"/>
       <c r="C1089" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D1089" s="5"/>
       <c r="E1089">
@@ -59189,10 +59182,10 @@
     </row>
     <row r="1091" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1091" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1091" s="5" t="s">
         <v>606</v>
-      </c>
-      <c r="C1091" s="5" t="s">
-        <v>607</v>
       </c>
       <c r="D1091" s="5"/>
       <c r="E1091">
@@ -59270,10 +59263,10 @@
     </row>
     <row r="1103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1103" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1103" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="C1103" s="5" t="s">
-        <v>609</v>
       </c>
       <c r="D1103" s="5"/>
       <c r="E1103">
@@ -59309,10 +59302,10 @@
     </row>
     <row r="1108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1108" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C1108" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D1108" s="5"/>
       <c r="E1108">
@@ -59337,40 +59330,40 @@
     <row r="1111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1111" s="1"/>
       <c r="C1111" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D1111" s="5"/>
       <c r="E1111">
         <v>1</v>
       </c>
       <c r="F1111" s="1">
-        <v>13400</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="1112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1112" s="1"/>
       <c r="C1112" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D1112" s="5"/>
       <c r="E1112">
         <v>1</v>
       </c>
       <c r="F1112" s="1">
-        <v>66300</v>
+        <v>80300</v>
       </c>
     </row>
     <row r="1113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1113" s="1"/>
       <c r="C1113" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D1113" s="5"/>
       <c r="E1113">
         <v>1</v>
       </c>
       <c r="F1113" s="1">
-        <v>66300</v>
+        <v>74000</v>
       </c>
     </row>
     <row r="1114" spans="2:6" x14ac:dyDescent="0.25">
@@ -59382,20 +59375,20 @@
     <row r="1115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1115" s="1"/>
       <c r="C1115" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D1115" s="5"/>
       <c r="E1115">
         <v>1</v>
       </c>
       <c r="F1115" s="1">
-        <v>9790</v>
+        <v>11900</v>
       </c>
     </row>
     <row r="1116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1116" s="1"/>
       <c r="C1116" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D1116" s="5"/>
       <c r="E1116">
@@ -59408,33 +59401,33 @@
     <row r="1117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1117" s="1"/>
       <c r="C1117" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D1117" s="5"/>
       <c r="E1117">
         <v>3</v>
       </c>
       <c r="F1117" s="1">
-        <v>4700</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1118" s="1"/>
       <c r="C1118" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D1118" s="5"/>
       <c r="E1118">
         <v>12</v>
       </c>
       <c r="F1118" s="1">
-        <v>10480</v>
+        <v>12700</v>
       </c>
     </row>
     <row r="1119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1119" s="1"/>
       <c r="C1119" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D1119" s="5"/>
       <c r="E1119">
@@ -59447,20 +59440,20 @@
     <row r="1120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1120" s="1"/>
       <c r="C1120" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D1120" s="5"/>
       <c r="E1120">
         <v>1</v>
       </c>
       <c r="F1120" s="1">
-        <v>25680</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1121" s="1"/>
       <c r="C1121" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D1121" s="5"/>
       <c r="E1121">
@@ -59473,7 +59466,7 @@
     <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1122" s="1"/>
       <c r="C1122" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D1122" s="5"/>
       <c r="E1122">
@@ -59486,7 +59479,7 @@
     <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1123" s="1"/>
       <c r="C1123" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D1123" s="5"/>
       <c r="E1123">
@@ -59499,7 +59492,7 @@
     <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1124" s="1"/>
       <c r="C1124" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D1124" s="5"/>
       <c r="E1124">
@@ -59512,7 +59505,7 @@
     <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1125" s="1"/>
       <c r="C1125" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D1125" s="5"/>
       <c r="E1125">
@@ -59525,7 +59518,7 @@
     <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1126" s="1"/>
       <c r="C1126" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D1126" s="5"/>
       <c r="E1126">
@@ -59538,7 +59531,7 @@
     <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1127" s="1"/>
       <c r="C1127" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D1127" s="5"/>
       <c r="E1127">
@@ -59551,7 +59544,7 @@
     <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1128" s="1"/>
       <c r="C1128" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D1128" s="5"/>
       <c r="E1128">
@@ -59564,7 +59557,7 @@
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1129" s="1"/>
       <c r="C1129" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D1129" s="5"/>
       <c r="E1129">
@@ -59577,7 +59570,7 @@
     <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1130" s="1"/>
       <c r="C1130" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D1130" s="5"/>
       <c r="E1130">
@@ -59590,7 +59583,7 @@
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1131" s="1"/>
       <c r="C1131" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D1131" s="5"/>
       <c r="E1131">
@@ -59602,11 +59595,11 @@
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B1132" s="1"/>
       <c r="C1132" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D1132" s="5"/>
       <c r="E1132">
@@ -59618,11 +59611,11 @@
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1133" s="1"/>
       <c r="C1133" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D1133" s="5"/>
       <c r="E1133">
@@ -59638,7 +59631,7 @@
       </c>
       <c r="B1134" s="1"/>
       <c r="C1134" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D1134" s="5"/>
       <c r="E1134">
@@ -59654,7 +59647,7 @@
       </c>
       <c r="B1135" s="1"/>
       <c r="C1135" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D1135" s="5"/>
       <c r="E1135">
@@ -59673,7 +59666,7 @@
     <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1137" s="1"/>
       <c r="C1137" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D1137" s="5"/>
       <c r="E1137">
@@ -59685,11 +59678,11 @@
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B1138" s="1"/>
       <c r="C1138" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D1138" s="5"/>
       <c r="E1138">
@@ -59705,7 +59698,7 @@
       </c>
       <c r="B1139" s="1"/>
       <c r="C1139" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D1139" s="5"/>
       <c r="E1139">
@@ -59730,7 +59723,7 @@
     <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1142" s="1"/>
       <c r="C1142" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D1142" s="5"/>
       <c r="E1142">
@@ -59749,7 +59742,7 @@
     <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1144" s="1"/>
       <c r="C1144" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D1144" s="5"/>
       <c r="E1144">
@@ -59768,7 +59761,7 @@
     <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1146" s="1"/>
       <c r="C1146" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D1146" s="5"/>
       <c r="E1146">
@@ -59781,7 +59774,7 @@
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1147" s="1"/>
       <c r="C1147" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D1147" s="5"/>
       <c r="E1147">
@@ -59794,7 +59787,7 @@
     <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1148" s="1"/>
       <c r="C1148" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D1148" s="5"/>
       <c r="E1148">
@@ -59837,7 +59830,7 @@
     <row r="1154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1154" s="1"/>
       <c r="C1154" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D1154" s="5"/>
       <c r="E1154">
@@ -59850,7 +59843,7 @@
     <row r="1155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1155" s="1"/>
       <c r="C1155" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D1155" s="5"/>
       <c r="E1155">
@@ -59863,7 +59856,7 @@
     <row r="1156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1156" s="1"/>
       <c r="C1156" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D1156" s="5"/>
       <c r="E1156">
@@ -59882,7 +59875,7 @@
     <row r="1158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1158" s="1"/>
       <c r="C1158" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D1158" s="5"/>
       <c r="E1158">
@@ -59895,7 +59888,7 @@
     <row r="1159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1159" s="1"/>
       <c r="C1159" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D1159" s="5"/>
       <c r="E1159">
@@ -59920,7 +59913,7 @@
     <row r="1162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1162" s="1"/>
       <c r="C1162" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D1162" s="5"/>
       <c r="E1162">
@@ -59939,7 +59932,7 @@
     <row r="1164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1164" s="1"/>
       <c r="C1164" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D1164" s="5"/>
       <c r="E1164">
@@ -60030,7 +60023,7 @@
     <row r="1178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1178" s="1"/>
       <c r="C1178" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D1178" s="5"/>
       <c r="E1178">
@@ -60041,7 +60034,7 @@
     <row r="1179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1179" s="1"/>
       <c r="C1179" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D1179" s="5"/>
       <c r="E1179">
@@ -60054,7 +60047,7 @@
     <row r="1180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1180" s="1"/>
       <c r="C1180" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D1180" s="5"/>
       <c r="E1180">
@@ -60067,7 +60060,7 @@
     <row r="1181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1181" s="1"/>
       <c r="C1181" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D1181" s="5"/>
       <c r="E1181">
@@ -60080,7 +60073,7 @@
     <row r="1182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1182" s="1"/>
       <c r="C1182" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D1182" s="5"/>
       <c r="E1182">
@@ -60099,7 +60092,7 @@
     <row r="1184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1184" s="1"/>
       <c r="C1184" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D1184" s="5"/>
       <c r="E1184">
@@ -60112,7 +60105,7 @@
     <row r="1185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1185" s="1"/>
       <c r="C1185" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D1185" s="5"/>
       <c r="E1185">
@@ -60125,7 +60118,7 @@
     <row r="1186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1186" s="1"/>
       <c r="C1186" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D1186" s="5"/>
       <c r="E1186">
@@ -60138,7 +60131,7 @@
     <row r="1187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1187" s="1"/>
       <c r="C1187" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D1187" s="5"/>
       <c r="E1187">
@@ -60151,7 +60144,7 @@
     <row r="1188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1188" s="1"/>
       <c r="C1188" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D1188" s="5"/>
       <c r="E1188">
@@ -60232,7 +60225,7 @@
         <v>299</v>
       </c>
       <c r="C1200" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1200" s="5"/>
       <c r="E1200">
@@ -60247,7 +60240,7 @@
         <v>395</v>
       </c>
       <c r="C1201" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1201" s="5"/>
       <c r="E1201">
@@ -60266,7 +60259,7 @@
     <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1203" s="1"/>
       <c r="C1203" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D1203" s="5"/>
       <c r="E1203">
@@ -60276,7 +60269,7 @@
         <v>980</v>
       </c>
       <c r="G1203" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
@@ -60288,7 +60281,7 @@
     <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1205" s="1"/>
       <c r="C1205" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D1205" s="5"/>
       <c r="E1205">
@@ -60301,7 +60294,7 @@
     <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1206" s="1"/>
       <c r="C1206" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D1206" s="5"/>
       <c r="E1206">
@@ -60332,7 +60325,7 @@
     <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1210" s="1"/>
       <c r="C1210" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D1210" s="5"/>
       <c r="E1210">
@@ -60357,7 +60350,7 @@
     <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1213" s="1"/>
       <c r="C1213" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1213" s="5"/>
       <c r="E1213">
@@ -60382,7 +60375,7 @@
     <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1216" s="1"/>
       <c r="C1216" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D1216" s="5"/>
       <c r="E1216">
@@ -60395,7 +60388,7 @@
     <row r="1217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1217" s="1"/>
       <c r="C1217" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D1217" s="5"/>
       <c r="E1217">
@@ -60432,7 +60425,7 @@
     <row r="1222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1222" s="1"/>
       <c r="C1222" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D1222" s="5"/>
       <c r="E1222">
@@ -60487,7 +60480,7 @@
     <row r="1230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1230" s="1"/>
       <c r="C1230" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D1230" s="5"/>
       <c r="E1230">
@@ -60511,13 +60504,13 @@
     </row>
     <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1233" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C1233" s="5" t="s">
         <v>650</v>
-      </c>
-      <c r="B1233" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="C1233" s="5" t="s">
-        <v>651</v>
       </c>
       <c r="D1233" s="5"/>
       <c r="E1233">
@@ -60578,7 +60571,7 @@
     <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1242" s="1"/>
       <c r="C1242" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D1242" s="5"/>
       <c r="E1242">
@@ -60597,7 +60590,7 @@
     <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1244" s="1"/>
       <c r="C1244" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D1244" s="5"/>
       <c r="E1244">
@@ -60615,7 +60608,7 @@
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1246" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C1246" s="5"/>
       <c r="D1246" s="5"/>
@@ -60630,7 +60623,7 @@
     <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1248" s="1"/>
       <c r="C1248" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D1248" s="5"/>
       <c r="E1248">
@@ -60642,10 +60635,10 @@
     </row>
     <row r="1249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1249" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1249" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="C1249" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="D1249" s="5"/>
       <c r="E1249">
@@ -60657,10 +60650,10 @@
     </row>
     <row r="1250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1250" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C1250" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="C1250" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="D1250" s="5"/>
       <c r="E1250">
@@ -60679,7 +60672,7 @@
     <row r="1252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1252" s="1"/>
       <c r="C1252" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D1252" s="5"/>
       <c r="E1252">
@@ -60722,7 +60715,7 @@
     <row r="1258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1258" s="1"/>
       <c r="C1258" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D1258" s="5"/>
       <c r="E1258">
@@ -60735,7 +60728,7 @@
     <row r="1259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1259" s="1"/>
       <c r="C1259" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D1259" s="5"/>
       <c r="E1259">
@@ -60754,7 +60747,7 @@
     <row r="1261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1261" s="1"/>
       <c r="C1261" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1261" s="5"/>
       <c r="E1261">
@@ -60773,7 +60766,7 @@
     <row r="1263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1263" s="1"/>
       <c r="C1263" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1263" s="5"/>
       <c r="E1263">
@@ -60792,7 +60785,7 @@
     <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1265" s="1"/>
       <c r="C1265" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D1265" s="5"/>
       <c r="E1265">
@@ -60823,7 +60816,7 @@
     <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1269" s="1"/>
       <c r="C1269" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D1269" s="5"/>
       <c r="E1269">
@@ -60842,7 +60835,7 @@
     <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1271" s="1"/>
       <c r="C1271" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D1271" s="5"/>
       <c r="E1271">
@@ -60861,7 +60854,7 @@
     <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1273" s="1"/>
       <c r="C1273" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D1273" s="5"/>
       <c r="E1273">
@@ -60874,7 +60867,7 @@
     <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1274" s="1"/>
       <c r="C1274" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D1274" s="5"/>
       <c r="E1274">
@@ -60887,7 +60880,7 @@
     <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1275" s="1"/>
       <c r="C1275" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D1275" s="5"/>
       <c r="E1275">
@@ -60900,7 +60893,7 @@
     <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1276" s="1"/>
       <c r="C1276" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D1276" s="5"/>
       <c r="E1276">
@@ -60913,7 +60906,7 @@
     <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1277" s="1"/>
       <c r="C1277" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D1277" s="5"/>
       <c r="E1277">
@@ -60928,10 +60921,10 @@
         <v>521</v>
       </c>
       <c r="B1278" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C1278" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="C1278" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="D1278" s="5"/>
       <c r="E1278">
@@ -60946,10 +60939,10 @@
         <v>551</v>
       </c>
       <c r="B1279" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C1279" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="C1279" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="D1279" s="5"/>
       <c r="E1279">
@@ -60967,10 +60960,10 @@
     </row>
     <row r="1281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1281" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1281" s="5" t="s">
         <v>676</v>
-      </c>
-      <c r="C1281" s="5" t="s">
-        <v>677</v>
       </c>
       <c r="D1281" s="5"/>
       <c r="E1281">
@@ -60983,7 +60976,7 @@
         <v>414</v>
       </c>
       <c r="C1282" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1282" s="5"/>
       <c r="E1282">
@@ -60993,10 +60986,10 @@
     </row>
     <row r="1283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1283" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C1283" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D1283" s="5"/>
       <c r="E1283">
@@ -61006,10 +60999,10 @@
     </row>
     <row r="1284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1284" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C1284" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D1284" s="5"/>
       <c r="E1284">
@@ -61020,7 +61013,7 @@
     <row r="1285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1285" s="1"/>
       <c r="C1285" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D1285" s="5"/>
       <c r="E1285">
@@ -61030,10 +61023,10 @@
     </row>
     <row r="1286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1286" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C1286" s="5" t="s">
         <v>681</v>
-      </c>
-      <c r="C1286" s="5" t="s">
-        <v>682</v>
       </c>
       <c r="D1286" s="5"/>
       <c r="E1286">
@@ -61055,10 +61048,10 @@
     </row>
     <row r="1289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1289" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C1289" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D1289" s="5"/>
       <c r="E1289">
@@ -61087,7 +61080,7 @@
     <row r="1293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1293" s="1"/>
       <c r="C1293" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D1293" s="5"/>
       <c r="E1293">
@@ -61100,7 +61093,7 @@
     <row r="1294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1294" s="1"/>
       <c r="C1294" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D1294" s="5"/>
       <c r="E1294">
@@ -61113,7 +61106,7 @@
     <row r="1295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1295" s="1"/>
       <c r="C1295" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D1295" s="5"/>
       <c r="E1295">
@@ -61132,7 +61125,7 @@
     <row r="1297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1297" s="1"/>
       <c r="C1297" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D1297" s="5"/>
       <c r="E1297">
@@ -61145,7 +61138,7 @@
     <row r="1298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1298" s="1"/>
       <c r="C1298" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D1298" s="5"/>
       <c r="E1298">
@@ -61158,7 +61151,7 @@
     <row r="1299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1299" s="1"/>
       <c r="C1299" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D1299" s="5"/>
       <c r="E1299">
@@ -61171,7 +61164,7 @@
     <row r="1300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1300" s="1"/>
       <c r="C1300" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D1300" s="5"/>
       <c r="E1300">
@@ -61184,7 +61177,7 @@
     <row r="1301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1301" s="1"/>
       <c r="C1301" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D1301" s="5"/>
       <c r="E1301">
@@ -61203,7 +61196,7 @@
     <row r="1303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1303" s="1"/>
       <c r="C1303" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D1303" s="5"/>
       <c r="E1303">
@@ -61216,7 +61209,7 @@
     <row r="1304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1304" s="1"/>
       <c r="C1304" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D1304" s="5"/>
       <c r="E1304">
@@ -61229,7 +61222,7 @@
     <row r="1305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1305" s="1"/>
       <c r="C1305" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D1305" s="5"/>
       <c r="E1305">
@@ -61254,7 +61247,7 @@
     <row r="1308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1308" s="1"/>
       <c r="C1308" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1308" s="5"/>
       <c r="E1308">
@@ -61305,7 +61298,7 @@
         <v>310</v>
       </c>
       <c r="C1315" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1315" s="5"/>
       <c r="E1315">
@@ -61328,7 +61321,7 @@
         <v>44481</v>
       </c>
       <c r="C1317" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D1317" s="5"/>
       <c r="E1317">
@@ -61343,7 +61336,7 @@
         <v>5040</v>
       </c>
       <c r="C1318" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1318" s="5"/>
       <c r="E1318">
@@ -61358,7 +61351,7 @@
         <v>113</v>
       </c>
       <c r="C1319" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D1319" s="5"/>
       <c r="E1319">
@@ -61373,10 +61366,10 @@
         <v>820</v>
       </c>
       <c r="B1320" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1320" s="5" t="s">
         <v>700</v>
-      </c>
-      <c r="C1320" s="5" t="s">
-        <v>701</v>
       </c>
       <c r="D1320" s="5"/>
       <c r="E1320">
@@ -61392,7 +61385,7 @@
       </c>
       <c r="B1321" s="1"/>
       <c r="C1321" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1321" s="5"/>
       <c r="E1321">
@@ -61408,7 +61401,7 @@
       </c>
       <c r="B1322" s="1"/>
       <c r="C1322" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D1322" s="5"/>
       <c r="E1322">
@@ -61424,7 +61417,7 @@
       </c>
       <c r="B1323" s="1"/>
       <c r="C1323" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D1323" s="5"/>
       <c r="E1323">
@@ -61440,7 +61433,7 @@
       </c>
       <c r="B1324" s="1"/>
       <c r="C1324" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1324" s="5"/>
       <c r="E1324">
@@ -61456,7 +61449,7 @@
       </c>
       <c r="B1325" s="1"/>
       <c r="C1325" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D1325" s="5"/>
       <c r="E1325">
@@ -61472,7 +61465,7 @@
       </c>
       <c r="B1326" s="1"/>
       <c r="C1326" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D1326" s="5"/>
       <c r="E1326">
@@ -61485,7 +61478,7 @@
     <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1327" s="1"/>
       <c r="C1327" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D1327" s="5"/>
       <c r="E1327">
@@ -61581,7 +61574,7 @@
         <v>415</v>
       </c>
       <c r="C1336" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D1336" s="5"/>
       <c r="E1336">
@@ -61592,7 +61585,7 @@
     <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1337" s="1"/>
       <c r="C1337" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D1337" s="5"/>
       <c r="E1337">
@@ -61605,7 +61598,7 @@
     <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1338" s="1"/>
       <c r="C1338" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D1338" s="5"/>
       <c r="E1338">
@@ -61618,7 +61611,7 @@
     <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1339" s="1"/>
       <c r="C1339" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D1339" s="5"/>
       <c r="E1339">
@@ -61637,7 +61630,7 @@
     <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1341" s="1"/>
       <c r="C1341" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D1341" s="5"/>
       <c r="E1341">
@@ -61650,7 +61643,7 @@
     <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1342" s="1"/>
       <c r="C1342" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D1342" s="5"/>
       <c r="E1342">
@@ -61663,7 +61656,7 @@
     <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1343" s="1"/>
       <c r="C1343" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D1343" s="5"/>
       <c r="E1343">
@@ -61676,7 +61669,7 @@
     <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1344" s="1"/>
       <c r="C1344" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D1344" s="5"/>
       <c r="E1344">
@@ -61689,7 +61682,7 @@
     <row r="1345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1345" s="1"/>
       <c r="C1345" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D1345" s="5"/>
       <c r="E1345">
@@ -61702,7 +61695,7 @@
     <row r="1346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1346" s="1"/>
       <c r="C1346" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D1346" s="5"/>
       <c r="E1346">
@@ -61715,7 +61708,7 @@
     <row r="1347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1347" s="1"/>
       <c r="C1347" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D1347" s="5"/>
       <c r="E1347">
@@ -61728,7 +61721,7 @@
     <row r="1348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1348" s="1"/>
       <c r="C1348" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D1348" s="5"/>
       <c r="E1348">
@@ -61741,7 +61734,7 @@
     <row r="1349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1349" s="1"/>
       <c r="C1349" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D1349" s="5"/>
       <c r="E1349">
@@ -61766,7 +61759,7 @@
     <row r="1352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1352" s="1"/>
       <c r="C1352" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D1352" s="5"/>
       <c r="E1352">
@@ -61785,7 +61778,7 @@
     <row r="1354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1354" s="1"/>
       <c r="C1354" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D1354" s="5"/>
       <c r="E1354">
@@ -61804,10 +61797,10 @@
     </row>
     <row r="1356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1356" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1356" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="C1356" s="5" t="s">
-        <v>714</v>
       </c>
       <c r="D1356" s="5"/>
       <c r="E1356" s="1">
@@ -61820,7 +61813,7 @@
     <row r="1357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1357" s="1"/>
       <c r="C1357" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D1357" s="5"/>
       <c r="E1357" s="1">
@@ -61875,7 +61868,7 @@
     <row r="1364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1364" s="1"/>
       <c r="C1364" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D1364" s="5"/>
       <c r="E1364" s="1">
@@ -61888,7 +61881,7 @@
     <row r="1365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1365" s="1"/>
       <c r="C1365" s="5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D1365" s="5"/>
       <c r="E1365" s="1">
@@ -61901,7 +61894,7 @@
     <row r="1366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1366" s="1"/>
       <c r="C1366" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D1366" s="5"/>
       <c r="E1366" s="1">
@@ -61914,7 +61907,7 @@
     <row r="1367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1367" s="1"/>
       <c r="C1367" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D1367" s="5"/>
       <c r="E1367" s="1">
@@ -61927,7 +61920,7 @@
     <row r="1368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1368" s="1"/>
       <c r="C1368" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D1368" s="5"/>
       <c r="E1368" s="1">
@@ -61940,7 +61933,7 @@
     <row r="1369" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1369" s="1"/>
       <c r="C1369" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D1369" s="5"/>
       <c r="E1369" s="1">
@@ -61951,7 +61944,7 @@
     <row r="1370" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1370" s="1"/>
       <c r="C1370" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D1370" s="5"/>
       <c r="E1370" s="1">
@@ -61964,7 +61957,7 @@
     <row r="1371" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1371" s="1"/>
       <c r="C1371" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D1371" s="5"/>
       <c r="E1371" s="1">
@@ -61977,7 +61970,7 @@
     <row r="1372" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1372" s="1"/>
       <c r="C1372" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D1372" s="5"/>
       <c r="E1372" s="1">
@@ -61990,7 +61983,7 @@
     <row r="1373" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1373" s="1"/>
       <c r="C1373" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1373" s="5"/>
       <c r="E1373" s="1">
@@ -62003,7 +61996,7 @@
     <row r="1374" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1374" s="1"/>
       <c r="C1374" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D1374" s="5"/>
       <c r="E1374" s="1">
@@ -62014,7 +62007,7 @@
     <row r="1375" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1375" s="1"/>
       <c r="C1375" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D1375" s="5"/>
       <c r="E1375" s="1">
@@ -62027,7 +62020,7 @@
     <row r="1376" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1376" s="1"/>
       <c r="C1376" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D1376" s="5"/>
       <c r="E1376" s="1">
@@ -62040,7 +62033,7 @@
     <row r="1377" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1377" s="1"/>
       <c r="C1377" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D1377" s="5"/>
       <c r="E1377" s="1">
@@ -62053,7 +62046,7 @@
     <row r="1378" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1378" s="1"/>
       <c r="C1378" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D1378" s="5"/>
       <c r="E1378" s="1">
@@ -62066,7 +62059,7 @@
     <row r="1379" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1379" s="1"/>
       <c r="C1379" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D1379" s="5"/>
       <c r="E1379" s="1">
@@ -62079,7 +62072,7 @@
     <row r="1380" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1380" s="1"/>
       <c r="C1380" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D1380" s="5"/>
       <c r="E1380" s="1">
@@ -62092,7 +62085,7 @@
     <row r="1381" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1381" s="1"/>
       <c r="C1381" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D1381" s="5"/>
       <c r="E1381" s="1">
@@ -62105,7 +62098,7 @@
     <row r="1382" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1382" s="1"/>
       <c r="C1382" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D1382" s="5"/>
       <c r="E1382" s="1">
@@ -62118,7 +62111,7 @@
     <row r="1383" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1383" s="1"/>
       <c r="C1383" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1383" s="5"/>
       <c r="E1383" s="1">
@@ -62131,7 +62124,7 @@
     <row r="1384" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1384" s="1"/>
       <c r="C1384" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D1384" s="5"/>
       <c r="E1384" s="1">
@@ -62144,7 +62137,7 @@
     <row r="1385" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1385" s="1"/>
       <c r="C1385" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D1385" s="5"/>
       <c r="E1385" s="1">
@@ -62157,7 +62150,7 @@
     <row r="1386" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1386" s="1"/>
       <c r="C1386" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D1386" s="5"/>
       <c r="E1386" s="1">
@@ -62170,7 +62163,7 @@
     <row r="1387" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1387" s="1"/>
       <c r="C1387" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D1387" s="5"/>
       <c r="E1387" s="1">
@@ -62183,7 +62176,7 @@
     <row r="1388" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1388" s="1"/>
       <c r="C1388" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1388" s="5"/>
       <c r="E1388" s="1">
@@ -62196,7 +62189,7 @@
     <row r="1389" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1389" s="1"/>
       <c r="C1389" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D1389" s="5"/>
       <c r="E1389" s="1">
@@ -62209,7 +62202,7 @@
     <row r="1390" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1390" s="1"/>
       <c r="C1390" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D1390" s="5"/>
       <c r="E1390" s="1">
@@ -62220,7 +62213,7 @@
     <row r="1391" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1391" s="1"/>
       <c r="C1391" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D1391" s="5"/>
       <c r="E1391" s="1">
@@ -62231,7 +62224,7 @@
     <row r="1392" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1392" s="1"/>
       <c r="C1392" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D1392" s="5"/>
       <c r="E1392" s="1">
@@ -62242,7 +62235,7 @@
     <row r="1393" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1393" s="1"/>
       <c r="C1393" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D1393" s="5"/>
       <c r="E1393" s="1">
@@ -62255,7 +62248,7 @@
     <row r="1394" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1394" s="1"/>
       <c r="C1394" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D1394" s="5"/>
       <c r="E1394" s="1">
@@ -62268,7 +62261,7 @@
     <row r="1395" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1395" s="1"/>
       <c r="C1395" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D1395" s="5"/>
       <c r="E1395" s="1">
@@ -62281,7 +62274,7 @@
     <row r="1396" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1396" s="1"/>
       <c r="C1396" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D1396" s="5"/>
       <c r="E1396" s="1">
@@ -62294,7 +62287,7 @@
     <row r="1397" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1397" s="1"/>
       <c r="C1397" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D1397" s="5"/>
       <c r="E1397" s="1">
@@ -62307,7 +62300,7 @@
     <row r="1398" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1398" s="1"/>
       <c r="C1398" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1398" s="5"/>
       <c r="E1398" s="1">
@@ -62327,7 +62320,7 @@
     <row r="1400" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1400" s="1"/>
       <c r="C1400" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D1400" s="5"/>
       <c r="E1400" s="1">
@@ -62340,7 +62333,7 @@
     <row r="1401" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1401" s="1"/>
       <c r="C1401" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D1401" s="5"/>
       <c r="E1401" s="1">
@@ -62353,7 +62346,7 @@
     <row r="1402" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1402" s="1"/>
       <c r="C1402" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D1402" s="5"/>
       <c r="E1402" s="1">
@@ -62366,7 +62359,7 @@
     <row r="1403" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1403" s="1"/>
       <c r="C1403" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D1403" s="5"/>
       <c r="E1403" s="1">
@@ -62378,10 +62371,10 @@
     </row>
     <row r="1404" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1404" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1404" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="C1404" s="5" t="s">
-        <v>739</v>
       </c>
       <c r="D1404" s="5"/>
       <c r="E1404" s="1">
@@ -62396,7 +62389,7 @@
         <v>299</v>
       </c>
       <c r="C1405" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D1405" s="5"/>
       <c r="E1405" s="1">
@@ -62408,10 +62401,10 @@
     </row>
     <row r="1406" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1406" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1406" s="5" t="s">
         <v>741</v>
-      </c>
-      <c r="C1406" s="5" t="s">
-        <v>742</v>
       </c>
       <c r="D1406" s="5"/>
       <c r="E1406" s="1">
@@ -62452,7 +62445,7 @@
     <row r="1411" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1411" s="1"/>
       <c r="C1411" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D1411" s="5"/>
       <c r="E1411" s="1">
@@ -62467,7 +62460,7 @@
         <v>299</v>
       </c>
       <c r="C1412" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D1412" s="5"/>
       <c r="E1412" s="1">
@@ -62480,7 +62473,7 @@
     <row r="1413" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1413" s="1"/>
       <c r="C1413" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D1413" s="5"/>
       <c r="E1413" s="1">
@@ -62493,7 +62486,7 @@
     <row r="1414" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1414" s="1"/>
       <c r="C1414" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D1414" s="5"/>
       <c r="E1414" s="1">
@@ -62506,7 +62499,7 @@
     <row r="1415" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1415" s="1"/>
       <c r="C1415" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D1415" s="5"/>
       <c r="E1415" s="1">
@@ -62526,7 +62519,7 @@
     <row r="1417" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1417" s="1"/>
       <c r="C1417" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D1417" s="5"/>
       <c r="E1417" s="1">
@@ -62546,7 +62539,7 @@
     <row r="1419" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1419" s="1"/>
       <c r="C1419" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D1419" s="5"/>
       <c r="E1419" s="1">
@@ -62559,7 +62552,7 @@
     <row r="1420" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1420" s="1"/>
       <c r="C1420" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D1420" s="5"/>
       <c r="E1420" s="1">
@@ -62572,7 +62565,7 @@
     <row r="1421" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1421" s="1"/>
       <c r="C1421" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D1421" s="5"/>
       <c r="E1421" s="1">
@@ -62592,7 +62585,7 @@
     <row r="1423" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1423" s="1"/>
       <c r="C1423" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1423" s="5"/>
       <c r="E1423" s="1">
@@ -62605,7 +62598,7 @@
     <row r="1424" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1424" s="1"/>
       <c r="C1424" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D1424" s="5"/>
       <c r="E1424" s="1">
@@ -62618,7 +62611,7 @@
     <row r="1425" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1425" s="1"/>
       <c r="C1425" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D1425" s="5"/>
       <c r="E1425" s="1">
@@ -62638,7 +62631,7 @@
     <row r="1427" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1427" s="1"/>
       <c r="C1427" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D1427" s="5"/>
       <c r="E1427">
@@ -62651,7 +62644,7 @@
     <row r="1428" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1428" s="1"/>
       <c r="C1428" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D1428" s="5"/>
       <c r="E1428">
@@ -62670,7 +62663,7 @@
     <row r="1430" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1430" s="1"/>
       <c r="C1430" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D1430" s="5"/>
       <c r="F1430" s="1"/>
@@ -62678,7 +62671,7 @@
     <row r="1431" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1431" s="1"/>
       <c r="C1431" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D1431" s="5"/>
       <c r="F1431" s="1"/>
@@ -62686,7 +62679,7 @@
     <row r="1432" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1432" s="1"/>
       <c r="C1432" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D1432" s="5"/>
       <c r="E1432">
@@ -62699,7 +62692,7 @@
     <row r="1433" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1433" s="1"/>
       <c r="C1433" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D1433" s="5"/>
       <c r="E1433">
@@ -62724,7 +62717,7 @@
     <row r="1436" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1436" s="1"/>
       <c r="C1436" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D1436" s="5"/>
       <c r="F1436" s="1">

--- a/tienda-libre-backend/excel-files/tienda-libre.xlsx
+++ b/tienda-libre-backend/excel-files/tienda-libre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\TiendaLibre\tienda-libre-backend\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE6FC85-40F1-4A2C-A33E-0C16490C6092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CED36F-21D8-452F-ADFE-0745CB294886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11010,7 +11010,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3600</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>4200</c:v>
@@ -21412,7 +21412,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3600</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>4200</c:v>
@@ -31814,7 +31814,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3600</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="167">
                   <c:v>4200</c:v>
@@ -41904,7 +41904,7 @@
                   <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3600</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="142">
                   <c:v>4200</c:v>
@@ -44823,8 +44823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J2436"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A136" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A170" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47728,7 +47728,7 @@
         <v>7</v>
       </c>
       <c r="F185" s="1">
-        <v>3600</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
